--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -32057,7 +32057,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>4402274</v>
+        <v>4402276</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32069,49 +32069,49 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G355" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I355">
         <v>1</v>
       </c>
       <c r="J355" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K355">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L355">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M355">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N355">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O355">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P355">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q355">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R355">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S355">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T355">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U355">
         <v>1.9</v>
@@ -32120,25 +32120,25 @@
         <v>1.95</v>
       </c>
       <c r="W355">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X355">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA355">
+        <v>-1</v>
+      </c>
+      <c r="AB355">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB355">
-        <v>-1</v>
-      </c>
       <c r="AC355">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32146,7 +32146,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>4402278</v>
+        <v>4402275</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32158,73 +32158,73 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G356" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H356">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J356" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K356">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L356">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M356">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N356">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="O356">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P356">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q356">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R356">
+        <v>1.925</v>
+      </c>
+      <c r="S356">
+        <v>1.875</v>
+      </c>
+      <c r="T356">
+        <v>2.25</v>
+      </c>
+      <c r="U356">
+        <v>2</v>
+      </c>
+      <c r="V356">
         <v>1.8</v>
       </c>
-      <c r="S356">
-        <v>2.05</v>
-      </c>
-      <c r="T356">
-        <v>2.75</v>
-      </c>
-      <c r="U356">
-        <v>1.975</v>
-      </c>
-      <c r="V356">
-        <v>1.875</v>
-      </c>
       <c r="W356">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X356">
         <v>-1</v>
       </c>
       <c r="Y356">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z356">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA356">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB356">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC356">
         <v>-1</v>
@@ -32324,7 +32324,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>4402275</v>
+        <v>4402274</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32336,76 +32336,76 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F358" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G358" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J358" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K358">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="L358">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M358">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N358">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O358">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P358">
+        <v>3.6</v>
+      </c>
+      <c r="Q358">
+        <v>-0.5</v>
+      </c>
+      <c r="R358">
+        <v>1.95</v>
+      </c>
+      <c r="S358">
+        <v>1.9</v>
+      </c>
+      <c r="T358">
         <v>2.5</v>
       </c>
-      <c r="Q358">
-        <v>0</v>
-      </c>
-      <c r="R358">
-        <v>1.925</v>
-      </c>
-      <c r="S358">
-        <v>1.875</v>
-      </c>
-      <c r="T358">
-        <v>2.25</v>
-      </c>
       <c r="U358">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V358">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W358">
         <v>-1</v>
       </c>
       <c r="X358">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y358">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z358">
         <v>-1</v>
       </c>
       <c r="AA358">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB358">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC358">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32413,7 +32413,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>4402276</v>
+        <v>4402278</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32425,58 +32425,58 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F359" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G359" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H359">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J359" t="s">
         <v>55</v>
       </c>
       <c r="K359">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L359">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M359">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="N359">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="O359">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P359">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="Q359">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R359">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S359">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T359">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U359">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V359">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W359">
-        <v>0.25</v>
+        <v>0.55</v>
       </c>
       <c r="X359">
         <v>-1</v>
@@ -32485,13 +32485,13 @@
         <v>-1</v>
       </c>
       <c r="Z359">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA359">
         <v>-1</v>
       </c>
       <c r="AB359">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC359">
         <v>-1</v>
@@ -74955,7 +74955,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C837" t="s">
         <v>28</v>
@@ -74967,76 +74967,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F837" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G837" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I837">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J837" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K837">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L837">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M837">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N837">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O837">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P837">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q837">
         <v>-0.75</v>
       </c>
       <c r="R837">
+        <v>2.05</v>
+      </c>
+      <c r="S837">
         <v>1.8</v>
       </c>
-      <c r="S837">
-        <v>2.05</v>
-      </c>
       <c r="T837">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U837">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V837">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W837">
         <v>-1</v>
       </c>
       <c r="X837">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y837">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z837">
         <v>-1</v>
       </c>
       <c r="AA837">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB837">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC837">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="838" spans="1:29">
@@ -75044,7 +75044,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>7013886</v>
+        <v>7013885</v>
       </c>
       <c r="C838" t="s">
         <v>28</v>
@@ -75056,55 +75056,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F838" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G838" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H838">
         <v>0</v>
       </c>
       <c r="I838">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J838" t="s">
         <v>53</v>
       </c>
       <c r="K838">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L838">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M838">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N838">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O838">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P838">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q838">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R838">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S838">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T838">
         <v>2</v>
       </c>
       <c r="U838">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V838">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W838">
         <v>-1</v>
@@ -75113,19 +75113,19 @@
         <v>-1</v>
       </c>
       <c r="Y838">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z838">
         <v>-1</v>
       </c>
       <c r="AA838">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB838">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC838">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="839" spans="1:29">
@@ -75133,7 +75133,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C839" t="s">
         <v>28</v>
@@ -75145,55 +75145,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F839" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G839" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H839">
         <v>0</v>
       </c>
       <c r="I839">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J839" t="s">
         <v>53</v>
       </c>
       <c r="K839">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L839">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M839">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N839">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O839">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P839">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q839">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R839">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S839">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T839">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U839">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V839">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W839">
         <v>-1</v>
@@ -75202,19 +75202,19 @@
         <v>-1</v>
       </c>
       <c r="Y839">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z839">
         <v>-1</v>
       </c>
       <c r="AA839">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB839">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC839">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="840" spans="1:29">
@@ -75222,7 +75222,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>7013885</v>
+        <v>7013409</v>
       </c>
       <c r="C840" t="s">
         <v>28</v>
@@ -75234,76 +75234,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F840" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G840" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I840">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J840" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K840">
+        <v>1.666</v>
+      </c>
+      <c r="L840">
+        <v>3.9</v>
+      </c>
+      <c r="M840">
+        <v>4.5</v>
+      </c>
+      <c r="N840">
+        <v>1.615</v>
+      </c>
+      <c r="O840">
+        <v>4</v>
+      </c>
+      <c r="P840">
+        <v>4.75</v>
+      </c>
+      <c r="Q840">
+        <v>-0.75</v>
+      </c>
+      <c r="R840">
+        <v>1.8</v>
+      </c>
+      <c r="S840">
+        <v>2.05</v>
+      </c>
+      <c r="T840">
+        <v>2.75</v>
+      </c>
+      <c r="U840">
+        <v>1.95</v>
+      </c>
+      <c r="V840">
+        <v>1.9</v>
+      </c>
+      <c r="W840">
+        <v>-1</v>
+      </c>
+      <c r="X840">
         <v>3</v>
       </c>
-      <c r="L840">
-        <v>3</v>
-      </c>
-      <c r="M840">
-        <v>2.4</v>
-      </c>
-      <c r="N840">
-        <v>2.9</v>
-      </c>
-      <c r="O840">
-        <v>2.75</v>
-      </c>
-      <c r="P840">
-        <v>2.6</v>
-      </c>
-      <c r="Q840">
-        <v>0</v>
-      </c>
-      <c r="R840">
-        <v>2.025</v>
-      </c>
-      <c r="S840">
-        <v>1.825</v>
-      </c>
-      <c r="T840">
-        <v>2</v>
-      </c>
-      <c r="U840">
-        <v>2.025</v>
-      </c>
-      <c r="V840">
-        <v>1.825</v>
-      </c>
-      <c r="W840">
-        <v>-1</v>
-      </c>
-      <c r="X840">
-        <v>-1</v>
-      </c>
       <c r="Y840">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z840">
         <v>-1</v>
       </c>
       <c r="AA840">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB840">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC840">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="841" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -74955,7 +74955,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C837" t="s">
         <v>28</v>
@@ -74967,76 +74967,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F837" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G837" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I837">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J837" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K837">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L837">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M837">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N837">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O837">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P837">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q837">
         <v>-0.75</v>
       </c>
       <c r="R837">
+        <v>1.8</v>
+      </c>
+      <c r="S837">
         <v>2.05</v>
       </c>
-      <c r="S837">
-        <v>1.8</v>
-      </c>
       <c r="T837">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U837">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V837">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W837">
         <v>-1</v>
       </c>
       <c r="X837">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y837">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z837">
         <v>-1</v>
       </c>
       <c r="AA837">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB837">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC837">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="838" spans="1:29">
@@ -75044,7 +75044,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C838" t="s">
         <v>28</v>
@@ -75056,55 +75056,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F838" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G838" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H838">
         <v>0</v>
       </c>
       <c r="I838">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J838" t="s">
         <v>53</v>
       </c>
       <c r="K838">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L838">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M838">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N838">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O838">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P838">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q838">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R838">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S838">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T838">
         <v>2</v>
       </c>
       <c r="U838">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V838">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W838">
         <v>-1</v>
@@ -75113,19 +75113,19 @@
         <v>-1</v>
       </c>
       <c r="Y838">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z838">
         <v>-1</v>
       </c>
       <c r="AA838">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB838">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC838">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="839" spans="1:29">
@@ -75133,7 +75133,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C839" t="s">
         <v>28</v>
@@ -75145,55 +75145,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F839" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G839" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H839">
         <v>0</v>
       </c>
       <c r="I839">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J839" t="s">
         <v>53</v>
       </c>
       <c r="K839">
+        <v>1.8</v>
+      </c>
+      <c r="L839">
+        <v>3.6</v>
+      </c>
+      <c r="M839">
+        <v>4.2</v>
+      </c>
+      <c r="N839">
+        <v>1.8</v>
+      </c>
+      <c r="O839">
+        <v>3.6</v>
+      </c>
+      <c r="P839">
+        <v>4.2</v>
+      </c>
+      <c r="Q839">
+        <v>-0.75</v>
+      </c>
+      <c r="R839">
+        <v>2.05</v>
+      </c>
+      <c r="S839">
+        <v>1.8</v>
+      </c>
+      <c r="T839">
         <v>2.25</v>
       </c>
-      <c r="L839">
-        <v>3.1</v>
-      </c>
-      <c r="M839">
-        <v>3.25</v>
-      </c>
-      <c r="N839">
-        <v>2.25</v>
-      </c>
-      <c r="O839">
-        <v>2.875</v>
-      </c>
-      <c r="P839">
-        <v>3.5</v>
-      </c>
-      <c r="Q839">
-        <v>-0.25</v>
-      </c>
-      <c r="R839">
-        <v>1.95</v>
-      </c>
-      <c r="S839">
-        <v>1.9</v>
-      </c>
-      <c r="T839">
-        <v>2</v>
-      </c>
       <c r="U839">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V839">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W839">
         <v>-1</v>
@@ -75202,19 +75202,19 @@
         <v>-1</v>
       </c>
       <c r="Y839">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z839">
         <v>-1</v>
       </c>
       <c r="AA839">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB839">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC839">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="840" spans="1:29">
@@ -75222,7 +75222,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>7013409</v>
+        <v>7013885</v>
       </c>
       <c r="C840" t="s">
         <v>28</v>
@@ -75234,76 +75234,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F840" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G840" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J840" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K840">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L840">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M840">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N840">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O840">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P840">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q840">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R840">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S840">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T840">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U840">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V840">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W840">
         <v>-1</v>
       </c>
       <c r="X840">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y840">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z840">
         <v>-1</v>
       </c>
       <c r="AA840">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB840">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC840">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="841" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -74955,7 +74955,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C837" t="s">
         <v>28</v>
@@ -74967,76 +74967,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F837" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G837" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I837">
         <v>1</v>
       </c>
       <c r="J837" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K837">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L837">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M837">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N837">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O837">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P837">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q837">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R837">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S837">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T837">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U837">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V837">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W837">
         <v>-1</v>
       </c>
       <c r="X837">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y837">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z837">
         <v>-1</v>
       </c>
       <c r="AA837">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB837">
         <v>-1</v>
       </c>
       <c r="AC837">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="838" spans="1:29">
@@ -75044,7 +75044,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C838" t="s">
         <v>28</v>
@@ -75056,55 +75056,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F838" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G838" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H838">
         <v>0</v>
       </c>
       <c r="I838">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J838" t="s">
         <v>53</v>
       </c>
       <c r="K838">
+        <v>1.8</v>
+      </c>
+      <c r="L838">
+        <v>3.6</v>
+      </c>
+      <c r="M838">
+        <v>4.2</v>
+      </c>
+      <c r="N838">
+        <v>1.8</v>
+      </c>
+      <c r="O838">
+        <v>3.6</v>
+      </c>
+      <c r="P838">
+        <v>4.2</v>
+      </c>
+      <c r="Q838">
+        <v>-0.75</v>
+      </c>
+      <c r="R838">
+        <v>2.05</v>
+      </c>
+      <c r="S838">
+        <v>1.8</v>
+      </c>
+      <c r="T838">
         <v>2.25</v>
       </c>
-      <c r="L838">
-        <v>3.1</v>
-      </c>
-      <c r="M838">
-        <v>3.25</v>
-      </c>
-      <c r="N838">
-        <v>2.25</v>
-      </c>
-      <c r="O838">
-        <v>2.875</v>
-      </c>
-      <c r="P838">
-        <v>3.5</v>
-      </c>
-      <c r="Q838">
-        <v>-0.25</v>
-      </c>
-      <c r="R838">
-        <v>1.95</v>
-      </c>
-      <c r="S838">
-        <v>1.9</v>
-      </c>
-      <c r="T838">
-        <v>2</v>
-      </c>
       <c r="U838">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V838">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W838">
         <v>-1</v>
@@ -75113,19 +75113,19 @@
         <v>-1</v>
       </c>
       <c r="Y838">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z838">
         <v>-1</v>
       </c>
       <c r="AA838">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB838">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC838">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="839" spans="1:29">
@@ -75133,7 +75133,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C839" t="s">
         <v>28</v>
@@ -75145,10 +75145,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F839" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G839" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H839">
         <v>0</v>
@@ -75160,40 +75160,40 @@
         <v>53</v>
       </c>
       <c r="K839">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L839">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M839">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N839">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O839">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P839">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q839">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R839">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S839">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T839">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U839">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V839">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W839">
         <v>-1</v>
@@ -75202,19 +75202,19 @@
         <v>-1</v>
       </c>
       <c r="Y839">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z839">
         <v>-1</v>
       </c>
       <c r="AA839">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB839">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC839">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="840" spans="1:29">
@@ -75222,7 +75222,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>7013885</v>
+        <v>7013409</v>
       </c>
       <c r="C840" t="s">
         <v>28</v>
@@ -75234,76 +75234,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F840" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G840" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I840">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J840" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K840">
+        <v>1.666</v>
+      </c>
+      <c r="L840">
+        <v>3.9</v>
+      </c>
+      <c r="M840">
+        <v>4.5</v>
+      </c>
+      <c r="N840">
+        <v>1.615</v>
+      </c>
+      <c r="O840">
+        <v>4</v>
+      </c>
+      <c r="P840">
+        <v>4.75</v>
+      </c>
+      <c r="Q840">
+        <v>-0.75</v>
+      </c>
+      <c r="R840">
+        <v>1.8</v>
+      </c>
+      <c r="S840">
+        <v>2.05</v>
+      </c>
+      <c r="T840">
+        <v>2.75</v>
+      </c>
+      <c r="U840">
+        <v>1.95</v>
+      </c>
+      <c r="V840">
+        <v>1.9</v>
+      </c>
+      <c r="W840">
+        <v>-1</v>
+      </c>
+      <c r="X840">
         <v>3</v>
       </c>
-      <c r="L840">
-        <v>3</v>
-      </c>
-      <c r="M840">
-        <v>2.4</v>
-      </c>
-      <c r="N840">
-        <v>2.9</v>
-      </c>
-      <c r="O840">
-        <v>2.75</v>
-      </c>
-      <c r="P840">
-        <v>2.6</v>
-      </c>
-      <c r="Q840">
-        <v>0</v>
-      </c>
-      <c r="R840">
-        <v>2.025</v>
-      </c>
-      <c r="S840">
-        <v>1.825</v>
-      </c>
-      <c r="T840">
-        <v>2</v>
-      </c>
-      <c r="U840">
-        <v>2.025</v>
-      </c>
-      <c r="V840">
-        <v>1.825</v>
-      </c>
-      <c r="W840">
-        <v>-1</v>
-      </c>
-      <c r="X840">
-        <v>-1</v>
-      </c>
       <c r="Y840">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z840">
         <v>-1</v>
       </c>
       <c r="AA840">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB840">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC840">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="841" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -32146,7 +32146,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>4402275</v>
+        <v>4402277</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32158,76 +32158,76 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G356" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J356" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K356">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="L356">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M356">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N356">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O356">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P356">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q356">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R356">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S356">
         <v>1.875</v>
       </c>
       <c r="T356">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U356">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V356">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W356">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X356">
         <v>-1</v>
       </c>
       <c r="Y356">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA356">
+        <v>-1</v>
+      </c>
+      <c r="AB356">
+        <v>-1</v>
+      </c>
+      <c r="AC356">
         <v>0.875</v>
-      </c>
-      <c r="AB356">
-        <v>1</v>
-      </c>
-      <c r="AC356">
-        <v>-1</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32235,7 +32235,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>4402277</v>
+        <v>4402274</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32247,76 +32247,76 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F357" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G357" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H357">
         <v>1</v>
       </c>
       <c r="I357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J357" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K357">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L357">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M357">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N357">
         <v>1.909</v>
       </c>
       <c r="O357">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P357">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q357">
         <v>-0.5</v>
       </c>
       <c r="R357">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S357">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T357">
         <v>2.5</v>
       </c>
       <c r="U357">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V357">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W357">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X357">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y357">
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA357">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB357">
         <v>-1</v>
       </c>
       <c r="AC357">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32324,7 +32324,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>4402274</v>
+        <v>4402278</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32336,76 +32336,76 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F358" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G358" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J358" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K358">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L358">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M358">
+        <v>5</v>
+      </c>
+      <c r="N358">
+        <v>1.55</v>
+      </c>
+      <c r="O358">
         <v>3.6</v>
       </c>
-      <c r="N358">
-        <v>1.909</v>
-      </c>
-      <c r="O358">
-        <v>3.3</v>
-      </c>
       <c r="P358">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q358">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R358">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S358">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T358">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U358">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V358">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W358">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X358">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y358">
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA358">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB358">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC358">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32413,7 +32413,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>4402278</v>
+        <v>4402275</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32425,73 +32425,73 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F359" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G359" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H359">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J359" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K359">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L359">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M359">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N359">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="O359">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P359">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q359">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R359">
+        <v>1.925</v>
+      </c>
+      <c r="S359">
+        <v>1.875</v>
+      </c>
+      <c r="T359">
+        <v>2.25</v>
+      </c>
+      <c r="U359">
+        <v>2</v>
+      </c>
+      <c r="V359">
         <v>1.8</v>
       </c>
-      <c r="S359">
-        <v>2.05</v>
-      </c>
-      <c r="T359">
-        <v>2.75</v>
-      </c>
-      <c r="U359">
-        <v>1.975</v>
-      </c>
-      <c r="V359">
-        <v>1.875</v>
-      </c>
       <c r="W359">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X359">
         <v>-1</v>
       </c>
       <c r="Y359">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z359">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA359">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB359">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC359">
         <v>-1</v>
@@ -74955,7 +74955,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C837" t="s">
         <v>28</v>
@@ -74967,76 +74967,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F837" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G837" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I837">
         <v>1</v>
       </c>
       <c r="J837" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K837">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L837">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M837">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N837">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O837">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P837">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q837">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R837">
+        <v>1.8</v>
+      </c>
+      <c r="S837">
+        <v>2.05</v>
+      </c>
+      <c r="T837">
+        <v>2.75</v>
+      </c>
+      <c r="U837">
         <v>1.95</v>
       </c>
-      <c r="S837">
+      <c r="V837">
         <v>1.9</v>
       </c>
-      <c r="T837">
-        <v>2</v>
-      </c>
-      <c r="U837">
-        <v>1.925</v>
-      </c>
-      <c r="V837">
-        <v>1.925</v>
-      </c>
       <c r="W837">
         <v>-1</v>
       </c>
       <c r="X837">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y837">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z837">
         <v>-1</v>
       </c>
       <c r="AA837">
+        <v>1.05</v>
+      </c>
+      <c r="AB837">
+        <v>-1</v>
+      </c>
+      <c r="AC837">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB837">
-        <v>-1</v>
-      </c>
-      <c r="AC837">
-        <v>0.925</v>
       </c>
     </row>
     <row r="838" spans="1:29">
@@ -75044,7 +75044,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C838" t="s">
         <v>28</v>
@@ -75056,10 +75056,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F838" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G838" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H838">
         <v>0</v>
@@ -75071,40 +75071,40 @@
         <v>53</v>
       </c>
       <c r="K838">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L838">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M838">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N838">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O838">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P838">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q838">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R838">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S838">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T838">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U838">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V838">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W838">
         <v>-1</v>
@@ -75113,19 +75113,19 @@
         <v>-1</v>
       </c>
       <c r="Y838">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z838">
         <v>-1</v>
       </c>
       <c r="AA838">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB838">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC838">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="839" spans="1:29">
@@ -75133,7 +75133,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C839" t="s">
         <v>28</v>
@@ -75145,55 +75145,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F839" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G839" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H839">
         <v>0</v>
       </c>
       <c r="I839">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J839" t="s">
         <v>53</v>
       </c>
       <c r="K839">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L839">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M839">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N839">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O839">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P839">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q839">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R839">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S839">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T839">
         <v>2</v>
       </c>
       <c r="U839">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V839">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W839">
         <v>-1</v>
@@ -75202,19 +75202,19 @@
         <v>-1</v>
       </c>
       <c r="Y839">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z839">
         <v>-1</v>
       </c>
       <c r="AA839">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB839">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC839">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="840" spans="1:29">
@@ -75222,7 +75222,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C840" t="s">
         <v>28</v>
@@ -75234,76 +75234,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F840" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G840" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J840" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K840">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L840">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M840">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N840">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O840">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P840">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q840">
         <v>-0.75</v>
       </c>
       <c r="R840">
+        <v>2.05</v>
+      </c>
+      <c r="S840">
         <v>1.8</v>
       </c>
-      <c r="S840">
-        <v>2.05</v>
-      </c>
       <c r="T840">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U840">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V840">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W840">
         <v>-1</v>
       </c>
       <c r="X840">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y840">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z840">
         <v>-1</v>
       </c>
       <c r="AA840">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB840">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC840">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="841" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -75044,7 +75044,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C838" t="s">
         <v>28</v>
@@ -75056,55 +75056,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F838" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G838" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H838">
         <v>0</v>
       </c>
       <c r="I838">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J838" t="s">
         <v>53</v>
       </c>
       <c r="K838">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L838">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M838">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N838">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O838">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P838">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q838">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R838">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S838">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T838">
         <v>2</v>
       </c>
       <c r="U838">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V838">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W838">
         <v>-1</v>
@@ -75113,19 +75113,19 @@
         <v>-1</v>
       </c>
       <c r="Y838">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z838">
         <v>-1</v>
       </c>
       <c r="AA838">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB838">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC838">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="839" spans="1:29">
@@ -75133,7 +75133,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C839" t="s">
         <v>28</v>
@@ -75145,55 +75145,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F839" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G839" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H839">
         <v>0</v>
       </c>
       <c r="I839">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J839" t="s">
         <v>53</v>
       </c>
       <c r="K839">
+        <v>1.8</v>
+      </c>
+      <c r="L839">
+        <v>3.6</v>
+      </c>
+      <c r="M839">
+        <v>4.2</v>
+      </c>
+      <c r="N839">
+        <v>1.8</v>
+      </c>
+      <c r="O839">
+        <v>3.6</v>
+      </c>
+      <c r="P839">
+        <v>4.2</v>
+      </c>
+      <c r="Q839">
+        <v>-0.75</v>
+      </c>
+      <c r="R839">
+        <v>2.05</v>
+      </c>
+      <c r="S839">
+        <v>1.8</v>
+      </c>
+      <c r="T839">
         <v>2.25</v>
       </c>
-      <c r="L839">
-        <v>3.1</v>
-      </c>
-      <c r="M839">
-        <v>3.25</v>
-      </c>
-      <c r="N839">
-        <v>2.25</v>
-      </c>
-      <c r="O839">
-        <v>2.875</v>
-      </c>
-      <c r="P839">
-        <v>3.5</v>
-      </c>
-      <c r="Q839">
-        <v>-0.25</v>
-      </c>
-      <c r="R839">
-        <v>1.95</v>
-      </c>
-      <c r="S839">
-        <v>1.9</v>
-      </c>
-      <c r="T839">
-        <v>2</v>
-      </c>
       <c r="U839">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V839">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W839">
         <v>-1</v>
@@ -75202,19 +75202,19 @@
         <v>-1</v>
       </c>
       <c r="Y839">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z839">
         <v>-1</v>
       </c>
       <c r="AA839">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB839">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC839">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="840" spans="1:29">
@@ -75222,7 +75222,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C840" t="s">
         <v>28</v>
@@ -75234,10 +75234,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F840" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G840" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H840">
         <v>0</v>
@@ -75249,40 +75249,40 @@
         <v>53</v>
       </c>
       <c r="K840">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L840">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M840">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N840">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O840">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P840">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q840">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R840">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S840">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T840">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U840">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V840">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W840">
         <v>-1</v>
@@ -75291,19 +75291,19 @@
         <v>-1</v>
       </c>
       <c r="Y840">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z840">
         <v>-1</v>
       </c>
       <c r="AA840">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB840">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC840">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="841" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -4645,7 +4645,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3221029</v>
+        <v>3221028</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4657,46 +4657,46 @@
         <v>44238.70833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K47">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N47">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P47">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.25</v>
@@ -4708,19 +4708,19 @@
         <v>2.025</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X47">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>0.825</v>
@@ -4734,7 +4734,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3221028</v>
+        <v>3221029</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4746,46 +4746,46 @@
         <v>44238.70833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K48">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L48">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
         <v>2.8</v>
       </c>
-      <c r="N48">
-        <v>2.2</v>
-      </c>
       <c r="O48">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P48">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
         <v>2.25</v>
@@ -4797,19 +4797,19 @@
         <v>2.025</v>
       </c>
       <c r="W48">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
         <v>0.825</v>
@@ -10608,7 +10608,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>3373723</v>
+        <v>3373720</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10620,76 +10620,76 @@
         <v>44283.83333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>3.1</v>
+      </c>
+      <c r="M114">
+        <v>3.6</v>
+      </c>
+      <c r="N114">
+        <v>2.5</v>
+      </c>
+      <c r="O114">
+        <v>3.2</v>
+      </c>
+      <c r="P114">
         <v>2.625</v>
-      </c>
-      <c r="L114">
-        <v>3.3</v>
-      </c>
-      <c r="M114">
-        <v>2.375</v>
-      </c>
-      <c r="N114">
-        <v>2.8</v>
-      </c>
-      <c r="O114">
-        <v>3</v>
-      </c>
-      <c r="P114">
-        <v>2.45</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
         <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X114">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10697,7 +10697,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>3373722</v>
+        <v>3373721</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10709,43 +10709,43 @@
         <v>44283.83333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K115">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="N115">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="O115">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P115">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q115">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
         <v>1.95</v>
@@ -10754,31 +10754,31 @@
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10786,7 +10786,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>3373721</v>
+        <v>3373722</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10798,43 +10798,43 @@
         <v>44283.83333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K116">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L116">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="N116">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="O116">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P116">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
         <v>1.95</v>
@@ -10843,31 +10843,31 @@
         <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10875,7 +10875,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>3373720</v>
+        <v>3373723</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10887,76 +10887,76 @@
         <v>44283.83333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M117">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N117">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O117">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P117">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="Q117">
         <v>0</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T117">
         <v>2.25</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -32057,7 +32057,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>4402276</v>
+        <v>4402278</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32069,58 +32069,58 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G355" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H355">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J355" t="s">
         <v>55</v>
       </c>
       <c r="K355">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L355">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M355">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="N355">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="O355">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P355">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="Q355">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R355">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S355">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T355">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U355">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V355">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W355">
-        <v>0.25</v>
+        <v>0.55</v>
       </c>
       <c r="X355">
         <v>-1</v>
@@ -32129,13 +32129,13 @@
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA355">
         <v>-1</v>
       </c>
       <c r="AB355">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC355">
         <v>-1</v>
@@ -32235,7 +32235,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>4402274</v>
+        <v>4402276</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32247,49 +32247,49 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F357" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G357" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I357">
         <v>1</v>
       </c>
       <c r="J357" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K357">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L357">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M357">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N357">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O357">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P357">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q357">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R357">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S357">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T357">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U357">
         <v>1.9</v>
@@ -32298,25 +32298,25 @@
         <v>1.95</v>
       </c>
       <c r="W357">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X357">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y357">
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA357">
+        <v>-1</v>
+      </c>
+      <c r="AB357">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB357">
-        <v>-1</v>
-      </c>
       <c r="AC357">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32324,7 +32324,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>4402278</v>
+        <v>4402274</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32336,76 +32336,76 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F358" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G358" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H358">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I358">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J358" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K358">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L358">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M358">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N358">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="O358">
+        <v>3.3</v>
+      </c>
+      <c r="P358">
         <v>3.6</v>
       </c>
-      <c r="P358">
-        <v>5.5</v>
-      </c>
       <c r="Q358">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R358">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S358">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T358">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U358">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V358">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W358">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X358">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y358">
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA358">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB358">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC358">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -53862,7 +53862,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>5778645</v>
+        <v>5778646</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53874,73 +53874,73 @@
         <v>44858.67708333334</v>
       </c>
       <c r="F600" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G600" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I600">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J600" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K600">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L600">
         <v>3.2</v>
       </c>
       <c r="M600">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N600">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="O600">
         <v>3.3</v>
       </c>
       <c r="P600">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q600">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R600">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S600">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T600">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U600">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V600">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W600">
         <v>-1</v>
       </c>
       <c r="X600">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y600">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z600">
         <v>-1</v>
       </c>
       <c r="AA600">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB600">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC600">
         <v>-1</v>
@@ -53951,7 +53951,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>5778646</v>
+        <v>5778645</v>
       </c>
       <c r="C601" t="s">
         <v>28</v>
@@ -53963,73 +53963,73 @@
         <v>44858.67708333334</v>
       </c>
       <c r="F601" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G601" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I601">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J601" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K601">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L601">
         <v>3.2</v>
       </c>
       <c r="M601">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="N601">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="O601">
         <v>3.3</v>
       </c>
       <c r="P601">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q601">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R601">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S601">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T601">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U601">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V601">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W601">
         <v>-1</v>
       </c>
       <c r="X601">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y601">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z601">
         <v>-1</v>
       </c>
       <c r="AA601">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB601">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC601">
         <v>-1</v>
@@ -74955,7 +74955,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C837" t="s">
         <v>28</v>
@@ -74967,76 +74967,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F837" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G837" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I837">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J837" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K837">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L837">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M837">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N837">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O837">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P837">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q837">
         <v>-0.75</v>
       </c>
       <c r="R837">
+        <v>2.05</v>
+      </c>
+      <c r="S837">
         <v>1.8</v>
       </c>
-      <c r="S837">
-        <v>2.05</v>
-      </c>
       <c r="T837">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U837">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V837">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W837">
         <v>-1</v>
       </c>
       <c r="X837">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y837">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z837">
         <v>-1</v>
       </c>
       <c r="AA837">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB837">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC837">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="838" spans="1:29">
@@ -75044,7 +75044,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>7013886</v>
+        <v>7013885</v>
       </c>
       <c r="C838" t="s">
         <v>28</v>
@@ -75056,55 +75056,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F838" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G838" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H838">
         <v>0</v>
       </c>
       <c r="I838">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J838" t="s">
         <v>53</v>
       </c>
       <c r="K838">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L838">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M838">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N838">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O838">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P838">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q838">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R838">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S838">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T838">
         <v>2</v>
       </c>
       <c r="U838">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V838">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W838">
         <v>-1</v>
@@ -75113,19 +75113,19 @@
         <v>-1</v>
       </c>
       <c r="Y838">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z838">
         <v>-1</v>
       </c>
       <c r="AA838">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB838">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC838">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="839" spans="1:29">
@@ -75133,7 +75133,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C839" t="s">
         <v>28</v>
@@ -75145,76 +75145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F839" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G839" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I839">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J839" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K839">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L839">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M839">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N839">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O839">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P839">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q839">
         <v>-0.75</v>
       </c>
       <c r="R839">
+        <v>1.8</v>
+      </c>
+      <c r="S839">
         <v>2.05</v>
       </c>
-      <c r="S839">
-        <v>1.8</v>
-      </c>
       <c r="T839">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U839">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V839">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W839">
         <v>-1</v>
       </c>
       <c r="X839">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y839">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z839">
         <v>-1</v>
       </c>
       <c r="AA839">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB839">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC839">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="840" spans="1:29">
@@ -75222,7 +75222,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C840" t="s">
         <v>28</v>
@@ -75234,55 +75234,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F840" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G840" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H840">
         <v>0</v>
       </c>
       <c r="I840">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J840" t="s">
         <v>53</v>
       </c>
       <c r="K840">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L840">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M840">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N840">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O840">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P840">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q840">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R840">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S840">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T840">
         <v>2</v>
       </c>
       <c r="U840">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V840">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W840">
         <v>-1</v>
@@ -75291,19 +75291,19 @@
         <v>-1</v>
       </c>
       <c r="Y840">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z840">
         <v>-1</v>
       </c>
       <c r="AA840">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB840">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC840">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="841" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -10608,7 +10608,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>3373720</v>
+        <v>3373723</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10620,76 +10620,76 @@
         <v>44283.83333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N114">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O114">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P114">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T114">
         <v>2.25</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10786,7 +10786,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>3373722</v>
+        <v>3373720</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10798,76 +10798,76 @@
         <v>44283.83333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K116">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L116">
+        <v>3.1</v>
+      </c>
+      <c r="M116">
         <v>3.6</v>
       </c>
-      <c r="M116">
-        <v>1.8</v>
-      </c>
       <c r="N116">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="O116">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
+        <v>2.625</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>1.875</v>
+      </c>
+      <c r="S116">
+        <v>1.975</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
+        <v>2.025</v>
+      </c>
+      <c r="V116">
+        <v>1.825</v>
+      </c>
+      <c r="W116">
         <v>1.5</v>
       </c>
-      <c r="Q116">
-        <v>1</v>
-      </c>
-      <c r="R116">
-        <v>1.9</v>
-      </c>
-      <c r="S116">
-        <v>1.95</v>
-      </c>
-      <c r="T116">
-        <v>2.75</v>
-      </c>
-      <c r="U116">
-        <v>1.85</v>
-      </c>
-      <c r="V116">
-        <v>2</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10875,7 +10875,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>3373723</v>
+        <v>3373722</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10887,64 +10887,64 @@
         <v>44283.83333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K117">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="L117">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N117">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P117">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z117">
         <v>0</v>
@@ -10953,10 +10953,10 @@
         <v>-0</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC117">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -32057,7 +32057,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>4402278</v>
+        <v>4402274</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32069,76 +32069,76 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G355" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H355">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J355" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K355">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L355">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M355">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N355">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="O355">
+        <v>3.3</v>
+      </c>
+      <c r="P355">
         <v>3.6</v>
       </c>
-      <c r="P355">
-        <v>5.5</v>
-      </c>
       <c r="Q355">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R355">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S355">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T355">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U355">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V355">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W355">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X355">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y355">
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA355">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB355">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC355">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32146,7 +32146,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>4402277</v>
+        <v>4402276</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32158,58 +32158,58 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G356" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" t="s">
         <v>55</v>
       </c>
       <c r="K356">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="L356">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M356">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N356">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O356">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P356">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q356">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R356">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S356">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T356">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U356">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V356">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W356">
-        <v>0.909</v>
+        <v>0.25</v>
       </c>
       <c r="X356">
         <v>-1</v>
@@ -32218,16 +32218,16 @@
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA356">
         <v>-1</v>
       </c>
       <c r="AB356">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC356">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32235,7 +32235,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>4402276</v>
+        <v>4402277</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32247,58 +32247,58 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F357" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G357" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H357">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J357" t="s">
         <v>55</v>
       </c>
       <c r="K357">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="L357">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M357">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N357">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O357">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P357">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q357">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R357">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S357">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T357">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U357">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V357">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W357">
-        <v>0.25</v>
+        <v>0.909</v>
       </c>
       <c r="X357">
         <v>-1</v>
@@ -32307,16 +32307,16 @@
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA357">
         <v>-1</v>
       </c>
       <c r="AB357">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC357">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32324,7 +32324,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>4402274</v>
+        <v>4402275</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32336,76 +32336,76 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F358" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G358" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J358" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K358">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="L358">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M358">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N358">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O358">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P358">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q358">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R358">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S358">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T358">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U358">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V358">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W358">
         <v>-1</v>
       </c>
       <c r="X358">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y358">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z358">
         <v>-1</v>
       </c>
       <c r="AA358">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB358">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC358">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32413,7 +32413,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>4402275</v>
+        <v>4402278</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32425,73 +32425,73 @@
         <v>44534.70833333334</v>
       </c>
       <c r="F359" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G359" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I359">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J359" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K359">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="L359">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M359">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N359">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="O359">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P359">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q359">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R359">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S359">
+        <v>2.05</v>
+      </c>
+      <c r="T359">
+        <v>2.75</v>
+      </c>
+      <c r="U359">
+        <v>1.975</v>
+      </c>
+      <c r="V359">
         <v>1.875</v>
       </c>
-      <c r="T359">
-        <v>2.25</v>
-      </c>
-      <c r="U359">
-        <v>2</v>
-      </c>
-      <c r="V359">
-        <v>1.8</v>
-      </c>
       <c r="W359">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X359">
         <v>-1</v>
       </c>
       <c r="Y359">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z359">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA359">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB359">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC359">
         <v>-1</v>
@@ -42826,7 +42826,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>4939377</v>
+        <v>4940699</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42838,76 +42838,76 @@
         <v>44716.66666666666</v>
       </c>
       <c r="F476" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G476" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H476">
         <v>0</v>
       </c>
       <c r="I476">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J476" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K476">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L476">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M476">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="N476">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O476">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P476">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q476">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R476">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S476">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T476">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U476">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V476">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W476">
         <v>-1</v>
       </c>
       <c r="X476">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y476">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z476">
         <v>-1</v>
       </c>
       <c r="AA476">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB476">
         <v>-1</v>
       </c>
       <c r="AC476">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -42915,7 +42915,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>4940699</v>
+        <v>4939377</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42927,76 +42927,76 @@
         <v>44716.66666666666</v>
       </c>
       <c r="F477" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G477" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H477">
         <v>0</v>
       </c>
       <c r="I477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J477" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K477">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L477">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M477">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="N477">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O477">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P477">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q477">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R477">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S477">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T477">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U477">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V477">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W477">
         <v>-1</v>
       </c>
       <c r="X477">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y477">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z477">
         <v>-1</v>
       </c>
       <c r="AA477">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB477">
         <v>-1</v>
       </c>
       <c r="AC477">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -75044,7 +75044,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>7013885</v>
+        <v>7013409</v>
       </c>
       <c r="C838" t="s">
         <v>28</v>
@@ -75056,76 +75056,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F838" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G838" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I838">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J838" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K838">
+        <v>1.666</v>
+      </c>
+      <c r="L838">
+        <v>3.9</v>
+      </c>
+      <c r="M838">
+        <v>4.5</v>
+      </c>
+      <c r="N838">
+        <v>1.615</v>
+      </c>
+      <c r="O838">
+        <v>4</v>
+      </c>
+      <c r="P838">
+        <v>4.75</v>
+      </c>
+      <c r="Q838">
+        <v>-0.75</v>
+      </c>
+      <c r="R838">
+        <v>1.8</v>
+      </c>
+      <c r="S838">
+        <v>2.05</v>
+      </c>
+      <c r="T838">
+        <v>2.75</v>
+      </c>
+      <c r="U838">
+        <v>1.95</v>
+      </c>
+      <c r="V838">
+        <v>1.9</v>
+      </c>
+      <c r="W838">
+        <v>-1</v>
+      </c>
+      <c r="X838">
         <v>3</v>
       </c>
-      <c r="L838">
-        <v>3</v>
-      </c>
-      <c r="M838">
-        <v>2.4</v>
-      </c>
-      <c r="N838">
-        <v>2.9</v>
-      </c>
-      <c r="O838">
-        <v>2.75</v>
-      </c>
-      <c r="P838">
-        <v>2.6</v>
-      </c>
-      <c r="Q838">
-        <v>0</v>
-      </c>
-      <c r="R838">
-        <v>2.025</v>
-      </c>
-      <c r="S838">
-        <v>1.825</v>
-      </c>
-      <c r="T838">
-        <v>2</v>
-      </c>
-      <c r="U838">
-        <v>2.025</v>
-      </c>
-      <c r="V838">
-        <v>1.825</v>
-      </c>
-      <c r="W838">
-        <v>-1</v>
-      </c>
-      <c r="X838">
-        <v>-1</v>
-      </c>
       <c r="Y838">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z838">
         <v>-1</v>
       </c>
       <c r="AA838">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB838">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC838">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="839" spans="1:29">
@@ -75133,7 +75133,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>7013409</v>
+        <v>7013885</v>
       </c>
       <c r="C839" t="s">
         <v>28</v>
@@ -75145,76 +75145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F839" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G839" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I839">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J839" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K839">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L839">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M839">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N839">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O839">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P839">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q839">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R839">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S839">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T839">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U839">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V839">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W839">
         <v>-1</v>
       </c>
       <c r="X839">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y839">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z839">
         <v>-1</v>
       </c>
       <c r="AA839">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB839">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC839">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="840" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,76 +21193,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K233">
+        <v>4.75</v>
+      </c>
+      <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
         <v>1.7</v>
       </c>
-      <c r="L233">
-        <v>3</v>
-      </c>
-      <c r="M233">
-        <v>5.75</v>
-      </c>
       <c r="N233">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O233">
         <v>3.2</v>
       </c>
       <c r="P233">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q233">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S233">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W233">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB233">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,76 +21282,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K234">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M234">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N234">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O234">
         <v>3.2</v>
       </c>
       <c r="P234">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q234">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S234">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V234">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X234">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA234">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC234">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,55 +21460,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H236">
         <v>0</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
         <v>47</v>
       </c>
       <c r="K236">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L236">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M236">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N236">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O236">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P236">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S236">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T236">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V236">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21517,19 +21517,19 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7013409</v>
+        <v>7013885</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,76 +21549,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L237">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N237">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O237">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P237">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S237">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V237">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC237">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7013885</v>
+        <v>7013409</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,76 +21638,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K238">
+        <v>1.666</v>
+      </c>
+      <c r="L238">
+        <v>3.9</v>
+      </c>
+      <c r="M238">
+        <v>4.5</v>
+      </c>
+      <c r="N238">
+        <v>1.615</v>
+      </c>
+      <c r="O238">
+        <v>4</v>
+      </c>
+      <c r="P238">
+        <v>4.75</v>
+      </c>
+      <c r="Q238">
+        <v>-0.75</v>
+      </c>
+      <c r="R238">
+        <v>1.8</v>
+      </c>
+      <c r="S238">
+        <v>2.05</v>
+      </c>
+      <c r="T238">
+        <v>2.75</v>
+      </c>
+      <c r="U238">
+        <v>1.95</v>
+      </c>
+      <c r="V238">
+        <v>1.9</v>
+      </c>
+      <c r="W238">
+        <v>-1</v>
+      </c>
+      <c r="X238">
         <v>3</v>
       </c>
-      <c r="L238">
-        <v>3</v>
-      </c>
-      <c r="M238">
-        <v>2.4</v>
-      </c>
-      <c r="N238">
-        <v>2.9</v>
-      </c>
-      <c r="O238">
-        <v>2.75</v>
-      </c>
-      <c r="P238">
-        <v>2.6</v>
-      </c>
-      <c r="Q238">
-        <v>0</v>
-      </c>
-      <c r="R238">
-        <v>2.025</v>
-      </c>
-      <c r="S238">
-        <v>1.825</v>
-      </c>
-      <c r="T238">
-        <v>2</v>
-      </c>
-      <c r="U238">
-        <v>2.025</v>
-      </c>
-      <c r="V238">
-        <v>1.825</v>
-      </c>
-      <c r="W238">
-        <v>-1</v>
-      </c>
-      <c r="X238">
-        <v>-1</v>
-      </c>
       <c r="Y238">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,55 +21727,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G239" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
         <v>47</v>
       </c>
       <c r="K239">
+        <v>1.8</v>
+      </c>
+      <c r="L239">
+        <v>3.6</v>
+      </c>
+      <c r="M239">
+        <v>4.2</v>
+      </c>
+      <c r="N239">
+        <v>1.8</v>
+      </c>
+      <c r="O239">
+        <v>3.6</v>
+      </c>
+      <c r="P239">
+        <v>4.2</v>
+      </c>
+      <c r="Q239">
+        <v>-0.75</v>
+      </c>
+      <c r="R239">
+        <v>2.05</v>
+      </c>
+      <c r="S239">
+        <v>1.8</v>
+      </c>
+      <c r="T239">
         <v>2.25</v>
       </c>
-      <c r="L239">
-        <v>3.1</v>
-      </c>
-      <c r="M239">
-        <v>3.25</v>
-      </c>
-      <c r="N239">
-        <v>2.25</v>
-      </c>
-      <c r="O239">
-        <v>2.875</v>
-      </c>
-      <c r="P239">
-        <v>3.5</v>
-      </c>
-      <c r="Q239">
-        <v>-0.25</v>
-      </c>
-      <c r="R239">
-        <v>1.95</v>
-      </c>
-      <c r="S239">
-        <v>1.9</v>
-      </c>
-      <c r="T239">
-        <v>2</v>
-      </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V239">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W239">
         <v>-1</v>
@@ -21784,19 +21784,19 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC239">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="240" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,76 +21193,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K233">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M233">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N233">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O233">
         <v>3.2</v>
       </c>
       <c r="P233">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X233">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA233">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC233">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,76 +21282,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K234">
+        <v>4.75</v>
+      </c>
+      <c r="L234">
+        <v>3.4</v>
+      </c>
+      <c r="M234">
         <v>1.7</v>
       </c>
-      <c r="L234">
-        <v>3</v>
-      </c>
-      <c r="M234">
-        <v>5.75</v>
-      </c>
       <c r="N234">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O234">
         <v>3.2</v>
       </c>
       <c r="P234">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q234">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R234">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S234">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V234">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W234">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB234">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,76 +21460,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K236">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L236">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M236">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N236">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O236">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P236">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
+        <v>1.8</v>
+      </c>
+      <c r="S236">
+        <v>2.05</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
         <v>1.95</v>
       </c>
-      <c r="S236">
+      <c r="V236">
         <v>1.9</v>
       </c>
-      <c r="T236">
-        <v>2</v>
-      </c>
-      <c r="U236">
-        <v>1.925</v>
-      </c>
-      <c r="V236">
-        <v>1.925</v>
-      </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y236">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
+        <v>1.05</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB236">
-        <v>-1</v>
-      </c>
-      <c r="AC236">
-        <v>0.925</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,10 +21549,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21564,40 +21564,40 @@
         <v>47</v>
       </c>
       <c r="K237">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L237">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N237">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O237">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S237">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21606,19 +21606,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7013409</v>
+        <v>7013885</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,76 +21638,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L238">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M238">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N238">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O238">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P238">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R238">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S238">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U238">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC238">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,55 +21727,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
         <v>47</v>
       </c>
       <c r="K239">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M239">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N239">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O239">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V239">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
         <v>-1</v>
@@ -21784,19 +21784,19 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="240" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,76 +21193,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K233">
+        <v>4.75</v>
+      </c>
+      <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
         <v>1.7</v>
       </c>
-      <c r="L233">
-        <v>3</v>
-      </c>
-      <c r="M233">
-        <v>5.75</v>
-      </c>
       <c r="N233">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O233">
         <v>3.2</v>
       </c>
       <c r="P233">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q233">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S233">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W233">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB233">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,76 +21282,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K234">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M234">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N234">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O234">
         <v>3.2</v>
       </c>
       <c r="P234">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q234">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S234">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V234">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X234">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA234">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC234">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,76 +21460,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L236">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M236">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N236">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O236">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P236">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S236">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U236">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V236">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,76 +21727,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K239">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L239">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M239">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O239">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P239">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2.05</v>
+      </c>
+      <c r="T239">
+        <v>2.75</v>
+      </c>
+      <c r="U239">
         <v>1.95</v>
       </c>
-      <c r="S239">
+      <c r="V239">
         <v>1.9</v>
       </c>
-      <c r="T239">
-        <v>2</v>
-      </c>
-      <c r="U239">
-        <v>1.925</v>
-      </c>
-      <c r="V239">
-        <v>1.925</v>
-      </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y239">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
+        <v>1.05</v>
+      </c>
+      <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB239">
-        <v>-1</v>
-      </c>
-      <c r="AC239">
-        <v>0.925</v>
       </c>
     </row>
     <row r="240" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,76 +21460,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K236">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L236">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M236">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N236">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O236">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P236">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
+        <v>1.8</v>
+      </c>
+      <c r="S236">
+        <v>2.05</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
         <v>1.95</v>
       </c>
-      <c r="S236">
+      <c r="V236">
         <v>1.9</v>
       </c>
-      <c r="T236">
-        <v>2</v>
-      </c>
-      <c r="U236">
-        <v>1.925</v>
-      </c>
-      <c r="V236">
-        <v>1.925</v>
-      </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y236">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
+        <v>1.05</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB236">
-        <v>-1</v>
-      </c>
-      <c r="AC236">
-        <v>0.925</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,10 +21549,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21564,40 +21564,40 @@
         <v>47</v>
       </c>
       <c r="K237">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L237">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N237">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P237">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S237">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21606,19 +21606,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB237">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC237">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,55 +21638,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G238" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H238">
         <v>0</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
         <v>47</v>
       </c>
       <c r="K238">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L238">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M238">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N238">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O238">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P238">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q238">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
         <v>2</v>
       </c>
       <c r="U238">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -21695,19 +21695,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,76 +21727,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G239" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K239">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L239">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N239">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O239">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P239">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q239">
         <v>-0.75</v>
       </c>
       <c r="R239">
+        <v>2.05</v>
+      </c>
+      <c r="S239">
         <v>1.8</v>
       </c>
-      <c r="S239">
-        <v>2.05</v>
-      </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC239">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="240" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Liverpool Montevideo</t>
+  </si>
+  <si>
+    <t>Miramar Misiones</t>
+  </si>
+  <si>
+    <t>Club Atletico Progreso</t>
   </si>
   <si>
     <t>A</t>
@@ -525,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC240"/>
+  <dimension ref="A1:AC247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K2">
         <v>3.1</v>
@@ -735,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>1.4</v>
@@ -824,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>3.3</v>
@@ -913,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>2.6</v>
@@ -1002,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1091,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <v>1.666</v>
@@ -1180,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>2.9</v>
@@ -1269,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>1.95</v>
@@ -1358,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10">
         <v>1.363</v>
@@ -1447,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1536,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K12">
         <v>1.909</v>
@@ -1625,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>1.65</v>
@@ -1714,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>1.444</v>
@@ -1803,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K15">
         <v>2.75</v>
@@ -1892,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1981,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K17">
         <v>3.75</v>
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>2.55</v>
@@ -2159,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>3.1</v>
@@ -2248,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>6.5</v>
@@ -2337,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K21">
         <v>3.4</v>
@@ -2426,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K22">
         <v>1.727</v>
@@ -2515,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23">
         <v>1.7</v>
@@ -2604,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K24">
         <v>1.85</v>
@@ -2693,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K25">
         <v>2.2</v>
@@ -2782,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2871,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K27">
         <v>2.25</v>
@@ -2960,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -3049,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K29">
         <v>1.909</v>
@@ -3138,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K30">
         <v>2.375</v>
@@ -3227,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>1.3</v>
@@ -3316,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K32">
         <v>2.3</v>
@@ -3405,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K33">
         <v>3.1</v>
@@ -3494,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K34">
         <v>3.4</v>
@@ -3583,7 +3589,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K35">
         <v>3.1</v>
@@ -3672,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K36">
         <v>5.5</v>
@@ -3761,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K37">
         <v>3.1</v>
@@ -3850,7 +3856,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>1.444</v>
@@ -3939,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>1.75</v>
@@ -4028,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K40">
         <v>1.75</v>
@@ -4117,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K41">
         <v>2.05</v>
@@ -4206,7 +4212,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>2.75</v>
@@ -4295,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>1.909</v>
@@ -4384,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K44">
         <v>1.5</v>
@@ -4473,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K45">
         <v>1.909</v>
@@ -4562,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>1.8</v>
@@ -4651,7 +4657,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K47">
         <v>1.5</v>
@@ -4740,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K48">
         <v>2.2</v>
@@ -4829,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4918,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K50">
         <v>1.666</v>
@@ -5007,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K51">
         <v>1.909</v>
@@ -5096,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K52">
         <v>4.5</v>
@@ -5185,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K53">
         <v>1.833</v>
@@ -5274,7 +5280,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K54">
         <v>2.25</v>
@@ -5363,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K55">
         <v>2.75</v>
@@ -5452,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K56">
         <v>3.2</v>
@@ -5541,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K57">
         <v>2.15</v>
@@ -5630,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K58">
         <v>1.727</v>
@@ -5719,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K59">
         <v>2.1</v>
@@ -5808,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K60">
         <v>3.2</v>
@@ -5897,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5986,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K62">
         <v>2.5</v>
@@ -6075,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6164,7 +6170,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6253,7 +6259,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -6342,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K66">
         <v>2.05</v>
@@ -6431,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K67">
         <v>2.6</v>
@@ -6520,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K68">
         <v>2.05</v>
@@ -6609,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K69">
         <v>1.8</v>
@@ -6698,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K70">
         <v>2.1</v>
@@ -6787,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>2.25</v>
@@ -6876,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K72">
         <v>4.333</v>
@@ -6965,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>3.2</v>
@@ -7054,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K74">
         <v>2.5</v>
@@ -7143,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K75">
         <v>2.8</v>
@@ -7232,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K76">
         <v>1.7</v>
@@ -7321,7 +7327,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>2.25</v>
@@ -7410,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K78">
         <v>3.4</v>
@@ -7499,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K79">
         <v>3.1</v>
@@ -7588,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K80">
         <v>1.65</v>
@@ -7677,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -7766,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K82">
         <v>1.45</v>
@@ -7855,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K83">
         <v>3.1</v>
@@ -7944,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K84">
         <v>1.75</v>
@@ -8033,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K85">
         <v>2.7</v>
@@ -8122,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K86">
         <v>3.3</v>
@@ -8211,7 +8217,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>2.05</v>
@@ -8300,7 +8306,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K88">
         <v>2.5</v>
@@ -8389,7 +8395,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K89">
         <v>2.875</v>
@@ -8478,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K90">
         <v>1.7</v>
@@ -8567,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K91">
         <v>2.55</v>
@@ -8656,7 +8662,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K92">
         <v>2.625</v>
@@ -8745,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K93">
         <v>1.833</v>
@@ -8834,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K94">
         <v>2.5</v>
@@ -8923,7 +8929,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>5</v>
@@ -9012,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K96">
         <v>1.8</v>
@@ -9101,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>4.333</v>
@@ -9190,7 +9196,7 @@
         <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2.75</v>
@@ -9279,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K99">
         <v>1.4</v>
@@ -9368,7 +9374,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K100">
         <v>2.2</v>
@@ -9457,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K101">
         <v>2.75</v>
@@ -9546,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K102">
         <v>1.333</v>
@@ -9635,7 +9641,7 @@
         <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K103">
         <v>2.5</v>
@@ -9724,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K104">
         <v>2.75</v>
@@ -9813,7 +9819,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K105">
         <v>2.375</v>
@@ -9902,7 +9908,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K106">
         <v>1.909</v>
@@ -9991,7 +9997,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K107">
         <v>2</v>
@@ -10080,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K108">
         <v>3.2</v>
@@ -10169,7 +10175,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K109">
         <v>3.5</v>
@@ -10258,7 +10264,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K110">
         <v>2.625</v>
@@ -10347,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -10436,7 +10442,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>4.333</v>
@@ -10525,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K113">
         <v>2.3</v>
@@ -10614,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K114">
         <v>2.6</v>
@@ -10703,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K115">
         <v>1.444</v>
@@ -10792,7 +10798,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>2.25</v>
@@ -10881,7 +10887,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K117">
         <v>2.7</v>
@@ -10970,7 +10976,7 @@
         <v>4</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>4.333</v>
@@ -11059,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K119">
         <v>2.2</v>
@@ -11148,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K120">
         <v>2.625</v>
@@ -11237,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K121">
         <v>1.95</v>
@@ -11326,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11415,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K123">
         <v>3.2</v>
@@ -11504,7 +11510,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K124">
         <v>5.25</v>
@@ -11593,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K125">
         <v>2</v>
@@ -11682,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K126">
         <v>1.8</v>
@@ -11771,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>1.909</v>
@@ -11860,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K128">
         <v>2.55</v>
@@ -11949,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K129">
         <v>2.1</v>
@@ -12038,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K130">
         <v>1.727</v>
@@ -12127,7 +12133,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K131">
         <v>2.7</v>
@@ -12216,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K132">
         <v>1.833</v>
@@ -12305,7 +12311,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K133">
         <v>3.2</v>
@@ -12394,7 +12400,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
         <v>2.2</v>
@@ -12483,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>2.2</v>
@@ -12572,7 +12578,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>1.5</v>
@@ -12661,7 +12667,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K137">
         <v>2.45</v>
@@ -12750,7 +12756,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12839,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K139">
         <v>4</v>
@@ -12928,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K140">
         <v>3.5</v>
@@ -13017,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K141">
         <v>3.2</v>
@@ -13106,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K142">
         <v>2</v>
@@ -13195,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K143">
         <v>1.3</v>
@@ -13284,7 +13290,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K144">
         <v>2.1</v>
@@ -13373,7 +13379,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>4.333</v>
@@ -13462,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K146">
         <v>1.95</v>
@@ -13551,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K147">
         <v>2.625</v>
@@ -13640,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K148">
         <v>1.7</v>
@@ -13729,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K149">
         <v>1.95</v>
@@ -13818,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K150">
         <v>3.4</v>
@@ -13907,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K151">
         <v>2.375</v>
@@ -13996,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K152">
         <v>2.625</v>
@@ -14085,7 +14091,7 @@
         <v>4</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K153">
         <v>1.909</v>
@@ -14174,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K154">
         <v>1.909</v>
@@ -14263,7 +14269,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K155">
         <v>4.333</v>
@@ -14352,7 +14358,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K156">
         <v>2</v>
@@ -14441,7 +14447,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14530,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K158">
         <v>2.2</v>
@@ -14619,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K159">
         <v>2.375</v>
@@ -14708,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K160">
         <v>1.4</v>
@@ -14797,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K161">
         <v>2.375</v>
@@ -14886,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K162">
         <v>2.7</v>
@@ -14975,7 +14981,7 @@
         <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -15064,7 +15070,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K164">
         <v>4.2</v>
@@ -15153,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K165">
         <v>2.375</v>
@@ -15242,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K166">
         <v>2.3</v>
@@ -15331,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K167">
         <v>3</v>
@@ -15420,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K168">
         <v>4.2</v>
@@ -15509,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K169">
         <v>1.615</v>
@@ -15598,7 +15604,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K170">
         <v>2.3</v>
@@ -15687,7 +15693,7 @@
         <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K171">
         <v>3.1</v>
@@ -15776,7 +15782,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K172">
         <v>2.875</v>
@@ -15865,7 +15871,7 @@
         <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>5</v>
@@ -15954,7 +15960,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>1.4</v>
@@ -16043,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K175">
         <v>2.5</v>
@@ -16132,7 +16138,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16221,7 +16227,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K177">
         <v>2.4</v>
@@ -16310,7 +16316,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K178">
         <v>1.909</v>
@@ -16399,7 +16405,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K179">
         <v>2.45</v>
@@ -16488,7 +16494,7 @@
         <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K180">
         <v>3.75</v>
@@ -16577,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K181">
         <v>2.05</v>
@@ -16666,7 +16672,7 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K182">
         <v>3.4</v>
@@ -16755,7 +16761,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K183">
         <v>1.75</v>
@@ -16844,7 +16850,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>2.5</v>
@@ -16933,7 +16939,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K185">
         <v>1.615</v>
@@ -17022,7 +17028,7 @@
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K186">
         <v>1.909</v>
@@ -17111,7 +17117,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K187">
         <v>1.727</v>
@@ -17200,7 +17206,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K188">
         <v>2.15</v>
@@ -17289,7 +17295,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K189">
         <v>2.5</v>
@@ -17378,7 +17384,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K190">
         <v>2.15</v>
@@ -17467,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K191">
         <v>2.375</v>
@@ -17556,7 +17562,7 @@
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K192">
         <v>2.625</v>
@@ -17645,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K193">
         <v>2.2</v>
@@ -17734,7 +17740,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K194">
         <v>3.75</v>
@@ -17823,7 +17829,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K195">
         <v>1.4</v>
@@ -17912,7 +17918,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K196">
         <v>3.8</v>
@@ -18001,7 +18007,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K197">
         <v>2</v>
@@ -18090,7 +18096,7 @@
         <v>3</v>
       </c>
       <c r="J198" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K198">
         <v>1.615</v>
@@ -18179,7 +18185,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K199">
         <v>2.15</v>
@@ -18268,7 +18274,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K200">
         <v>2.15</v>
@@ -18357,7 +18363,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K201">
         <v>2.625</v>
@@ -18446,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K202">
         <v>2</v>
@@ -18535,7 +18541,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K203">
         <v>1.727</v>
@@ -18624,7 +18630,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K204">
         <v>3.3</v>
@@ -18713,7 +18719,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18802,7 +18808,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K206">
         <v>1.909</v>
@@ -18891,7 +18897,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K207">
         <v>3.5</v>
@@ -18980,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K208">
         <v>1.8</v>
@@ -19069,7 +19075,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K209">
         <v>2.1</v>
@@ -19158,7 +19164,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K210">
         <v>4</v>
@@ -19247,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K211">
         <v>1.444</v>
@@ -19336,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K212">
         <v>2.1</v>
@@ -19425,7 +19431,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K213">
         <v>1.909</v>
@@ -19514,7 +19520,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K214">
         <v>3</v>
@@ -19603,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K215">
         <v>2.3</v>
@@ -19692,7 +19698,7 @@
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K216">
         <v>1.444</v>
@@ -19781,7 +19787,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K217">
         <v>4.333</v>
@@ -19870,7 +19876,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K218">
         <v>2.625</v>
@@ -19959,7 +19965,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K219">
         <v>2.3</v>
@@ -20048,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K220">
         <v>1.571</v>
@@ -20137,7 +20143,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K221">
         <v>2.875</v>
@@ -20226,7 +20232,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K222">
         <v>1.6</v>
@@ -20315,7 +20321,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K223">
         <v>2.15</v>
@@ -20404,7 +20410,7 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K224">
         <v>4</v>
@@ -20493,7 +20499,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K225">
         <v>2.2</v>
@@ -20582,7 +20588,7 @@
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K226">
         <v>2.5</v>
@@ -20671,7 +20677,7 @@
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K227">
         <v>1.533</v>
@@ -20760,7 +20766,7 @@
         <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K228">
         <v>3.3</v>
@@ -20849,7 +20855,7 @@
         <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K229">
         <v>2.1</v>
@@ -20938,7 +20944,7 @@
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K230">
         <v>1.909</v>
@@ -21027,7 +21033,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K231">
         <v>2.2</v>
@@ -21116,7 +21122,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K232">
         <v>2</v>
@@ -21181,7 +21187,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,76 +21199,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K233">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M233">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N233">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O233">
         <v>3.2</v>
       </c>
       <c r="P233">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X233">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA233">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC233">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21270,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,76 +21288,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K234">
+        <v>4.75</v>
+      </c>
+      <c r="L234">
+        <v>3.4</v>
+      </c>
+      <c r="M234">
         <v>1.7</v>
       </c>
-      <c r="L234">
-        <v>3</v>
-      </c>
-      <c r="M234">
-        <v>5.75</v>
-      </c>
       <c r="N234">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O234">
         <v>3.2</v>
       </c>
       <c r="P234">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q234">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R234">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S234">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V234">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W234">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB234">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21383,7 +21389,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K235">
         <v>2</v>
@@ -21448,7 +21454,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7013409</v>
+        <v>7013885</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,76 +21466,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
         <v>49</v>
       </c>
       <c r="K236">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L236">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M236">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N236">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O236">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P236">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S236">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U236">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V236">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21543,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,10 +21555,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21561,43 +21567,43 @@
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K237">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L237">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N237">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O237">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S237">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21606,19 +21612,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21650,7 +21656,7 @@
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K238">
         <v>2.25</v>
@@ -21715,7 +21721,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,76 +21733,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K239">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M239">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O239">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q239">
         <v>-0.75</v>
       </c>
       <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
         <v>2.05</v>
       </c>
-      <c r="S239">
-        <v>1.8</v>
-      </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V239">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21828,7 +21834,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K240">
         <v>2.75</v>
@@ -21886,6 +21892,524 @@
       </c>
       <c r="AC240">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>7797510</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>29</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45338.85416666666</v>
+      </c>
+      <c r="F241" t="s">
+        <v>36</v>
+      </c>
+      <c r="G241" t="s">
+        <v>40</v>
+      </c>
+      <c r="K241">
+        <v>1.6</v>
+      </c>
+      <c r="L241">
+        <v>4</v>
+      </c>
+      <c r="M241">
+        <v>5.5</v>
+      </c>
+      <c r="N241">
+        <v>1.533</v>
+      </c>
+      <c r="O241">
+        <v>4</v>
+      </c>
+      <c r="P241">
+        <v>6</v>
+      </c>
+      <c r="Q241">
+        <v>-1</v>
+      </c>
+      <c r="R241">
+        <v>2</v>
+      </c>
+      <c r="S241">
+        <v>1.85</v>
+      </c>
+      <c r="T241">
+        <v>2.25</v>
+      </c>
+      <c r="U241">
+        <v>1.8</v>
+      </c>
+      <c r="V241">
+        <v>2.05</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>7797528</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>29</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45339.70833333334</v>
+      </c>
+      <c r="F242" t="s">
+        <v>39</v>
+      </c>
+      <c r="G242" t="s">
+        <v>43</v>
+      </c>
+      <c r="K242">
+        <v>2.6</v>
+      </c>
+      <c r="L242">
+        <v>2.9</v>
+      </c>
+      <c r="M242">
+        <v>2.9</v>
+      </c>
+      <c r="N242">
+        <v>2.875</v>
+      </c>
+      <c r="O242">
+        <v>2.9</v>
+      </c>
+      <c r="P242">
+        <v>2.625</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>1.95</v>
+      </c>
+      <c r="S242">
+        <v>1.9</v>
+      </c>
+      <c r="T242">
+        <v>2</v>
+      </c>
+      <c r="U242">
+        <v>2.025</v>
+      </c>
+      <c r="V242">
+        <v>1.825</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7797532</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>29</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45339.80208333334</v>
+      </c>
+      <c r="F243" t="s">
+        <v>47</v>
+      </c>
+      <c r="G243" t="s">
+        <v>48</v>
+      </c>
+      <c r="K243">
+        <v>2.5</v>
+      </c>
+      <c r="L243">
+        <v>3.2</v>
+      </c>
+      <c r="M243">
+        <v>2.8</v>
+      </c>
+      <c r="N243">
+        <v>2.5</v>
+      </c>
+      <c r="O243">
+        <v>3.2</v>
+      </c>
+      <c r="P243">
+        <v>2.8</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>1.85</v>
+      </c>
+      <c r="S243">
+        <v>2</v>
+      </c>
+      <c r="T243">
+        <v>2</v>
+      </c>
+      <c r="U243">
+        <v>1.8</v>
+      </c>
+      <c r="V243">
+        <v>2.05</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>7797529</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>29</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45339.89583333334</v>
+      </c>
+      <c r="F244" t="s">
+        <v>41</v>
+      </c>
+      <c r="G244" t="s">
+        <v>42</v>
+      </c>
+      <c r="K244">
+        <v>2.3</v>
+      </c>
+      <c r="L244">
+        <v>3.2</v>
+      </c>
+      <c r="M244">
+        <v>3.1</v>
+      </c>
+      <c r="N244">
+        <v>2.3</v>
+      </c>
+      <c r="O244">
+        <v>3.2</v>
+      </c>
+      <c r="P244">
+        <v>3.1</v>
+      </c>
+      <c r="Q244">
+        <v>-0.25</v>
+      </c>
+      <c r="R244">
+        <v>2.05</v>
+      </c>
+      <c r="S244">
+        <v>1.8</v>
+      </c>
+      <c r="T244">
+        <v>2.25</v>
+      </c>
+      <c r="U244">
+        <v>1.95</v>
+      </c>
+      <c r="V244">
+        <v>1.9</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>7797530</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>29</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45340.41666666666</v>
+      </c>
+      <c r="F245" t="s">
+        <v>45</v>
+      </c>
+      <c r="G245" t="s">
+        <v>44</v>
+      </c>
+      <c r="K245">
+        <v>2.4</v>
+      </c>
+      <c r="L245">
+        <v>3</v>
+      </c>
+      <c r="M245">
+        <v>3.25</v>
+      </c>
+      <c r="N245">
+        <v>2.5</v>
+      </c>
+      <c r="O245">
+        <v>3</v>
+      </c>
+      <c r="P245">
+        <v>3.1</v>
+      </c>
+      <c r="Q245">
+        <v>-0.25</v>
+      </c>
+      <c r="R245">
+        <v>2.125</v>
+      </c>
+      <c r="S245">
+        <v>1.75</v>
+      </c>
+      <c r="T245">
+        <v>2</v>
+      </c>
+      <c r="U245">
+        <v>1.95</v>
+      </c>
+      <c r="V245">
+        <v>1.9</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>7796575</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>29</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45340.70833333334</v>
+      </c>
+      <c r="F246" t="s">
+        <v>31</v>
+      </c>
+      <c r="G246" t="s">
+        <v>46</v>
+      </c>
+      <c r="K246">
+        <v>3.8</v>
+      </c>
+      <c r="L246">
+        <v>3.3</v>
+      </c>
+      <c r="M246">
+        <v>1.95</v>
+      </c>
+      <c r="N246">
+        <v>3.8</v>
+      </c>
+      <c r="O246">
+        <v>3.3</v>
+      </c>
+      <c r="P246">
+        <v>1.95</v>
+      </c>
+      <c r="Q246">
+        <v>0.5</v>
+      </c>
+      <c r="R246">
+        <v>1.825</v>
+      </c>
+      <c r="S246">
+        <v>2.025</v>
+      </c>
+      <c r="T246">
+        <v>2.25</v>
+      </c>
+      <c r="U246">
+        <v>1.975</v>
+      </c>
+      <c r="V246">
+        <v>1.875</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>7797533</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>29</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45340.83333333334</v>
+      </c>
+      <c r="F247" t="s">
+        <v>33</v>
+      </c>
+      <c r="G247" t="s">
+        <v>32</v>
+      </c>
+      <c r="K247">
+        <v>5.25</v>
+      </c>
+      <c r="L247">
+        <v>3.5</v>
+      </c>
+      <c r="M247">
+        <v>1.7</v>
+      </c>
+      <c r="N247">
+        <v>5.5</v>
+      </c>
+      <c r="O247">
+        <v>3.5</v>
+      </c>
+      <c r="P247">
+        <v>1.666</v>
+      </c>
+      <c r="Q247">
+        <v>0.75</v>
+      </c>
+      <c r="R247">
+        <v>1.975</v>
+      </c>
+      <c r="S247">
+        <v>1.875</v>
+      </c>
+      <c r="T247">
+        <v>2</v>
+      </c>
+      <c r="U247">
+        <v>1.825</v>
+      </c>
+      <c r="V247">
+        <v>2.025</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -21187,7 +21187,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21199,76 +21199,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K233">
+        <v>4.75</v>
+      </c>
+      <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
         <v>1.7</v>
       </c>
-      <c r="L233">
-        <v>3</v>
-      </c>
-      <c r="M233">
-        <v>5.75</v>
-      </c>
       <c r="N233">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O233">
         <v>3.2</v>
       </c>
       <c r="P233">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q233">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S233">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W233">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB233">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21276,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21288,76 +21288,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K234">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M234">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N234">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O234">
         <v>3.2</v>
       </c>
       <c r="P234">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q234">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S234">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V234">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X234">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA234">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC234">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21632,7 +21632,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21644,76 +21644,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K238">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M238">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N238">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O238">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P238">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
+        <v>1.8</v>
+      </c>
+      <c r="S238">
+        <v>2.05</v>
+      </c>
+      <c r="T238">
+        <v>2.75</v>
+      </c>
+      <c r="U238">
         <v>1.95</v>
       </c>
-      <c r="S238">
+      <c r="V238">
         <v>1.9</v>
       </c>
-      <c r="T238">
-        <v>2</v>
-      </c>
-      <c r="U238">
-        <v>1.925</v>
-      </c>
-      <c r="V238">
-        <v>1.925</v>
-      </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y238">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
+        <v>1.05</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB238">
-        <v>-1</v>
-      </c>
-      <c r="AC238">
-        <v>0.925</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21721,7 +21721,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21733,76 +21733,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K239">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L239">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N239">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O239">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P239">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21926,7 +21926,7 @@
         <v>5.5</v>
       </c>
       <c r="N241">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O241">
         <v>4</v>
@@ -21947,10 +21947,10 @@
         <v>2.25</v>
       </c>
       <c r="U241">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V241">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -22012,10 +22012,10 @@
         <v>0</v>
       </c>
       <c r="R242">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S242">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T242">
         <v>2</v>
@@ -22074,22 +22074,22 @@
         <v>2.8</v>
       </c>
       <c r="N243">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O243">
         <v>3.2</v>
       </c>
       <c r="P243">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q243">
         <v>0</v>
       </c>
       <c r="R243">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S243">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="T243">
         <v>2</v>
@@ -22148,31 +22148,31 @@
         <v>3.1</v>
       </c>
       <c r="N244">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O244">
         <v>3.2</v>
       </c>
       <c r="P244">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q244">
         <v>-0.25</v>
       </c>
       <c r="R244">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S244">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T244">
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V244">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22222,7 +22222,7 @@
         <v>3.25</v>
       </c>
       <c r="N245">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O245">
         <v>3</v>
@@ -22231,13 +22231,13 @@
         <v>3.1</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R245">
+        <v>1.75</v>
+      </c>
+      <c r="S245">
         <v>2.125</v>
-      </c>
-      <c r="S245">
-        <v>1.75</v>
       </c>
       <c r="T245">
         <v>2</v>
@@ -22296,22 +22296,22 @@
         <v>1.95</v>
       </c>
       <c r="N246">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O246">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P246">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q246">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S246">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T246">
         <v>2.25</v>
@@ -22382,19 +22382,19 @@
         <v>0.75</v>
       </c>
       <c r="R247">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S247">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T247">
         <v>2</v>
       </c>
       <c r="U247">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V247">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W247">
         <v>0</v>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC247"/>
+  <dimension ref="A1:AC253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21187,7 +21187,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21199,76 +21199,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K233">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M233">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N233">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O233">
         <v>3.2</v>
       </c>
       <c r="P233">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X233">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA233">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC233">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21276,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21288,76 +21288,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K234">
+        <v>4.75</v>
+      </c>
+      <c r="L234">
+        <v>3.4</v>
+      </c>
+      <c r="M234">
         <v>1.7</v>
       </c>
-      <c r="L234">
-        <v>3</v>
-      </c>
-      <c r="M234">
-        <v>5.75</v>
-      </c>
       <c r="N234">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O234">
         <v>3.2</v>
       </c>
       <c r="P234">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q234">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R234">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S234">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V234">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W234">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB234">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21454,7 +21454,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7013885</v>
+        <v>7013409</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21466,76 +21466,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K236">
+        <v>1.666</v>
+      </c>
+      <c r="L236">
+        <v>3.9</v>
+      </c>
+      <c r="M236">
+        <v>4.5</v>
+      </c>
+      <c r="N236">
+        <v>1.615</v>
+      </c>
+      <c r="O236">
+        <v>4</v>
+      </c>
+      <c r="P236">
+        <v>4.75</v>
+      </c>
+      <c r="Q236">
+        <v>-0.75</v>
+      </c>
+      <c r="R236">
+        <v>1.8</v>
+      </c>
+      <c r="S236">
+        <v>2.05</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
+        <v>1.95</v>
+      </c>
+      <c r="V236">
+        <v>1.9</v>
+      </c>
+      <c r="W236">
+        <v>-1</v>
+      </c>
+      <c r="X236">
         <v>3</v>
       </c>
-      <c r="L236">
-        <v>3</v>
-      </c>
-      <c r="M236">
-        <v>2.4</v>
-      </c>
-      <c r="N236">
-        <v>2.9</v>
-      </c>
-      <c r="O236">
-        <v>2.75</v>
-      </c>
-      <c r="P236">
-        <v>2.6</v>
-      </c>
-      <c r="Q236">
-        <v>0</v>
-      </c>
-      <c r="R236">
-        <v>2.025</v>
-      </c>
-      <c r="S236">
-        <v>1.825</v>
-      </c>
-      <c r="T236">
-        <v>2</v>
-      </c>
-      <c r="U236">
-        <v>2.025</v>
-      </c>
-      <c r="V236">
-        <v>1.825</v>
-      </c>
-      <c r="W236">
-        <v>-1</v>
-      </c>
-      <c r="X236">
-        <v>-1</v>
-      </c>
       <c r="Y236">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21632,7 +21632,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21644,76 +21644,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L238">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M238">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N238">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O238">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P238">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U238">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21721,7 +21721,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7013886</v>
+        <v>7013885</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21733,55 +21733,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
         <v>49</v>
       </c>
       <c r="K239">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L239">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M239">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N239">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O239">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P239">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R239">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T239">
         <v>2</v>
       </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V239">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
         <v>-1</v>
@@ -21790,19 +21790,19 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC239">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21894,7 +21894,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:29">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -21916,6 +21916,15 @@
       <c r="G241" t="s">
         <v>40</v>
       </c>
+      <c r="H241">
+        <v>2</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241" t="s">
+        <v>50</v>
+      </c>
       <c r="K241">
         <v>1.6</v>
       </c>
@@ -21953,22 +21962,28 @@
         <v>2.025</v>
       </c>
       <c r="W241">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="X241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
         <v>0</v>
       </c>
       <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB241">
+        <v>0.825</v>
+      </c>
+      <c r="AC241">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -21990,6 +22005,15 @@
       <c r="G242" t="s">
         <v>43</v>
       </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+      <c r="J242" t="s">
+        <v>49</v>
+      </c>
       <c r="K242">
         <v>2.6</v>
       </c>
@@ -22000,49 +22024,55 @@
         <v>2.9</v>
       </c>
       <c r="N242">
+        <v>2.75</v>
+      </c>
+      <c r="O242">
         <v>2.875</v>
       </c>
-      <c r="O242">
-        <v>2.9</v>
-      </c>
       <c r="P242">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="Q242">
         <v>0</v>
       </c>
       <c r="R242">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S242">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T242">
         <v>2</v>
       </c>
       <c r="U242">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB242">
+        <v>1.1</v>
+      </c>
+      <c r="AC242">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -22064,6 +22094,15 @@
       <c r="G243" t="s">
         <v>48</v>
       </c>
+      <c r="H243">
+        <v>2</v>
+      </c>
+      <c r="I243">
+        <v>3</v>
+      </c>
+      <c r="J243" t="s">
+        <v>49</v>
+      </c>
       <c r="K243">
         <v>2.5</v>
       </c>
@@ -22074,49 +22113,55 @@
         <v>2.8</v>
       </c>
       <c r="N243">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O243">
         <v>3.2</v>
       </c>
       <c r="P243">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q243">
         <v>0</v>
       </c>
       <c r="R243">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S243">
-        <v>2.125</v>
+        <v>2.075</v>
       </c>
       <c r="T243">
         <v>2</v>
       </c>
       <c r="U243">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V243">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27">
+        <v>1.075</v>
+      </c>
+      <c r="AB243">
+        <v>0.825</v>
+      </c>
+      <c r="AC243">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -22138,6 +22183,15 @@
       <c r="G244" t="s">
         <v>42</v>
       </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>2</v>
+      </c>
+      <c r="J244" t="s">
+        <v>49</v>
+      </c>
       <c r="K244">
         <v>2.3</v>
       </c>
@@ -22154,7 +22208,7 @@
         <v>3.2</v>
       </c>
       <c r="P244">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q244">
         <v>-0.25</v>
@@ -22169,28 +22223,34 @@
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V244">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB244">
+        <v>0.95</v>
+      </c>
+      <c r="AC244">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -22212,6 +22272,15 @@
       <c r="G245" t="s">
         <v>44</v>
       </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245" t="s">
+        <v>51</v>
+      </c>
       <c r="K245">
         <v>2.4</v>
       </c>
@@ -22222,49 +22291,55 @@
         <v>3.25</v>
       </c>
       <c r="N245">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O245">
         <v>3</v>
       </c>
       <c r="P245">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q245">
         <v>0</v>
       </c>
       <c r="R245">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S245">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="T245">
         <v>2</v>
       </c>
       <c r="U245">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
         <v>0</v>
       </c>
       <c r="AA245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB245">
+        <v>0</v>
+      </c>
+      <c r="AC245">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -22286,6 +22361,15 @@
       <c r="G246" t="s">
         <v>46</v>
       </c>
+      <c r="H246">
+        <v>2</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+      <c r="J246" t="s">
+        <v>51</v>
+      </c>
       <c r="K246">
         <v>3.8</v>
       </c>
@@ -22296,49 +22380,55 @@
         <v>1.95</v>
       </c>
       <c r="N246">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O246">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P246">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q246">
         <v>0.25</v>
       </c>
       <c r="R246">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S246">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V246">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X246">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB246">
+        <v>1.025</v>
+      </c>
+      <c r="AC246">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -22360,6 +22450,15 @@
       <c r="G247" t="s">
         <v>32</v>
       </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247">
+        <v>2</v>
+      </c>
+      <c r="J247" t="s">
+        <v>49</v>
+      </c>
       <c r="K247">
         <v>5.25</v>
       </c>
@@ -22370,10 +22469,10 @@
         <v>1.7</v>
       </c>
       <c r="N247">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="O247">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P247">
         <v>1.666</v>
@@ -22382,33 +22481,498 @@
         <v>0.75</v>
       </c>
       <c r="R247">
+        <v>1.9</v>
+      </c>
+      <c r="S247">
+        <v>1.95</v>
+      </c>
+      <c r="T247">
+        <v>2</v>
+      </c>
+      <c r="U247">
+        <v>1.95</v>
+      </c>
+      <c r="V247">
+        <v>1.9</v>
+      </c>
+      <c r="W247">
+        <v>-1</v>
+      </c>
+      <c r="X247">
+        <v>-1</v>
+      </c>
+      <c r="Y247">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z247">
+        <v>-0.5</v>
+      </c>
+      <c r="AA247">
+        <v>0.475</v>
+      </c>
+      <c r="AB247">
+        <v>0.95</v>
+      </c>
+      <c r="AC247">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>7825144</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>29</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45345.70833333334</v>
+      </c>
+      <c r="F248" t="s">
+        <v>40</v>
+      </c>
+      <c r="G248" t="s">
+        <v>41</v>
+      </c>
+      <c r="H248">
+        <v>3</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248" t="s">
+        <v>50</v>
+      </c>
+      <c r="K248">
+        <v>2.375</v>
+      </c>
+      <c r="L248">
+        <v>3.1</v>
+      </c>
+      <c r="M248">
+        <v>3</v>
+      </c>
+      <c r="N248">
+        <v>2.375</v>
+      </c>
+      <c r="O248">
+        <v>3.1</v>
+      </c>
+      <c r="P248">
+        <v>3</v>
+      </c>
+      <c r="Q248">
+        <v>-0.25</v>
+      </c>
+      <c r="R248">
+        <v>2.05</v>
+      </c>
+      <c r="S248">
+        <v>1.8</v>
+      </c>
+      <c r="T248">
+        <v>2.25</v>
+      </c>
+      <c r="U248">
+        <v>2.025</v>
+      </c>
+      <c r="V248">
+        <v>1.825</v>
+      </c>
+      <c r="W248">
+        <v>1.375</v>
+      </c>
+      <c r="X248">
+        <v>-1</v>
+      </c>
+      <c r="Y248">
+        <v>-1</v>
+      </c>
+      <c r="Z248">
+        <v>1.05</v>
+      </c>
+      <c r="AA248">
+        <v>-1</v>
+      </c>
+      <c r="AB248">
+        <v>1.025</v>
+      </c>
+      <c r="AC248">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>7825143</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>29</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45346.70833333334</v>
+      </c>
+      <c r="F249" t="s">
+        <v>42</v>
+      </c>
+      <c r="G249" t="s">
+        <v>43</v>
+      </c>
+      <c r="K249">
+        <v>2.75</v>
+      </c>
+      <c r="L249">
+        <v>3.1</v>
+      </c>
+      <c r="M249">
+        <v>2.5</v>
+      </c>
+      <c r="N249">
+        <v>2.55</v>
+      </c>
+      <c r="O249">
+        <v>3.1</v>
+      </c>
+      <c r="P249">
+        <v>2.7</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>1.875</v>
+      </c>
+      <c r="S249">
+        <v>1.975</v>
+      </c>
+      <c r="T249">
+        <v>2.25</v>
+      </c>
+      <c r="U249">
+        <v>1.95</v>
+      </c>
+      <c r="V249">
+        <v>1.9</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>7825103</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>29</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45346.83333333334</v>
+      </c>
+      <c r="F250" t="s">
+        <v>32</v>
+      </c>
+      <c r="G250" t="s">
+        <v>47</v>
+      </c>
+      <c r="K250">
+        <v>1.4</v>
+      </c>
+      <c r="L250">
+        <v>4</v>
+      </c>
+      <c r="M250">
+        <v>9</v>
+      </c>
+      <c r="N250">
+        <v>1.363</v>
+      </c>
+      <c r="O250">
+        <v>4.333</v>
+      </c>
+      <c r="P250">
+        <v>9</v>
+      </c>
+      <c r="Q250">
+        <v>-1.25</v>
+      </c>
+      <c r="R250">
+        <v>1.875</v>
+      </c>
+      <c r="S250">
+        <v>1.975</v>
+      </c>
+      <c r="T250">
+        <v>2.5</v>
+      </c>
+      <c r="U250">
+        <v>1.975</v>
+      </c>
+      <c r="V250">
+        <v>1.875</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>7825146</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>29</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45347.41666666666</v>
+      </c>
+      <c r="F251" t="s">
+        <v>33</v>
+      </c>
+      <c r="G251" t="s">
+        <v>39</v>
+      </c>
+      <c r="K251">
+        <v>2.625</v>
+      </c>
+      <c r="L251">
+        <v>2.875</v>
+      </c>
+      <c r="M251">
+        <v>2.75</v>
+      </c>
+      <c r="N251">
+        <v>2.45</v>
+      </c>
+      <c r="O251">
+        <v>2.875</v>
+      </c>
+      <c r="P251">
+        <v>3</v>
+      </c>
+      <c r="Q251">
+        <v>-0.25</v>
+      </c>
+      <c r="R251">
+        <v>2.125</v>
+      </c>
+      <c r="S251">
+        <v>1.75</v>
+      </c>
+      <c r="T251">
+        <v>2</v>
+      </c>
+      <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
+        <v>1.875</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>7825104</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>29</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45347.70833333334</v>
+      </c>
+      <c r="F252" t="s">
+        <v>46</v>
+      </c>
+      <c r="G252" t="s">
+        <v>36</v>
+      </c>
+      <c r="K252">
+        <v>2.875</v>
+      </c>
+      <c r="L252">
+        <v>3.3</v>
+      </c>
+      <c r="M252">
+        <v>2.375</v>
+      </c>
+      <c r="N252">
+        <v>2.75</v>
+      </c>
+      <c r="O252">
+        <v>3.3</v>
+      </c>
+      <c r="P252">
+        <v>2.45</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>2.05</v>
+      </c>
+      <c r="S252">
+        <v>1.8</v>
+      </c>
+      <c r="T252">
+        <v>2.5</v>
+      </c>
+      <c r="U252">
         <v>1.925</v>
       </c>
-      <c r="S247">
+      <c r="V252">
         <v>1.925</v>
       </c>
-      <c r="T247">
-        <v>2</v>
-      </c>
-      <c r="U247">
-        <v>1.85</v>
-      </c>
-      <c r="V247">
-        <v>2</v>
-      </c>
-      <c r="W247">
-        <v>0</v>
-      </c>
-      <c r="X247">
-        <v>0</v>
-      </c>
-      <c r="Y247">
-        <v>0</v>
-      </c>
-      <c r="Z247">
-        <v>0</v>
-      </c>
-      <c r="AA247">
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>7825147</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>29</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45347.8125</v>
+      </c>
+      <c r="F253" t="s">
+        <v>38</v>
+      </c>
+      <c r="G253" t="s">
+        <v>45</v>
+      </c>
+      <c r="K253">
+        <v>1.727</v>
+      </c>
+      <c r="L253">
+        <v>3.6</v>
+      </c>
+      <c r="M253">
+        <v>4.333</v>
+      </c>
+      <c r="N253">
+        <v>1.7</v>
+      </c>
+      <c r="O253">
+        <v>3.6</v>
+      </c>
+      <c r="P253">
+        <v>4.5</v>
+      </c>
+      <c r="Q253">
+        <v>-0.75</v>
+      </c>
+      <c r="R253">
+        <v>1.975</v>
+      </c>
+      <c r="S253">
+        <v>1.875</v>
+      </c>
+      <c r="T253">
+        <v>2.5</v>
+      </c>
+      <c r="U253">
+        <v>2.05</v>
+      </c>
+      <c r="V253">
+        <v>1.8</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -21454,7 +21454,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7013409</v>
+        <v>7013885</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21466,76 +21466,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K236">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L236">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M236">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N236">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O236">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P236">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S236">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U236">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V236">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21721,7 +21721,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7013885</v>
+        <v>7013409</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21733,76 +21733,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K239">
+        <v>1.666</v>
+      </c>
+      <c r="L239">
+        <v>3.9</v>
+      </c>
+      <c r="M239">
+        <v>4.5</v>
+      </c>
+      <c r="N239">
+        <v>1.615</v>
+      </c>
+      <c r="O239">
+        <v>4</v>
+      </c>
+      <c r="P239">
+        <v>4.75</v>
+      </c>
+      <c r="Q239">
+        <v>-0.75</v>
+      </c>
+      <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2.05</v>
+      </c>
+      <c r="T239">
+        <v>2.75</v>
+      </c>
+      <c r="U239">
+        <v>1.95</v>
+      </c>
+      <c r="V239">
+        <v>1.9</v>
+      </c>
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
         <v>3</v>
       </c>
-      <c r="L239">
-        <v>3</v>
-      </c>
-      <c r="M239">
-        <v>2.4</v>
-      </c>
-      <c r="N239">
-        <v>2.9</v>
-      </c>
-      <c r="O239">
-        <v>2.75</v>
-      </c>
-      <c r="P239">
-        <v>2.6</v>
-      </c>
-      <c r="Q239">
-        <v>0</v>
-      </c>
-      <c r="R239">
-        <v>2.025</v>
-      </c>
-      <c r="S239">
-        <v>1.825</v>
-      </c>
-      <c r="T239">
-        <v>2</v>
-      </c>
-      <c r="U239">
-        <v>2.025</v>
-      </c>
-      <c r="V239">
-        <v>1.825</v>
-      </c>
-      <c r="W239">
-        <v>-1</v>
-      </c>
-      <c r="X239">
-        <v>-1</v>
-      </c>
       <c r="Y239">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -22611,7 +22611,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7825143</v>
+        <v>7825145</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22620,64 +22620,79 @@
         <v>29</v>
       </c>
       <c r="E249" s="2">
-        <v>45346.70833333334</v>
+        <v>45345.85416666666</v>
       </c>
       <c r="F249" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G249" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249" t="s">
+        <v>49</v>
       </c>
       <c r="K249">
+        <v>2.5</v>
+      </c>
+      <c r="L249">
+        <v>3.2</v>
+      </c>
+      <c r="M249">
         <v>2.75</v>
       </c>
-      <c r="L249">
-        <v>3.1</v>
-      </c>
-      <c r="M249">
-        <v>2.5</v>
-      </c>
       <c r="N249">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O249">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P249">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q249">
         <v>0</v>
       </c>
       <c r="R249">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S249">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T249">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V249">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W249">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X249">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="Z249">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB249">
+        <v>-1</v>
+      </c>
+      <c r="AC249">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22685,7 +22700,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7825103</v>
+        <v>7825143</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22694,34 +22709,43 @@
         <v>29</v>
       </c>
       <c r="E250" s="2">
-        <v>45346.83333333334</v>
+        <v>45346.70833333334</v>
       </c>
       <c r="F250" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G250" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250" t="s">
+        <v>51</v>
       </c>
       <c r="K250">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M250">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N250">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O250">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P250">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q250">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R250">
         <v>1.875</v>
@@ -22730,7 +22754,7 @@
         <v>1.975</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U250">
         <v>1.975</v>
@@ -22739,19 +22763,25 @@
         <v>1.875</v>
       </c>
       <c r="W250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X250">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
         <v>0</v>
       </c>
       <c r="AA250">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB250">
+        <v>-1</v>
+      </c>
+      <c r="AC250">
+        <v>0.875</v>
       </c>
     </row>
     <row r="251" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -21543,7 +21543,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21555,55 +21555,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G237" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H237">
         <v>0</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
         <v>49</v>
       </c>
       <c r="K237">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L237">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M237">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N237">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P237">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S237">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21612,19 +21612,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21632,7 +21632,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21644,76 +21644,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K238">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M238">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N238">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O238">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P238">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
+        <v>1.8</v>
+      </c>
+      <c r="S238">
+        <v>2.05</v>
+      </c>
+      <c r="T238">
+        <v>2.75</v>
+      </c>
+      <c r="U238">
         <v>1.95</v>
       </c>
-      <c r="S238">
+      <c r="V238">
         <v>1.9</v>
       </c>
-      <c r="T238">
-        <v>2</v>
-      </c>
-      <c r="U238">
-        <v>1.925</v>
-      </c>
-      <c r="V238">
-        <v>1.925</v>
-      </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y238">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
+        <v>1.05</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB238">
-        <v>-1</v>
-      </c>
-      <c r="AC238">
-        <v>0.925</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21721,7 +21721,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21733,76 +21733,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G239" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K239">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L239">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N239">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O239">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P239">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q239">
         <v>-0.75</v>
       </c>
       <c r="R239">
+        <v>2.05</v>
+      </c>
+      <c r="S239">
         <v>1.8</v>
       </c>
-      <c r="S239">
-        <v>2.05</v>
-      </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC239">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -22902,19 +22902,19 @@
         <v>0</v>
       </c>
       <c r="R252">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S252">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T252">
         <v>2.5</v>
       </c>
       <c r="U252">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V252">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W252">
         <v>0</v>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,76 +10608,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K114">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N114">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,76 +10697,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K115">
+        <v>4.75</v>
+      </c>
+      <c r="L115">
+        <v>3.4</v>
+      </c>
+      <c r="M115">
         <v>1.7</v>
       </c>
-      <c r="L115">
-        <v>3</v>
-      </c>
-      <c r="M115">
-        <v>5.75</v>
-      </c>
       <c r="N115">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,55 +10875,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>50</v>
       </c>
       <c r="K117">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N117">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10932,19 +10932,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013885</v>
+        <v>7013409</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,76 +10964,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K118">
+        <v>1.666</v>
+      </c>
+      <c r="L118">
+        <v>3.9</v>
+      </c>
+      <c r="M118">
+        <v>4.5</v>
+      </c>
+      <c r="N118">
+        <v>1.615</v>
+      </c>
+      <c r="O118">
+        <v>4</v>
+      </c>
+      <c r="P118">
+        <v>4.75</v>
+      </c>
+      <c r="Q118">
+        <v>-0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
+        <v>2.05</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.95</v>
+      </c>
+      <c r="V118">
+        <v>1.9</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
         <v>3</v>
       </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
-        <v>2.4</v>
-      </c>
-      <c r="N118">
-        <v>2.9</v>
-      </c>
-      <c r="O118">
-        <v>2.75</v>
-      </c>
-      <c r="P118">
-        <v>2.6</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>2.025</v>
-      </c>
-      <c r="S118">
-        <v>1.825</v>
-      </c>
-      <c r="T118">
-        <v>2</v>
-      </c>
-      <c r="U118">
-        <v>2.025</v>
-      </c>
-      <c r="V118">
-        <v>1.825</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
       <c r="Y118">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013886</v>
+        <v>7013885</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,55 +11053,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>50</v>
       </c>
       <c r="K119">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N119">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P119">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11110,19 +11110,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,76 +11142,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L120">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N120">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
         <v>1.8</v>
       </c>
-      <c r="S120">
-        <v>2.05</v>
-      </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -12458,6 +12458,95 @@
       </c>
       <c r="AC134">
         <v>0.875</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7825147</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45347.8125</v>
+      </c>
+      <c r="F135" t="s">
+        <v>40</v>
+      </c>
+      <c r="G135" t="s">
+        <v>34</v>
+      </c>
+      <c r="H135">
+        <v>5</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>51</v>
+      </c>
+      <c r="K135">
+        <v>1.727</v>
+      </c>
+      <c r="L135">
+        <v>3.6</v>
+      </c>
+      <c r="M135">
+        <v>4.333</v>
+      </c>
+      <c r="N135">
+        <v>1.666</v>
+      </c>
+      <c r="O135">
+        <v>3.6</v>
+      </c>
+      <c r="P135">
+        <v>4.75</v>
+      </c>
+      <c r="Q135">
+        <v>-0.75</v>
+      </c>
+      <c r="R135">
+        <v>1.975</v>
+      </c>
+      <c r="S135">
+        <v>1.875</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
+        <v>2.025</v>
+      </c>
+      <c r="W135">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
+        <v>0.825</v>
+      </c>
+      <c r="AC135">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC135"/>
+  <dimension ref="A1:AC142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10875,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M117">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O117">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
+        <v>1.8</v>
+      </c>
+      <c r="S117">
+        <v>2.05</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
         <v>1.95</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.9</v>
       </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.925</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y117">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
+        <v>1.05</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB117">
-        <v>-1</v>
-      </c>
-      <c r="AC117">
-        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013409</v>
+        <v>7013885</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,76 +10964,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N118">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,10 +11053,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11068,40 +11068,40 @@
         <v>50</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O119">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11110,19 +11110,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,55 +11142,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>50</v>
       </c>
       <c r="K120">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11199,19 +11199,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -12547,6 +12547,524 @@
       </c>
       <c r="AC135">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7870599</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45352.70833333334</v>
+      </c>
+      <c r="F136" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" t="s">
+        <v>48</v>
+      </c>
+      <c r="K136">
+        <v>2.05</v>
+      </c>
+      <c r="L136">
+        <v>3.1</v>
+      </c>
+      <c r="M136">
+        <v>3.75</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136">
+        <v>3.1</v>
+      </c>
+      <c r="P136">
+        <v>4</v>
+      </c>
+      <c r="Q136">
+        <v>-0.5</v>
+      </c>
+      <c r="R136">
+        <v>2.05</v>
+      </c>
+      <c r="S136">
+        <v>1.8</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>2.025</v>
+      </c>
+      <c r="V136">
+        <v>1.825</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7870600</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>30</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45352.8125</v>
+      </c>
+      <c r="F137" t="s">
+        <v>47</v>
+      </c>
+      <c r="G137" t="s">
+        <v>42</v>
+      </c>
+      <c r="K137">
+        <v>2.875</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>2.5</v>
+      </c>
+      <c r="N137">
+        <v>2.9</v>
+      </c>
+      <c r="O137">
+        <v>3</v>
+      </c>
+      <c r="P137">
+        <v>2.45</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>2.125</v>
+      </c>
+      <c r="S137">
+        <v>1.75</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
+        <v>1.85</v>
+      </c>
+      <c r="V137">
+        <v>2</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7870604</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>30</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F138" t="s">
+        <v>43</v>
+      </c>
+      <c r="G138" t="s">
+        <v>40</v>
+      </c>
+      <c r="K138">
+        <v>3.75</v>
+      </c>
+      <c r="L138">
+        <v>3.2</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>3.8</v>
+      </c>
+      <c r="O138">
+        <v>3.2</v>
+      </c>
+      <c r="P138">
+        <v>2</v>
+      </c>
+      <c r="Q138">
+        <v>0.5</v>
+      </c>
+      <c r="R138">
+        <v>1.8</v>
+      </c>
+      <c r="S138">
+        <v>2.05</v>
+      </c>
+      <c r="T138">
+        <v>2.25</v>
+      </c>
+      <c r="U138">
+        <v>2</v>
+      </c>
+      <c r="V138">
+        <v>1.85</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>7870605</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>30</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45353.70833333334</v>
+      </c>
+      <c r="F139" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" t="s">
+        <v>32</v>
+      </c>
+      <c r="K139">
+        <v>2.1</v>
+      </c>
+      <c r="L139">
+        <v>3.1</v>
+      </c>
+      <c r="M139">
+        <v>3.6</v>
+      </c>
+      <c r="N139">
+        <v>2.1</v>
+      </c>
+      <c r="O139">
+        <v>3.1</v>
+      </c>
+      <c r="P139">
+        <v>3.6</v>
+      </c>
+      <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.825</v>
+      </c>
+      <c r="S139">
+        <v>2.025</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
+        <v>1.9</v>
+      </c>
+      <c r="V139">
+        <v>1.95</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7870606</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45353.83333333334</v>
+      </c>
+      <c r="F140" t="s">
+        <v>46</v>
+      </c>
+      <c r="G140" t="s">
+        <v>35</v>
+      </c>
+      <c r="K140">
+        <v>1.533</v>
+      </c>
+      <c r="L140">
+        <v>4</v>
+      </c>
+      <c r="M140">
+        <v>5.5</v>
+      </c>
+      <c r="N140">
+        <v>1.571</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140">
+        <v>5.25</v>
+      </c>
+      <c r="Q140">
+        <v>-1</v>
+      </c>
+      <c r="R140">
+        <v>2.025</v>
+      </c>
+      <c r="S140">
+        <v>1.825</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
+        <v>1.9</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7870601</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>30</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45354.41666666666</v>
+      </c>
+      <c r="F141" t="s">
+        <v>33</v>
+      </c>
+      <c r="G141" t="s">
+        <v>36</v>
+      </c>
+      <c r="K141">
+        <v>2.375</v>
+      </c>
+      <c r="L141">
+        <v>3.1</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>2.3</v>
+      </c>
+      <c r="O141">
+        <v>3.1</v>
+      </c>
+      <c r="P141">
+        <v>3.1</v>
+      </c>
+      <c r="Q141">
+        <v>-0.25</v>
+      </c>
+      <c r="R141">
+        <v>2.025</v>
+      </c>
+      <c r="S141">
+        <v>1.825</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>2.025</v>
+      </c>
+      <c r="V141">
+        <v>1.825</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7870602</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45354.70833333334</v>
+      </c>
+      <c r="F142" t="s">
+        <v>38</v>
+      </c>
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
+      <c r="K142">
+        <v>1.909</v>
+      </c>
+      <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142">
+        <v>4</v>
+      </c>
+      <c r="N142">
+        <v>1.833</v>
+      </c>
+      <c r="O142">
+        <v>3.4</v>
+      </c>
+      <c r="P142">
+        <v>4.2</v>
+      </c>
+      <c r="Q142">
+        <v>-0.5</v>
+      </c>
+      <c r="R142">
+        <v>1.875</v>
+      </c>
+      <c r="S142">
+        <v>1.975</v>
+      </c>
+      <c r="T142">
+        <v>2.5</v>
+      </c>
+      <c r="U142">
+        <v>2.025</v>
+      </c>
+      <c r="V142">
+        <v>1.825</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Miramar Misiones</t>
+  </si>
+  <si>
+    <t>Rampla Juniors</t>
   </si>
   <si>
     <t>Club Atletico Progreso</t>
@@ -652,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2">
         <v>1.95</v>
@@ -741,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>2.1</v>
@@ -830,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>3.2</v>
@@ -919,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>5.25</v>
@@ -1008,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1097,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7">
         <v>1.8</v>
@@ -1186,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8">
         <v>1.909</v>
@@ -1275,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>2.55</v>
@@ -1364,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>2.1</v>
@@ -1453,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11">
         <v>1.727</v>
@@ -1542,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12">
         <v>2.7</v>
@@ -1631,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13">
         <v>1.833</v>
@@ -1720,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>3.2</v>
@@ -1809,7 +1812,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15">
         <v>2.2</v>
@@ -1898,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>2.2</v>
@@ -1987,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>1.5</v>
@@ -2076,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18">
         <v>2.45</v>
@@ -2165,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2254,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2343,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
         <v>3.5</v>
@@ -2432,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
         <v>3.2</v>
@@ -2521,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2610,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24">
         <v>1.3</v>
@@ -2699,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25">
         <v>2.1</v>
@@ -2788,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26">
         <v>4.333</v>
@@ -2877,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27">
         <v>1.95</v>
@@ -2966,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28">
         <v>2.625</v>
@@ -3055,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29">
         <v>1.7</v>
@@ -3144,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30">
         <v>1.95</v>
@@ -3233,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31">
         <v>3.4</v>
@@ -3322,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32">
         <v>2.375</v>
@@ -3411,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
         <v>2.625</v>
@@ -3500,7 +3503,7 @@
         <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
         <v>1.909</v>
@@ -3589,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35">
         <v>1.909</v>
@@ -3678,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36">
         <v>4.333</v>
@@ -3767,7 +3770,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3856,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
         <v>3.75</v>
@@ -3945,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>2.2</v>
@@ -4034,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>2.375</v>
@@ -4123,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41">
         <v>1.4</v>
@@ -4212,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
         <v>2.375</v>
@@ -4301,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43">
         <v>2.7</v>
@@ -4390,7 +4393,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44">
         <v>2.2</v>
@@ -4479,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45">
         <v>4.2</v>
@@ -4568,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46">
         <v>2.375</v>
@@ -4657,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47">
         <v>2.3</v>
@@ -4746,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -4835,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K49">
         <v>4.2</v>
@@ -4924,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50">
         <v>1.615</v>
@@ -5013,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51">
         <v>2.3</v>
@@ -5102,7 +5105,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52">
         <v>3.1</v>
@@ -5191,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
         <v>2.875</v>
@@ -5280,7 +5283,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54">
         <v>5</v>
@@ -5369,7 +5372,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55">
         <v>1.4</v>
@@ -5458,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56">
         <v>2.5</v>
@@ -5547,7 +5550,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57">
         <v>2.5</v>
@@ -5636,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58">
         <v>2.4</v>
@@ -5725,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59">
         <v>1.909</v>
@@ -5814,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K60">
         <v>2.45</v>
@@ -5903,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61">
         <v>3.75</v>
@@ -5992,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62">
         <v>2.05</v>
@@ -6081,7 +6084,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63">
         <v>3.4</v>
@@ -6170,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64">
         <v>1.75</v>
@@ -6259,7 +6262,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65">
         <v>2.5</v>
@@ -6348,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K66">
         <v>1.615</v>
@@ -6437,7 +6440,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67">
         <v>1.909</v>
@@ -6526,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K68">
         <v>1.727</v>
@@ -6615,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K69">
         <v>2.15</v>
@@ -6704,7 +6707,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K70">
         <v>2.5</v>
@@ -6793,7 +6796,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71">
         <v>2.15</v>
@@ -6882,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K72">
         <v>2.375</v>
@@ -6971,7 +6974,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K73">
         <v>2.625</v>
@@ -7060,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7149,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75">
         <v>3.75</v>
@@ -7238,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
         <v>1.4</v>
@@ -7327,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7416,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7505,7 +7508,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K79">
         <v>1.615</v>
@@ -7594,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K80">
         <v>2.15</v>
@@ -7683,7 +7686,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K81">
         <v>2.15</v>
@@ -7772,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K82">
         <v>2.625</v>
@@ -7861,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -7950,7 +7953,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K84">
         <v>1.727</v>
@@ -8039,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K85">
         <v>3.3</v>
@@ -8128,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8217,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8306,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K88">
         <v>3.5</v>
@@ -8395,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K89">
         <v>1.8</v>
@@ -8484,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K90">
         <v>2.1</v>
@@ -8573,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K91">
         <v>4</v>
@@ -8662,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K92">
         <v>1.444</v>
@@ -8751,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K93">
         <v>2.1</v>
@@ -8840,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K94">
         <v>1.909</v>
@@ -8929,7 +8932,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K95">
         <v>3</v>
@@ -9018,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K96">
         <v>2.3</v>
@@ -9107,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K97">
         <v>1.444</v>
@@ -9196,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K98">
         <v>4.333</v>
@@ -9285,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K99">
         <v>2.625</v>
@@ -9374,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K100">
         <v>2.3</v>
@@ -9463,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K101">
         <v>1.571</v>
@@ -9552,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K102">
         <v>2.875</v>
@@ -9641,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K103">
         <v>1.6</v>
@@ -9730,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K104">
         <v>2.15</v>
@@ -9819,7 +9822,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105">
         <v>4</v>
@@ -9908,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>2.2</v>
@@ -9997,7 +10000,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K107">
         <v>2.5</v>
@@ -10086,7 +10089,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
         <v>1.533</v>
@@ -10175,7 +10178,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K109">
         <v>3.3</v>
@@ -10264,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K110">
         <v>2.1</v>
@@ -10353,7 +10356,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10442,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>2.2</v>
@@ -10531,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -10596,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K114">
+        <v>4.75</v>
+      </c>
+      <c r="L114">
+        <v>3.4</v>
+      </c>
+      <c r="M114">
         <v>1.7</v>
       </c>
-      <c r="L114">
-        <v>3</v>
-      </c>
-      <c r="M114">
-        <v>5.75</v>
-      </c>
       <c r="N114">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10798,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K116">
         <v>2</v>
@@ -10863,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10878,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K117">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L117">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N117">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q117">
         <v>-0.75</v>
       </c>
       <c r="R117">
+        <v>2.05</v>
+      </c>
+      <c r="S117">
         <v>1.8</v>
       </c>
-      <c r="S117">
-        <v>2.05</v>
-      </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013885</v>
+        <v>7013409</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,76 +10967,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>50</v>
       </c>
       <c r="K118">
+        <v>1.666</v>
+      </c>
+      <c r="L118">
+        <v>3.9</v>
+      </c>
+      <c r="M118">
+        <v>4.5</v>
+      </c>
+      <c r="N118">
+        <v>1.615</v>
+      </c>
+      <c r="O118">
+        <v>4</v>
+      </c>
+      <c r="P118">
+        <v>4.75</v>
+      </c>
+      <c r="Q118">
+        <v>-0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
+        <v>2.05</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.95</v>
+      </c>
+      <c r="V118">
+        <v>1.9</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
         <v>3</v>
       </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
-        <v>2.4</v>
-      </c>
-      <c r="N118">
-        <v>2.9</v>
-      </c>
-      <c r="O118">
-        <v>2.75</v>
-      </c>
-      <c r="P118">
-        <v>2.6</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>2.025</v>
-      </c>
-      <c r="S118">
-        <v>1.825</v>
-      </c>
-      <c r="T118">
-        <v>2</v>
-      </c>
-      <c r="U118">
-        <v>2.025</v>
-      </c>
-      <c r="V118">
-        <v>1.825</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
       <c r="Y118">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11041,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,55 +11056,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11110,19 +11113,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013886</v>
+        <v>7013885</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,55 +11145,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N120">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O120">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P120">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
         <v>2</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11199,19 +11202,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11243,7 +11246,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K121">
         <v>2.75</v>
@@ -11332,7 +11335,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K122">
         <v>1.6</v>
@@ -11421,7 +11424,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K123">
         <v>2.6</v>
@@ -11501,7 +11504,7 @@
         <v>47</v>
       </c>
       <c r="G124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11510,7 +11513,7 @@
         <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K124">
         <v>2.5</v>
@@ -11599,7 +11602,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K125">
         <v>2.3</v>
@@ -11688,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K126">
         <v>2.4</v>
@@ -11777,7 +11780,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K127">
         <v>3.8</v>
@@ -11866,7 +11869,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K128">
         <v>5.25</v>
@@ -11955,7 +11958,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K129">
         <v>2.375</v>
@@ -12044,7 +12047,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K130">
         <v>2.5</v>
@@ -12133,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
         <v>2.75</v>
@@ -12222,7 +12225,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K132">
         <v>1.4</v>
@@ -12311,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K133">
         <v>2.625</v>
@@ -12400,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K134">
         <v>2.875</v>
@@ -12489,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>1.727</v>
@@ -12569,7 +12572,16 @@
         <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="J136" t="s">
+        <v>51</v>
       </c>
       <c r="K136">
         <v>2.05</v>
@@ -12581,46 +12593,52 @@
         <v>3.75</v>
       </c>
       <c r="N136">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O136">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P136">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB136">
+        <v>1.05</v>
+      </c>
+      <c r="AC136">
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12645,6 +12663,15 @@
       <c r="G137" t="s">
         <v>42</v>
       </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>51</v>
+      </c>
       <c r="K137">
         <v>2.875</v>
       </c>
@@ -12655,7 +12682,7 @@
         <v>2.5</v>
       </c>
       <c r="N137">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O137">
         <v>3</v>
@@ -12664,37 +12691,43 @@
         <v>2.45</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
+        <v>1.75</v>
+      </c>
+      <c r="S137">
         <v>2.125</v>
       </c>
-      <c r="S137">
-        <v>1.75</v>
-      </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0</v>
+        <v>1.125</v>
+      </c>
+      <c r="AB137">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC137">
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12788,37 +12821,37 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F139" t="s">
+        <v>32</v>
+      </c>
+      <c r="G139" t="s">
         <v>37</v>
       </c>
-      <c r="G139" t="s">
-        <v>32</v>
-      </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L139">
         <v>3.1</v>
       </c>
       <c r="M139">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N139">
+        <v>3.1</v>
+      </c>
+      <c r="O139">
+        <v>3</v>
+      </c>
+      <c r="P139">
+        <v>2.4</v>
+      </c>
+      <c r="Q139">
+        <v>0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.775</v>
+      </c>
+      <c r="S139">
         <v>2.1</v>
-      </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
-      <c r="P139">
-        <v>3.6</v>
-      </c>
-      <c r="Q139">
-        <v>-0.25</v>
-      </c>
-      <c r="R139">
-        <v>1.825</v>
-      </c>
-      <c r="S139">
-        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2</v>
@@ -12850,7 +12883,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7870606</v>
+        <v>7870601</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12859,49 +12892,49 @@
         <v>30</v>
       </c>
       <c r="E140" s="2">
-        <v>45353.83333333334</v>
+        <v>45354.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K140">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N140">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -12924,7 +12957,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7870601</v>
+        <v>7870602</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12933,43 +12966,43 @@
         <v>30</v>
       </c>
       <c r="E141" s="2">
-        <v>45354.41666666666</v>
+        <v>45354.70833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K141">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N141">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
+        <v>1.825</v>
+      </c>
+      <c r="S141">
         <v>2.025</v>
       </c>
-      <c r="S141">
-        <v>1.825</v>
-      </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
         <v>2.025</v>
@@ -12998,7 +13031,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7870602</v>
+        <v>7870603</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13007,49 +13040,49 @@
         <v>30</v>
       </c>
       <c r="E142" s="2">
-        <v>45354.70833333334</v>
+        <v>45354.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K142">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L142">
         <v>3.3</v>
       </c>
       <c r="M142">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N142">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R142">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>2.025</v>
-      </c>
-      <c r="V142">
-        <v>1.825</v>
       </c>
       <c r="W142">
         <v>0</v>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K114">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N114">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K115">
+        <v>4.75</v>
+      </c>
+      <c r="L115">
+        <v>3.4</v>
+      </c>
+      <c r="M115">
         <v>1.7</v>
       </c>
-      <c r="L115">
-        <v>3</v>
-      </c>
-      <c r="M115">
-        <v>5.75</v>
-      </c>
       <c r="N115">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,10 +10878,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10893,40 +10893,40 @@
         <v>51</v>
       </c>
       <c r="K117">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M117">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N117">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10935,19 +10935,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,76 +10967,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N118">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
         <v>-0.75</v>
       </c>
       <c r="R118">
+        <v>2.05</v>
+      </c>
+      <c r="S118">
         <v>1.8</v>
       </c>
-      <c r="S118">
-        <v>2.05</v>
-      </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,76 +11056,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M119">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N119">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O119">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P119">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2.05</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.95</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.9</v>
       </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.925</v>
-      </c>
-      <c r="V119">
-        <v>1.925</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y119">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
+        <v>1.05</v>
+      </c>
+      <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB119">
-        <v>-1</v>
-      </c>
-      <c r="AC119">
-        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,55 +11145,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>51</v>
       </c>
       <c r="K120">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N120">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O120">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P120">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11202,19 +11202,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -12752,6 +12752,15 @@
       <c r="G138" t="s">
         <v>40</v>
       </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138" t="s">
+        <v>51</v>
+      </c>
       <c r="K138">
         <v>3.75</v>
       </c>
@@ -12762,46 +12771,52 @@
         <v>2</v>
       </c>
       <c r="N138">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O138">
         <v>3.2</v>
       </c>
       <c r="P138">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q138">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB138">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC138">
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12826,6 +12841,15 @@
       <c r="G139" t="s">
         <v>37</v>
       </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>52</v>
+      </c>
       <c r="K139">
         <v>3.6</v>
       </c>
@@ -12863,19 +12887,25 @@
         <v>1.95</v>
       </c>
       <c r="W139">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
+        <v>0.95</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12931,10 +12961,10 @@
         <v>2.25</v>
       </c>
       <c r="U140">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -12996,19 +13026,19 @@
         <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -13058,31 +13088,31 @@
         <v>1.909</v>
       </c>
       <c r="N142">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="Q142">
         <v>1</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
         <v>0</v>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC142"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,55 +10878,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>51</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N117">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P117">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
         <v>2</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10935,19 +10935,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,10 +10967,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10982,40 +10982,40 @@
         <v>51</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N118">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,55 +11145,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>51</v>
       </c>
       <c r="K120">
+        <v>1.8</v>
+      </c>
+      <c r="L120">
+        <v>3.6</v>
+      </c>
+      <c r="M120">
+        <v>4.2</v>
+      </c>
+      <c r="N120">
+        <v>1.8</v>
+      </c>
+      <c r="O120">
+        <v>3.6</v>
+      </c>
+      <c r="P120">
+        <v>4.2</v>
+      </c>
+      <c r="Q120">
+        <v>-0.75</v>
+      </c>
+      <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
+        <v>1.8</v>
+      </c>
+      <c r="T120">
         <v>2.25</v>
       </c>
-      <c r="L120">
-        <v>3.1</v>
-      </c>
-      <c r="M120">
-        <v>3.25</v>
-      </c>
-      <c r="N120">
-        <v>2.25</v>
-      </c>
-      <c r="O120">
-        <v>2.875</v>
-      </c>
-      <c r="P120">
-        <v>3.5</v>
-      </c>
-      <c r="Q120">
-        <v>-0.25</v>
-      </c>
-      <c r="R120">
-        <v>1.95</v>
-      </c>
-      <c r="S120">
-        <v>1.9</v>
-      </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11202,19 +11202,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7870601</v>
+        <v>7870606</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,64 +12922,79 @@
         <v>30</v>
       </c>
       <c r="E140" s="2">
-        <v>45354.41666666666</v>
+        <v>45353.83333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H140">
+        <v>3</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>52</v>
       </c>
       <c r="K140">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L140">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N140">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P140">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB140">
+        <v>0.925</v>
+      </c>
+      <c r="AC140">
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7870602</v>
+        <v>7870601</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12996,64 +13011,79 @@
         <v>30</v>
       </c>
       <c r="E141" s="2">
-        <v>45354.70833333334</v>
+        <v>45354.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>51</v>
       </c>
       <c r="K141">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB141">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC141">
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13061,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7870603</v>
+        <v>7870602</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13070,40 +13100,49 @@
         <v>30</v>
       </c>
       <c r="E142" s="2">
-        <v>45354.83333333334</v>
+        <v>45354.70833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142" t="s">
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L142">
         <v>3.3</v>
       </c>
       <c r="M142">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N142">
-        <v>8</v>
+        <v>1.833</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
         <v>2.5</v>
@@ -13115,18 +13154,557 @@
         <v>1.8</v>
       </c>
       <c r="W142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
+        <v>0.925</v>
+      </c>
+      <c r="AB142">
+        <v>1.05</v>
+      </c>
+      <c r="AC142">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7870603</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45354.83333333334</v>
+      </c>
+      <c r="F143" t="s">
+        <v>48</v>
+      </c>
+      <c r="G143" t="s">
+        <v>44</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143" t="s">
+        <v>51</v>
+      </c>
+      <c r="K143">
+        <v>4</v>
+      </c>
+      <c r="L143">
+        <v>3.3</v>
+      </c>
+      <c r="M143">
+        <v>1.909</v>
+      </c>
+      <c r="N143">
+        <v>8</v>
+      </c>
+      <c r="O143">
+        <v>4</v>
+      </c>
+      <c r="P143">
+        <v>1.444</v>
+      </c>
+      <c r="Q143">
+        <v>1.25</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
+        <v>2.05</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
+        <v>2.025</v>
+      </c>
+      <c r="V143">
+        <v>1.825</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>0.444</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>1.05</v>
+      </c>
+      <c r="AB143">
+        <v>1.025</v>
+      </c>
+      <c r="AC143">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7913219</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>30</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45360.6875</v>
+      </c>
+      <c r="F144" t="s">
+        <v>32</v>
+      </c>
+      <c r="G144" t="s">
+        <v>36</v>
+      </c>
+      <c r="K144">
+        <v>2.375</v>
+      </c>
+      <c r="L144">
+        <v>3.1</v>
+      </c>
+      <c r="M144">
+        <v>2.9</v>
+      </c>
+      <c r="N144">
+        <v>2.375</v>
+      </c>
+      <c r="O144">
+        <v>3.1</v>
+      </c>
+      <c r="P144">
+        <v>2.9</v>
+      </c>
+      <c r="Q144">
+        <v>-0.25</v>
+      </c>
+      <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
+        <v>1.8</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
+        <v>2.025</v>
+      </c>
+      <c r="V144">
+        <v>1.825</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7913223</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>30</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45360.8125</v>
+      </c>
+      <c r="F145" t="s">
+        <v>44</v>
+      </c>
+      <c r="G145" t="s">
+        <v>34</v>
+      </c>
+      <c r="K145">
+        <v>1.5</v>
+      </c>
+      <c r="L145">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>6</v>
+      </c>
+      <c r="N145">
+        <v>1.45</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>6.5</v>
+      </c>
+      <c r="Q145">
+        <v>-1</v>
+      </c>
+      <c r="R145">
+        <v>1.85</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>1.925</v>
+      </c>
+      <c r="V145">
+        <v>1.925</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7913221</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>30</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F146" t="s">
+        <v>38</v>
+      </c>
+      <c r="G146" t="s">
+        <v>37</v>
+      </c>
+      <c r="K146">
+        <v>2.2</v>
+      </c>
+      <c r="L146">
+        <v>3.2</v>
+      </c>
+      <c r="M146">
+        <v>3.2</v>
+      </c>
+      <c r="N146">
+        <v>2.2</v>
+      </c>
+      <c r="O146">
+        <v>3.2</v>
+      </c>
+      <c r="P146">
+        <v>3.25</v>
+      </c>
+      <c r="Q146">
+        <v>-0.25</v>
+      </c>
+      <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>1.925</v>
+      </c>
+      <c r="T146">
+        <v>2.25</v>
+      </c>
+      <c r="U146">
+        <v>1.975</v>
+      </c>
+      <c r="V146">
+        <v>1.875</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>7913222</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45361.6875</v>
+      </c>
+      <c r="F147" t="s">
+        <v>49</v>
+      </c>
+      <c r="G147" t="s">
+        <v>43</v>
+      </c>
+      <c r="K147">
+        <v>2.75</v>
+      </c>
+      <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147">
+        <v>2.625</v>
+      </c>
+      <c r="N147">
+        <v>2.55</v>
+      </c>
+      <c r="O147">
+        <v>3</v>
+      </c>
+      <c r="P147">
+        <v>2.8</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
+        <v>2.025</v>
+      </c>
+      <c r="T147">
+        <v>2.25</v>
+      </c>
+      <c r="U147">
+        <v>2.025</v>
+      </c>
+      <c r="V147">
+        <v>1.825</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7913220</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>30</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45361.8125</v>
+      </c>
+      <c r="F148" t="s">
+        <v>40</v>
+      </c>
+      <c r="G148" t="s">
+        <v>46</v>
+      </c>
+      <c r="K148">
+        <v>2.375</v>
+      </c>
+      <c r="L148">
+        <v>3.2</v>
+      </c>
+      <c r="M148">
+        <v>2.875</v>
+      </c>
+      <c r="N148">
+        <v>2.3</v>
+      </c>
+      <c r="O148">
+        <v>3.2</v>
+      </c>
+      <c r="P148">
+        <v>3</v>
+      </c>
+      <c r="Q148">
+        <v>-0.25</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>1.8</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
+        <v>2.025</v>
+      </c>
+      <c r="V148">
+        <v>1.825</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7913225</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45362.79166666666</v>
+      </c>
+      <c r="F149" t="s">
+        <v>35</v>
+      </c>
+      <c r="G149" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149">
+        <v>2.375</v>
+      </c>
+      <c r="L149">
+        <v>3.3</v>
+      </c>
+      <c r="M149">
+        <v>2.75</v>
+      </c>
+      <c r="N149">
+        <v>2.45</v>
+      </c>
+      <c r="O149">
+        <v>3.3</v>
+      </c>
+      <c r="P149">
+        <v>2.7</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>1.825</v>
+      </c>
+      <c r="S149">
+        <v>2.025</v>
+      </c>
+      <c r="T149">
+        <v>2.25</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
+        <v>1.9</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC149"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7913219</v>
+        <v>7913218</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,64 +13278,79 @@
         <v>30</v>
       </c>
       <c r="E144" s="2">
-        <v>45360.6875</v>
+        <v>45359.85416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M144">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N144">
         <v>2.375</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P144">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0</v>
+        <v>0.3875</v>
+      </c>
+      <c r="AB144">
+        <v>-0.5</v>
+      </c>
+      <c r="AC144">
+        <v>0.425</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -13343,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7913223</v>
+        <v>7913219</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,49 +13367,49 @@
         <v>30</v>
       </c>
       <c r="E145" s="2">
-        <v>45360.8125</v>
+        <v>45360.6875</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K145">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M145">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N145">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P145">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W145">
         <v>0</v>
@@ -13417,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7913221</v>
+        <v>7913223</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13426,49 +13441,49 @@
         <v>30</v>
       </c>
       <c r="E146" s="2">
-        <v>45361.41666666666</v>
+        <v>45360.8125</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K146">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M146">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N146">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P146">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S146">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
         <v>0</v>
@@ -13491,7 +13506,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7913222</v>
+        <v>7913221</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13500,49 +13515,49 @@
         <v>30</v>
       </c>
       <c r="E147" s="2">
-        <v>45361.6875</v>
+        <v>45361.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K147">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N147">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13565,7 +13580,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7913220</v>
+        <v>7913222</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13574,43 +13589,43 @@
         <v>30</v>
       </c>
       <c r="E148" s="2">
-        <v>45361.8125</v>
+        <v>45361.6875</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K148">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L148">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M148">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="N148">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O148">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P148">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
         <v>2.025</v>
@@ -13639,7 +13654,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7913225</v>
+        <v>7913220</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13648,63 +13663,211 @@
         <v>30</v>
       </c>
       <c r="E149" s="2">
-        <v>45362.79166666666</v>
+        <v>45361.8125</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>2.375</v>
       </c>
       <c r="L149">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M149">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N149">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O149">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P149">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T149">
         <v>2.25</v>
       </c>
       <c r="U149">
+        <v>1.8</v>
+      </c>
+      <c r="V149">
+        <v>2.05</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7913224</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45362.6875</v>
+      </c>
+      <c r="F150" t="s">
+        <v>42</v>
+      </c>
+      <c r="G150" t="s">
+        <v>48</v>
+      </c>
+      <c r="K150">
+        <v>1.909</v>
+      </c>
+      <c r="L150">
+        <v>3.2</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+      <c r="N150">
+        <v>1.8</v>
+      </c>
+      <c r="O150">
+        <v>3.3</v>
+      </c>
+      <c r="P150">
+        <v>4.5</v>
+      </c>
+      <c r="Q150">
+        <v>-0.5</v>
+      </c>
+      <c r="R150">
+        <v>1.825</v>
+      </c>
+      <c r="S150">
+        <v>2.025</v>
+      </c>
+      <c r="T150">
+        <v>2.25</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
+      <c r="V150">
+        <v>1.85</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7913225</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45362.79166666666</v>
+      </c>
+      <c r="F151" t="s">
+        <v>35</v>
+      </c>
+      <c r="G151" t="s">
+        <v>31</v>
+      </c>
+      <c r="K151">
+        <v>2.375</v>
+      </c>
+      <c r="L151">
+        <v>3.3</v>
+      </c>
+      <c r="M151">
+        <v>2.75</v>
+      </c>
+      <c r="N151">
+        <v>2.6</v>
+      </c>
+      <c r="O151">
+        <v>3.3</v>
+      </c>
+      <c r="P151">
+        <v>2.5</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.875</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
         <v>1.95</v>
       </c>
-      <c r="V149">
+      <c r="V151">
         <v>1.9</v>
       </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
-        <v>0</v>
-      </c>
-      <c r="Y149">
-        <v>0</v>
-      </c>
-      <c r="Z149">
-        <v>0</v>
-      </c>
-      <c r="AA149">
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013886</v>
+        <v>7013885</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,55 +10878,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>51</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M117">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
         <v>2</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10935,19 +10935,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,55 +10967,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>51</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O118">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P118">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
         <v>2</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,76 +11056,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N119">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
         <v>-0.75</v>
       </c>
       <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
         <v>1.8</v>
       </c>
-      <c r="S119">
-        <v>2.05</v>
-      </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M120">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
         <v>2.05</v>
       </c>
-      <c r="S120">
-        <v>1.8</v>
-      </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -13353,7 +13353,7 @@
         <v>0.425</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:29">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -13375,6 +13375,15 @@
       <c r="G145" t="s">
         <v>36</v>
       </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145" t="s">
+        <v>51</v>
+      </c>
       <c r="K145">
         <v>2.375</v>
       </c>
@@ -13406,28 +13415,34 @@
         <v>2</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27">
+        <v>1.1</v>
+      </c>
+      <c r="AB145">
+        <v>0.825</v>
+      </c>
+      <c r="AC145">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -13449,6 +13464,15 @@
       <c r="G146" t="s">
         <v>34</v>
       </c>
+      <c r="H146">
+        <v>3</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>52</v>
+      </c>
       <c r="K146">
         <v>1.5</v>
       </c>
@@ -13459,49 +13483,55 @@
         <v>6</v>
       </c>
       <c r="N146">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="O146">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P146">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R146">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB146">
+        <v>1.025</v>
+      </c>
+      <c r="AC146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -13523,6 +13553,15 @@
       <c r="G147" t="s">
         <v>37</v>
       </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>51</v>
+      </c>
       <c r="K147">
         <v>2.2</v>
       </c>
@@ -13533,22 +13572,22 @@
         <v>3.2</v>
       </c>
       <c r="N147">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O147">
         <v>3.2</v>
       </c>
       <c r="P147">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q147">
         <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
         <v>2.25</v>
@@ -13560,22 +13599,28 @@
         <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27">
+        <v>0.825</v>
+      </c>
+      <c r="AB147">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -13597,6 +13642,15 @@
       <c r="G148" t="s">
         <v>43</v>
       </c>
+      <c r="H148">
+        <v>4</v>
+      </c>
+      <c r="I148">
+        <v>3</v>
+      </c>
+      <c r="J148" t="s">
+        <v>52</v>
+      </c>
       <c r="K148">
         <v>2.75</v>
       </c>
@@ -13607,49 +13661,55 @@
         <v>2.625</v>
       </c>
       <c r="N148">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
+        <v>3.2</v>
+      </c>
+      <c r="P148">
         <v>3</v>
       </c>
-      <c r="P148">
-        <v>2.625</v>
-      </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S148">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T148">
         <v>2.25</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="X148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>0.875</v>
+      </c>
+      <c r="AC148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -13671,6 +13731,15 @@
       <c r="G149" t="s">
         <v>46</v>
       </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
+        <v>50</v>
+      </c>
       <c r="K149">
         <v>2.375</v>
       </c>
@@ -13681,49 +13750,55 @@
         <v>2.875</v>
       </c>
       <c r="N149">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O149">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P149">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>2.05</v>
+      </c>
+      <c r="V149">
+        <v>1.8</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
         <v>2.25</v>
       </c>
-      <c r="U149">
-        <v>1.8</v>
-      </c>
-      <c r="V149">
-        <v>2.05</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
-        <v>0</v>
-      </c>
       <c r="Y149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27">
+        <v>0.8</v>
+      </c>
+      <c r="AB149">
+        <v>1.05</v>
+      </c>
+      <c r="AC149">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -13745,6 +13820,15 @@
       <c r="G150" t="s">
         <v>48</v>
       </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>52</v>
+      </c>
       <c r="K150">
         <v>1.909</v>
       </c>
@@ -13755,54 +13839,60 @@
         <v>4</v>
       </c>
       <c r="N150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O150">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q150">
         <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S150">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7913225</v>
+        <v>7922351</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13811,49 +13901,49 @@
         <v>30</v>
       </c>
       <c r="E151" s="2">
-        <v>45362.79166666666</v>
+        <v>45366.8125</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K151">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L151">
         <v>3.3</v>
       </c>
       <c r="M151">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N151">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O151">
         <v>3.3</v>
       </c>
       <c r="P151">
+        <v>2.375</v>
+      </c>
+      <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.8</v>
+      </c>
+      <c r="S151">
+        <v>2.05</v>
+      </c>
+      <c r="T151">
         <v>2.5</v>
       </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-      <c r="R151">
-        <v>1.975</v>
-      </c>
-      <c r="S151">
-        <v>1.875</v>
-      </c>
-      <c r="T151">
-        <v>2.25</v>
-      </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
         <v>0</v>
@@ -13868,6 +13958,80 @@
         <v>0</v>
       </c>
       <c r="AA151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7922352</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>30</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45367.6875</v>
+      </c>
+      <c r="F152" t="s">
+        <v>33</v>
+      </c>
+      <c r="G152" t="s">
+        <v>32</v>
+      </c>
+      <c r="K152">
+        <v>2.5</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+      <c r="N152">
+        <v>2.45</v>
+      </c>
+      <c r="O152">
+        <v>3</v>
+      </c>
+      <c r="P152">
+        <v>3</v>
+      </c>
+      <c r="Q152">
+        <v>-0.25</v>
+      </c>
+      <c r="R152">
+        <v>2.125</v>
+      </c>
+      <c r="S152">
+        <v>1.75</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>1.925</v>
+      </c>
+      <c r="V152">
+        <v>1.925</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:AC158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K114">
+        <v>4.75</v>
+      </c>
+      <c r="L114">
+        <v>3.4</v>
+      </c>
+      <c r="M114">
         <v>1.7</v>
       </c>
-      <c r="L114">
-        <v>3</v>
-      </c>
-      <c r="M114">
-        <v>5.75</v>
-      </c>
       <c r="N114">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,55 +10967,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>51</v>
       </c>
       <c r="K118">
+        <v>1.8</v>
+      </c>
+      <c r="L118">
+        <v>3.6</v>
+      </c>
+      <c r="M118">
+        <v>4.2</v>
+      </c>
+      <c r="N118">
+        <v>1.8</v>
+      </c>
+      <c r="O118">
+        <v>3.6</v>
+      </c>
+      <c r="P118">
+        <v>4.2</v>
+      </c>
+      <c r="Q118">
+        <v>-0.75</v>
+      </c>
+      <c r="R118">
+        <v>2.05</v>
+      </c>
+      <c r="S118">
+        <v>1.8</v>
+      </c>
+      <c r="T118">
         <v>2.25</v>
       </c>
-      <c r="L118">
-        <v>3.1</v>
-      </c>
-      <c r="M118">
-        <v>3.25</v>
-      </c>
-      <c r="N118">
-        <v>2.25</v>
-      </c>
-      <c r="O118">
-        <v>2.875</v>
-      </c>
-      <c r="P118">
-        <v>3.5</v>
-      </c>
-      <c r="Q118">
-        <v>-0.25</v>
-      </c>
-      <c r="R118">
-        <v>1.95</v>
-      </c>
-      <c r="S118">
-        <v>1.9</v>
-      </c>
-      <c r="T118">
-        <v>2</v>
-      </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,55 +11056,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>51</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11113,19 +11113,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7922351</v>
+        <v>7913225</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,43 +13901,52 @@
         <v>30</v>
       </c>
       <c r="E151" s="2">
-        <v>45366.8125</v>
+        <v>45362.79166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>50</v>
       </c>
       <c r="K151">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="L151">
         <v>3.3</v>
       </c>
       <c r="M151">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N151">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O151">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P151">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R151">
+        <v>2.05</v>
+      </c>
+      <c r="S151">
         <v>1.8</v>
       </c>
-      <c r="S151">
-        <v>2.05</v>
-      </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
         <v>2</v>
@@ -13946,19 +13955,25 @@
         <v>1.85</v>
       </c>
       <c r="W151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>0</v>
       </c>
       <c r="AA151">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB151">
+        <v>-1</v>
+      </c>
+      <c r="AC151">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7922352</v>
+        <v>7922351</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13975,63 +13990,552 @@
         <v>30</v>
       </c>
       <c r="E152" s="2">
+        <v>45366.8125</v>
+      </c>
+      <c r="F152" t="s">
+        <v>36</v>
+      </c>
+      <c r="G152" t="s">
+        <v>38</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>50</v>
+      </c>
+      <c r="K152">
+        <v>3</v>
+      </c>
+      <c r="L152">
+        <v>3.3</v>
+      </c>
+      <c r="M152">
+        <v>2.3</v>
+      </c>
+      <c r="N152">
+        <v>2.75</v>
+      </c>
+      <c r="O152">
+        <v>3.25</v>
+      </c>
+      <c r="P152">
+        <v>2.5</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>2.05</v>
+      </c>
+      <c r="S152">
+        <v>1.8</v>
+      </c>
+      <c r="T152">
+        <v>2.5</v>
+      </c>
+      <c r="U152">
+        <v>2.025</v>
+      </c>
+      <c r="V152">
+        <v>1.825</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>2.25</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>-0</v>
+      </c>
+      <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>7922352</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" s="2">
         <v>45367.6875</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F153" t="s">
         <v>33</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G153" t="s">
         <v>32</v>
       </c>
-      <c r="K152">
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>50</v>
+      </c>
+      <c r="K153">
         <v>2.5</v>
       </c>
-      <c r="L152">
+      <c r="L153">
         <v>3</v>
       </c>
-      <c r="M152">
+      <c r="M153">
         <v>3</v>
       </c>
-      <c r="N152">
-        <v>2.45</v>
-      </c>
-      <c r="O152">
+      <c r="N153">
+        <v>2.1</v>
+      </c>
+      <c r="O153">
+        <v>3.1</v>
+      </c>
+      <c r="P153">
+        <v>3.75</v>
+      </c>
+      <c r="Q153">
+        <v>-0.25</v>
+      </c>
+      <c r="R153">
+        <v>1.8</v>
+      </c>
+      <c r="S153">
+        <v>2.05</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
+        <v>1.9</v>
+      </c>
+      <c r="V153">
+        <v>1.95</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>2.1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>-0.5</v>
+      </c>
+      <c r="AA153">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7922353</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45367.8125</v>
+      </c>
+      <c r="F154" t="s">
+        <v>43</v>
+      </c>
+      <c r="G154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" t="s">
+        <v>51</v>
+      </c>
+      <c r="K154">
+        <v>4.5</v>
+      </c>
+      <c r="L154">
+        <v>3.3</v>
+      </c>
+      <c r="M154">
+        <v>1.8</v>
+      </c>
+      <c r="N154">
+        <v>4.75</v>
+      </c>
+      <c r="O154">
+        <v>3.5</v>
+      </c>
+      <c r="P154">
+        <v>1.7</v>
+      </c>
+      <c r="Q154">
+        <v>0.5</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>2.25</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.875</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>0.7</v>
+      </c>
+      <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB154">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC154">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7922355</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45368.6875</v>
+      </c>
+      <c r="F155" t="s">
+        <v>37</v>
+      </c>
+      <c r="G155" t="s">
+        <v>35</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>3.2</v>
+      </c>
+      <c r="M155">
+        <v>3.75</v>
+      </c>
+      <c r="N155">
+        <v>2.15</v>
+      </c>
+      <c r="O155">
+        <v>3.1</v>
+      </c>
+      <c r="P155">
+        <v>3.5</v>
+      </c>
+      <c r="Q155">
+        <v>-0.25</v>
+      </c>
+      <c r="R155">
+        <v>1.875</v>
+      </c>
+      <c r="S155">
+        <v>1.975</v>
+      </c>
+      <c r="T155">
+        <v>2</v>
+      </c>
+      <c r="U155">
+        <v>1.9</v>
+      </c>
+      <c r="V155">
+        <v>1.95</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>7922356</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>30</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45368.8125</v>
+      </c>
+      <c r="F156" t="s">
+        <v>46</v>
+      </c>
+      <c r="G156" t="s">
+        <v>49</v>
+      </c>
+      <c r="K156">
+        <v>1.5</v>
+      </c>
+      <c r="L156">
+        <v>4</v>
+      </c>
+      <c r="M156">
+        <v>6</v>
+      </c>
+      <c r="N156">
+        <v>1.571</v>
+      </c>
+      <c r="O156">
+        <v>4</v>
+      </c>
+      <c r="P156">
+        <v>5</v>
+      </c>
+      <c r="Q156">
+        <v>-1</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>1.85</v>
+      </c>
+      <c r="T156">
+        <v>2.75</v>
+      </c>
+      <c r="U156">
+        <v>1.85</v>
+      </c>
+      <c r="V156">
+        <v>2</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7922357</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>30</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45369.6875</v>
+      </c>
+      <c r="F157" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" t="s">
+        <v>42</v>
+      </c>
+      <c r="K157">
+        <v>2.75</v>
+      </c>
+      <c r="L157">
         <v>3</v>
       </c>
-      <c r="P152">
-        <v>3</v>
-      </c>
-      <c r="Q152">
-        <v>-0.25</v>
-      </c>
-      <c r="R152">
-        <v>2.125</v>
-      </c>
-      <c r="S152">
-        <v>1.75</v>
-      </c>
-      <c r="T152">
-        <v>2</v>
-      </c>
-      <c r="U152">
+      <c r="M157">
+        <v>2.75</v>
+      </c>
+      <c r="N157">
+        <v>2.875</v>
+      </c>
+      <c r="O157">
+        <v>2.9</v>
+      </c>
+      <c r="P157">
+        <v>2.7</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>2.05</v>
+      </c>
+      <c r="S157">
+        <v>1.8</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
         <v>1.925</v>
       </c>
-      <c r="V152">
+      <c r="V157">
         <v>1.925</v>
       </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-      <c r="X152">
-        <v>0</v>
-      </c>
-      <c r="Y152">
-        <v>0</v>
-      </c>
-      <c r="Z152">
-        <v>0</v>
-      </c>
-      <c r="AA152">
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>7922358</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45370.79166666666</v>
+      </c>
+      <c r="F158" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158" t="s">
+        <v>40</v>
+      </c>
+      <c r="K158">
+        <v>3.5</v>
+      </c>
+      <c r="L158">
+        <v>3.2</v>
+      </c>
+      <c r="M158">
+        <v>2.1</v>
+      </c>
+      <c r="N158">
+        <v>4.2</v>
+      </c>
+      <c r="O158">
+        <v>3.3</v>
+      </c>
+      <c r="P158">
+        <v>1.909</v>
+      </c>
+      <c r="Q158">
+        <v>0.5</v>
+      </c>
+      <c r="R158">
+        <v>1.925</v>
+      </c>
+      <c r="S158">
+        <v>1.925</v>
+      </c>
+      <c r="T158">
+        <v>2.5</v>
+      </c>
+      <c r="U158">
+        <v>1.975</v>
+      </c>
+      <c r="V158">
+        <v>1.875</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC158"/>
+  <dimension ref="A1:AC167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,55 +10878,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>51</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N117">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P117">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
         <v>2</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10935,19 +10935,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,76 +10967,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N118">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
         <v>-0.75</v>
       </c>
       <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
         <v>2.05</v>
       </c>
-      <c r="S118">
-        <v>1.8</v>
-      </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y118">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013886</v>
+        <v>7013885</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,55 +11056,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>51</v>
       </c>
       <c r="K119">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N119">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P119">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11113,19 +11113,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K120">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L120">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N120">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
         <v>1.8</v>
       </c>
-      <c r="S120">
-        <v>2.05</v>
-      </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -14248,7 +14248,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7922355</v>
+        <v>7990770</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,64 +14257,79 @@
         <v>30</v>
       </c>
       <c r="E155" s="2">
-        <v>45368.6875</v>
+        <v>45374.5625</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>50</v>
       </c>
       <c r="K155">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L155">
         <v>3.2</v>
       </c>
       <c r="M155">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N155">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O155">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P155">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T155">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
         <v>0</v>
       </c>
       <c r="AA155">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14337,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7922356</v>
+        <v>7990771</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14331,7 +14346,7 @@
         <v>30</v>
       </c>
       <c r="E156" s="2">
-        <v>45368.8125</v>
+        <v>45374.77083333334</v>
       </c>
       <c r="F156" t="s">
         <v>46</v>
@@ -14339,56 +14354,71 @@
       <c r="G156" t="s">
         <v>49</v>
       </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>50</v>
+      </c>
       <c r="K156">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N156">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O156">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P156">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14396,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7922357</v>
+        <v>7990728</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14405,64 +14435,79 @@
         <v>30</v>
       </c>
       <c r="E157" s="2">
-        <v>45369.6875</v>
+        <v>45374.875</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157" t="s">
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="L157">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M157">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N157">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="O157">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
+        <v>1.85</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>2.25</v>
+      </c>
+      <c r="U157">
+        <v>1.8</v>
+      </c>
+      <c r="V157">
         <v>2.05</v>
       </c>
-      <c r="S157">
-        <v>1.8</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.925</v>
-      </c>
-      <c r="V157">
-        <v>1.925</v>
-      </c>
       <c r="W157">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="X157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA157">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
+        <v>1.05</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14470,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7922358</v>
+        <v>7990772</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14479,63 +14524,759 @@
         <v>30</v>
       </c>
       <c r="E158" s="2">
-        <v>45370.79166666666</v>
+        <v>45375.41666666666</v>
       </c>
       <c r="F158" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158" t="s">
+        <v>42</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>50</v>
+      </c>
+      <c r="K158">
+        <v>2.75</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
+      <c r="M158">
+        <v>2.625</v>
+      </c>
+      <c r="N158">
+        <v>2.875</v>
+      </c>
+      <c r="O158">
+        <v>3</v>
+      </c>
+      <c r="P158">
+        <v>2.55</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>2.025</v>
+      </c>
+      <c r="S158">
+        <v>1.825</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>2.05</v>
+      </c>
+      <c r="V158">
+        <v>1.8</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>2</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>-0</v>
+      </c>
+      <c r="AB158">
+        <v>0</v>
+      </c>
+      <c r="AC158">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7990776</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45375.66666666666</v>
+      </c>
+      <c r="F159" t="s">
+        <v>37</v>
+      </c>
+      <c r="G159" t="s">
+        <v>35</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159" t="s">
+        <v>51</v>
+      </c>
+      <c r="K159">
+        <v>1.833</v>
+      </c>
+      <c r="L159">
+        <v>3.4</v>
+      </c>
+      <c r="M159">
+        <v>4.333</v>
+      </c>
+      <c r="N159">
+        <v>2.05</v>
+      </c>
+      <c r="O159">
+        <v>3.25</v>
+      </c>
+      <c r="P159">
+        <v>3.6</v>
+      </c>
+      <c r="Q159">
+        <v>-0.25</v>
+      </c>
+      <c r="R159">
+        <v>1.8</v>
+      </c>
+      <c r="S159">
+        <v>2.05</v>
+      </c>
+      <c r="T159">
+        <v>2</v>
+      </c>
+      <c r="U159">
+        <v>1.925</v>
+      </c>
+      <c r="V159">
+        <v>1.925</v>
+      </c>
+      <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>2.6</v>
+      </c>
+      <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
+        <v>1.05</v>
+      </c>
+      <c r="AB159">
+        <v>0</v>
+      </c>
+      <c r="AC159">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>7994681</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45380.52083333334</v>
+      </c>
+      <c r="F160" t="s">
+        <v>42</v>
+      </c>
+      <c r="G160" t="s">
+        <v>43</v>
+      </c>
+      <c r="K160">
+        <v>2.3</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
+      </c>
+      <c r="M160">
+        <v>3.1</v>
+      </c>
+      <c r="N160">
+        <v>2.375</v>
+      </c>
+      <c r="O160">
+        <v>3</v>
+      </c>
+      <c r="P160">
+        <v>3</v>
+      </c>
+      <c r="Q160">
+        <v>-0.25</v>
+      </c>
+      <c r="R160">
+        <v>2.1</v>
+      </c>
+      <c r="S160">
+        <v>1.775</v>
+      </c>
+      <c r="T160">
+        <v>2.25</v>
+      </c>
+      <c r="U160">
+        <v>2.05</v>
+      </c>
+      <c r="V160">
+        <v>1.8</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>7994680</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>30</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45380.66666666666</v>
+      </c>
+      <c r="F161" t="s">
+        <v>44</v>
+      </c>
+      <c r="G161" t="s">
+        <v>46</v>
+      </c>
+      <c r="K161">
+        <v>2.25</v>
+      </c>
+      <c r="L161">
+        <v>3.1</v>
+      </c>
+      <c r="M161">
+        <v>3</v>
+      </c>
+      <c r="N161">
+        <v>2.15</v>
+      </c>
+      <c r="O161">
+        <v>3.1</v>
+      </c>
+      <c r="P161">
+        <v>3.2</v>
+      </c>
+      <c r="Q161">
+        <v>-0.25</v>
+      </c>
+      <c r="R161">
+        <v>1.925</v>
+      </c>
+      <c r="S161">
+        <v>1.925</v>
+      </c>
+      <c r="T161">
+        <v>2.25</v>
+      </c>
+      <c r="U161">
+        <v>1.875</v>
+      </c>
+      <c r="V161">
+        <v>1.975</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>7994520</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>30</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45381.5625</v>
+      </c>
+      <c r="F162" t="s">
+        <v>48</v>
+      </c>
+      <c r="G162" t="s">
+        <v>33</v>
+      </c>
+      <c r="K162">
+        <v>2.8</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
+      <c r="M162">
+        <v>2.6</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162">
+        <v>3</v>
+      </c>
+      <c r="P162">
+        <v>2.45</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>2.125</v>
+      </c>
+      <c r="S162">
+        <v>1.75</v>
+      </c>
+      <c r="T162">
+        <v>2.25</v>
+      </c>
+      <c r="U162">
+        <v>1.95</v>
+      </c>
+      <c r="V162">
+        <v>1.9</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>7994682</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45381.66666666666</v>
+      </c>
+      <c r="F163" t="s">
+        <v>38</v>
+      </c>
+      <c r="G163" t="s">
+        <v>32</v>
+      </c>
+      <c r="K163">
+        <v>1.909</v>
+      </c>
+      <c r="L163">
+        <v>3.2</v>
+      </c>
+      <c r="M163">
+        <v>4</v>
+      </c>
+      <c r="N163">
+        <v>1.95</v>
+      </c>
+      <c r="O163">
+        <v>3.1</v>
+      </c>
+      <c r="P163">
+        <v>4</v>
+      </c>
+      <c r="Q163">
+        <v>-0.5</v>
+      </c>
+      <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
+        <v>2.25</v>
+      </c>
+      <c r="U163">
+        <v>1.925</v>
+      </c>
+      <c r="V163">
+        <v>1.925</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>7994684</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>30</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45381.79166666666</v>
+      </c>
+      <c r="F164" t="s">
+        <v>40</v>
+      </c>
+      <c r="G164" t="s">
+        <v>37</v>
+      </c>
+      <c r="K164">
+        <v>1.909</v>
+      </c>
+      <c r="L164">
+        <v>3.25</v>
+      </c>
+      <c r="M164">
+        <v>3.8</v>
+      </c>
+      <c r="N164">
+        <v>1.909</v>
+      </c>
+      <c r="O164">
+        <v>3.25</v>
+      </c>
+      <c r="P164">
+        <v>3.8</v>
+      </c>
+      <c r="Q164">
+        <v>-0.5</v>
+      </c>
+      <c r="R164">
+        <v>1.925</v>
+      </c>
+      <c r="S164">
+        <v>1.925</v>
+      </c>
+      <c r="T164">
+        <v>2.25</v>
+      </c>
+      <c r="U164">
+        <v>1.9</v>
+      </c>
+      <c r="V164">
+        <v>1.95</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>7995146</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45382.625</v>
+      </c>
+      <c r="F165" t="s">
+        <v>49</v>
+      </c>
+      <c r="G165" t="s">
         <v>31</v>
       </c>
-      <c r="G158" t="s">
-        <v>40</v>
-      </c>
-      <c r="K158">
-        <v>3.5</v>
-      </c>
-      <c r="L158">
+      <c r="K165">
+        <v>2.4</v>
+      </c>
+      <c r="L165">
+        <v>3.1</v>
+      </c>
+      <c r="M165">
+        <v>3</v>
+      </c>
+      <c r="N165">
+        <v>2.4</v>
+      </c>
+      <c r="O165">
         <v>3.2</v>
       </c>
-      <c r="M158">
+      <c r="P165">
+        <v>2.9</v>
+      </c>
+      <c r="Q165">
+        <v>-0.25</v>
+      </c>
+      <c r="R165">
         <v>2.1</v>
       </c>
-      <c r="N158">
-        <v>4.2</v>
-      </c>
-      <c r="O158">
-        <v>3.3</v>
-      </c>
-      <c r="P158">
-        <v>1.909</v>
-      </c>
-      <c r="Q158">
-        <v>0.5</v>
-      </c>
-      <c r="R158">
-        <v>1.925</v>
-      </c>
-      <c r="S158">
-        <v>1.925</v>
-      </c>
-      <c r="T158">
+      <c r="S165">
+        <v>1.775</v>
+      </c>
+      <c r="T165">
+        <v>2.25</v>
+      </c>
+      <c r="U165">
+        <v>1.8</v>
+      </c>
+      <c r="V165">
+        <v>2.05</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>7995141</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45382.72916666666</v>
+      </c>
+      <c r="F166" t="s">
+        <v>47</v>
+      </c>
+      <c r="G166" t="s">
+        <v>34</v>
+      </c>
+      <c r="K166">
+        <v>2.6</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>2.75</v>
+      </c>
+      <c r="N166">
         <v>2.5</v>
       </c>
-      <c r="U158">
+      <c r="O166">
+        <v>3</v>
+      </c>
+      <c r="P166">
+        <v>2.875</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>1.8</v>
+      </c>
+      <c r="S166">
+        <v>2.05</v>
+      </c>
+      <c r="T166">
+        <v>2.25</v>
+      </c>
+      <c r="U166">
         <v>1.975</v>
       </c>
-      <c r="V158">
+      <c r="V166">
         <v>1.875</v>
       </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-      <c r="Z158">
-        <v>0</v>
-      </c>
-      <c r="AA158">
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>7994683</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45382.83333333334</v>
+      </c>
+      <c r="F167" t="s">
+        <v>35</v>
+      </c>
+      <c r="G167" t="s">
+        <v>36</v>
+      </c>
+      <c r="K167">
+        <v>2.5</v>
+      </c>
+      <c r="L167">
+        <v>3.1</v>
+      </c>
+      <c r="M167">
+        <v>2.75</v>
+      </c>
+      <c r="N167">
+        <v>2.7</v>
+      </c>
+      <c r="O167">
+        <v>3</v>
+      </c>
+      <c r="P167">
+        <v>2.6</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.875</v>
+      </c>
+      <c r="T167">
+        <v>2.25</v>
+      </c>
+      <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
+        <v>1.85</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K114">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N114">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K115">
+        <v>4.75</v>
+      </c>
+      <c r="L115">
+        <v>3.4</v>
+      </c>
+      <c r="M115">
         <v>1.7</v>
       </c>
-      <c r="L115">
-        <v>3</v>
-      </c>
-      <c r="M115">
-        <v>5.75</v>
-      </c>
       <c r="N115">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M117">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O117">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
+        <v>1.8</v>
+      </c>
+      <c r="S117">
+        <v>2.05</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
         <v>1.95</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.9</v>
       </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.925</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y117">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
+        <v>1.05</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB117">
-        <v>-1</v>
-      </c>
-      <c r="AC117">
-        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,76 +10967,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N118">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
         <v>-0.75</v>
       </c>
       <c r="R118">
+        <v>2.05</v>
+      </c>
+      <c r="S118">
         <v>1.8</v>
       </c>
-      <c r="S118">
-        <v>2.05</v>
-      </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,55 +11145,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>51</v>
       </c>
       <c r="K120">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11202,19 +11202,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7994681</v>
+        <v>8009735</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14702,64 +14702,79 @@
         <v>30</v>
       </c>
       <c r="E160" s="2">
-        <v>45380.52083333334</v>
+        <v>45378.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="H160">
+        <v>4</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160" t="s">
+        <v>52</v>
       </c>
       <c r="K160">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L160">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M160">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N160">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O160">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T160">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA160">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB160">
+        <v>0.875</v>
+      </c>
+      <c r="AC160">
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:27">
@@ -14800,25 +14815,25 @@
         <v>3.1</v>
       </c>
       <c r="P161">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q161">
         <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
         <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
         <v>0</v>
@@ -14868,31 +14883,31 @@
         <v>2.6</v>
       </c>
       <c r="N162">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O162">
         <v>3</v>
       </c>
       <c r="P162">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
-        <v>2.125</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
         <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
         <v>0</v>
@@ -15090,31 +15105,31 @@
         <v>3</v>
       </c>
       <c r="N165">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S165">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15170,16 +15185,16 @@
         <v>3</v>
       </c>
       <c r="P166">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q166">
         <v>0</v>
       </c>
       <c r="R166">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S166">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T166">
         <v>2.25</v>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC167"/>
+  <dimension ref="A1:AC166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,10 +10967,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10982,40 +10982,40 @@
         <v>51</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N118">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,55 +11056,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>51</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O119">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P119">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11113,19 +11113,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,55 +11145,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>51</v>
       </c>
       <c r="K120">
+        <v>1.8</v>
+      </c>
+      <c r="L120">
+        <v>3.6</v>
+      </c>
+      <c r="M120">
+        <v>4.2</v>
+      </c>
+      <c r="N120">
+        <v>1.8</v>
+      </c>
+      <c r="O120">
+        <v>3.6</v>
+      </c>
+      <c r="P120">
+        <v>4.2</v>
+      </c>
+      <c r="Q120">
+        <v>-0.75</v>
+      </c>
+      <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
+        <v>1.8</v>
+      </c>
+      <c r="T120">
         <v>2.25</v>
       </c>
-      <c r="L120">
-        <v>3.1</v>
-      </c>
-      <c r="M120">
-        <v>3.25</v>
-      </c>
-      <c r="N120">
-        <v>2.25</v>
-      </c>
-      <c r="O120">
-        <v>2.875</v>
-      </c>
-      <c r="P120">
-        <v>3.5</v>
-      </c>
-      <c r="Q120">
-        <v>-0.25</v>
-      </c>
-      <c r="R120">
-        <v>1.95</v>
-      </c>
-      <c r="S120">
-        <v>1.9</v>
-      </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11202,19 +11202,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7994680</v>
+        <v>7994520</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,49 +14791,49 @@
         <v>30</v>
       </c>
       <c r="E161" s="2">
-        <v>45380.66666666666</v>
+        <v>45381.5625</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L161">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M161">
+        <v>2.6</v>
+      </c>
+      <c r="N161">
+        <v>3.2</v>
+      </c>
+      <c r="O161">
         <v>3</v>
       </c>
-      <c r="N161">
-        <v>2.15</v>
-      </c>
-      <c r="O161">
-        <v>3.1</v>
-      </c>
       <c r="P161">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
         <v>2.25</v>
       </c>
       <c r="U161">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V161">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
         <v>0</v>
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7994520</v>
+        <v>7994682</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14865,49 +14865,49 @@
         <v>30</v>
       </c>
       <c r="E162" s="2">
-        <v>45381.5625</v>
+        <v>45381.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K162">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L162">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M162">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N162">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="O162">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P162">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q162">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S162">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T162">
         <v>2.25</v>
       </c>
       <c r="U162">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
         <v>0</v>
@@ -14930,7 +14930,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7994682</v>
+        <v>7994684</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14939,49 +14939,49 @@
         <v>30</v>
       </c>
       <c r="E163" s="2">
-        <v>45381.66666666666</v>
+        <v>45381.79166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K163">
         <v>1.909</v>
       </c>
       <c r="L163">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M163">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N163">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P163">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q163">
         <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S163">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T163">
         <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W163">
         <v>0</v>
@@ -15004,7 +15004,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7994684</v>
+        <v>7995146</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15013,49 +15013,49 @@
         <v>30</v>
       </c>
       <c r="E164" s="2">
-        <v>45381.79166666666</v>
+        <v>45382.625</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N164">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2.025</v>
+      </c>
+      <c r="S164">
+        <v>1.825</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
         <v>1.925</v>
       </c>
-      <c r="S164">
+      <c r="V164">
         <v>1.925</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
-      <c r="U164">
-        <v>1.9</v>
-      </c>
-      <c r="V164">
-        <v>1.95</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -15078,7 +15078,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7995146</v>
+        <v>7995141</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15087,49 +15087,49 @@
         <v>30</v>
       </c>
       <c r="E165" s="2">
-        <v>45382.625</v>
+        <v>45382.72916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M165">
+        <v>2.75</v>
+      </c>
+      <c r="N165">
+        <v>2.5</v>
+      </c>
+      <c r="O165">
         <v>3</v>
       </c>
-      <c r="N165">
-        <v>2.3</v>
-      </c>
-      <c r="O165">
-        <v>3.3</v>
-      </c>
       <c r="P165">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15152,7 +15152,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7995141</v>
+        <v>7994683</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15161,49 +15161,49 @@
         <v>30</v>
       </c>
       <c r="E166" s="2">
-        <v>45382.72916666666</v>
+        <v>45382.83333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K166">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M166">
         <v>2.75</v>
       </c>
       <c r="N166">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O166">
         <v>3</v>
       </c>
       <c r="P166">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q166">
         <v>0</v>
       </c>
       <c r="R166">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
         <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15218,80 +15218,6 @@
         <v>0</v>
       </c>
       <c r="AA166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:27">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>7994683</v>
-      </c>
-      <c r="C167" t="s">
-        <v>28</v>
-      </c>
-      <c r="D167" t="s">
-        <v>30</v>
-      </c>
-      <c r="E167" s="2">
-        <v>45382.83333333334</v>
-      </c>
-      <c r="F167" t="s">
-        <v>35</v>
-      </c>
-      <c r="G167" t="s">
-        <v>36</v>
-      </c>
-      <c r="K167">
-        <v>2.5</v>
-      </c>
-      <c r="L167">
-        <v>3.1</v>
-      </c>
-      <c r="M167">
-        <v>2.75</v>
-      </c>
-      <c r="N167">
-        <v>2.7</v>
-      </c>
-      <c r="O167">
-        <v>3</v>
-      </c>
-      <c r="P167">
-        <v>2.6</v>
-      </c>
-      <c r="Q167">
-        <v>0</v>
-      </c>
-      <c r="R167">
-        <v>1.975</v>
-      </c>
-      <c r="S167">
-        <v>1.875</v>
-      </c>
-      <c r="T167">
-        <v>2.25</v>
-      </c>
-      <c r="U167">
-        <v>2</v>
-      </c>
-      <c r="V167">
-        <v>1.85</v>
-      </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-      <c r="X167">
-        <v>0</v>
-      </c>
-      <c r="Y167">
-        <v>0</v>
-      </c>
-      <c r="Z167">
-        <v>0</v>
-      </c>
-      <c r="AA167">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC166"/>
+  <dimension ref="A1:AC164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,10 +10967,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10982,40 +10982,40 @@
         <v>51</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013886</v>
+        <v>7013885</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,55 +11056,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>51</v>
       </c>
       <c r="K119">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N119">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P119">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11113,19 +11113,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,55 +11145,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>51</v>
       </c>
       <c r="K120">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11202,19 +11202,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7994520</v>
+        <v>7994684</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,49 +14791,49 @@
         <v>30</v>
       </c>
       <c r="E161" s="2">
-        <v>45381.5625</v>
+        <v>45381.79166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K161">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L161">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M161">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N161">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O161">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P161">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
+        <v>2.025</v>
+      </c>
+      <c r="S161">
         <v>1.825</v>
-      </c>
-      <c r="S161">
-        <v>2.025</v>
       </c>
       <c r="T161">
         <v>2.25</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
         <v>0</v>
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7994682</v>
+        <v>7995146</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14865,43 +14865,43 @@
         <v>30</v>
       </c>
       <c r="E162" s="2">
-        <v>45381.66666666666</v>
+        <v>45382.625</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K162">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L162">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N162">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O162">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S162">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
         <v>1.925</v>
@@ -14930,7 +14930,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7994684</v>
+        <v>7995141</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14939,49 +14939,49 @@
         <v>30</v>
       </c>
       <c r="E163" s="2">
-        <v>45381.79166666666</v>
+        <v>45382.72916666666</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K163">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L163">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M163">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="N163">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O163">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P163">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S163">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T163">
         <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
         <v>0</v>
@@ -15004,7 +15004,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7995146</v>
+        <v>7994683</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15013,49 +15013,49 @@
         <v>30</v>
       </c>
       <c r="E164" s="2">
-        <v>45382.625</v>
+        <v>45382.83333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L164">
         <v>3.1</v>
       </c>
       <c r="M164">
+        <v>2.75</v>
+      </c>
+      <c r="N164">
+        <v>2.7</v>
+      </c>
+      <c r="O164">
         <v>3</v>
       </c>
-      <c r="N164">
-        <v>2.3</v>
-      </c>
-      <c r="O164">
-        <v>3.3</v>
-      </c>
       <c r="P164">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -15070,154 +15070,6 @@
         <v>0</v>
       </c>
       <c r="AA164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:27">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>7995141</v>
-      </c>
-      <c r="C165" t="s">
-        <v>28</v>
-      </c>
-      <c r="D165" t="s">
-        <v>30</v>
-      </c>
-      <c r="E165" s="2">
-        <v>45382.72916666666</v>
-      </c>
-      <c r="F165" t="s">
-        <v>47</v>
-      </c>
-      <c r="G165" t="s">
-        <v>34</v>
-      </c>
-      <c r="K165">
-        <v>2.6</v>
-      </c>
-      <c r="L165">
-        <v>3</v>
-      </c>
-      <c r="M165">
-        <v>2.75</v>
-      </c>
-      <c r="N165">
-        <v>2.5</v>
-      </c>
-      <c r="O165">
-        <v>3</v>
-      </c>
-      <c r="P165">
-        <v>2.9</v>
-      </c>
-      <c r="Q165">
-        <v>0</v>
-      </c>
-      <c r="R165">
-        <v>1.775</v>
-      </c>
-      <c r="S165">
-        <v>2.1</v>
-      </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
-      <c r="U165">
-        <v>1.975</v>
-      </c>
-      <c r="V165">
-        <v>1.875</v>
-      </c>
-      <c r="W165">
-        <v>0</v>
-      </c>
-      <c r="X165">
-        <v>0</v>
-      </c>
-      <c r="Y165">
-        <v>0</v>
-      </c>
-      <c r="Z165">
-        <v>0</v>
-      </c>
-      <c r="AA165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:27">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>7994683</v>
-      </c>
-      <c r="C166" t="s">
-        <v>28</v>
-      </c>
-      <c r="D166" t="s">
-        <v>30</v>
-      </c>
-      <c r="E166" s="2">
-        <v>45382.83333333334</v>
-      </c>
-      <c r="F166" t="s">
-        <v>35</v>
-      </c>
-      <c r="G166" t="s">
-        <v>36</v>
-      </c>
-      <c r="K166">
-        <v>2.5</v>
-      </c>
-      <c r="L166">
-        <v>3.1</v>
-      </c>
-      <c r="M166">
-        <v>2.75</v>
-      </c>
-      <c r="N166">
-        <v>2.7</v>
-      </c>
-      <c r="O166">
-        <v>3</v>
-      </c>
-      <c r="P166">
-        <v>2.6</v>
-      </c>
-      <c r="Q166">
-        <v>0</v>
-      </c>
-      <c r="R166">
-        <v>1.975</v>
-      </c>
-      <c r="S166">
-        <v>1.875</v>
-      </c>
-      <c r="T166">
-        <v>2.25</v>
-      </c>
-      <c r="U166">
-        <v>2</v>
-      </c>
-      <c r="V166">
-        <v>1.85</v>
-      </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-      <c r="X166">
-        <v>0</v>
-      </c>
-      <c r="Y166">
-        <v>0</v>
-      </c>
-      <c r="Z166">
-        <v>0</v>
-      </c>
-      <c r="AA166">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC164"/>
+  <dimension ref="A1:AC165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K114">
+        <v>4.75</v>
+      </c>
+      <c r="L114">
+        <v>3.4</v>
+      </c>
+      <c r="M114">
         <v>1.7</v>
       </c>
-      <c r="L114">
-        <v>3</v>
-      </c>
-      <c r="M114">
-        <v>5.75</v>
-      </c>
       <c r="N114">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N117">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M120">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O120">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
+        <v>2.05</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.925</v>
-      </c>
-      <c r="V120">
-        <v>1.925</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y120">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
+        <v>1.05</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB120">
-        <v>-1</v>
-      </c>
-      <c r="AC120">
-        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -14777,12 +14777,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:29">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7994684</v>
+        <v>7994681</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,72 +14791,87 @@
         <v>30</v>
       </c>
       <c r="E161" s="2">
-        <v>45381.79166666666</v>
+        <v>45380.52083333334</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161" t="s">
+        <v>51</v>
       </c>
       <c r="K161">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M161">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N161">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O161">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P161">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
         <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB161">
+        <v>-0.5</v>
+      </c>
+      <c r="AC161">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7995146</v>
+        <v>7994680</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14865,16 +14880,25 @@
         <v>30</v>
       </c>
       <c r="E162" s="2">
-        <v>45382.625</v>
+        <v>45380.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162" t="s">
+        <v>50</v>
       </c>
       <c r="K162">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L162">
         <v>3.1</v>
@@ -14883,54 +14907,60 @@
         <v>3</v>
       </c>
       <c r="N162">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P162">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q162">
         <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S162">
+        <v>1.95</v>
+      </c>
+      <c r="T162">
+        <v>2.25</v>
+      </c>
+      <c r="U162">
         <v>2.05</v>
       </c>
-      <c r="T162">
-        <v>2.5</v>
-      </c>
-      <c r="U162">
-        <v>1.925</v>
-      </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27">
+        <v>0.475</v>
+      </c>
+      <c r="AB162">
+        <v>-1</v>
+      </c>
+      <c r="AC162">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7995141</v>
+        <v>7994520</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14939,40 +14969,49 @@
         <v>30</v>
       </c>
       <c r="E163" s="2">
-        <v>45382.72916666666</v>
+        <v>45381.5625</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" t="s">
+        <v>52</v>
       </c>
       <c r="K163">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L163">
         <v>3</v>
       </c>
       <c r="M163">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N163">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O163">
         <v>3</v>
       </c>
       <c r="P163">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q163">
         <v>0</v>
       </c>
       <c r="R163">
+        <v>2.1</v>
+      </c>
+      <c r="S163">
         <v>1.775</v>
-      </c>
-      <c r="S163">
-        <v>2.1</v>
       </c>
       <c r="T163">
         <v>2.25</v>
@@ -14984,27 +15023,33 @@
         <v>1.875</v>
       </c>
       <c r="W163">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB163">
+        <v>-1</v>
+      </c>
+      <c r="AC163">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7994683</v>
+        <v>7994682</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15013,63 +15058,152 @@
         <v>30</v>
       </c>
       <c r="E164" s="2">
-        <v>45382.83333333334</v>
+        <v>45381.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>50</v>
       </c>
       <c r="K164">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N164">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O164">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P164">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S164">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
         <v>2.25</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
+        <v>0.95</v>
+      </c>
+      <c r="AB164">
+        <v>-0.5</v>
+      </c>
+      <c r="AC164">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>7994683</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45382.83333333334</v>
+      </c>
+      <c r="F165" t="s">
+        <v>35</v>
+      </c>
+      <c r="G165" t="s">
+        <v>36</v>
+      </c>
+      <c r="K165">
+        <v>2.5</v>
+      </c>
+      <c r="L165">
+        <v>3.1</v>
+      </c>
+      <c r="M165">
+        <v>2.75</v>
+      </c>
+      <c r="N165">
+        <v>2.8</v>
+      </c>
+      <c r="O165">
+        <v>3.1</v>
+      </c>
+      <c r="P165">
+        <v>2.5</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>1.775</v>
+      </c>
+      <c r="T165">
+        <v>2.25</v>
+      </c>
+      <c r="U165">
+        <v>2.025</v>
+      </c>
+      <c r="V165">
+        <v>1.825</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC165"/>
+  <dimension ref="A1:AC168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K114">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N114">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K115">
+        <v>4.75</v>
+      </c>
+      <c r="L115">
+        <v>3.4</v>
+      </c>
+      <c r="M115">
         <v>1.7</v>
       </c>
-      <c r="L115">
-        <v>3</v>
-      </c>
-      <c r="M115">
-        <v>5.75</v>
-      </c>
       <c r="N115">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,10 +10967,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10982,40 +10982,40 @@
         <v>51</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N118">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,10 +11056,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11071,40 +11071,40 @@
         <v>51</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O119">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11113,19 +11113,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7994683</v>
+        <v>7994684</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,64 +15147,346 @@
         <v>30</v>
       </c>
       <c r="E165" s="2">
-        <v>45382.83333333334</v>
+        <v>45381.79166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165" t="s">
+        <v>52</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M165">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N165">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S165">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
         <v>2.25</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA165">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>7995146</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45382.625</v>
+      </c>
+      <c r="F166" t="s">
+        <v>49</v>
+      </c>
+      <c r="G166" t="s">
+        <v>31</v>
+      </c>
+      <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="s">
+        <v>52</v>
+      </c>
+      <c r="K166">
+        <v>2.4</v>
+      </c>
+      <c r="L166">
+        <v>3.1</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
+        <v>2.15</v>
+      </c>
+      <c r="O166">
+        <v>3.25</v>
+      </c>
+      <c r="P166">
+        <v>3.1</v>
+      </c>
+      <c r="Q166">
+        <v>-0.25</v>
+      </c>
+      <c r="R166">
+        <v>1.925</v>
+      </c>
+      <c r="S166">
+        <v>1.925</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
+        <v>1.875</v>
+      </c>
+      <c r="W166">
+        <v>1.15</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
+        <v>0.925</v>
+      </c>
+      <c r="AA166">
+        <v>-1</v>
+      </c>
+      <c r="AB166">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC166">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>7995141</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45382.72916666666</v>
+      </c>
+      <c r="F167" t="s">
+        <v>47</v>
+      </c>
+      <c r="G167" t="s">
+        <v>34</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167" t="s">
+        <v>50</v>
+      </c>
+      <c r="K167">
+        <v>2.6</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
+      <c r="M167">
+        <v>2.75</v>
+      </c>
+      <c r="N167">
+        <v>2.5</v>
+      </c>
+      <c r="O167">
+        <v>3</v>
+      </c>
+      <c r="P167">
+        <v>2.875</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>1.8</v>
+      </c>
+      <c r="S167">
+        <v>2.05</v>
+      </c>
+      <c r="T167">
+        <v>2.25</v>
+      </c>
+      <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
+        <v>1.85</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>2</v>
+      </c>
+      <c r="Y167">
+        <v>-1</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>-0</v>
+      </c>
+      <c r="AB167">
+        <v>1</v>
+      </c>
+      <c r="AC167">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>7994683</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" t="s">
+        <v>30</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45382.83333333334</v>
+      </c>
+      <c r="F168" t="s">
+        <v>35</v>
+      </c>
+      <c r="G168" t="s">
+        <v>36</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168" t="s">
+        <v>51</v>
+      </c>
+      <c r="K168">
+        <v>2.5</v>
+      </c>
+      <c r="L168">
+        <v>3.1</v>
+      </c>
+      <c r="M168">
+        <v>2.75</v>
+      </c>
+      <c r="N168">
+        <v>2.8</v>
+      </c>
+      <c r="O168">
+        <v>3.1</v>
+      </c>
+      <c r="P168">
+        <v>2.5</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>2.05</v>
+      </c>
+      <c r="S168">
+        <v>1.8</v>
+      </c>
+      <c r="T168">
+        <v>2.25</v>
+      </c>
+      <c r="U168">
+        <v>2</v>
+      </c>
+      <c r="V168">
+        <v>1.85</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
+        <v>1.5</v>
+      </c>
+      <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>0.8</v>
+      </c>
+      <c r="AB168">
+        <v>-0.5</v>
+      </c>
+      <c r="AC168">
+        <v>0.425</v>
       </c>
     </row>
   </sheetData>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,10 +10967,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10982,40 +10982,40 @@
         <v>51</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,10 +11056,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11071,40 +11071,40 @@
         <v>51</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11113,19 +11113,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A1:AC171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M117">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O117">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
+        <v>1.8</v>
+      </c>
+      <c r="S117">
+        <v>2.05</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
         <v>1.95</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.9</v>
       </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.925</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y117">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
+        <v>1.05</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB117">
-        <v>-1</v>
-      </c>
-      <c r="AC117">
-        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K120">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N120">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -15487,6 +15487,228 @@
       </c>
       <c r="AC168">
         <v>0.425</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>8014131</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>30</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45387.75</v>
+      </c>
+      <c r="F169" t="s">
+        <v>36</v>
+      </c>
+      <c r="G169" t="s">
+        <v>40</v>
+      </c>
+      <c r="K169">
+        <v>2.875</v>
+      </c>
+      <c r="L169">
+        <v>3.3</v>
+      </c>
+      <c r="M169">
+        <v>2.375</v>
+      </c>
+      <c r="N169">
+        <v>2.8</v>
+      </c>
+      <c r="O169">
+        <v>3.3</v>
+      </c>
+      <c r="P169">
+        <v>2.4</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>2.1</v>
+      </c>
+      <c r="S169">
+        <v>1.775</v>
+      </c>
+      <c r="T169">
+        <v>2.5</v>
+      </c>
+      <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
+        <v>1.9</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>8014133</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>30</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F170" t="s">
+        <v>32</v>
+      </c>
+      <c r="G170" t="s">
+        <v>35</v>
+      </c>
+      <c r="K170">
+        <v>2.5</v>
+      </c>
+      <c r="L170">
+        <v>2.9</v>
+      </c>
+      <c r="M170">
+        <v>2.9</v>
+      </c>
+      <c r="N170">
+        <v>2.5</v>
+      </c>
+      <c r="O170">
+        <v>2.9</v>
+      </c>
+      <c r="P170">
+        <v>2.875</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>1.8</v>
+      </c>
+      <c r="S170">
+        <v>2.05</v>
+      </c>
+      <c r="T170">
+        <v>2</v>
+      </c>
+      <c r="U170">
+        <v>1.85</v>
+      </c>
+      <c r="V170">
+        <v>2</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>8014091</v>
+      </c>
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>30</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45389.70833333334</v>
+      </c>
+      <c r="F171" t="s">
+        <v>31</v>
+      </c>
+      <c r="G171" t="s">
+        <v>44</v>
+      </c>
+      <c r="K171">
+        <v>5</v>
+      </c>
+      <c r="L171">
+        <v>3.75</v>
+      </c>
+      <c r="M171">
+        <v>1.615</v>
+      </c>
+      <c r="N171">
+        <v>4.5</v>
+      </c>
+      <c r="O171">
+        <v>3.6</v>
+      </c>
+      <c r="P171">
+        <v>1.7</v>
+      </c>
+      <c r="Q171">
+        <v>0.75</v>
+      </c>
+      <c r="R171">
+        <v>1.875</v>
+      </c>
+      <c r="S171">
+        <v>1.975</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
+        <v>2.025</v>
+      </c>
+      <c r="V171">
+        <v>1.825</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N117">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M120">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O120">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
+        <v>2.05</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.925</v>
-      </c>
-      <c r="V120">
-        <v>1.925</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y120">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
+        <v>1.05</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB120">
-        <v>-1</v>
-      </c>
-      <c r="AC120">
-        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -15669,10 +15669,10 @@
         <v>1.615</v>
       </c>
       <c r="N171">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P171">
         <v>1.7</v>
@@ -15690,10 +15690,10 @@
         <v>2.5</v>
       </c>
       <c r="U171">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
         <v>0</v>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC171"/>
+  <dimension ref="A1:AC173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,10 +10967,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10982,40 +10982,40 @@
         <v>51</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N118">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013885</v>
+        <v>7013409</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,76 +11056,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K119">
+        <v>1.666</v>
+      </c>
+      <c r="L119">
+        <v>3.9</v>
+      </c>
+      <c r="M119">
+        <v>4.5</v>
+      </c>
+      <c r="N119">
+        <v>1.615</v>
+      </c>
+      <c r="O119">
+        <v>4</v>
+      </c>
+      <c r="P119">
+        <v>4.75</v>
+      </c>
+      <c r="Q119">
+        <v>-0.75</v>
+      </c>
+      <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2.05</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.95</v>
+      </c>
+      <c r="V119">
+        <v>1.9</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
         <v>3</v>
       </c>
-      <c r="L119">
-        <v>3</v>
-      </c>
-      <c r="M119">
-        <v>2.4</v>
-      </c>
-      <c r="N119">
-        <v>2.9</v>
-      </c>
-      <c r="O119">
-        <v>2.75</v>
-      </c>
-      <c r="P119">
-        <v>2.6</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
-      </c>
-      <c r="R119">
-        <v>2.025</v>
-      </c>
-      <c r="S119">
-        <v>1.825</v>
-      </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>2.025</v>
-      </c>
-      <c r="V119">
-        <v>1.825</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
       <c r="Y119">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K120">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L120">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N120">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
         <v>1.8</v>
       </c>
-      <c r="S120">
-        <v>2.05</v>
-      </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>8014131</v>
+        <v>8014133</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,49 +15503,49 @@
         <v>30</v>
       </c>
       <c r="E169" s="2">
-        <v>45387.75</v>
+        <v>45388.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K169">
+        <v>2.5</v>
+      </c>
+      <c r="L169">
+        <v>2.9</v>
+      </c>
+      <c r="M169">
+        <v>2.9</v>
+      </c>
+      <c r="N169">
+        <v>2.5</v>
+      </c>
+      <c r="O169">
+        <v>2.9</v>
+      </c>
+      <c r="P169">
         <v>2.875</v>
       </c>
-      <c r="L169">
-        <v>3.3</v>
-      </c>
-      <c r="M169">
-        <v>2.375</v>
-      </c>
-      <c r="N169">
-        <v>2.8</v>
-      </c>
-      <c r="O169">
-        <v>3.3</v>
-      </c>
-      <c r="P169">
-        <v>2.4</v>
-      </c>
       <c r="Q169">
         <v>0</v>
       </c>
       <c r="R169">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S169">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W169">
         <v>0</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>8014133</v>
+        <v>8014044</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15577,49 +15577,49 @@
         <v>30</v>
       </c>
       <c r="E170" s="2">
-        <v>45388.41666666666</v>
+        <v>45388.52083333334</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K170">
+        <v>1.909</v>
+      </c>
+      <c r="L170">
+        <v>3.3</v>
+      </c>
+      <c r="M170">
+        <v>4</v>
+      </c>
+      <c r="N170">
+        <v>1.85</v>
+      </c>
+      <c r="O170">
+        <v>3.5</v>
+      </c>
+      <c r="P170">
+        <v>4</v>
+      </c>
+      <c r="Q170">
+        <v>-0.5</v>
+      </c>
+      <c r="R170">
+        <v>1.9</v>
+      </c>
+      <c r="S170">
+        <v>1.95</v>
+      </c>
+      <c r="T170">
         <v>2.5</v>
       </c>
-      <c r="L170">
-        <v>2.9</v>
-      </c>
-      <c r="M170">
-        <v>2.9</v>
-      </c>
-      <c r="N170">
-        <v>2.5</v>
-      </c>
-      <c r="O170">
-        <v>2.9</v>
-      </c>
-      <c r="P170">
-        <v>2.875</v>
-      </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
-        <v>1.8</v>
-      </c>
-      <c r="S170">
-        <v>2.05</v>
-      </c>
-      <c r="T170">
-        <v>2</v>
-      </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15642,7 +15642,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>8014091</v>
+        <v>8014043</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15651,63 +15651,211 @@
         <v>30</v>
       </c>
       <c r="E171" s="2">
+        <v>45388.625</v>
+      </c>
+      <c r="F171" t="s">
+        <v>37</v>
+      </c>
+      <c r="G171" t="s">
+        <v>49</v>
+      </c>
+      <c r="K171">
+        <v>2.375</v>
+      </c>
+      <c r="L171">
+        <v>3.1</v>
+      </c>
+      <c r="M171">
+        <v>3</v>
+      </c>
+      <c r="N171">
+        <v>2.4</v>
+      </c>
+      <c r="O171">
+        <v>3</v>
+      </c>
+      <c r="P171">
+        <v>3</v>
+      </c>
+      <c r="Q171">
+        <v>-0.25</v>
+      </c>
+      <c r="R171">
+        <v>2.1</v>
+      </c>
+      <c r="S171">
+        <v>1.775</v>
+      </c>
+      <c r="T171">
+        <v>2.25</v>
+      </c>
+      <c r="U171">
+        <v>2.025</v>
+      </c>
+      <c r="V171">
+        <v>1.825</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>8014089</v>
+      </c>
+      <c r="C172" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" t="s">
+        <v>30</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45388.75</v>
+      </c>
+      <c r="F172" t="s">
+        <v>46</v>
+      </c>
+      <c r="G172" t="s">
+        <v>42</v>
+      </c>
+      <c r="K172">
+        <v>1.5</v>
+      </c>
+      <c r="L172">
+        <v>4</v>
+      </c>
+      <c r="M172">
+        <v>6</v>
+      </c>
+      <c r="N172">
+        <v>1.55</v>
+      </c>
+      <c r="O172">
+        <v>4</v>
+      </c>
+      <c r="P172">
+        <v>5.5</v>
+      </c>
+      <c r="Q172">
+        <v>-1</v>
+      </c>
+      <c r="R172">
+        <v>2.05</v>
+      </c>
+      <c r="S172">
+        <v>1.8</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
+        <v>1.9</v>
+      </c>
+      <c r="V172">
+        <v>1.95</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <v>0</v>
+      </c>
+      <c r="AA172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>8014091</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" t="s">
+        <v>30</v>
+      </c>
+      <c r="E173" s="2">
         <v>45389.70833333334</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F173" t="s">
         <v>31</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G173" t="s">
         <v>44</v>
       </c>
-      <c r="K171">
+      <c r="K173">
         <v>5</v>
       </c>
-      <c r="L171">
+      <c r="L173">
         <v>3.75</v>
       </c>
-      <c r="M171">
+      <c r="M173">
         <v>1.615</v>
       </c>
-      <c r="N171">
+      <c r="N173">
         <v>4.2</v>
       </c>
-      <c r="O171">
+      <c r="O173">
         <v>3.75</v>
       </c>
-      <c r="P171">
+      <c r="P173">
         <v>1.7</v>
       </c>
-      <c r="Q171">
+      <c r="Q173">
         <v>0.75</v>
       </c>
-      <c r="R171">
-        <v>1.875</v>
-      </c>
-      <c r="S171">
-        <v>1.975</v>
-      </c>
-      <c r="T171">
+      <c r="R173">
+        <v>1.9</v>
+      </c>
+      <c r="S173">
+        <v>1.95</v>
+      </c>
+      <c r="T173">
         <v>2.5</v>
       </c>
-      <c r="U171">
-        <v>2</v>
-      </c>
-      <c r="V171">
-        <v>1.85</v>
-      </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-      <c r="X171">
-        <v>0</v>
-      </c>
-      <c r="Y171">
-        <v>0</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
-      </c>
-      <c r="AA171">
+      <c r="U173">
+        <v>2.025</v>
+      </c>
+      <c r="V173">
+        <v>1.825</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K114">
+        <v>4.75</v>
+      </c>
+      <c r="L114">
+        <v>3.4</v>
+      </c>
+      <c r="M114">
         <v>1.7</v>
       </c>
-      <c r="L114">
-        <v>3</v>
-      </c>
-      <c r="M114">
-        <v>5.75</v>
-      </c>
       <c r="N114">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M117">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O117">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
+        <v>1.8</v>
+      </c>
+      <c r="S117">
+        <v>2.05</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
         <v>1.95</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.9</v>
       </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.925</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y117">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
+        <v>1.05</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB117">
-        <v>-1</v>
-      </c>
-      <c r="AC117">
-        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,55 +10967,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>51</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O118">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P118">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
         <v>2</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013409</v>
+        <v>7013885</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,76 +11056,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N119">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>8014133</v>
+        <v>8014043</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,49 +15503,49 @@
         <v>30</v>
       </c>
       <c r="E169" s="2">
-        <v>45388.41666666666</v>
+        <v>45388.625</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K169">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L169">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M169">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N169">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O169">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T169">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V169">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W169">
         <v>0</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>8014044</v>
+        <v>8014089</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15577,49 +15577,49 @@
         <v>30</v>
       </c>
       <c r="E170" s="2">
-        <v>45388.52083333334</v>
+        <v>45388.75</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G170" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K170">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L170">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N170">
+        <v>1.6</v>
+      </c>
+      <c r="O170">
+        <v>3.8</v>
+      </c>
+      <c r="P170">
+        <v>5</v>
+      </c>
+      <c r="Q170">
+        <v>-0.75</v>
+      </c>
+      <c r="R170">
+        <v>1.825</v>
+      </c>
+      <c r="S170">
+        <v>2.025</v>
+      </c>
+      <c r="T170">
+        <v>2.25</v>
+      </c>
+      <c r="U170">
         <v>1.85</v>
       </c>
-      <c r="O170">
-        <v>3.5</v>
-      </c>
-      <c r="P170">
-        <v>4</v>
-      </c>
-      <c r="Q170">
-        <v>-0.5</v>
-      </c>
-      <c r="R170">
-        <v>1.9</v>
-      </c>
-      <c r="S170">
-        <v>1.95</v>
-      </c>
-      <c r="T170">
-        <v>2.5</v>
-      </c>
-      <c r="U170">
-        <v>2.025</v>
-      </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15642,7 +15642,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>8014043</v>
+        <v>8014090</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15651,49 +15651,49 @@
         <v>30</v>
       </c>
       <c r="E171" s="2">
-        <v>45388.625</v>
+        <v>45389.375</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K171">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L171">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M171">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N171">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O171">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P171">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U171">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W171">
         <v>0</v>
@@ -15716,7 +15716,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8014089</v>
+        <v>8014132</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15725,49 +15725,49 @@
         <v>30</v>
       </c>
       <c r="E172" s="2">
-        <v>45388.75</v>
+        <v>45389.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N172">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S172">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
         <v>2.25</v>
       </c>
       <c r="U172">
+        <v>1.95</v>
+      </c>
+      <c r="V172">
         <v>1.9</v>
-      </c>
-      <c r="V172">
-        <v>1.95</v>
       </c>
       <c r="W172">
         <v>0</v>
@@ -15829,10 +15829,10 @@
         <v>0.75</v>
       </c>
       <c r="R173">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T173">
         <v>2.5</v>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC173"/>
+  <dimension ref="A1:AC176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K114">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N114">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K115">
+        <v>4.75</v>
+      </c>
+      <c r="L115">
+        <v>3.4</v>
+      </c>
+      <c r="M115">
         <v>1.7</v>
       </c>
-      <c r="L115">
-        <v>3</v>
-      </c>
-      <c r="M115">
-        <v>5.75</v>
-      </c>
       <c r="N115">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013409</v>
+        <v>7013885</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M117">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N117">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,10 +11056,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11071,40 +11071,40 @@
         <v>51</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O119">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11113,19 +11113,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M120">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
         <v>2.05</v>
       </c>
-      <c r="S120">
-        <v>1.8</v>
-      </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>8014043</v>
+        <v>8014131</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,64 +15503,79 @@
         <v>30</v>
       </c>
       <c r="E169" s="2">
-        <v>45388.625</v>
+        <v>45387.79166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169" t="s">
+        <v>50</v>
       </c>
       <c r="K169">
+        <v>2.875</v>
+      </c>
+      <c r="L169">
+        <v>3.3</v>
+      </c>
+      <c r="M169">
         <v>2.375</v>
       </c>
-      <c r="L169">
+      <c r="N169">
         <v>3.1</v>
       </c>
-      <c r="M169">
-        <v>3</v>
-      </c>
-      <c r="N169">
-        <v>2.25</v>
-      </c>
       <c r="O169">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P169">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
+        <v>1.9</v>
+      </c>
+      <c r="S169">
         <v>1.95</v>
-      </c>
-      <c r="S169">
-        <v>1.9</v>
       </c>
       <c r="T169">
         <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA169">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB169">
+        <v>0.825</v>
+      </c>
+      <c r="AC169">
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15568,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>8014089</v>
+        <v>8014133</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15577,64 +15592,79 @@
         <v>30</v>
       </c>
       <c r="E170" s="2">
-        <v>45388.75</v>
+        <v>45388.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="H170">
+        <v>3</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170" t="s">
+        <v>52</v>
       </c>
       <c r="K170">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M170">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N170">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="O170">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P170">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R170">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA170">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB170">
+        <v>0.875</v>
+      </c>
+      <c r="AC170">
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15642,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>8014090</v>
+        <v>8014044</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15651,64 +15681,79 @@
         <v>30</v>
       </c>
       <c r="E171" s="2">
-        <v>45389.375</v>
+        <v>45388.52083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="s">
+        <v>50</v>
       </c>
       <c r="K171">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L171">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M171">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N171">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O171">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB171">
+        <v>-0.5</v>
+      </c>
+      <c r="AC171">
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15716,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8014132</v>
+        <v>8014043</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15725,28 +15770,37 @@
         <v>30</v>
       </c>
       <c r="E172" s="2">
-        <v>45389.41666666666</v>
+        <v>45388.625</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M172">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N172">
         <v>2.2</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P172">
         <v>3.2</v>
@@ -15761,28 +15815,34 @@
         <v>1.9</v>
       </c>
       <c r="T172">
+        <v>2.5</v>
+      </c>
+      <c r="U172">
+        <v>2.025</v>
+      </c>
+      <c r="V172">
+        <v>1.825</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
         <v>2.25</v>
       </c>
-      <c r="U172">
-        <v>1.95</v>
-      </c>
-      <c r="V172">
-        <v>1.9</v>
-      </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-      <c r="X172">
-        <v>0</v>
-      </c>
       <c r="Y172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>0</v>
+        <v>0.45</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15790,7 +15850,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>8014091</v>
+        <v>8014089</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15799,64 +15859,346 @@
         <v>30</v>
       </c>
       <c r="E173" s="2">
-        <v>45389.70833333334</v>
+        <v>45388.75</v>
       </c>
       <c r="F173" t="s">
+        <v>46</v>
+      </c>
+      <c r="G173" t="s">
+        <v>42</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173" t="s">
+        <v>52</v>
+      </c>
+      <c r="K173">
+        <v>1.5</v>
+      </c>
+      <c r="L173">
+        <v>4</v>
+      </c>
+      <c r="M173">
+        <v>6</v>
+      </c>
+      <c r="N173">
+        <v>1.6</v>
+      </c>
+      <c r="O173">
+        <v>3.8</v>
+      </c>
+      <c r="P173">
+        <v>5</v>
+      </c>
+      <c r="Q173">
+        <v>-0.75</v>
+      </c>
+      <c r="R173">
+        <v>1.8</v>
+      </c>
+      <c r="S173">
+        <v>2.05</v>
+      </c>
+      <c r="T173">
+        <v>2.25</v>
+      </c>
+      <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
+        <v>2</v>
+      </c>
+      <c r="W173">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
+        <v>0.4</v>
+      </c>
+      <c r="AA173">
+        <v>-0.5</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>8014132</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>30</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F174" t="s">
+        <v>34</v>
+      </c>
+      <c r="G174" t="s">
+        <v>48</v>
+      </c>
+      <c r="H174">
+        <v>3</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174" t="s">
+        <v>52</v>
+      </c>
+      <c r="K174">
+        <v>2.2</v>
+      </c>
+      <c r="L174">
+        <v>3.2</v>
+      </c>
+      <c r="M174">
+        <v>3.2</v>
+      </c>
+      <c r="N174">
+        <v>2.2</v>
+      </c>
+      <c r="O174">
+        <v>3.2</v>
+      </c>
+      <c r="P174">
+        <v>3.25</v>
+      </c>
+      <c r="Q174">
+        <v>-0.25</v>
+      </c>
+      <c r="R174">
+        <v>1.875</v>
+      </c>
+      <c r="S174">
+        <v>1.975</v>
+      </c>
+      <c r="T174">
+        <v>2.25</v>
+      </c>
+      <c r="U174">
+        <v>1.95</v>
+      </c>
+      <c r="V174">
+        <v>1.9</v>
+      </c>
+      <c r="W174">
+        <v>1.2</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0.875</v>
+      </c>
+      <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
+        <v>0.95</v>
+      </c>
+      <c r="AC174">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>8014090</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45389.625</v>
+      </c>
+      <c r="F175" t="s">
+        <v>33</v>
+      </c>
+      <c r="G175" t="s">
+        <v>38</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175" t="s">
+        <v>51</v>
+      </c>
+      <c r="K175">
+        <v>2.625</v>
+      </c>
+      <c r="L175">
+        <v>2.9</v>
+      </c>
+      <c r="M175">
+        <v>2.9</v>
+      </c>
+      <c r="N175">
+        <v>2.55</v>
+      </c>
+      <c r="O175">
+        <v>2.9</v>
+      </c>
+      <c r="P175">
+        <v>2.9</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>1.825</v>
+      </c>
+      <c r="S175">
+        <v>2.025</v>
+      </c>
+      <c r="T175">
+        <v>2</v>
+      </c>
+      <c r="U175">
+        <v>1.925</v>
+      </c>
+      <c r="V175">
+        <v>1.925</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>1.9</v>
+      </c>
+      <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
+        <v>1.025</v>
+      </c>
+      <c r="AB175">
+        <v>0.925</v>
+      </c>
+      <c r="AC175">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>8014091</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>30</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45389.75</v>
+      </c>
+      <c r="F176" t="s">
         <v>31</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G176" t="s">
         <v>44</v>
       </c>
-      <c r="K173">
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176" t="s">
+        <v>51</v>
+      </c>
+      <c r="K176">
         <v>5</v>
       </c>
-      <c r="L173">
+      <c r="L176">
         <v>3.75</v>
       </c>
-      <c r="M173">
+      <c r="M176">
         <v>1.615</v>
       </c>
-      <c r="N173">
-        <v>4.2</v>
-      </c>
-      <c r="O173">
-        <v>3.75</v>
-      </c>
-      <c r="P173">
-        <v>1.7</v>
-      </c>
-      <c r="Q173">
-        <v>0.75</v>
-      </c>
-      <c r="R173">
-        <v>1.875</v>
-      </c>
-      <c r="S173">
-        <v>1.975</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
-      <c r="U173">
-        <v>2.025</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="X173">
-        <v>0</v>
-      </c>
-      <c r="Y173">
-        <v>0</v>
-      </c>
-      <c r="Z173">
-        <v>0</v>
-      </c>
-      <c r="AA173">
-        <v>0</v>
+      <c r="N176">
+        <v>3.1</v>
+      </c>
+      <c r="O176">
+        <v>3.3</v>
+      </c>
+      <c r="P176">
+        <v>2.1</v>
+      </c>
+      <c r="Q176">
+        <v>0.25</v>
+      </c>
+      <c r="R176">
+        <v>1.95</v>
+      </c>
+      <c r="S176">
+        <v>1.9</v>
+      </c>
+      <c r="T176">
+        <v>2.25</v>
+      </c>
+      <c r="U176">
+        <v>1.85</v>
+      </c>
+      <c r="V176">
+        <v>2</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>1.1</v>
+      </c>
+      <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB176">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC176">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,55 +10878,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>51</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N117">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P117">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
         <v>2</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10935,19 +10935,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013886</v>
+        <v>7013885</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,55 +10967,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>51</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N118">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P118">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>2</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC176"/>
+  <dimension ref="A1:AC177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K114">
+        <v>4.75</v>
+      </c>
+      <c r="L114">
+        <v>3.4</v>
+      </c>
+      <c r="M114">
         <v>1.7</v>
       </c>
-      <c r="L114">
-        <v>3</v>
-      </c>
-      <c r="M114">
-        <v>5.75</v>
-      </c>
       <c r="N114">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,76 +11056,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M119">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
         <v>-0.75</v>
       </c>
       <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
         <v>2.05</v>
       </c>
-      <c r="S119">
-        <v>1.8</v>
-      </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y119">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K120">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L120">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N120">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
         <v>1.8</v>
       </c>
-      <c r="S120">
-        <v>2.05</v>
-      </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -16199,6 +16199,80 @@
       </c>
       <c r="AC176">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>8051187</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F177" t="s">
+        <v>40</v>
+      </c>
+      <c r="G177" t="s">
+        <v>32</v>
+      </c>
+      <c r="K177">
+        <v>1.727</v>
+      </c>
+      <c r="L177">
+        <v>3.5</v>
+      </c>
+      <c r="M177">
+        <v>5</v>
+      </c>
+      <c r="N177">
+        <v>1.571</v>
+      </c>
+      <c r="O177">
+        <v>3.6</v>
+      </c>
+      <c r="P177">
+        <v>6.5</v>
+      </c>
+      <c r="Q177">
+        <v>-1</v>
+      </c>
+      <c r="R177">
+        <v>2.025</v>
+      </c>
+      <c r="S177">
+        <v>1.825</v>
+      </c>
+      <c r="T177">
+        <v>2.25</v>
+      </c>
+      <c r="U177">
+        <v>1.8</v>
+      </c>
+      <c r="V177">
+        <v>2.05</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC177"/>
+  <dimension ref="A1:AC179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K114">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N114">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K115">
+        <v>4.75</v>
+      </c>
+      <c r="L115">
+        <v>3.4</v>
+      </c>
+      <c r="M115">
         <v>1.7</v>
       </c>
-      <c r="L115">
-        <v>3</v>
-      </c>
-      <c r="M115">
-        <v>5.75</v>
-      </c>
       <c r="N115">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>8051187</v>
+        <v>8051186</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,49 +16215,49 @@
         <v>30</v>
       </c>
       <c r="E177" s="2">
-        <v>45396.625</v>
+        <v>45395.83333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M177">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N177">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P177">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S177">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V177">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W177">
         <v>0</v>
@@ -16272,6 +16272,154 @@
         <v>0</v>
       </c>
       <c r="AA177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>8051187</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>30</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F178" t="s">
+        <v>40</v>
+      </c>
+      <c r="G178" t="s">
+        <v>32</v>
+      </c>
+      <c r="K178">
+        <v>1.727</v>
+      </c>
+      <c r="L178">
+        <v>3.5</v>
+      </c>
+      <c r="M178">
+        <v>5</v>
+      </c>
+      <c r="N178">
+        <v>1.615</v>
+      </c>
+      <c r="O178">
+        <v>3.6</v>
+      </c>
+      <c r="P178">
+        <v>6</v>
+      </c>
+      <c r="Q178">
+        <v>-0.75</v>
+      </c>
+      <c r="R178">
+        <v>1.85</v>
+      </c>
+      <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>1.85</v>
+      </c>
+      <c r="V178">
+        <v>2</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>8050912</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>30</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45397.75</v>
+      </c>
+      <c r="F179" t="s">
+        <v>35</v>
+      </c>
+      <c r="G179" t="s">
+        <v>38</v>
+      </c>
+      <c r="K179">
+        <v>3.2</v>
+      </c>
+      <c r="L179">
+        <v>3.3</v>
+      </c>
+      <c r="M179">
+        <v>2.2</v>
+      </c>
+      <c r="N179">
+        <v>3.4</v>
+      </c>
+      <c r="O179">
+        <v>3.3</v>
+      </c>
+      <c r="P179">
+        <v>2.1</v>
+      </c>
+      <c r="Q179">
+        <v>0.25</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>1.85</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>1.9</v>
+      </c>
+      <c r="V179">
+        <v>1.95</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K114">
+        <v>4.75</v>
+      </c>
+      <c r="L114">
+        <v>3.4</v>
+      </c>
+      <c r="M114">
         <v>1.7</v>
       </c>
-      <c r="L114">
-        <v>3</v>
-      </c>
-      <c r="M114">
-        <v>5.75</v>
-      </c>
       <c r="N114">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M117">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O117">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
+        <v>1.8</v>
+      </c>
+      <c r="S117">
+        <v>2.05</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
         <v>1.95</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.9</v>
       </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.925</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y117">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
+        <v>1.05</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB117">
-        <v>-1</v>
-      </c>
-      <c r="AC117">
-        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,76 +11056,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L119">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N119">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -16254,10 +16254,10 @@
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V177">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
         <v>0</v>
@@ -16307,31 +16307,31 @@
         <v>5</v>
       </c>
       <c r="N178">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P178">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q178">
         <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -16393,10 +16393,10 @@
         <v>0.25</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
         <v>2.25</v>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC179"/>
+  <dimension ref="A1:AC181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N117">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,55 +11056,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>51</v>
       </c>
       <c r="K119">
+        <v>1.8</v>
+      </c>
+      <c r="L119">
+        <v>3.6</v>
+      </c>
+      <c r="M119">
+        <v>4.2</v>
+      </c>
+      <c r="N119">
+        <v>1.8</v>
+      </c>
+      <c r="O119">
+        <v>3.6</v>
+      </c>
+      <c r="P119">
+        <v>4.2</v>
+      </c>
+      <c r="Q119">
+        <v>-0.75</v>
+      </c>
+      <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
+        <v>1.8</v>
+      </c>
+      <c r="T119">
         <v>2.25</v>
       </c>
-      <c r="L119">
-        <v>3.1</v>
-      </c>
-      <c r="M119">
-        <v>3.25</v>
-      </c>
-      <c r="N119">
-        <v>2.25</v>
-      </c>
-      <c r="O119">
-        <v>2.875</v>
-      </c>
-      <c r="P119">
-        <v>3.5</v>
-      </c>
-      <c r="Q119">
-        <v>-0.25</v>
-      </c>
-      <c r="R119">
-        <v>1.95</v>
-      </c>
-      <c r="S119">
-        <v>1.9</v>
-      </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11113,19 +11113,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M120">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
         <v>2.05</v>
       </c>
-      <c r="S120">
-        <v>1.8</v>
-      </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>8051186</v>
+        <v>8051184</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,49 +16215,49 @@
         <v>30</v>
       </c>
       <c r="E177" s="2">
-        <v>45395.83333333334</v>
+        <v>45395.625</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G177" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K177">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L177">
+        <v>3.2</v>
+      </c>
+      <c r="M177">
         <v>3</v>
       </c>
-      <c r="M177">
-        <v>3.3</v>
-      </c>
       <c r="N177">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O177">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P177">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R177">
+        <v>1.775</v>
+      </c>
+      <c r="S177">
         <v>2.1</v>
-      </c>
-      <c r="S177">
-        <v>1.775</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
         <v>0</v>
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>8051187</v>
+        <v>8051185</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16289,49 +16289,49 @@
         <v>30</v>
       </c>
       <c r="E178" s="2">
-        <v>45396.625</v>
+        <v>45395.72916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K178">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M178">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N178">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="O178">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P178">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -16354,7 +16354,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>8050912</v>
+        <v>8051186</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16363,34 +16363,34 @@
         <v>30</v>
       </c>
       <c r="E179" s="2">
-        <v>45397.75</v>
+        <v>45395.83333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K179">
+        <v>2.3</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+      <c r="M179">
+        <v>3.3</v>
+      </c>
+      <c r="N179">
+        <v>2.375</v>
+      </c>
+      <c r="O179">
+        <v>3</v>
+      </c>
+      <c r="P179">
         <v>3.2</v>
       </c>
-      <c r="L179">
-        <v>3.3</v>
-      </c>
-      <c r="M179">
-        <v>2.2</v>
-      </c>
-      <c r="N179">
-        <v>3.4</v>
-      </c>
-      <c r="O179">
-        <v>3.3</v>
-      </c>
-      <c r="P179">
-        <v>2.1</v>
-      </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
         <v>2.025</v>
@@ -16402,24 +16402,172 @@
         <v>2.25</v>
       </c>
       <c r="U179">
+        <v>2.1</v>
+      </c>
+      <c r="V179">
+        <v>1.775</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>8051187</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F180" t="s">
+        <v>40</v>
+      </c>
+      <c r="G180" t="s">
+        <v>32</v>
+      </c>
+      <c r="K180">
+        <v>1.727</v>
+      </c>
+      <c r="L180">
+        <v>3.5</v>
+      </c>
+      <c r="M180">
+        <v>5</v>
+      </c>
+      <c r="N180">
+        <v>1.666</v>
+      </c>
+      <c r="O180">
+        <v>3.5</v>
+      </c>
+      <c r="P180">
+        <v>5.5</v>
+      </c>
+      <c r="Q180">
+        <v>-0.75</v>
+      </c>
+      <c r="R180">
+        <v>1.875</v>
+      </c>
+      <c r="S180">
+        <v>1.975</v>
+      </c>
+      <c r="T180">
+        <v>2.25</v>
+      </c>
+      <c r="U180">
+        <v>1.85</v>
+      </c>
+      <c r="V180">
+        <v>2</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>8050912</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45397.75</v>
+      </c>
+      <c r="F181" t="s">
+        <v>35</v>
+      </c>
+      <c r="G181" t="s">
+        <v>38</v>
+      </c>
+      <c r="K181">
+        <v>3.2</v>
+      </c>
+      <c r="L181">
+        <v>3.3</v>
+      </c>
+      <c r="M181">
+        <v>2.2</v>
+      </c>
+      <c r="N181">
+        <v>3.4</v>
+      </c>
+      <c r="O181">
+        <v>3.3</v>
+      </c>
+      <c r="P181">
+        <v>2.1</v>
+      </c>
+      <c r="Q181">
+        <v>0.25</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1.85</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
         <v>1.9</v>
       </c>
-      <c r="V179">
+      <c r="V181">
         <v>1.95</v>
       </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-      <c r="X179">
-        <v>0</v>
-      </c>
-      <c r="Y179">
-        <v>0</v>
-      </c>
-      <c r="Z179">
-        <v>0</v>
-      </c>
-      <c r="AA179">
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC181"/>
+  <dimension ref="A1:AC182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,76 +11056,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M119">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
         <v>-0.75</v>
       </c>
       <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
         <v>2.05</v>
       </c>
-      <c r="S119">
-        <v>1.8</v>
-      </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y119">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K120">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L120">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N120">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
         <v>1.8</v>
       </c>
-      <c r="S120">
-        <v>2.05</v>
-      </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>8051184</v>
+        <v>8051185</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,49 +16215,49 @@
         <v>30</v>
       </c>
       <c r="E177" s="2">
-        <v>45395.625</v>
+        <v>45395.72916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K177">
         <v>2.375</v>
       </c>
       <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
         <v>3.2</v>
       </c>
-      <c r="M177">
+      <c r="N177">
+        <v>2.6</v>
+      </c>
+      <c r="O177">
         <v>3</v>
       </c>
-      <c r="N177">
-        <v>2.45</v>
-      </c>
-      <c r="O177">
-        <v>3.25</v>
-      </c>
       <c r="P177">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q177">
         <v>0</v>
       </c>
       <c r="R177">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W177">
         <v>0</v>
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>8051185</v>
+        <v>8051186</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16289,49 +16289,49 @@
         <v>30</v>
       </c>
       <c r="E178" s="2">
-        <v>45395.72916666666</v>
+        <v>45395.83333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K178">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L178">
         <v>3</v>
       </c>
       <c r="M178">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N178">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="O178">
         <v>3</v>
       </c>
       <c r="P178">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
+        <v>2.05</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>2</v>
+      </c>
+      <c r="V178">
         <v>1.85</v>
-      </c>
-      <c r="S178">
-        <v>2</v>
-      </c>
-      <c r="T178">
-        <v>2</v>
-      </c>
-      <c r="U178">
-        <v>1.85</v>
-      </c>
-      <c r="V178">
-        <v>2</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -16354,7 +16354,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>8051186</v>
+        <v>8051004</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16363,34 +16363,34 @@
         <v>30</v>
       </c>
       <c r="E179" s="2">
-        <v>45395.83333333334</v>
+        <v>45396.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K179">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L179">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M179">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N179">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O179">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P179">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
         <v>2.025</v>
@@ -16399,13 +16399,13 @@
         <v>1.825</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>8050912</v>
+        <v>8050911</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16511,63 +16511,137 @@
         <v>30</v>
       </c>
       <c r="E181" s="2">
-        <v>45397.75</v>
+        <v>45396.75</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K181">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L181">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N181">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="O181">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P181">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T181">
         <v>2.25</v>
       </c>
       <c r="U181">
+        <v>1.925</v>
+      </c>
+      <c r="V181">
+        <v>1.925</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>8050912</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>30</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45397.75</v>
+      </c>
+      <c r="F182" t="s">
+        <v>35</v>
+      </c>
+      <c r="G182" t="s">
+        <v>38</v>
+      </c>
+      <c r="K182">
+        <v>3.2</v>
+      </c>
+      <c r="L182">
+        <v>3.3</v>
+      </c>
+      <c r="M182">
+        <v>2.2</v>
+      </c>
+      <c r="N182">
+        <v>3.4</v>
+      </c>
+      <c r="O182">
+        <v>3.3</v>
+      </c>
+      <c r="P182">
+        <v>2.1</v>
+      </c>
+      <c r="Q182">
+        <v>0.25</v>
+      </c>
+      <c r="R182">
+        <v>2</v>
+      </c>
+      <c r="S182">
+        <v>1.85</v>
+      </c>
+      <c r="T182">
+        <v>2.25</v>
+      </c>
+      <c r="U182">
         <v>1.9</v>
       </c>
-      <c r="V181">
+      <c r="V182">
         <v>1.95</v>
       </c>
-      <c r="W181">
-        <v>0</v>
-      </c>
-      <c r="X181">
-        <v>0</v>
-      </c>
-      <c r="Y181">
-        <v>0</v>
-      </c>
-      <c r="Z181">
-        <v>0</v>
-      </c>
-      <c r="AA181">
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC182"/>
+  <dimension ref="A1:AC178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K114">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N114">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K115">
+        <v>4.75</v>
+      </c>
+      <c r="L115">
+        <v>3.4</v>
+      </c>
+      <c r="M115">
         <v>1.7</v>
       </c>
-      <c r="L115">
-        <v>3</v>
-      </c>
-      <c r="M115">
-        <v>5.75</v>
-      </c>
       <c r="N115">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,76 +11056,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N119">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
         <v>-0.75</v>
       </c>
       <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
         <v>1.8</v>
       </c>
-      <c r="S119">
-        <v>2.05</v>
-      </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M120">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
         <v>2.05</v>
       </c>
-      <c r="S120">
-        <v>1.8</v>
-      </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>8051185</v>
+        <v>8050911</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,49 +16215,49 @@
         <v>30</v>
       </c>
       <c r="E177" s="2">
-        <v>45395.72916666666</v>
+        <v>45396.75</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K177">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L177">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N177">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O177">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S177">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
         <v>0</v>
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>8051186</v>
+        <v>8050912</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16289,49 +16289,49 @@
         <v>30</v>
       </c>
       <c r="E178" s="2">
-        <v>45395.83333333334</v>
+        <v>45397.75</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K178">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L178">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
+        <v>2.2</v>
+      </c>
+      <c r="N178">
+        <v>3.4</v>
+      </c>
+      <c r="O178">
         <v>3.3</v>
       </c>
-      <c r="N178">
-        <v>2.375</v>
-      </c>
-      <c r="O178">
-        <v>3</v>
-      </c>
       <c r="P178">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -16346,302 +16346,6 @@
         <v>0</v>
       </c>
       <c r="AA178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>8051004</v>
-      </c>
-      <c r="C179" t="s">
-        <v>28</v>
-      </c>
-      <c r="D179" t="s">
-        <v>30</v>
-      </c>
-      <c r="E179" s="2">
-        <v>45396.41666666666</v>
-      </c>
-      <c r="F179" t="s">
-        <v>48</v>
-      </c>
-      <c r="G179" t="s">
-        <v>43</v>
-      </c>
-      <c r="K179">
-        <v>3.2</v>
-      </c>
-      <c r="L179">
-        <v>3.3</v>
-      </c>
-      <c r="M179">
-        <v>2.2</v>
-      </c>
-      <c r="N179">
-        <v>3.4</v>
-      </c>
-      <c r="O179">
-        <v>3.5</v>
-      </c>
-      <c r="P179">
-        <v>2.05</v>
-      </c>
-      <c r="Q179">
-        <v>0.25</v>
-      </c>
-      <c r="R179">
-        <v>2.025</v>
-      </c>
-      <c r="S179">
-        <v>1.825</v>
-      </c>
-      <c r="T179">
-        <v>2.5</v>
-      </c>
-      <c r="U179">
-        <v>2.025</v>
-      </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-      <c r="X179">
-        <v>0</v>
-      </c>
-      <c r="Y179">
-        <v>0</v>
-      </c>
-      <c r="Z179">
-        <v>0</v>
-      </c>
-      <c r="AA179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:27">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>8051187</v>
-      </c>
-      <c r="C180" t="s">
-        <v>28</v>
-      </c>
-      <c r="D180" t="s">
-        <v>30</v>
-      </c>
-      <c r="E180" s="2">
-        <v>45396.625</v>
-      </c>
-      <c r="F180" t="s">
-        <v>40</v>
-      </c>
-      <c r="G180" t="s">
-        <v>32</v>
-      </c>
-      <c r="K180">
-        <v>1.727</v>
-      </c>
-      <c r="L180">
-        <v>3.5</v>
-      </c>
-      <c r="M180">
-        <v>5</v>
-      </c>
-      <c r="N180">
-        <v>1.666</v>
-      </c>
-      <c r="O180">
-        <v>3.5</v>
-      </c>
-      <c r="P180">
-        <v>5.5</v>
-      </c>
-      <c r="Q180">
-        <v>-0.75</v>
-      </c>
-      <c r="R180">
-        <v>1.875</v>
-      </c>
-      <c r="S180">
-        <v>1.975</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
-      <c r="U180">
-        <v>1.85</v>
-      </c>
-      <c r="V180">
-        <v>2</v>
-      </c>
-      <c r="W180">
-        <v>0</v>
-      </c>
-      <c r="X180">
-        <v>0</v>
-      </c>
-      <c r="Y180">
-        <v>0</v>
-      </c>
-      <c r="Z180">
-        <v>0</v>
-      </c>
-      <c r="AA180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:27">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>8050911</v>
-      </c>
-      <c r="C181" t="s">
-        <v>28</v>
-      </c>
-      <c r="D181" t="s">
-        <v>30</v>
-      </c>
-      <c r="E181" s="2">
-        <v>45396.75</v>
-      </c>
-      <c r="F181" t="s">
-        <v>44</v>
-      </c>
-      <c r="G181" t="s">
-        <v>37</v>
-      </c>
-      <c r="K181">
-        <v>1.666</v>
-      </c>
-      <c r="L181">
-        <v>3.5</v>
-      </c>
-      <c r="M181">
-        <v>5.5</v>
-      </c>
-      <c r="N181">
-        <v>1.65</v>
-      </c>
-      <c r="O181">
-        <v>3.5</v>
-      </c>
-      <c r="P181">
-        <v>5.75</v>
-      </c>
-      <c r="Q181">
-        <v>-0.75</v>
-      </c>
-      <c r="R181">
-        <v>1.825</v>
-      </c>
-      <c r="S181">
-        <v>2.025</v>
-      </c>
-      <c r="T181">
-        <v>2.25</v>
-      </c>
-      <c r="U181">
-        <v>1.925</v>
-      </c>
-      <c r="V181">
-        <v>1.925</v>
-      </c>
-      <c r="W181">
-        <v>0</v>
-      </c>
-      <c r="X181">
-        <v>0</v>
-      </c>
-      <c r="Y181">
-        <v>0</v>
-      </c>
-      <c r="Z181">
-        <v>0</v>
-      </c>
-      <c r="AA181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:27">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>8050912</v>
-      </c>
-      <c r="C182" t="s">
-        <v>28</v>
-      </c>
-      <c r="D182" t="s">
-        <v>30</v>
-      </c>
-      <c r="E182" s="2">
-        <v>45397.75</v>
-      </c>
-      <c r="F182" t="s">
-        <v>35</v>
-      </c>
-      <c r="G182" t="s">
-        <v>38</v>
-      </c>
-      <c r="K182">
-        <v>3.2</v>
-      </c>
-      <c r="L182">
-        <v>3.3</v>
-      </c>
-      <c r="M182">
-        <v>2.2</v>
-      </c>
-      <c r="N182">
-        <v>3.4</v>
-      </c>
-      <c r="O182">
-        <v>3.3</v>
-      </c>
-      <c r="P182">
-        <v>2.1</v>
-      </c>
-      <c r="Q182">
-        <v>0.25</v>
-      </c>
-      <c r="R182">
-        <v>2</v>
-      </c>
-      <c r="S182">
-        <v>1.85</v>
-      </c>
-      <c r="T182">
-        <v>2.25</v>
-      </c>
-      <c r="U182">
-        <v>1.9</v>
-      </c>
-      <c r="V182">
-        <v>1.95</v>
-      </c>
-      <c r="W182">
-        <v>0</v>
-      </c>
-      <c r="X182">
-        <v>0</v>
-      </c>
-      <c r="Y182">
-        <v>0</v>
-      </c>
-      <c r="Z182">
-        <v>0</v>
-      </c>
-      <c r="AA182">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC178"/>
+  <dimension ref="A1:AC182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,55 +10878,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>51</v>
       </c>
       <c r="K117">
+        <v>1.8</v>
+      </c>
+      <c r="L117">
+        <v>3.6</v>
+      </c>
+      <c r="M117">
+        <v>4.2</v>
+      </c>
+      <c r="N117">
+        <v>1.8</v>
+      </c>
+      <c r="O117">
+        <v>3.6</v>
+      </c>
+      <c r="P117">
+        <v>4.2</v>
+      </c>
+      <c r="Q117">
+        <v>-0.75</v>
+      </c>
+      <c r="R117">
+        <v>2.05</v>
+      </c>
+      <c r="S117">
+        <v>1.8</v>
+      </c>
+      <c r="T117">
         <v>2.25</v>
       </c>
-      <c r="L117">
-        <v>3.1</v>
-      </c>
-      <c r="M117">
-        <v>3.25</v>
-      </c>
-      <c r="N117">
-        <v>2.25</v>
-      </c>
-      <c r="O117">
-        <v>2.875</v>
-      </c>
-      <c r="P117">
-        <v>3.5</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
-      <c r="R117">
-        <v>1.95</v>
-      </c>
-      <c r="S117">
-        <v>1.9</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10935,19 +10935,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,76 +11056,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M119">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
         <v>-0.75</v>
       </c>
       <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
         <v>2.05</v>
       </c>
-      <c r="S119">
-        <v>1.8</v>
-      </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y119">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K120">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N120">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -16201,12 +16201,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:29">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>8050911</v>
+        <v>8051184</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,40 +16215,49 @@
         <v>30</v>
       </c>
       <c r="E177" s="2">
-        <v>45396.75</v>
+        <v>45395.625</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>52</v>
       </c>
       <c r="K177">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N177">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P177">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.25</v>
@@ -16260,27 +16269,33 @@
         <v>1.9</v>
       </c>
       <c r="W177">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>8050912</v>
+        <v>8051185</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16289,63 +16304,404 @@
         <v>30</v>
       </c>
       <c r="E178" s="2">
-        <v>45397.75</v>
+        <v>45395.72916666666</v>
       </c>
       <c r="F178" t="s">
+        <v>34</v>
+      </c>
+      <c r="G178" t="s">
+        <v>33</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>50</v>
+      </c>
+      <c r="K178">
+        <v>2.375</v>
+      </c>
+      <c r="L178">
+        <v>3</v>
+      </c>
+      <c r="M178">
+        <v>3.2</v>
+      </c>
+      <c r="N178">
+        <v>2.7</v>
+      </c>
+      <c r="O178">
+        <v>3</v>
+      </c>
+      <c r="P178">
+        <v>2.8</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>1.85</v>
+      </c>
+      <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>2</v>
+      </c>
+      <c r="U178">
+        <v>1.85</v>
+      </c>
+      <c r="V178">
+        <v>2</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
+        <v>2</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>-0</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>8051186</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>30</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45395.83333333334</v>
+      </c>
+      <c r="F179" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179" t="s">
+        <v>42</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>51</v>
+      </c>
+      <c r="K179">
+        <v>2.3</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+      <c r="M179">
+        <v>3.3</v>
+      </c>
+      <c r="N179">
+        <v>2.375</v>
+      </c>
+      <c r="O179">
+        <v>3.1</v>
+      </c>
+      <c r="P179">
+        <v>3.1</v>
+      </c>
+      <c r="Q179">
+        <v>-0.25</v>
+      </c>
+      <c r="R179">
+        <v>2.05</v>
+      </c>
+      <c r="S179">
+        <v>1.8</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>2.1</v>
+      </c>
+      <c r="V179">
+        <v>1.775</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>2.1</v>
+      </c>
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.8</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>8051004</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45396.41666666666</v>
+      </c>
+      <c r="F180" t="s">
+        <v>48</v>
+      </c>
+      <c r="G180" t="s">
+        <v>43</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>51</v>
+      </c>
+      <c r="K180">
+        <v>3.2</v>
+      </c>
+      <c r="L180">
+        <v>3.3</v>
+      </c>
+      <c r="M180">
+        <v>2.2</v>
+      </c>
+      <c r="N180">
+        <v>3.8</v>
+      </c>
+      <c r="O180">
+        <v>3.6</v>
+      </c>
+      <c r="P180">
+        <v>1.85</v>
+      </c>
+      <c r="Q180">
+        <v>0.5</v>
+      </c>
+      <c r="R180">
+        <v>1.925</v>
+      </c>
+      <c r="S180">
+        <v>1.925</v>
+      </c>
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>2.05</v>
+      </c>
+      <c r="V180">
+        <v>1.8</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
+        <v>0.925</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>8050912</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45398.75</v>
+      </c>
+      <c r="F181" t="s">
         <v>35</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G181" t="s">
         <v>38</v>
       </c>
-      <c r="K178">
+      <c r="K181">
         <v>3.2</v>
       </c>
-      <c r="L178">
+      <c r="L181">
         <v>3.3</v>
       </c>
-      <c r="M178">
+      <c r="M181">
         <v>2.2</v>
       </c>
-      <c r="N178">
+      <c r="N181">
+        <v>3.5</v>
+      </c>
+      <c r="O181">
         <v>3.4</v>
       </c>
-      <c r="O178">
-        <v>3.3</v>
-      </c>
-      <c r="P178">
+      <c r="P181">
+        <v>2.05</v>
+      </c>
+      <c r="Q181">
+        <v>0.25</v>
+      </c>
+      <c r="R181">
+        <v>2.025</v>
+      </c>
+      <c r="S181">
+        <v>1.825</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>1.925</v>
+      </c>
+      <c r="V181">
+        <v>1.925</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>8050913</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>30</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45398.85416666666</v>
+      </c>
+      <c r="F182" t="s">
+        <v>47</v>
+      </c>
+      <c r="G182" t="s">
+        <v>46</v>
+      </c>
+      <c r="K182">
+        <v>5</v>
+      </c>
+      <c r="L182">
+        <v>3.5</v>
+      </c>
+      <c r="M182">
+        <v>1.727</v>
+      </c>
+      <c r="N182">
+        <v>5.75</v>
+      </c>
+      <c r="O182">
+        <v>3.75</v>
+      </c>
+      <c r="P182">
+        <v>1.6</v>
+      </c>
+      <c r="Q182">
+        <v>0.75</v>
+      </c>
+      <c r="R182">
         <v>2.1</v>
       </c>
-      <c r="Q178">
-        <v>0.25</v>
-      </c>
-      <c r="R178">
-        <v>2.025</v>
-      </c>
-      <c r="S178">
-        <v>1.825</v>
-      </c>
-      <c r="T178">
+      <c r="S182">
+        <v>1.775</v>
+      </c>
+      <c r="T182">
         <v>2.25</v>
       </c>
-      <c r="U178">
+      <c r="U182">
+        <v>1.95</v>
+      </c>
+      <c r="V182">
         <v>1.9</v>
       </c>
-      <c r="V178">
-        <v>1.95</v>
-      </c>
-      <c r="W178">
-        <v>0</v>
-      </c>
-      <c r="X178">
-        <v>0</v>
-      </c>
-      <c r="Y178">
-        <v>0</v>
-      </c>
-      <c r="Z178">
-        <v>0</v>
-      </c>
-      <c r="AA178">
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC182"/>
+  <dimension ref="A1:AC184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K114">
+        <v>4.75</v>
+      </c>
+      <c r="L114">
+        <v>3.4</v>
+      </c>
+      <c r="M114">
         <v>1.7</v>
       </c>
-      <c r="L114">
-        <v>3</v>
-      </c>
-      <c r="M114">
-        <v>5.75</v>
-      </c>
       <c r="N114">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O114">
         <v>3.2</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O115">
         <v>3.2</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,10 +10878,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10893,40 +10893,40 @@
         <v>51</v>
       </c>
       <c r="K117">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M117">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N117">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10935,19 +10935,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,10 +10967,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10982,40 +10982,40 @@
         <v>51</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>8050912</v>
+        <v>8051187</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,64 +16571,79 @@
         <v>30</v>
       </c>
       <c r="E181" s="2">
-        <v>45398.75</v>
+        <v>45396.625</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>52</v>
       </c>
       <c r="K181">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L181">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N181">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="O181">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
+        <v>6</v>
+      </c>
+      <c r="Q181">
+        <v>-0.75</v>
+      </c>
+      <c r="R181">
+        <v>1.8</v>
+      </c>
+      <c r="S181">
         <v>2.05</v>
-      </c>
-      <c r="Q181">
-        <v>0.25</v>
-      </c>
-      <c r="R181">
-        <v>2.025</v>
-      </c>
-      <c r="S181">
-        <v>1.825</v>
       </c>
       <c r="T181">
         <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA181">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB181">
+        <v>0.875</v>
+      </c>
+      <c r="AC181">
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16636,7 +16651,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>8050913</v>
+        <v>8050911</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16645,63 +16660,241 @@
         <v>30</v>
       </c>
       <c r="E182" s="2">
-        <v>45398.85416666666</v>
+        <v>45396.75</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182" t="s">
+        <v>52</v>
       </c>
       <c r="K182">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="L182">
         <v>3.5</v>
       </c>
       <c r="M182">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N182">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="O182">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P182">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q182">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R182">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S182">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
         <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA182">
+        <v>-1</v>
+      </c>
+      <c r="AB182">
+        <v>-0.5</v>
+      </c>
+      <c r="AC182">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>8050912</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>30</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45398.75</v>
+      </c>
+      <c r="F183" t="s">
+        <v>35</v>
+      </c>
+      <c r="G183" t="s">
+        <v>38</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183" t="s">
+        <v>51</v>
+      </c>
+      <c r="K183">
+        <v>3.2</v>
+      </c>
+      <c r="L183">
+        <v>3.3</v>
+      </c>
+      <c r="M183">
+        <v>2.2</v>
+      </c>
+      <c r="N183">
+        <v>3.25</v>
+      </c>
+      <c r="O183">
+        <v>3.4</v>
+      </c>
+      <c r="P183">
+        <v>2.15</v>
+      </c>
+      <c r="Q183">
+        <v>0.25</v>
+      </c>
+      <c r="R183">
+        <v>1.975</v>
+      </c>
+      <c r="S183">
+        <v>1.875</v>
+      </c>
+      <c r="T183">
+        <v>2.25</v>
+      </c>
+      <c r="U183">
+        <v>1.825</v>
+      </c>
+      <c r="V183">
+        <v>2.025</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>1.15</v>
+      </c>
+      <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
+        <v>0.875</v>
+      </c>
+      <c r="AB183">
+        <v>0.825</v>
+      </c>
+      <c r="AC183">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>8081163</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>30</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45401.5625</v>
+      </c>
+      <c r="F184" t="s">
+        <v>43</v>
+      </c>
+      <c r="G184" t="s">
+        <v>34</v>
+      </c>
+      <c r="K184">
+        <v>2.3</v>
+      </c>
+      <c r="L184">
+        <v>3.2</v>
+      </c>
+      <c r="M184">
+        <v>3.2</v>
+      </c>
+      <c r="N184">
+        <v>2.25</v>
+      </c>
+      <c r="O184">
+        <v>3.2</v>
+      </c>
+      <c r="P184">
+        <v>3.25</v>
+      </c>
+      <c r="Q184">
+        <v>-0.25</v>
+      </c>
+      <c r="R184">
+        <v>1.975</v>
+      </c>
+      <c r="S184">
+        <v>1.875</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>2.025</v>
+      </c>
+      <c r="V184">
+        <v>1.825</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC184"/>
+  <dimension ref="A1:AC190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,76 +10967,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N118">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
         <v>-0.75</v>
       </c>
       <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
         <v>2.05</v>
       </c>
-      <c r="S118">
-        <v>1.8</v>
-      </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y118">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013409</v>
+        <v>7013702</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,76 +11056,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N119">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
         <v>-0.75</v>
       </c>
       <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
         <v>1.8</v>
       </c>
-      <c r="S119">
-        <v>2.05</v>
-      </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>8081163</v>
+        <v>8050913</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,63 +16838,522 @@
         <v>30</v>
       </c>
       <c r="E184" s="2">
-        <v>45401.5625</v>
+        <v>45398.85416666666</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>2</v>
+      </c>
+      <c r="J184" t="s">
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L184">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M184">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N184">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="O184">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R184">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S184">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
+        <v>1.95</v>
+      </c>
+      <c r="V184">
+        <v>1.9</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>-0</v>
+      </c>
+      <c r="AB184">
+        <v>0.95</v>
+      </c>
+      <c r="AC184">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>8081163</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>30</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45401.5625</v>
+      </c>
+      <c r="F185" t="s">
+        <v>43</v>
+      </c>
+      <c r="G185" t="s">
+        <v>34</v>
+      </c>
+      <c r="K185">
+        <v>2.3</v>
+      </c>
+      <c r="L185">
+        <v>3.2</v>
+      </c>
+      <c r="M185">
+        <v>3.2</v>
+      </c>
+      <c r="N185">
+        <v>2.1</v>
+      </c>
+      <c r="O185">
+        <v>3.3</v>
+      </c>
+      <c r="P185">
+        <v>3.6</v>
+      </c>
+      <c r="Q185">
+        <v>-0.25</v>
+      </c>
+      <c r="R185">
+        <v>1.8</v>
+      </c>
+      <c r="S185">
+        <v>2.05</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>1.9</v>
+      </c>
+      <c r="V185">
+        <v>1.95</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>8081435</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>30</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45401.64583333334</v>
+      </c>
+      <c r="F186" t="s">
+        <v>38</v>
+      </c>
+      <c r="G186" t="s">
+        <v>40</v>
+      </c>
+      <c r="K186">
+        <v>2.375</v>
+      </c>
+      <c r="L186">
+        <v>3.3</v>
+      </c>
+      <c r="M186">
+        <v>3</v>
+      </c>
+      <c r="N186">
+        <v>2.625</v>
+      </c>
+      <c r="O186">
+        <v>3.3</v>
+      </c>
+      <c r="P186">
+        <v>2.7</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>1.925</v>
+      </c>
+      <c r="S186">
+        <v>1.925</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>1.925</v>
+      </c>
+      <c r="V186">
+        <v>1.925</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>8081162</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>30</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45402.41666666666</v>
+      </c>
+      <c r="F187" t="s">
+        <v>37</v>
+      </c>
+      <c r="G187" t="s">
+        <v>42</v>
+      </c>
+      <c r="K187">
+        <v>2.3</v>
+      </c>
+      <c r="L187">
+        <v>3</v>
+      </c>
+      <c r="M187">
+        <v>3.4</v>
+      </c>
+      <c r="N187">
+        <v>2.15</v>
+      </c>
+      <c r="O187">
+        <v>3</v>
+      </c>
+      <c r="P187">
+        <v>3.75</v>
+      </c>
+      <c r="Q187">
+        <v>-0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.825</v>
+      </c>
+      <c r="S187">
         <v>2.025</v>
       </c>
-      <c r="V184">
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>1.925</v>
+      </c>
+      <c r="V187">
+        <v>1.925</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>8081144</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>30</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45402.625</v>
+      </c>
+      <c r="F188" t="s">
+        <v>36</v>
+      </c>
+      <c r="G188" t="s">
+        <v>44</v>
+      </c>
+      <c r="K188">
+        <v>4.75</v>
+      </c>
+      <c r="L188">
+        <v>3.75</v>
+      </c>
+      <c r="M188">
+        <v>1.727</v>
+      </c>
+      <c r="N188">
+        <v>3.75</v>
+      </c>
+      <c r="O188">
+        <v>3.5</v>
+      </c>
+      <c r="P188">
+        <v>2</v>
+      </c>
+      <c r="Q188">
+        <v>0.5</v>
+      </c>
+      <c r="R188">
+        <v>1.85</v>
+      </c>
+      <c r="S188">
+        <v>2</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.975</v>
+      </c>
+      <c r="V188">
+        <v>1.875</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>8081249</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>30</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45402.75</v>
+      </c>
+      <c r="F189" t="s">
+        <v>46</v>
+      </c>
+      <c r="G189" t="s">
+        <v>48</v>
+      </c>
+      <c r="K189">
+        <v>1.444</v>
+      </c>
+      <c r="L189">
+        <v>4</v>
+      </c>
+      <c r="M189">
+        <v>8.5</v>
+      </c>
+      <c r="N189">
+        <v>1.3</v>
+      </c>
+      <c r="O189">
+        <v>4.5</v>
+      </c>
+      <c r="P189">
+        <v>12</v>
+      </c>
+      <c r="Q189">
+        <v>-1.5</v>
+      </c>
+      <c r="R189">
+        <v>1.975</v>
+      </c>
+      <c r="S189">
+        <v>1.875</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.975</v>
+      </c>
+      <c r="V189">
+        <v>1.875</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>8081250</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>30</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45402.85416666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" t="s">
+        <v>47</v>
+      </c>
+      <c r="K190">
+        <v>2.2</v>
+      </c>
+      <c r="L190">
+        <v>3.3</v>
+      </c>
+      <c r="M190">
+        <v>3.3</v>
+      </c>
+      <c r="N190">
+        <v>2.1</v>
+      </c>
+      <c r="O190">
+        <v>3.4</v>
+      </c>
+      <c r="P190">
+        <v>3.5</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
         <v>1.825</v>
       </c>
-      <c r="W184">
-        <v>0</v>
-      </c>
-      <c r="X184">
-        <v>0</v>
-      </c>
-      <c r="Y184">
-        <v>0</v>
-      </c>
-      <c r="Z184">
-        <v>0</v>
-      </c>
-      <c r="AA184">
+      <c r="S190">
+        <v>2.025</v>
+      </c>
+      <c r="T190">
+        <v>2.25</v>
+      </c>
+      <c r="U190">
+        <v>1.975</v>
+      </c>
+      <c r="V190">
+        <v>1.875</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC190"/>
+  <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,76 +10967,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N118">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M120">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O120">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
+        <v>2.05</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.925</v>
-      </c>
-      <c r="V120">
-        <v>1.925</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y120">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
+        <v>1.05</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB120">
-        <v>-1</v>
-      </c>
-      <c r="AC120">
-        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -16918,7 +16918,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>8081163</v>
+        <v>8081162</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,49 +16927,49 @@
         <v>30</v>
       </c>
       <c r="E185" s="2">
-        <v>45401.5625</v>
+        <v>45402.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K185">
         <v>2.3</v>
       </c>
       <c r="L185">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M185">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N185">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O185">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P185">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q185">
         <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S185">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>8081435</v>
+        <v>8081144</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17001,34 +17001,34 @@
         <v>30</v>
       </c>
       <c r="E186" s="2">
-        <v>45401.64583333334</v>
+        <v>45402.625</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K186">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M186">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="N186">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O186">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
         <v>1.925</v>
@@ -17040,10 +17040,10 @@
         <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W186">
         <v>0</v>
@@ -17066,7 +17066,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>8081162</v>
+        <v>8081249</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17075,49 +17075,49 @@
         <v>30</v>
       </c>
       <c r="E187" s="2">
-        <v>45402.41666666666</v>
+        <v>45402.75</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K187">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M187">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N187">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O187">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P187">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R187">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V187">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17132,228 +17132,6 @@
         <v>0</v>
       </c>
       <c r="AA187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:29">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>8081144</v>
-      </c>
-      <c r="C188" t="s">
-        <v>28</v>
-      </c>
-      <c r="D188" t="s">
-        <v>30</v>
-      </c>
-      <c r="E188" s="2">
-        <v>45402.625</v>
-      </c>
-      <c r="F188" t="s">
-        <v>36</v>
-      </c>
-      <c r="G188" t="s">
-        <v>44</v>
-      </c>
-      <c r="K188">
-        <v>4.75</v>
-      </c>
-      <c r="L188">
-        <v>3.75</v>
-      </c>
-      <c r="M188">
-        <v>1.727</v>
-      </c>
-      <c r="N188">
-        <v>3.75</v>
-      </c>
-      <c r="O188">
-        <v>3.5</v>
-      </c>
-      <c r="P188">
-        <v>2</v>
-      </c>
-      <c r="Q188">
-        <v>0.5</v>
-      </c>
-      <c r="R188">
-        <v>1.85</v>
-      </c>
-      <c r="S188">
-        <v>2</v>
-      </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>1.975</v>
-      </c>
-      <c r="V188">
-        <v>1.875</v>
-      </c>
-      <c r="W188">
-        <v>0</v>
-      </c>
-      <c r="X188">
-        <v>0</v>
-      </c>
-      <c r="Y188">
-        <v>0</v>
-      </c>
-      <c r="Z188">
-        <v>0</v>
-      </c>
-      <c r="AA188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>8081249</v>
-      </c>
-      <c r="C189" t="s">
-        <v>28</v>
-      </c>
-      <c r="D189" t="s">
-        <v>30</v>
-      </c>
-      <c r="E189" s="2">
-        <v>45402.75</v>
-      </c>
-      <c r="F189" t="s">
-        <v>46</v>
-      </c>
-      <c r="G189" t="s">
-        <v>48</v>
-      </c>
-      <c r="K189">
-        <v>1.444</v>
-      </c>
-      <c r="L189">
-        <v>4</v>
-      </c>
-      <c r="M189">
-        <v>8.5</v>
-      </c>
-      <c r="N189">
-        <v>1.3</v>
-      </c>
-      <c r="O189">
-        <v>4.5</v>
-      </c>
-      <c r="P189">
-        <v>12</v>
-      </c>
-      <c r="Q189">
-        <v>-1.5</v>
-      </c>
-      <c r="R189">
-        <v>1.975</v>
-      </c>
-      <c r="S189">
-        <v>1.875</v>
-      </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
-      <c r="U189">
-        <v>1.975</v>
-      </c>
-      <c r="V189">
-        <v>1.875</v>
-      </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-      <c r="X189">
-        <v>0</v>
-      </c>
-      <c r="Y189">
-        <v>0</v>
-      </c>
-      <c r="Z189">
-        <v>0</v>
-      </c>
-      <c r="AA189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>8081250</v>
-      </c>
-      <c r="C190" t="s">
-        <v>28</v>
-      </c>
-      <c r="D190" t="s">
-        <v>30</v>
-      </c>
-      <c r="E190" s="2">
-        <v>45402.85416666666</v>
-      </c>
-      <c r="F190" t="s">
-        <v>31</v>
-      </c>
-      <c r="G190" t="s">
-        <v>47</v>
-      </c>
-      <c r="K190">
-        <v>2.2</v>
-      </c>
-      <c r="L190">
-        <v>3.3</v>
-      </c>
-      <c r="M190">
-        <v>3.3</v>
-      </c>
-      <c r="N190">
-        <v>2.1</v>
-      </c>
-      <c r="O190">
-        <v>3.4</v>
-      </c>
-      <c r="P190">
-        <v>3.5</v>
-      </c>
-      <c r="Q190">
-        <v>-0.25</v>
-      </c>
-      <c r="R190">
-        <v>1.825</v>
-      </c>
-      <c r="S190">
-        <v>2.025</v>
-      </c>
-      <c r="T190">
-        <v>2.25</v>
-      </c>
-      <c r="U190">
-        <v>1.975</v>
-      </c>
-      <c r="V190">
-        <v>1.875</v>
-      </c>
-      <c r="W190">
-        <v>0</v>
-      </c>
-      <c r="X190">
-        <v>0</v>
-      </c>
-      <c r="Y190">
-        <v>0</v>
-      </c>
-      <c r="Z190">
-        <v>0</v>
-      </c>
-      <c r="AA190">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC187"/>
+  <dimension ref="A1:AC190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,55 +10878,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>51</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N117">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P117">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
         <v>2</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10935,19 +10935,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,55 +10967,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>51</v>
       </c>
       <c r="K118">
+        <v>1.8</v>
+      </c>
+      <c r="L118">
+        <v>3.6</v>
+      </c>
+      <c r="M118">
+        <v>4.2</v>
+      </c>
+      <c r="N118">
+        <v>1.8</v>
+      </c>
+      <c r="O118">
+        <v>3.6</v>
+      </c>
+      <c r="P118">
+        <v>4.2</v>
+      </c>
+      <c r="Q118">
+        <v>-0.75</v>
+      </c>
+      <c r="R118">
+        <v>2.05</v>
+      </c>
+      <c r="S118">
+        <v>1.8</v>
+      </c>
+      <c r="T118">
         <v>2.25</v>
       </c>
-      <c r="L118">
-        <v>3.1</v>
-      </c>
-      <c r="M118">
-        <v>3.25</v>
-      </c>
-      <c r="N118">
-        <v>2.25</v>
-      </c>
-      <c r="O118">
-        <v>2.875</v>
-      </c>
-      <c r="P118">
-        <v>3.5</v>
-      </c>
-      <c r="Q118">
-        <v>-0.25</v>
-      </c>
-      <c r="R118">
-        <v>1.95</v>
-      </c>
-      <c r="S118">
-        <v>1.9</v>
-      </c>
-      <c r="T118">
-        <v>2</v>
-      </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,10 +11056,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11071,40 +11071,40 @@
         <v>51</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11113,19 +11113,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -16918,7 +16918,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>8081162</v>
+        <v>8081163</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,64 +16927,79 @@
         <v>30</v>
       </c>
       <c r="E185" s="2">
-        <v>45402.41666666666</v>
+        <v>45401.5625</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>50</v>
       </c>
       <c r="K185">
         <v>2.3</v>
       </c>
       <c r="L185">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N185">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O185">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P185">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q185">
         <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S185">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T185">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB185">
+        <v>-0.5</v>
+      </c>
+      <c r="AC185">
+        <v>0.4</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +17007,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>8081144</v>
+        <v>8081435</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17001,34 +17016,43 @@
         <v>30</v>
       </c>
       <c r="E186" s="2">
-        <v>45402.625</v>
+        <v>45401.64583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>50</v>
       </c>
       <c r="K186">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="L186">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M186">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="N186">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O186">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P186">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="Q186">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
         <v>1.925</v>
@@ -17037,28 +17061,34 @@
         <v>1.925</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA186">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
+        <v>0.8</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17066,7 +17096,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>8081249</v>
+        <v>8081162</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17075,63 +17105,285 @@
         <v>30</v>
       </c>
       <c r="E187" s="2">
+        <v>45402.41666666666</v>
+      </c>
+      <c r="F187" t="s">
+        <v>37</v>
+      </c>
+      <c r="G187" t="s">
+        <v>42</v>
+      </c>
+      <c r="K187">
+        <v>2.3</v>
+      </c>
+      <c r="L187">
+        <v>3</v>
+      </c>
+      <c r="M187">
+        <v>3.4</v>
+      </c>
+      <c r="N187">
+        <v>2.3</v>
+      </c>
+      <c r="O187">
+        <v>3</v>
+      </c>
+      <c r="P187">
+        <v>3.4</v>
+      </c>
+      <c r="Q187">
+        <v>-0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.975</v>
+      </c>
+      <c r="S187">
+        <v>1.875</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>1.975</v>
+      </c>
+      <c r="V187">
+        <v>1.875</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>8081144</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>30</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45402.625</v>
+      </c>
+      <c r="F188" t="s">
+        <v>36</v>
+      </c>
+      <c r="G188" t="s">
+        <v>44</v>
+      </c>
+      <c r="K188">
+        <v>4.75</v>
+      </c>
+      <c r="L188">
+        <v>3.75</v>
+      </c>
+      <c r="M188">
+        <v>1.727</v>
+      </c>
+      <c r="N188">
+        <v>4</v>
+      </c>
+      <c r="O188">
+        <v>3.6</v>
+      </c>
+      <c r="P188">
+        <v>1.909</v>
+      </c>
+      <c r="Q188">
+        <v>0.5</v>
+      </c>
+      <c r="R188">
+        <v>1.925</v>
+      </c>
+      <c r="S188">
+        <v>1.925</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.95</v>
+      </c>
+      <c r="V188">
+        <v>1.9</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>8081249</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>30</v>
+      </c>
+      <c r="E189" s="2">
         <v>45402.75</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F189" t="s">
         <v>46</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G189" t="s">
         <v>48</v>
       </c>
-      <c r="K187">
+      <c r="K189">
         <v>1.444</v>
       </c>
-      <c r="L187">
+      <c r="L189">
         <v>4</v>
       </c>
-      <c r="M187">
+      <c r="M189">
         <v>8.5</v>
       </c>
-      <c r="N187">
+      <c r="N189">
         <v>1.25</v>
       </c>
-      <c r="O187">
+      <c r="O189">
         <v>5</v>
       </c>
-      <c r="P187">
+      <c r="P189">
         <v>13</v>
       </c>
-      <c r="Q187">
+      <c r="Q189">
         <v>-1.5</v>
       </c>
-      <c r="R187">
+      <c r="R189">
         <v>1.85</v>
       </c>
-      <c r="S187">
-        <v>2</v>
-      </c>
-      <c r="T187">
+      <c r="S189">
+        <v>2</v>
+      </c>
+      <c r="T189">
         <v>2.5</v>
       </c>
-      <c r="U187">
+      <c r="U189">
         <v>1.875</v>
       </c>
-      <c r="V187">
+      <c r="V189">
         <v>1.975</v>
       </c>
-      <c r="W187">
-        <v>0</v>
-      </c>
-      <c r="X187">
-        <v>0</v>
-      </c>
-      <c r="Y187">
-        <v>0</v>
-      </c>
-      <c r="Z187">
-        <v>0</v>
-      </c>
-      <c r="AA187">
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>8081250</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>30</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45402.85416666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" t="s">
+        <v>47</v>
+      </c>
+      <c r="K190">
+        <v>2.2</v>
+      </c>
+      <c r="L190">
+        <v>3.3</v>
+      </c>
+      <c r="M190">
+        <v>3.3</v>
+      </c>
+      <c r="N190">
+        <v>2.1</v>
+      </c>
+      <c r="O190">
+        <v>3.3</v>
+      </c>
+      <c r="P190">
+        <v>3.6</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.85</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.25</v>
+      </c>
+      <c r="U190">
+        <v>2</v>
+      </c>
+      <c r="V190">
+        <v>1.85</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC190"/>
+  <dimension ref="A1:AC188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,55 +10878,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>51</v>
       </c>
       <c r="K117">
+        <v>1.8</v>
+      </c>
+      <c r="L117">
+        <v>3.6</v>
+      </c>
+      <c r="M117">
+        <v>4.2</v>
+      </c>
+      <c r="N117">
+        <v>1.8</v>
+      </c>
+      <c r="O117">
+        <v>3.6</v>
+      </c>
+      <c r="P117">
+        <v>4.2</v>
+      </c>
+      <c r="Q117">
+        <v>-0.75</v>
+      </c>
+      <c r="R117">
+        <v>2.05</v>
+      </c>
+      <c r="S117">
+        <v>1.8</v>
+      </c>
+      <c r="T117">
         <v>2.25</v>
       </c>
-      <c r="L117">
-        <v>3.1</v>
-      </c>
-      <c r="M117">
-        <v>3.25</v>
-      </c>
-      <c r="N117">
-        <v>2.25</v>
-      </c>
-      <c r="O117">
-        <v>2.875</v>
-      </c>
-      <c r="P117">
-        <v>3.5</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
-      <c r="R117">
-        <v>1.95</v>
-      </c>
-      <c r="S117">
-        <v>1.9</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10935,19 +10935,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,55 +10967,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>51</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N118">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -17096,7 +17096,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>8081162</v>
+        <v>8081251</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17105,49 +17105,49 @@
         <v>30</v>
       </c>
       <c r="E187" s="2">
-        <v>45402.41666666666</v>
+        <v>45403.54166666666</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K187">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L187">
         <v>3</v>
       </c>
       <c r="M187">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N187">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O187">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P187">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q187">
         <v>-0.25</v>
       </c>
       <c r="R187">
+        <v>2.1</v>
+      </c>
+      <c r="S187">
+        <v>1.775</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>1.875</v>
+      </c>
+      <c r="V187">
         <v>1.975</v>
-      </c>
-      <c r="S187">
-        <v>1.875</v>
-      </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
-      <c r="U187">
-        <v>1.975</v>
-      </c>
-      <c r="V187">
-        <v>1.875</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>8081144</v>
+        <v>8081885</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17179,49 +17179,49 @@
         <v>30</v>
       </c>
       <c r="E188" s="2">
-        <v>45402.625</v>
+        <v>45403.64583333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K188">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M188">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="N188">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17236,154 +17236,6 @@
         <v>0</v>
       </c>
       <c r="AA188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>8081249</v>
-      </c>
-      <c r="C189" t="s">
-        <v>28</v>
-      </c>
-      <c r="D189" t="s">
-        <v>30</v>
-      </c>
-      <c r="E189" s="2">
-        <v>45402.75</v>
-      </c>
-      <c r="F189" t="s">
-        <v>46</v>
-      </c>
-      <c r="G189" t="s">
-        <v>48</v>
-      </c>
-      <c r="K189">
-        <v>1.444</v>
-      </c>
-      <c r="L189">
-        <v>4</v>
-      </c>
-      <c r="M189">
-        <v>8.5</v>
-      </c>
-      <c r="N189">
-        <v>1.25</v>
-      </c>
-      <c r="O189">
-        <v>5</v>
-      </c>
-      <c r="P189">
-        <v>13</v>
-      </c>
-      <c r="Q189">
-        <v>-1.5</v>
-      </c>
-      <c r="R189">
-        <v>1.85</v>
-      </c>
-      <c r="S189">
-        <v>2</v>
-      </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
-      <c r="U189">
-        <v>1.875</v>
-      </c>
-      <c r="V189">
-        <v>1.975</v>
-      </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-      <c r="X189">
-        <v>0</v>
-      </c>
-      <c r="Y189">
-        <v>0</v>
-      </c>
-      <c r="Z189">
-        <v>0</v>
-      </c>
-      <c r="AA189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>8081250</v>
-      </c>
-      <c r="C190" t="s">
-        <v>28</v>
-      </c>
-      <c r="D190" t="s">
-        <v>30</v>
-      </c>
-      <c r="E190" s="2">
-        <v>45402.85416666666</v>
-      </c>
-      <c r="F190" t="s">
-        <v>31</v>
-      </c>
-      <c r="G190" t="s">
-        <v>47</v>
-      </c>
-      <c r="K190">
-        <v>2.2</v>
-      </c>
-      <c r="L190">
-        <v>3.3</v>
-      </c>
-      <c r="M190">
-        <v>3.3</v>
-      </c>
-      <c r="N190">
-        <v>2.1</v>
-      </c>
-      <c r="O190">
-        <v>3.3</v>
-      </c>
-      <c r="P190">
-        <v>3.6</v>
-      </c>
-      <c r="Q190">
-        <v>-0.25</v>
-      </c>
-      <c r="R190">
-        <v>1.85</v>
-      </c>
-      <c r="S190">
-        <v>2</v>
-      </c>
-      <c r="T190">
-        <v>2.25</v>
-      </c>
-      <c r="U190">
-        <v>2</v>
-      </c>
-      <c r="V190">
-        <v>1.85</v>
-      </c>
-      <c r="W190">
-        <v>0</v>
-      </c>
-      <c r="X190">
-        <v>0</v>
-      </c>
-      <c r="Y190">
-        <v>0</v>
-      </c>
-      <c r="Z190">
-        <v>0</v>
-      </c>
-      <c r="AA190">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC188"/>
+  <dimension ref="A1:AC192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013886</v>
+        <v>7013885</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,55 +10967,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>51</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N118">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P118">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>2</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11024,19 +11024,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,55 +11056,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>51</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O119">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P119">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11113,19 +11113,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -17096,7 +17096,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>8081251</v>
+        <v>8081162</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17105,64 +17105,79 @@
         <v>30</v>
       </c>
       <c r="E187" s="2">
-        <v>45403.54166666666</v>
+        <v>45402.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>50</v>
       </c>
       <c r="K187">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L187">
         <v>3</v>
       </c>
       <c r="M187">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N187">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O187">
         <v>2.9</v>
       </c>
       <c r="P187">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q187">
         <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
         <v>2</v>
       </c>
       <c r="U187">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA187">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
+      <c r="AC187">
+        <v>-0</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17170,7 +17185,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>8081885</v>
+        <v>8081144</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17179,40 +17194,49 @@
         <v>30</v>
       </c>
       <c r="E188" s="2">
-        <v>45403.64583333334</v>
+        <v>45402.625</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>3</v>
+      </c>
+      <c r="J188" t="s">
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="L188">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="N188">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O188">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R188">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T188">
         <v>2.25</v>
@@ -17224,18 +17248,350 @@
         <v>1.875</v>
       </c>
       <c r="W188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB188">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC188">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>8081249</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>30</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45402.75</v>
+      </c>
+      <c r="F189" t="s">
+        <v>46</v>
+      </c>
+      <c r="G189" t="s">
+        <v>48</v>
+      </c>
+      <c r="H189">
+        <v>6</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189" t="s">
+        <v>52</v>
+      </c>
+      <c r="K189">
+        <v>1.444</v>
+      </c>
+      <c r="L189">
+        <v>4</v>
+      </c>
+      <c r="M189">
+        <v>8.5</v>
+      </c>
+      <c r="N189">
+        <v>1.25</v>
+      </c>
+      <c r="O189">
+        <v>5</v>
+      </c>
+      <c r="P189">
+        <v>13</v>
+      </c>
+      <c r="Q189">
+        <v>-1.5</v>
+      </c>
+      <c r="R189">
+        <v>1.85</v>
+      </c>
+      <c r="S189">
+        <v>2</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.925</v>
+      </c>
+      <c r="V189">
+        <v>1.925</v>
+      </c>
+      <c r="W189">
+        <v>0.25</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
+        <v>0.925</v>
+      </c>
+      <c r="AC189">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>8081250</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>30</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45402.85416666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" t="s">
+        <v>47</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190" t="s">
+        <v>51</v>
+      </c>
+      <c r="K190">
+        <v>2.2</v>
+      </c>
+      <c r="L190">
+        <v>3.3</v>
+      </c>
+      <c r="M190">
+        <v>3.3</v>
+      </c>
+      <c r="N190">
+        <v>2.25</v>
+      </c>
+      <c r="O190">
+        <v>3.3</v>
+      </c>
+      <c r="P190">
+        <v>3.25</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.975</v>
+      </c>
+      <c r="S190">
+        <v>1.875</v>
+      </c>
+      <c r="T190">
+        <v>2.25</v>
+      </c>
+      <c r="U190">
+        <v>1.9</v>
+      </c>
+      <c r="V190">
+        <v>1.95</v>
+      </c>
+      <c r="W190">
+        <v>-1</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>2.25</v>
+      </c>
+      <c r="Z190">
+        <v>-1</v>
+      </c>
+      <c r="AA190">
+        <v>0.875</v>
+      </c>
+      <c r="AB190">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC190">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>8081251</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>30</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45403.54166666666</v>
+      </c>
+      <c r="F191" t="s">
+        <v>33</v>
+      </c>
+      <c r="G191" t="s">
+        <v>35</v>
+      </c>
+      <c r="K191">
+        <v>2.5</v>
+      </c>
+      <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="M191">
+        <v>3</v>
+      </c>
+      <c r="N191">
+        <v>2.5</v>
+      </c>
+      <c r="O191">
+        <v>2.9</v>
+      </c>
+      <c r="P191">
+        <v>3.1</v>
+      </c>
+      <c r="Q191">
+        <v>-0.25</v>
+      </c>
+      <c r="R191">
+        <v>2.1</v>
+      </c>
+      <c r="S191">
+        <v>1.775</v>
+      </c>
+      <c r="T191">
+        <v>2</v>
+      </c>
+      <c r="U191">
+        <v>1.875</v>
+      </c>
+      <c r="V191">
+        <v>1.975</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>8081885</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>30</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45403.64583333334</v>
+      </c>
+      <c r="F192" t="s">
+        <v>32</v>
+      </c>
+      <c r="G192" t="s">
+        <v>49</v>
+      </c>
+      <c r="K192">
+        <v>2.625</v>
+      </c>
+      <c r="L192">
+        <v>3.1</v>
+      </c>
+      <c r="M192">
+        <v>2.75</v>
+      </c>
+      <c r="N192">
+        <v>3.1</v>
+      </c>
+      <c r="O192">
+        <v>3.1</v>
+      </c>
+      <c r="P192">
+        <v>2.375</v>
+      </c>
+      <c r="Q192">
+        <v>0.25</v>
+      </c>
+      <c r="R192">
+        <v>1.8</v>
+      </c>
+      <c r="S192">
+        <v>2.05</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
+        <v>1.975</v>
+      </c>
+      <c r="V192">
+        <v>1.875</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8110829</t>
   </si>
   <si>
     <t>Uruguay Primera División</t>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB190"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +625,16 @@
         <v>7013887</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45156.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -640,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -708,16 +711,16 @@
         <v>7072453</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -726,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -794,16 +797,16 @@
         <v>7072454</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -812,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -880,16 +883,16 @@
         <v>7013681</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45157.64583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -898,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <v>5.25</v>
@@ -966,16 +969,16 @@
         <v>7013835</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45157.75</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -984,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1032,10 +1035,10 @@
         <v>2.1</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1052,16 +1055,16 @@
         <v>7013832</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1070,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7">
         <v>1.8</v>
@@ -1118,10 +1121,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1138,16 +1141,16 @@
         <v>7072455</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1156,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1204,10 +1207,10 @@
         <v>1.9</v>
       </c>
       <c r="Y8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1224,16 +1227,16 @@
         <v>7013383</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1242,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>2.55</v>
@@ -1310,16 +1313,16 @@
         <v>7013838</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1328,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1396,16 +1399,16 @@
         <v>7013837</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45163.75</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1414,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>1.727</v>
@@ -1462,10 +1465,10 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>0.825</v>
@@ -1482,16 +1485,16 @@
         <v>7013888</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1500,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1548,10 +1551,10 @@
         <v>1.4</v>
       </c>
       <c r="Y12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1568,16 +1571,16 @@
         <v>7013385</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45164.64583333334</v>
       </c>
       <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
         <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1586,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1634,10 +1637,10 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z13">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1654,16 +1657,16 @@
         <v>7013384</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45164.75</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1672,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1740,16 +1743,16 @@
         <v>7013836</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1758,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>2.2</v>
@@ -1806,10 +1809,10 @@
         <v>1.6</v>
       </c>
       <c r="Y15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA15">
         <v>1.05</v>
@@ -1826,16 +1829,16 @@
         <v>7013839</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1844,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1912,16 +1915,16 @@
         <v>7013683</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1930,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -1998,16 +2001,16 @@
         <v>7013843</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45170.79166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2016,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J18">
         <v>2.45</v>
@@ -2064,10 +2067,10 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
         <v>1.025</v>
@@ -2084,16 +2087,16 @@
         <v>7013685</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2102,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2150,10 +2153,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2170,16 +2173,16 @@
         <v>7013684</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45171.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2188,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2236,10 +2239,10 @@
         <v>0.6499999999999999</v>
       </c>
       <c r="Y20">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -2256,16 +2259,16 @@
         <v>7140485</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2274,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2342,16 +2345,16 @@
         <v>7013386</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2360,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J22">
         <v>3.2</v>
@@ -2408,10 +2411,10 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2428,16 +2431,16 @@
         <v>7013842</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45172.625</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2446,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2514,16 +2517,16 @@
         <v>7013410</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45172.75</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2532,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J24">
         <v>1.3</v>
@@ -2600,16 +2603,16 @@
         <v>7013841</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45172.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2618,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2666,10 +2669,10 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>1.05</v>
@@ -2686,16 +2689,16 @@
         <v>7275170</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45204.83333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2704,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J26">
         <v>4.333</v>
@@ -2752,10 +2755,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y26">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA26">
         <v>0.8999999999999999</v>
@@ -2772,16 +2775,16 @@
         <v>7275516</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2790,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>1.95</v>
@@ -2838,10 +2841,10 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -2858,16 +2861,16 @@
         <v>7286102</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2876,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J28">
         <v>2.625</v>
@@ -2924,10 +2927,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="Z28">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -2944,16 +2947,16 @@
         <v>7275171</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45206.625</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2962,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>1.7</v>
@@ -3010,10 +3013,10 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z29">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
         <v>0.9750000000000001</v>
@@ -3030,16 +3033,16 @@
         <v>7286047</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3048,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3096,10 +3099,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
         <v>0.875</v>
@@ -3116,16 +3119,16 @@
         <v>7286046</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3134,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J31">
         <v>3.4</v>
@@ -3182,10 +3185,10 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
         <v>-1</v>
@@ -3202,16 +3205,16 @@
         <v>7286103</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3220,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <v>2.375</v>
@@ -3268,10 +3271,10 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z32">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>-1</v>
@@ -3288,16 +3291,16 @@
         <v>7275517</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45207.75</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3306,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>2.625</v>
@@ -3354,10 +3357,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3374,16 +3377,16 @@
         <v>7322838</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45212.66666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3392,7 +3395,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J34">
         <v>1.909</v>
@@ -3440,10 +3443,10 @@
         <v>2.6</v>
       </c>
       <c r="Y34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA34">
         <v>0.925</v>
@@ -3460,17 +3463,17 @@
         <v>7322841</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45212.77083333334</v>
       </c>
       <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
         <v>37</v>
       </c>
-      <c r="F35" t="s">
-        <v>36</v>
-      </c>
       <c r="G35">
         <v>2</v>
       </c>
@@ -3478,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J35">
         <v>1.909</v>
@@ -3526,10 +3529,10 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3546,16 +3549,16 @@
         <v>7322840</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45212.875</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3564,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J36">
         <v>4.333</v>
@@ -3612,10 +3615,10 @@
         <v>0.833</v>
       </c>
       <c r="Y36">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA36">
         <v>-1</v>
@@ -3632,16 +3635,16 @@
         <v>7322842</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45213.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3650,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3698,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="Y37">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -3718,16 +3721,16 @@
         <v>7322837</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45213.6875</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3736,7 +3739,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3784,10 +3787,10 @@
         <v>0.95</v>
       </c>
       <c r="Y38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -3804,16 +3807,16 @@
         <v>7307799</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45213.79166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3822,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <v>2.2</v>
@@ -3890,16 +3893,16 @@
         <v>7322839</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45214.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3908,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J40">
         <v>2.375</v>
@@ -3956,10 +3959,10 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="Z40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
         <v>1.025</v>
@@ -3976,16 +3979,16 @@
         <v>7322836</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45214.77083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3994,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4042,10 +4045,10 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z41">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA41">
         <v>1</v>
@@ -4062,16 +4065,16 @@
         <v>7325460</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45217.5</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4080,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4128,10 +4131,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>-0.5</v>
@@ -4148,16 +4151,16 @@
         <v>7325461</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45217.60416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4166,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>2.7</v>
@@ -4214,10 +4217,10 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z43">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4234,16 +4237,16 @@
         <v>7325462</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45217.70833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4252,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <v>2.2</v>
@@ -4300,10 +4303,10 @@
         <v>2.5</v>
       </c>
       <c r="Y44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA44">
         <v>0.8</v>
@@ -4320,16 +4323,16 @@
         <v>7325463</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45217.8125</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4338,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4386,10 +4389,10 @@
         <v>0.75</v>
       </c>
       <c r="Y45">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA45">
         <v>0.8999999999999999</v>
@@ -4406,16 +4409,16 @@
         <v>7325464</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45218.5</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4424,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>2.375</v>
@@ -4472,10 +4475,10 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -4492,16 +4495,16 @@
         <v>7325465</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45218.60416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4510,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J47">
         <v>2.3</v>
@@ -4578,16 +4581,16 @@
         <v>7325466</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45218.70833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4596,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J48">
         <v>3</v>
@@ -4664,16 +4667,16 @@
         <v>7325467</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45218.84375</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4682,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <v>4.2</v>
@@ -4730,10 +4733,10 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
         <v>-1</v>
@@ -4750,16 +4753,16 @@
         <v>7013854</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45220.79166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4768,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J50">
         <v>1.615</v>
@@ -4816,10 +4819,10 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
         <v>-0.5</v>
@@ -4836,16 +4839,16 @@
         <v>7013855</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4854,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>2.3</v>
@@ -4922,16 +4925,16 @@
         <v>7013692</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45221.66666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4940,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J52">
         <v>3.1</v>
@@ -4988,10 +4991,10 @@
         <v>0.75</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA52">
         <v>0.9750000000000001</v>
@@ -5008,16 +5011,16 @@
         <v>7013891</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5026,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J53">
         <v>2.875</v>
@@ -5094,16 +5097,16 @@
         <v>7013393</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45222.70833333334</v>
       </c>
       <c r="E54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" t="s">
         <v>36</v>
-      </c>
-      <c r="F54" t="s">
-        <v>35</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5112,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -5160,10 +5163,10 @@
         <v>1.1</v>
       </c>
       <c r="Y54">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA54">
         <v>1</v>
@@ -5180,16 +5183,16 @@
         <v>7013394</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45222.84375</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5198,7 +5201,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>1.4</v>
@@ -5246,10 +5249,10 @@
         <v>5</v>
       </c>
       <c r="Y55">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA55">
         <v>0.9750000000000001</v>
@@ -5266,16 +5269,16 @@
         <v>7013691</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45223.66666666666</v>
       </c>
       <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" t="s">
         <v>34</v>
-      </c>
-      <c r="F56" t="s">
-        <v>33</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5284,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5352,16 +5355,16 @@
         <v>7013856</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45223.8125</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5370,7 +5373,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5418,10 +5421,10 @@
         <v>1.625</v>
       </c>
       <c r="Y57">
+        <v>-1</v>
+      </c>
+      <c r="Z57">
         <v>0.925</v>
-      </c>
-      <c r="Z57">
-        <v>-1</v>
       </c>
       <c r="AA57">
         <v>1.05</v>
@@ -5438,16 +5441,16 @@
         <v>7013858</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45233.79166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5456,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J58">
         <v>2.4</v>
@@ -5504,10 +5507,10 @@
         <v>2.3</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5524,16 +5527,16 @@
         <v>7013857</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45234.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5542,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5610,16 +5613,16 @@
         <v>7013859</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45234.70833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5628,7 +5631,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J60">
         <v>2.45</v>
@@ -5676,10 +5679,10 @@
         <v>1.5</v>
       </c>
       <c r="Y60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA60">
         <v>0.925</v>
@@ -5696,16 +5699,16 @@
         <v>7013396</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5714,7 +5717,7 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J61">
         <v>3.75</v>
@@ -5762,10 +5765,10 @@
         <v>0.7</v>
       </c>
       <c r="Y61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA61">
         <v>0.8500000000000001</v>
@@ -5782,16 +5785,16 @@
         <v>7013860</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5800,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>2.05</v>
@@ -5868,17 +5871,17 @@
         <v>7013892</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" t="s">
         <v>38</v>
       </c>
-      <c r="F63" t="s">
-        <v>37</v>
-      </c>
       <c r="G63">
         <v>0</v>
       </c>
@@ -5886,7 +5889,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J63">
         <v>3.4</v>
@@ -5934,10 +5937,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA63">
         <v>-0.5</v>
@@ -5954,16 +5957,16 @@
         <v>7013395</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5972,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J64">
         <v>1.75</v>
@@ -6020,10 +6023,10 @@
         <v>3.333</v>
       </c>
       <c r="Y64">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6040,16 +6043,16 @@
         <v>7013693</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6058,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6106,10 +6109,10 @@
         <v>1.875</v>
       </c>
       <c r="Y65">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA65">
         <v>0.75</v>
@@ -6126,16 +6129,16 @@
         <v>7013397</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6144,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>1.615</v>
@@ -6192,10 +6195,10 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
         <v>0.95</v>
@@ -6212,16 +6215,16 @@
         <v>7013893</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6230,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6298,16 +6301,16 @@
         <v>7013861</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45240.89583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6316,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6364,10 +6367,10 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
         <v>0.8</v>
@@ -6384,16 +6387,16 @@
         <v>7013694</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6402,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J69">
         <v>2.15</v>
@@ -6470,16 +6473,16 @@
         <v>7013398</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45241.6875</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6488,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6556,16 +6559,16 @@
         <v>7013863</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45241.8125</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6574,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J71">
         <v>2.15</v>
@@ -6622,10 +6625,10 @@
         <v>2.5</v>
       </c>
       <c r="Y71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA71">
         <v>0.825</v>
@@ -6642,16 +6645,16 @@
         <v>7013862</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45242.6875</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6660,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6708,10 +6711,10 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
         <v>-1</v>
@@ -6728,16 +6731,16 @@
         <v>7013864</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6746,7 +6749,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J73">
         <v>2.625</v>
@@ -6794,10 +6797,10 @@
         <v>1.75</v>
       </c>
       <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>0.925</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
       </c>
       <c r="AA73">
         <v>-0.5</v>
@@ -6814,16 +6817,16 @@
         <v>7013868</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45244.6875</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6832,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J74">
         <v>2.2</v>
@@ -6880,10 +6883,10 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z74">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>-1</v>
@@ -6900,16 +6903,16 @@
         <v>7013411</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45244.79166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6918,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J75">
         <v>3.75</v>
@@ -6986,16 +6989,16 @@
         <v>7013695</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45244.89583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7004,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J76">
         <v>1.4</v>
@@ -7072,16 +7075,16 @@
         <v>7013866</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45245.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J77">
         <v>3.8</v>
@@ -7158,16 +7161,16 @@
         <v>7013867</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45245.79166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7176,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7224,10 +7227,10 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
         <v>0.8500000000000001</v>
@@ -7244,16 +7247,16 @@
         <v>7013399</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45245.89583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7262,7 +7265,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7310,10 +7313,10 @@
         <v>4</v>
       </c>
       <c r="Y79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA79">
         <v>0.8999999999999999</v>
@@ -7330,16 +7333,16 @@
         <v>7013869</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45246.41666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7348,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J80">
         <v>2.15</v>
@@ -7396,10 +7399,10 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7416,16 +7419,16 @@
         <v>7013865</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45246.6875</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7434,7 +7437,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J81">
         <v>2.15</v>
@@ -7482,10 +7485,10 @@
         <v>2.4</v>
       </c>
       <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
         <v>0.925</v>
-      </c>
-      <c r="Z81">
-        <v>-1</v>
       </c>
       <c r="AA81">
         <v>0.925</v>
@@ -7502,16 +7505,16 @@
         <v>7013894</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45248.6875</v>
       </c>
       <c r="E82" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" t="s">
         <v>39</v>
-      </c>
-      <c r="F82" t="s">
-        <v>38</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7520,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7568,10 +7571,10 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
         <v>0.8</v>
@@ -7588,16 +7591,16 @@
         <v>7013872</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45248.79166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7606,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7654,10 +7657,10 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7674,16 +7677,16 @@
         <v>7013401</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45249.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7692,7 +7695,7 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>1.727</v>
@@ -7740,10 +7743,10 @@
         <v>4.75</v>
       </c>
       <c r="Y84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA84">
         <v>0.95</v>
@@ -7760,16 +7763,16 @@
         <v>7013696</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45249.6875</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7778,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <v>3.3</v>
@@ -7826,10 +7829,10 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
         <v>1.1</v>
@@ -7846,16 +7849,16 @@
         <v>7013871</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45249.79166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7864,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -7912,10 +7915,10 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -7932,16 +7935,16 @@
         <v>7013873</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45249.89583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7950,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -7998,10 +8001,10 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z87">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
         <v>0.9750000000000001</v>
@@ -8018,16 +8021,16 @@
         <v>7013400</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45250.6875</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8036,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J88">
         <v>3.5</v>
@@ -8104,16 +8107,16 @@
         <v>7013870</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45250.79166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8122,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J89">
         <v>1.8</v>
@@ -8170,10 +8173,10 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8190,16 +8193,16 @@
         <v>7013874</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8208,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J90">
         <v>2.1</v>
@@ -8256,10 +8259,10 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z90">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
         <v>-0.5</v>
@@ -8276,16 +8279,16 @@
         <v>7013402</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45254.79166666666</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8294,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J91">
         <v>4</v>
@@ -8342,10 +8345,10 @@
         <v>1.05</v>
       </c>
       <c r="Y91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8362,16 +8365,16 @@
         <v>7013705</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45254.89583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8380,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J92">
         <v>1.444</v>
@@ -8448,16 +8451,16 @@
         <v>7013876</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E93" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s">
         <v>40</v>
-      </c>
-      <c r="F93" t="s">
-        <v>39</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8466,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J93">
         <v>2.1</v>
@@ -8514,10 +8517,10 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
         <v>-1</v>
@@ -8534,16 +8537,16 @@
         <v>7013697</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45255.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8552,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8620,16 +8623,16 @@
         <v>7013875</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45255.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8638,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8686,10 +8689,10 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
         <v>0.9750000000000001</v>
@@ -8706,16 +8709,16 @@
         <v>7013877</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45256.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8724,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8772,10 +8775,10 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
         <v>-1</v>
@@ -8792,16 +8795,16 @@
         <v>7013403</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45256.8125</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8810,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>1.444</v>
@@ -8858,10 +8861,10 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
         <v>0.9750000000000001</v>
@@ -8878,16 +8881,16 @@
         <v>7013698</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45258.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8896,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J98">
         <v>4.333</v>
@@ -8944,10 +8947,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
         <v>-1</v>
@@ -8964,16 +8967,16 @@
         <v>7013895</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45258.79166666666</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -8982,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9030,10 +9033,10 @@
         <v>1.45</v>
       </c>
       <c r="Y99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA99">
         <v>-1</v>
@@ -9050,16 +9053,16 @@
         <v>7013880</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45258.88541666666</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G100">
         <v>5</v>
@@ -9068,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9116,10 +9119,10 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>0.95</v>
@@ -9136,16 +9139,16 @@
         <v>7013405</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45259.6875</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9154,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9202,10 +9205,10 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z101">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
         <v>-1</v>
@@ -9222,16 +9225,16 @@
         <v>7013699</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45259.79166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9240,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J102">
         <v>2.875</v>
@@ -9288,10 +9291,10 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
         <v>0.9750000000000001</v>
@@ -9308,16 +9311,16 @@
         <v>7013879</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45259.88541666666</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9326,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J103">
         <v>1.6</v>
@@ -9374,10 +9377,10 @@
         <v>5</v>
       </c>
       <c r="Y103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA103">
         <v>-1</v>
@@ -9394,16 +9397,16 @@
         <v>7013878</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45260.72916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9412,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9480,16 +9483,16 @@
         <v>7528218</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45260.85416666666</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9498,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J105">
         <v>4</v>
@@ -9546,10 +9549,10 @@
         <v>0.8</v>
       </c>
       <c r="Y105">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA105">
         <v>-1</v>
@@ -9566,16 +9569,16 @@
         <v>7013882</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9584,7 +9587,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9652,16 +9655,16 @@
         <v>7013883</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45262.6875</v>
       </c>
       <c r="E107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9670,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J107">
         <v>2.5</v>
@@ -9718,10 +9721,10 @@
         <v>1.4</v>
       </c>
       <c r="Y107">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA107">
         <v>0.95</v>
@@ -9738,16 +9741,16 @@
         <v>7013701</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45262.79166666666</v>
       </c>
       <c r="E108" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108" t="s">
         <v>41</v>
-      </c>
-      <c r="F108" t="s">
-        <v>40</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9756,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J108">
         <v>1.533</v>
@@ -9824,16 +9827,16 @@
         <v>7013406</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45262.89583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9842,7 +9845,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J109">
         <v>3.3</v>
@@ -9890,10 +9893,10 @@
         <v>0.909</v>
       </c>
       <c r="Y109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA109">
         <v>-1</v>
@@ -9910,16 +9913,16 @@
         <v>7013881</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9928,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9976,10 +9979,10 @@
         <v>2.3</v>
       </c>
       <c r="Y110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA110">
         <v>-1</v>
@@ -9996,16 +9999,16 @@
         <v>7013700</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45263.6875</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10014,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J111">
         <v>1.909</v>
@@ -10062,10 +10065,10 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z111">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>0.9750000000000001</v>
@@ -10082,16 +10085,16 @@
         <v>7013896</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45264.70833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10100,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>2.2</v>
@@ -10168,16 +10171,16 @@
         <v>7013407</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45264.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10186,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -10234,10 +10237,10 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z113">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
         <v>-1</v>
@@ -10251,85 +10254,85 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J114">
+        <v>4.75</v>
+      </c>
+      <c r="K114">
+        <v>3.4</v>
+      </c>
+      <c r="L114">
         <v>1.7</v>
       </c>
-      <c r="K114">
-        <v>3</v>
-      </c>
-      <c r="L114">
-        <v>5.75</v>
-      </c>
       <c r="M114">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="N114">
         <v>3.2</v>
       </c>
       <c r="O114">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="P114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T114">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10337,85 +10340,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J115">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K115">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="M115">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N115">
         <v>3.2</v>
       </c>
       <c r="O115">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10426,16 +10429,16 @@
         <v>7559905</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45266.8125</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10444,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -10492,10 +10495,10 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
         <v>-0.5</v>
@@ -10509,19 +10512,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10530,43 +10533,43 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J117">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L117">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M117">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N117">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O117">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q117">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T117">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V117">
         <v>-1</v>
@@ -10575,19 +10578,19 @@
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y117">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10595,22 +10598,22 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10619,61 +10622,61 @@
         <v>48</v>
       </c>
       <c r="J118">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="L118">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M118">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N118">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P118">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q118">
+        <v>1.8</v>
+      </c>
+      <c r="R118">
+        <v>2.05</v>
+      </c>
+      <c r="S118">
+        <v>2.75</v>
+      </c>
+      <c r="T118">
         <v>1.95</v>
       </c>
-      <c r="R118">
+      <c r="U118">
         <v>1.9</v>
       </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>1.925</v>
-      </c>
-      <c r="U118">
-        <v>1.925</v>
-      </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X118">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10681,64 +10684,64 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J119">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K119">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L119">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N119">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q119">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
         <v>-1</v>
@@ -10747,19 +10750,19 @@
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y119">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10767,10 +10770,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013409</v>
+        <v>7013885</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45267.70833333334</v>
@@ -10779,73 +10782,73 @@
         <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J120">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="K120">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="L120">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="M120">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="N120">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O120">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="P120">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
         <v>-1</v>
       </c>
       <c r="W120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10856,16 +10859,16 @@
         <v>7560164</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45268.70833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10874,7 +10877,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10922,10 +10925,10 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
         <v>0.925</v>
@@ -10942,16 +10945,16 @@
         <v>7797510</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45338.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10960,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J122">
         <v>1.6</v>
@@ -11008,10 +11011,10 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z122">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA122">
         <v>0.825</v>
@@ -11028,16 +11031,16 @@
         <v>7797528</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45339.70833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11046,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>2.6</v>
@@ -11094,10 +11097,10 @@
         <v>1.75</v>
       </c>
       <c r="Y123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
         <v>1.1</v>
@@ -11114,16 +11117,16 @@
         <v>7797532</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45339.80208333334</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11132,7 +11135,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J124">
         <v>2.5</v>
@@ -11180,10 +11183,10 @@
         <v>1.9</v>
       </c>
       <c r="Y124">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA124">
         <v>0.825</v>
@@ -11200,16 +11203,16 @@
         <v>7797529</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11218,7 +11221,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J125">
         <v>2.3</v>
@@ -11266,10 +11269,10 @@
         <v>2.25</v>
       </c>
       <c r="Y125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
         <v>0.95</v>
@@ -11286,16 +11289,16 @@
         <v>7797530</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11304,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11372,16 +11375,16 @@
         <v>7796575</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45340.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11390,7 +11393,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J127">
         <v>3.8</v>
@@ -11458,16 +11461,16 @@
         <v>7797533</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45340.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11476,7 +11479,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>5.25</v>
@@ -11524,10 +11527,10 @@
         <v>0.6659999999999999</v>
       </c>
       <c r="Y128">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA128">
         <v>0.95</v>
@@ -11544,16 +11547,16 @@
         <v>7825144</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" t="s">
         <v>29</v>
-      </c>
-      <c r="F129" t="s">
-        <v>28</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -11562,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J129">
         <v>2.375</v>
@@ -11610,10 +11613,10 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
         <v>1.025</v>
@@ -11630,16 +11633,16 @@
         <v>7825145</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45345.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11648,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J130">
         <v>2.5</v>
@@ -11696,10 +11699,10 @@
         <v>1.625</v>
       </c>
       <c r="Y130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA130">
         <v>-1</v>
@@ -11716,16 +11719,16 @@
         <v>7825143</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11734,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11802,16 +11805,16 @@
         <v>7825103</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45346.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11820,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J132">
         <v>1.4</v>
@@ -11868,10 +11871,10 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
         <v>-1</v>
@@ -11888,16 +11891,16 @@
         <v>7825146</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45347.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11906,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J133">
         <v>2.625</v>
@@ -11974,16 +11977,16 @@
         <v>7825104</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11992,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>2.875</v>
@@ -12060,16 +12063,16 @@
         <v>7825147</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45347.8125</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -12078,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12126,10 +12129,10 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
         <v>0.825</v>
@@ -12146,16 +12149,16 @@
         <v>7870599</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12164,7 +12167,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J136">
         <v>2.05</v>
@@ -12212,10 +12215,10 @@
         <v>2.4</v>
       </c>
       <c r="Y136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA136">
         <v>1.05</v>
@@ -12232,16 +12235,16 @@
         <v>7870600</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45352.8125</v>
       </c>
       <c r="E137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12250,7 +12253,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J137">
         <v>2.875</v>
@@ -12298,10 +12301,10 @@
         <v>1.45</v>
       </c>
       <c r="Y137">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA137">
         <v>0.8999999999999999</v>
@@ -12318,16 +12321,16 @@
         <v>7870604</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12336,7 +12339,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J138">
         <v>3.75</v>
@@ -12384,10 +12387,10 @@
         <v>1.05</v>
       </c>
       <c r="Y138">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
         <v>0.9750000000000001</v>
@@ -12404,16 +12407,16 @@
         <v>7870605</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45353.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12422,7 +12425,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J139">
         <v>3.6</v>
@@ -12470,10 +12473,10 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z139">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
         <v>-1</v>
@@ -12490,16 +12493,16 @@
         <v>7870606</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12508,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J140">
         <v>1.533</v>
@@ -12556,10 +12559,10 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
         <v>0.925</v>
@@ -12576,16 +12579,16 @@
         <v>7870601</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12597,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J141">
         <v>2.375</v>
@@ -12642,10 +12645,10 @@
         <v>2.1</v>
       </c>
       <c r="Y141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA141">
         <v>0.7749999999999999</v>
@@ -12662,16 +12665,16 @@
         <v>7870602</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12680,7 +12683,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J142">
         <v>1.909</v>
@@ -12728,10 +12731,10 @@
         <v>3.2</v>
       </c>
       <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
         <v>0.925</v>
-      </c>
-      <c r="Z142">
-        <v>-1</v>
       </c>
       <c r="AA142">
         <v>1.05</v>
@@ -12748,16 +12751,16 @@
         <v>7870603</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12766,7 +12769,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J143">
         <v>4</v>
@@ -12814,10 +12817,10 @@
         <v>0.444</v>
       </c>
       <c r="Y143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
         <v>1.025</v>
@@ -12834,16 +12837,16 @@
         <v>7913218</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45359.85416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12852,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J144">
         <v>2.625</v>
@@ -12920,16 +12923,16 @@
         <v>7913219</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45360.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12938,7 +12941,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J145">
         <v>2.375</v>
@@ -12986,10 +12989,10 @@
         <v>1.875</v>
       </c>
       <c r="Y145">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA145">
         <v>0.825</v>
@@ -13006,16 +13009,16 @@
         <v>7913223</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45360.8125</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13024,7 +13027,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13072,10 +13075,10 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
         <v>1.025</v>
@@ -13092,16 +13095,16 @@
         <v>7913221</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E147" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147" t="s">
         <v>35</v>
-      </c>
-      <c r="F147" t="s">
-        <v>34</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13110,7 +13113,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13158,10 +13161,10 @@
         <v>2</v>
       </c>
       <c r="Y147">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA147">
         <v>0.9750000000000001</v>
@@ -13178,16 +13181,16 @@
         <v>7913222</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45361.6875</v>
       </c>
       <c r="E148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13196,7 +13199,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J148">
         <v>2.75</v>
@@ -13244,10 +13247,10 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z148">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
         <v>0.875</v>
@@ -13264,16 +13267,16 @@
         <v>7913220</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45361.8125</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13282,7 +13285,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J149">
         <v>2.375</v>
@@ -13350,16 +13353,16 @@
         <v>7913224</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45362.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13368,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J150">
         <v>1.909</v>
@@ -13416,10 +13419,10 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
         <v>0</v>
@@ -13436,16 +13439,16 @@
         <v>7913225</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45362.79166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13454,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13522,16 +13525,16 @@
         <v>7922351</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45366.8125</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13540,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J152">
         <v>3</v>
@@ -13608,17 +13611,17 @@
         <v>7922352</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45367.6875</v>
       </c>
       <c r="E153" t="s">
+        <v>31</v>
+      </c>
+      <c r="F153" t="s">
         <v>30</v>
       </c>
-      <c r="F153" t="s">
-        <v>29</v>
-      </c>
       <c r="G153">
         <v>0</v>
       </c>
@@ -13626,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J153">
         <v>2.5</v>
@@ -13694,16 +13697,16 @@
         <v>7922353</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45367.8125</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13712,7 +13715,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J154">
         <v>4.5</v>
@@ -13760,10 +13763,10 @@
         <v>0.7</v>
       </c>
       <c r="Y154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA154">
         <v>0.9750000000000001</v>
@@ -13780,16 +13783,16 @@
         <v>7990770</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45374.5625</v>
       </c>
       <c r="E155" t="s">
+        <v>46</v>
+      </c>
+      <c r="F155" t="s">
         <v>45</v>
-      </c>
-      <c r="F155" t="s">
-        <v>44</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13798,7 +13801,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J155">
         <v>2.8</v>
@@ -13866,16 +13869,16 @@
         <v>7990771</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45374.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13884,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J156">
         <v>1.4</v>
@@ -13952,16 +13955,16 @@
         <v>7990728</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45374.875</v>
       </c>
       <c r="E157" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13970,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J157">
         <v>4.2</v>
@@ -14018,10 +14021,10 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
         <v>-1</v>
@@ -14038,16 +14041,16 @@
         <v>7990772</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45375.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14056,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14124,16 +14127,16 @@
         <v>7990776</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14142,7 +14145,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J159">
         <v>1.833</v>
@@ -14190,10 +14193,10 @@
         <v>2.6</v>
       </c>
       <c r="Y159">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA159">
         <v>0</v>
@@ -14210,16 +14213,16 @@
         <v>8009735</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E160" t="s">
+        <v>47</v>
+      </c>
+      <c r="F160" t="s">
         <v>46</v>
-      </c>
-      <c r="F160" t="s">
-        <v>45</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -14228,7 +14231,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14276,10 +14279,10 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z160">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
         <v>0.875</v>
@@ -14296,16 +14299,16 @@
         <v>7994681</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14314,7 +14317,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J161">
         <v>2.3</v>
@@ -14362,10 +14365,10 @@
         <v>2</v>
       </c>
       <c r="Y161">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA161">
         <v>-0.5</v>
@@ -14382,16 +14385,16 @@
         <v>7994680</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14400,7 +14403,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14468,16 +14471,16 @@
         <v>7994520</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14486,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J163">
         <v>2.8</v>
@@ -14534,10 +14537,10 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z163">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
         <v>-1</v>
@@ -14554,16 +14557,16 @@
         <v>7994682</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14572,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J164">
         <v>1.909</v>
@@ -14640,16 +14643,16 @@
         <v>7994684</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45381.79166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14658,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14706,10 +14709,10 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z165">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
         <v>-1</v>
@@ -14726,16 +14729,16 @@
         <v>7995146</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45382.625</v>
       </c>
       <c r="E166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14744,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J166">
         <v>2.4</v>
@@ -14792,10 +14795,10 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
         <v>0.9750000000000001</v>
@@ -14812,16 +14815,16 @@
         <v>7995141</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14830,7 +14833,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>2.6</v>
@@ -14898,16 +14901,16 @@
         <v>7994683</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14916,7 +14919,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -14964,10 +14967,10 @@
         <v>1.5</v>
       </c>
       <c r="Y168">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA168">
         <v>-0.5</v>
@@ -14984,16 +14987,16 @@
         <v>8014131</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15002,7 +15005,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J169">
         <v>2.875</v>
@@ -15070,16 +15073,16 @@
         <v>8014133</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15088,7 +15091,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15136,10 +15139,10 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
         <v>0.875</v>
@@ -15156,16 +15159,16 @@
         <v>8014044</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15174,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J171">
         <v>1.909</v>
@@ -15242,16 +15245,16 @@
         <v>8014043</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45388.625</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15260,7 +15263,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J172">
         <v>2.375</v>
@@ -15328,16 +15331,16 @@
         <v>8014089</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45388.75</v>
       </c>
       <c r="E173" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15346,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J173">
         <v>1.5</v>
@@ -15394,10 +15397,10 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z173">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -15414,16 +15417,16 @@
         <v>8014132</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15432,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J174">
         <v>2.2</v>
@@ -15480,10 +15483,10 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
         <v>0.95</v>
@@ -15500,16 +15503,16 @@
         <v>8014090</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45389.625</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15518,7 +15521,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15566,10 +15569,10 @@
         <v>1.9</v>
       </c>
       <c r="Y175">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA175">
         <v>0.925</v>
@@ -15586,16 +15589,16 @@
         <v>8014091</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45389.75</v>
       </c>
       <c r="E176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15604,7 +15607,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J176">
         <v>5</v>
@@ -15652,10 +15655,10 @@
         <v>1.1</v>
       </c>
       <c r="Y176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
         <v>0.8500000000000001</v>
@@ -15672,16 +15675,16 @@
         <v>8051184</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
         <v>45395.625</v>
       </c>
       <c r="E177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15690,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J177">
         <v>2.375</v>
@@ -15738,10 +15741,10 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
         <v>-1</v>
@@ -15758,17 +15761,17 @@
         <v>8051185</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D178" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E178" t="s">
+        <v>32</v>
+      </c>
+      <c r="F178" t="s">
         <v>31</v>
       </c>
-      <c r="F178" t="s">
-        <v>30</v>
-      </c>
       <c r="G178">
         <v>0</v>
       </c>
@@ -15776,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>2.375</v>
@@ -15844,16 +15847,16 @@
         <v>8051186</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D179" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15862,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J179">
         <v>2.3</v>
@@ -15910,10 +15913,10 @@
         <v>2.1</v>
       </c>
       <c r="Y179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA179">
         <v>-1</v>
@@ -15930,16 +15933,16 @@
         <v>8051004</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D180" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15948,7 +15951,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J180">
         <v>3.2</v>
@@ -15996,10 +15999,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
         <v>0.925</v>
-      </c>
-      <c r="Z180">
-        <v>-1</v>
       </c>
       <c r="AA180">
         <v>-1</v>
@@ -16016,16 +16019,16 @@
         <v>8051187</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2">
         <v>45396.625</v>
       </c>
       <c r="E181" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16034,7 +16037,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J181">
         <v>1.727</v>
@@ -16082,10 +16085,10 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z181">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA181">
         <v>0.875</v>
@@ -16102,16 +16105,16 @@
         <v>8050911</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D182" s="2">
         <v>45396.75</v>
       </c>
       <c r="E182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16120,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16168,10 +16171,10 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z182">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
         <v>-0.5</v>
@@ -16188,16 +16191,16 @@
         <v>8050912</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D183" s="2">
         <v>45398.75</v>
       </c>
       <c r="E183" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16206,7 +16209,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J183">
         <v>3.2</v>
@@ -16254,10 +16257,10 @@
         <v>1.15</v>
       </c>
       <c r="Y183">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA183">
         <v>0.825</v>
@@ -16274,16 +16277,16 @@
         <v>8050913</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D184" s="2">
         <v>45398.85416666666</v>
       </c>
       <c r="E184" t="s">
+        <v>45</v>
+      </c>
+      <c r="F184" t="s">
         <v>44</v>
-      </c>
-      <c r="F184" t="s">
-        <v>43</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16292,7 +16295,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J184">
         <v>5</v>
@@ -16340,10 +16343,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Y184">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA184">
         <v>0.95</v>
@@ -16360,16 +16363,16 @@
         <v>8081163</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D185" s="2">
         <v>45401.5625</v>
       </c>
       <c r="E185" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16378,7 +16381,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J185">
         <v>2.3</v>
@@ -16446,16 +16449,16 @@
         <v>8081435</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D186" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16464,7 +16467,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J186">
         <v>2.375</v>
@@ -16532,16 +16535,16 @@
         <v>8081162</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D187" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16550,7 +16553,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J187">
         <v>2.3</v>
@@ -16618,16 +16621,16 @@
         <v>8081144</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D188" s="2">
         <v>45402.625</v>
       </c>
       <c r="E188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16636,7 +16639,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J188">
         <v>4.75</v>
@@ -16684,10 +16687,10 @@
         <v>0.909</v>
       </c>
       <c r="Y188">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA188">
         <v>0.9750000000000001</v>
@@ -16704,16 +16707,16 @@
         <v>8081249</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D189" s="2">
         <v>45402.75</v>
       </c>
       <c r="E189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G189">
         <v>6</v>
@@ -16722,7 +16725,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J189">
         <v>1.444</v>
@@ -16770,10 +16773,10 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
         <v>0.925</v>
@@ -16790,16 +16793,16 @@
         <v>8081250</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D190" s="2">
         <v>45402.85416666666</v>
       </c>
       <c r="E190" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16808,7 +16811,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J190">
         <v>2.2</v>
@@ -16856,16 +16859,253 @@
         <v>2.25</v>
       </c>
       <c r="Y190">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
         <v>0.8999999999999999</v>
       </c>
       <c r="AB190">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>8081251</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" s="2">
+        <v>45403.54166666666</v>
+      </c>
+      <c r="E191" t="s">
+        <v>31</v>
+      </c>
+      <c r="F191" t="s">
+        <v>33</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191" t="s">
+        <v>49</v>
+      </c>
+      <c r="J191">
+        <v>2.5</v>
+      </c>
+      <c r="K191">
+        <v>3</v>
+      </c>
+      <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="M191">
+        <v>2.5</v>
+      </c>
+      <c r="N191">
+        <v>2.9</v>
+      </c>
+      <c r="O191">
+        <v>3</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>1.775</v>
+      </c>
+      <c r="R191">
+        <v>2.1</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>1.925</v>
+      </c>
+      <c r="U191">
+        <v>1.925</v>
+      </c>
+      <c r="V191">
+        <v>-1</v>
+      </c>
+      <c r="W191">
+        <v>-1</v>
+      </c>
+      <c r="X191">
+        <v>2</v>
+      </c>
+      <c r="Y191">
+        <v>-1</v>
+      </c>
+      <c r="Z191">
+        <v>1.1</v>
+      </c>
+      <c r="AA191">
+        <v>0.925</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>8081885</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" s="2">
+        <v>45403.64583333334</v>
+      </c>
+      <c r="E192" t="s">
+        <v>30</v>
+      </c>
+      <c r="F192" t="s">
+        <v>47</v>
+      </c>
+      <c r="G192">
+        <v>2</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192" t="s">
+        <v>48</v>
+      </c>
+      <c r="J192">
+        <v>2.625</v>
+      </c>
+      <c r="K192">
+        <v>3.1</v>
+      </c>
+      <c r="L192">
+        <v>2.75</v>
+      </c>
+      <c r="M192">
+        <v>3.2</v>
+      </c>
+      <c r="N192">
+        <v>3.1</v>
+      </c>
+      <c r="O192">
+        <v>2.3</v>
+      </c>
+      <c r="P192">
+        <v>0.25</v>
+      </c>
+      <c r="Q192">
+        <v>1.825</v>
+      </c>
+      <c r="R192">
+        <v>2.025</v>
+      </c>
+      <c r="S192">
+        <v>2.25</v>
+      </c>
+      <c r="T192">
+        <v>1.95</v>
+      </c>
+      <c r="U192">
+        <v>1.9</v>
+      </c>
+      <c r="V192">
+        <v>-1</v>
+      </c>
+      <c r="W192">
+        <v>2.1</v>
+      </c>
+      <c r="X192">
+        <v>-1</v>
+      </c>
+      <c r="Y192">
+        <v>0.4125</v>
+      </c>
+      <c r="Z192">
+        <v>-0.5</v>
+      </c>
+      <c r="AA192">
+        <v>0.95</v>
+      </c>
+      <c r="AB192">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" s="2">
+        <v>45406.625</v>
+      </c>
+      <c r="E193" t="s">
+        <v>46</v>
+      </c>
+      <c r="F193" t="s">
+        <v>38</v>
+      </c>
+      <c r="J193">
+        <v>5</v>
+      </c>
+      <c r="K193">
+        <v>3.6</v>
+      </c>
+      <c r="L193">
+        <v>1.727</v>
+      </c>
+      <c r="M193">
+        <v>5.75</v>
+      </c>
+      <c r="N193">
+        <v>3.8</v>
+      </c>
+      <c r="O193">
+        <v>1.615</v>
+      </c>
+      <c r="P193">
+        <v>0.75</v>
+      </c>
+      <c r="Q193">
+        <v>2.025</v>
+      </c>
+      <c r="R193">
+        <v>1.825</v>
+      </c>
+      <c r="S193">
+        <v>2.5</v>
+      </c>
+      <c r="T193">
+        <v>1.9</v>
+      </c>
+      <c r="U193">
+        <v>1.95</v>
+      </c>
+      <c r="V193">
+        <v>0</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,7 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8110829</t>
+    <t>8105807</t>
   </si>
   <si>
     <t>Uruguay Primera División</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10512,7 +10512,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013702</v>
+        <v>7013409</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10521,76 +10521,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J117">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="K117">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L117">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M117">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="N117">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P117">
         <v>-0.75</v>
       </c>
       <c r="Q117">
+        <v>1.8</v>
+      </c>
+      <c r="R117">
         <v>2.05</v>
       </c>
-      <c r="R117">
-        <v>1.8</v>
-      </c>
       <c r="S117">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T117">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X117">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10598,7 +10598,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10607,76 +10607,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J118">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="K118">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M118">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N118">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O118">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q118">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10684,7 +10684,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013886</v>
+        <v>7013885</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -10693,55 +10693,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="s">
         <v>49</v>
       </c>
       <c r="J119">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K119">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="M119">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="P119">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
         <v>2</v>
       </c>
       <c r="T119">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
         <v>-1</v>
@@ -10750,19 +10750,19 @@
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB119">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10770,7 +10770,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -10779,10 +10779,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10794,40 +10794,40 @@
         <v>49</v>
       </c>
       <c r="J120">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K120">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L120">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M120">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N120">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O120">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q120">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T120">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V120">
         <v>-1</v>
@@ -10836,19 +10836,19 @@
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -17043,12 +17043,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:24">
+    <row r="193" spans="1:28">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="s">
-        <v>27</v>
+      <c r="B193">
+        <v>8110829</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17062,6 +17062,15 @@
       <c r="F193" t="s">
         <v>38</v>
       </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
+        <v>50</v>
+      </c>
       <c r="J193">
         <v>5</v>
       </c>
@@ -17072,39 +17081,116 @@
         <v>1.727</v>
       </c>
       <c r="M193">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="N193">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O193">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="P193">
         <v>0.75</v>
       </c>
       <c r="Q193">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R193">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
         <v>2.5</v>
       </c>
       <c r="T193">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="W193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>1</v>
+      </c>
+      <c r="AB193">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" s="2">
+        <v>45411.83333333334</v>
+      </c>
+      <c r="E194" t="s">
+        <v>42</v>
+      </c>
+      <c r="F194" t="s">
+        <v>30</v>
+      </c>
+      <c r="J194">
+        <v>1.333</v>
+      </c>
+      <c r="K194">
+        <v>5</v>
+      </c>
+      <c r="L194">
+        <v>9</v>
+      </c>
+      <c r="M194">
+        <v>1.4</v>
+      </c>
+      <c r="N194">
+        <v>4.75</v>
+      </c>
+      <c r="O194">
+        <v>7.5</v>
+      </c>
+      <c r="P194">
+        <v>-1.25</v>
+      </c>
+      <c r="Q194">
+        <v>1.925</v>
+      </c>
+      <c r="R194">
+        <v>1.925</v>
+      </c>
+      <c r="S194">
+        <v>2.5</v>
+      </c>
+      <c r="T194">
+        <v>2</v>
+      </c>
+      <c r="U194">
+        <v>1.85</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8134007</t>
+  </si>
+  <si>
+    <t>8134008</t>
+  </si>
+  <si>
+    <t>8105643</t>
+  </si>
+  <si>
+    <t>8105495</t>
+  </si>
+  <si>
+    <t>8105644</t>
+  </si>
+  <si>
+    <t>8105645</t>
   </si>
   <si>
     <t>8105807</t>
@@ -528,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,16 +643,16 @@
         <v>7013887</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45156.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -643,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -711,16 +729,16 @@
         <v>7072453</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -729,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -797,16 +815,16 @@
         <v>7072454</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -815,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -883,16 +901,16 @@
         <v>7013681</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45157.64583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -901,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <v>5.25</v>
@@ -969,16 +987,16 @@
         <v>7013835</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45157.75</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -987,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1055,16 +1073,16 @@
         <v>7013832</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1073,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <v>1.8</v>
@@ -1141,16 +1159,16 @@
         <v>7072455</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1159,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1227,16 +1245,16 @@
         <v>7013383</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1245,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J9">
         <v>2.55</v>
@@ -1313,16 +1331,16 @@
         <v>7013838</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1331,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1399,16 +1417,16 @@
         <v>7013837</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45163.75</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1417,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J11">
         <v>1.727</v>
@@ -1485,16 +1503,16 @@
         <v>7013888</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1503,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1571,16 +1589,16 @@
         <v>7013385</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45164.64583333334</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1589,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1657,16 +1675,16 @@
         <v>7013384</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45164.75</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1675,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1743,16 +1761,16 @@
         <v>7013836</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1761,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J15">
         <v>2.2</v>
@@ -1829,16 +1847,16 @@
         <v>7013839</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1847,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1915,16 +1933,16 @@
         <v>7013683</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1933,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2001,16 +2019,16 @@
         <v>7013843</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45170.79166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2019,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J18">
         <v>2.45</v>
@@ -2087,16 +2105,16 @@
         <v>7013685</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2105,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2173,16 +2191,16 @@
         <v>7013684</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45171.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2191,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2259,16 +2277,16 @@
         <v>7140485</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2277,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2345,16 +2363,16 @@
         <v>7013386</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2363,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J22">
         <v>3.2</v>
@@ -2431,16 +2449,16 @@
         <v>7013842</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45172.625</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2449,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2517,16 +2535,16 @@
         <v>7013410</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45172.75</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2535,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J24">
         <v>1.3</v>
@@ -2603,16 +2621,16 @@
         <v>7013841</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45172.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2621,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2689,16 +2707,16 @@
         <v>7275170</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45204.83333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2707,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J26">
         <v>4.333</v>
@@ -2775,16 +2793,16 @@
         <v>7275516</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2793,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J27">
         <v>1.95</v>
@@ -2861,16 +2879,16 @@
         <v>7286102</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2879,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J28">
         <v>2.625</v>
@@ -2947,16 +2965,16 @@
         <v>7275171</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45206.625</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2965,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J29">
         <v>1.7</v>
@@ -3033,16 +3051,16 @@
         <v>7286047</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3051,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3119,16 +3137,16 @@
         <v>7286046</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3137,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J31">
         <v>3.4</v>
@@ -3205,16 +3223,16 @@
         <v>7286103</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3223,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J32">
         <v>2.375</v>
@@ -3291,16 +3309,16 @@
         <v>7275517</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45207.75</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3309,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J33">
         <v>2.625</v>
@@ -3377,16 +3395,16 @@
         <v>7322838</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45212.66666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3395,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J34">
         <v>1.909</v>
@@ -3463,16 +3481,16 @@
         <v>7322841</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45212.77083333334</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3481,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J35">
         <v>1.909</v>
@@ -3549,16 +3567,16 @@
         <v>7322840</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45212.875</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3567,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J36">
         <v>4.333</v>
@@ -3635,16 +3653,16 @@
         <v>7322842</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45213.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3653,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3721,16 +3739,16 @@
         <v>7322837</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45213.6875</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3739,7 +3757,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3807,16 +3825,16 @@
         <v>7307799</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45213.79166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3825,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J39">
         <v>2.2</v>
@@ -3893,16 +3911,16 @@
         <v>7322839</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45214.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3911,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J40">
         <v>2.375</v>
@@ -3979,16 +3997,16 @@
         <v>7322836</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45214.77083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3997,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4065,16 +4083,16 @@
         <v>7325460</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45217.5</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4083,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4151,16 +4169,16 @@
         <v>7325461</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45217.60416666666</v>
       </c>
       <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
         <v>39</v>
-      </c>
-      <c r="F43" t="s">
-        <v>33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4169,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J43">
         <v>2.7</v>
@@ -4237,16 +4255,16 @@
         <v>7325462</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45217.70833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4255,7 +4273,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J44">
         <v>2.2</v>
@@ -4323,16 +4341,16 @@
         <v>7325463</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45217.8125</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4341,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4409,16 +4427,16 @@
         <v>7325464</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45218.5</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4427,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J46">
         <v>2.375</v>
@@ -4495,16 +4513,16 @@
         <v>7325465</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45218.60416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4513,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J47">
         <v>2.3</v>
@@ -4581,16 +4599,16 @@
         <v>7325466</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45218.70833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4599,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J48">
         <v>3</v>
@@ -4667,16 +4685,16 @@
         <v>7325467</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45218.84375</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4685,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J49">
         <v>4.2</v>
@@ -4753,16 +4771,16 @@
         <v>7013854</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45220.79166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4771,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J50">
         <v>1.615</v>
@@ -4839,16 +4857,16 @@
         <v>7013855</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4857,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J51">
         <v>2.3</v>
@@ -4925,16 +4943,16 @@
         <v>7013692</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45221.66666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4943,7 +4961,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J52">
         <v>3.1</v>
@@ -5011,16 +5029,16 @@
         <v>7013891</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5029,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J53">
         <v>2.875</v>
@@ -5097,16 +5115,16 @@
         <v>7013393</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45222.70833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5115,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -5183,16 +5201,16 @@
         <v>7013394</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45222.84375</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5201,7 +5219,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J55">
         <v>1.4</v>
@@ -5269,16 +5287,16 @@
         <v>7013691</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45223.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5287,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5355,16 +5373,16 @@
         <v>7013856</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45223.8125</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5373,7 +5391,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5441,16 +5459,16 @@
         <v>7013858</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45233.79166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5459,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J58">
         <v>2.4</v>
@@ -5527,16 +5545,16 @@
         <v>7013857</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45234.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5545,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5613,16 +5631,16 @@
         <v>7013859</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45234.70833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5631,7 +5649,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J60">
         <v>2.45</v>
@@ -5699,16 +5717,16 @@
         <v>7013396</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5717,7 +5735,7 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J61">
         <v>3.75</v>
@@ -5785,16 +5803,16 @@
         <v>7013860</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5803,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J62">
         <v>2.05</v>
@@ -5871,16 +5889,16 @@
         <v>7013892</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5889,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J63">
         <v>3.4</v>
@@ -5957,16 +5975,16 @@
         <v>7013395</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" t="s">
         <v>42</v>
-      </c>
-      <c r="F64" t="s">
-        <v>36</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5975,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J64">
         <v>1.75</v>
@@ -6043,16 +6061,16 @@
         <v>7013693</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6061,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6129,16 +6147,16 @@
         <v>7013397</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6147,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J66">
         <v>1.615</v>
@@ -6215,16 +6233,16 @@
         <v>7013893</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6233,7 +6251,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6301,16 +6319,16 @@
         <v>7013861</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45240.89583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6319,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6387,16 +6405,16 @@
         <v>7013694</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6405,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J69">
         <v>2.15</v>
@@ -6473,16 +6491,16 @@
         <v>7013398</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45241.6875</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6491,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6559,16 +6577,16 @@
         <v>7013863</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45241.8125</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6577,7 +6595,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J71">
         <v>2.15</v>
@@ -6645,16 +6663,16 @@
         <v>7013862</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45242.6875</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6663,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6731,16 +6749,16 @@
         <v>7013864</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6749,7 +6767,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J73">
         <v>2.625</v>
@@ -6817,16 +6835,16 @@
         <v>7013868</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45244.6875</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6835,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J74">
         <v>2.2</v>
@@ -6903,16 +6921,16 @@
         <v>7013411</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45244.79166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6921,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J75">
         <v>3.75</v>
@@ -6989,16 +7007,16 @@
         <v>7013695</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45244.89583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7007,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J76">
         <v>1.4</v>
@@ -7075,16 +7093,16 @@
         <v>7013866</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45245.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7093,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J77">
         <v>3.8</v>
@@ -7161,16 +7179,16 @@
         <v>7013867</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45245.79166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7179,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7247,16 +7265,16 @@
         <v>7013399</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45245.89583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7265,7 +7283,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7333,16 +7351,16 @@
         <v>7013869</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45246.41666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7351,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J80">
         <v>2.15</v>
@@ -7419,16 +7437,16 @@
         <v>7013865</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45246.6875</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7437,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J81">
         <v>2.15</v>
@@ -7505,16 +7523,16 @@
         <v>7013894</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45248.6875</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7523,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7591,16 +7609,16 @@
         <v>7013872</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45248.79166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7609,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7677,16 +7695,16 @@
         <v>7013401</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45249.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7695,7 +7713,7 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J84">
         <v>1.727</v>
@@ -7763,16 +7781,16 @@
         <v>7013696</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45249.6875</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7781,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J85">
         <v>3.3</v>
@@ -7849,16 +7867,16 @@
         <v>7013871</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45249.79166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7867,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -7935,16 +7953,16 @@
         <v>7013873</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45249.89583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7953,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8021,16 +8039,16 @@
         <v>7013400</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45250.6875</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8039,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J88">
         <v>3.5</v>
@@ -8107,16 +8125,16 @@
         <v>7013870</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45250.79166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8125,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J89">
         <v>1.8</v>
@@ -8193,16 +8211,16 @@
         <v>7013874</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8211,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J90">
         <v>2.1</v>
@@ -8279,16 +8297,16 @@
         <v>7013402</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45254.79166666666</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8297,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J91">
         <v>4</v>
@@ -8365,16 +8383,16 @@
         <v>7013705</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45254.89583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8383,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J92">
         <v>1.444</v>
@@ -8451,16 +8469,16 @@
         <v>7013876</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8469,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J93">
         <v>2.1</v>
@@ -8537,16 +8555,16 @@
         <v>7013697</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45255.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8555,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8623,16 +8641,16 @@
         <v>7013875</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45255.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8641,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8709,16 +8727,16 @@
         <v>7013877</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45256.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8727,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8795,16 +8813,16 @@
         <v>7013403</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45256.8125</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8813,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J97">
         <v>1.444</v>
@@ -8881,16 +8899,16 @@
         <v>7013698</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45258.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8899,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J98">
         <v>4.333</v>
@@ -8967,16 +8985,16 @@
         <v>7013895</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45258.79166666666</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -8985,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9053,16 +9071,16 @@
         <v>7013880</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45258.88541666666</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>5</v>
@@ -9071,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9139,16 +9157,16 @@
         <v>7013405</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45259.6875</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9157,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9225,16 +9243,16 @@
         <v>7013699</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45259.79166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9243,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J102">
         <v>2.875</v>
@@ -9311,16 +9329,16 @@
         <v>7013879</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45259.88541666666</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9329,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J103">
         <v>1.6</v>
@@ -9397,16 +9415,16 @@
         <v>7013878</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45260.72916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9415,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9483,16 +9501,16 @@
         <v>7528218</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45260.85416666666</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9501,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J105">
         <v>4</v>
@@ -9569,16 +9587,16 @@
         <v>7013882</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9587,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9655,16 +9673,16 @@
         <v>7013883</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45262.6875</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9673,7 +9691,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J107">
         <v>2.5</v>
@@ -9741,16 +9759,16 @@
         <v>7013701</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45262.79166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9759,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J108">
         <v>1.533</v>
@@ -9827,16 +9845,16 @@
         <v>7013406</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45262.89583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9845,7 +9863,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J109">
         <v>3.3</v>
@@ -9913,16 +9931,16 @@
         <v>7013881</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9931,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9999,16 +10017,16 @@
         <v>7013700</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45263.6875</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10017,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J111">
         <v>1.909</v>
@@ -10085,16 +10103,16 @@
         <v>7013896</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45264.70833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10103,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J112">
         <v>2.2</v>
@@ -10171,16 +10189,16 @@
         <v>7013407</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45264.85416666666</v>
       </c>
       <c r="E113" t="s">
+        <v>50</v>
+      </c>
+      <c r="F113" t="s">
         <v>44</v>
-      </c>
-      <c r="F113" t="s">
-        <v>38</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10189,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -10254,85 +10272,85 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J114">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K114">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L114">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="M114">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N114">
         <v>3.2</v>
       </c>
       <c r="O114">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10340,85 +10358,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J115">
+        <v>4.75</v>
+      </c>
+      <c r="K115">
+        <v>3.4</v>
+      </c>
+      <c r="L115">
         <v>1.7</v>
       </c>
-      <c r="K115">
-        <v>3</v>
-      </c>
-      <c r="L115">
-        <v>5.75</v>
-      </c>
       <c r="M115">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="N115">
         <v>3.2</v>
       </c>
       <c r="O115">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="P115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10429,16 +10447,16 @@
         <v>7559905</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45266.8125</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10447,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -10515,16 +10533,16 @@
         <v>7013409</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10533,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J117">
         <v>1.666</v>
@@ -10598,64 +10616,64 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
         <v>41</v>
       </c>
-      <c r="F118" t="s">
-        <v>32</v>
-      </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J118">
+        <v>1.8</v>
+      </c>
+      <c r="K118">
+        <v>3.6</v>
+      </c>
+      <c r="L118">
+        <v>4.2</v>
+      </c>
+      <c r="M118">
+        <v>1.8</v>
+      </c>
+      <c r="N118">
+        <v>3.6</v>
+      </c>
+      <c r="O118">
+        <v>4.2</v>
+      </c>
+      <c r="P118">
+        <v>-0.75</v>
+      </c>
+      <c r="Q118">
+        <v>2.05</v>
+      </c>
+      <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
         <v>2.25</v>
       </c>
-      <c r="K118">
-        <v>3.1</v>
-      </c>
-      <c r="L118">
-        <v>3.25</v>
-      </c>
-      <c r="M118">
-        <v>2.25</v>
-      </c>
-      <c r="N118">
-        <v>2.875</v>
-      </c>
-      <c r="O118">
-        <v>3.5</v>
-      </c>
-      <c r="P118">
-        <v>-0.25</v>
-      </c>
-      <c r="Q118">
-        <v>1.95</v>
-      </c>
-      <c r="R118">
-        <v>1.9</v>
-      </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
       <c r="T118">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V118">
         <v>-1</v>
@@ -10664,19 +10682,19 @@
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10687,16 +10705,16 @@
         <v>7013885</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10705,7 +10723,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J119">
         <v>3</v>
@@ -10770,64 +10788,64 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E120" t="s">
+        <v>47</v>
+      </c>
+      <c r="F120" t="s">
         <v>38</v>
       </c>
-      <c r="F120" t="s">
-        <v>35</v>
-      </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J120">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K120">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L120">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N120">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q120">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
         <v>-1</v>
@@ -10836,19 +10854,19 @@
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10859,16 +10877,16 @@
         <v>7560164</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45268.70833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10877,7 +10895,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10945,16 +10963,16 @@
         <v>7797510</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45338.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10963,7 +10981,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J122">
         <v>1.6</v>
@@ -11031,16 +11049,16 @@
         <v>7797528</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45339.70833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11049,7 +11067,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J123">
         <v>2.6</v>
@@ -11117,16 +11135,16 @@
         <v>7797532</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45339.80208333334</v>
       </c>
       <c r="E124" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11135,7 +11153,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J124">
         <v>2.5</v>
@@ -11203,16 +11221,16 @@
         <v>7797529</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11221,7 +11239,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J125">
         <v>2.3</v>
@@ -11289,16 +11307,16 @@
         <v>7797530</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11307,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11375,16 +11393,16 @@
         <v>7796575</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45340.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11393,7 +11411,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J127">
         <v>3.8</v>
@@ -11461,16 +11479,16 @@
         <v>7797533</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45340.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11479,7 +11497,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J128">
         <v>5.25</v>
@@ -11547,16 +11565,16 @@
         <v>7825144</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -11565,7 +11583,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J129">
         <v>2.375</v>
@@ -11633,16 +11651,16 @@
         <v>7825145</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45345.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11651,7 +11669,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J130">
         <v>2.5</v>
@@ -11719,16 +11737,16 @@
         <v>7825143</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11737,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11805,16 +11823,16 @@
         <v>7825103</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45346.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11823,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J132">
         <v>1.4</v>
@@ -11891,16 +11909,16 @@
         <v>7825146</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45347.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11909,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J133">
         <v>2.625</v>
@@ -11977,16 +11995,16 @@
         <v>7825104</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11995,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J134">
         <v>2.875</v>
@@ -12063,16 +12081,16 @@
         <v>7825147</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45347.8125</v>
       </c>
       <c r="E135" t="s">
+        <v>44</v>
+      </c>
+      <c r="F135" t="s">
         <v>38</v>
-      </c>
-      <c r="F135" t="s">
-        <v>32</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -12081,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12149,16 +12167,16 @@
         <v>7870599</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12167,7 +12185,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J136">
         <v>2.05</v>
@@ -12235,16 +12253,16 @@
         <v>7870600</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45352.8125</v>
       </c>
       <c r="E137" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12253,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J137">
         <v>2.875</v>
@@ -12321,16 +12339,16 @@
         <v>7870604</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12339,7 +12357,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J138">
         <v>3.75</v>
@@ -12407,16 +12425,16 @@
         <v>7870605</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45353.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12425,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J139">
         <v>3.6</v>
@@ -12493,16 +12511,16 @@
         <v>7870606</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12511,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J140">
         <v>1.533</v>
@@ -12579,16 +12597,16 @@
         <v>7870601</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12597,7 +12615,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J141">
         <v>2.375</v>
@@ -12665,16 +12683,16 @@
         <v>7870602</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12683,7 +12701,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J142">
         <v>1.909</v>
@@ -12751,16 +12769,16 @@
         <v>7870603</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12769,7 +12787,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J143">
         <v>4</v>
@@ -12837,16 +12855,16 @@
         <v>7913218</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45359.85416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12855,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J144">
         <v>2.625</v>
@@ -12923,16 +12941,16 @@
         <v>7913219</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45360.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12941,7 +12959,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J145">
         <v>2.375</v>
@@ -13009,16 +13027,16 @@
         <v>7913223</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45360.8125</v>
       </c>
       <c r="E146" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13027,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13095,16 +13113,16 @@
         <v>7913221</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13113,7 +13131,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13181,16 +13199,16 @@
         <v>7913222</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45361.6875</v>
       </c>
       <c r="E148" t="s">
+        <v>53</v>
+      </c>
+      <c r="F148" t="s">
         <v>47</v>
-      </c>
-      <c r="F148" t="s">
-        <v>41</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13199,7 +13217,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J148">
         <v>2.75</v>
@@ -13267,16 +13285,16 @@
         <v>7913220</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45361.8125</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13285,7 +13303,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J149">
         <v>2.375</v>
@@ -13353,16 +13371,16 @@
         <v>7913224</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45362.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13371,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J150">
         <v>1.909</v>
@@ -13439,16 +13457,16 @@
         <v>7913225</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45362.79166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13457,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13525,16 +13543,16 @@
         <v>7922351</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45366.8125</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13543,7 +13561,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J152">
         <v>3</v>
@@ -13611,16 +13629,16 @@
         <v>7922352</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45367.6875</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13629,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J153">
         <v>2.5</v>
@@ -13697,16 +13715,16 @@
         <v>7922353</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45367.8125</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13715,7 +13733,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J154">
         <v>4.5</v>
@@ -13783,16 +13801,16 @@
         <v>7990770</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45374.5625</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13801,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J155">
         <v>2.8</v>
@@ -13869,16 +13887,16 @@
         <v>7990771</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45374.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13887,7 +13905,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J156">
         <v>1.4</v>
@@ -13955,16 +13973,16 @@
         <v>7990728</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45374.875</v>
       </c>
       <c r="E157" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13973,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J157">
         <v>4.2</v>
@@ -14041,16 +14059,16 @@
         <v>7990772</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45375.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14059,7 +14077,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14127,16 +14145,16 @@
         <v>7990776</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14145,7 +14163,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J159">
         <v>1.833</v>
@@ -14213,16 +14231,16 @@
         <v>8009735</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -14231,7 +14249,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14299,16 +14317,16 @@
         <v>7994681</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14317,7 +14335,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J161">
         <v>2.3</v>
@@ -14385,16 +14403,16 @@
         <v>7994680</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14403,7 +14421,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14471,16 +14489,16 @@
         <v>7994520</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14489,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J163">
         <v>2.8</v>
@@ -14557,16 +14575,16 @@
         <v>7994682</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E164" t="s">
+        <v>42</v>
+      </c>
+      <c r="F164" t="s">
         <v>36</v>
-      </c>
-      <c r="F164" t="s">
-        <v>30</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14575,7 +14593,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J164">
         <v>1.909</v>
@@ -14643,16 +14661,16 @@
         <v>7994684</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45381.79166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14661,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14729,16 +14747,16 @@
         <v>7995146</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45382.625</v>
       </c>
       <c r="E166" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14747,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J166">
         <v>2.4</v>
@@ -14815,16 +14833,16 @@
         <v>7995141</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14833,7 +14851,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J167">
         <v>2.6</v>
@@ -14901,16 +14919,16 @@
         <v>7994683</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14919,7 +14937,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -14987,16 +15005,16 @@
         <v>8014131</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15005,7 +15023,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J169">
         <v>2.875</v>
@@ -15073,16 +15091,16 @@
         <v>8014133</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15091,7 +15109,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15159,16 +15177,16 @@
         <v>8014044</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15177,7 +15195,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J171">
         <v>1.909</v>
@@ -15245,16 +15263,16 @@
         <v>8014043</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45388.625</v>
       </c>
       <c r="E172" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15263,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J172">
         <v>2.375</v>
@@ -15331,16 +15349,16 @@
         <v>8014089</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45388.75</v>
       </c>
       <c r="E173" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15349,7 +15367,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J173">
         <v>1.5</v>
@@ -15417,16 +15435,16 @@
         <v>8014132</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15435,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J174">
         <v>2.2</v>
@@ -15503,16 +15521,16 @@
         <v>8014090</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45389.625</v>
       </c>
       <c r="E175" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15521,7 +15539,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15589,16 +15607,16 @@
         <v>8014091</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45389.75</v>
       </c>
       <c r="E176" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15607,7 +15625,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J176">
         <v>5</v>
@@ -15675,16 +15693,16 @@
         <v>8051184</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45395.625</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15693,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J177">
         <v>2.375</v>
@@ -15761,16 +15779,16 @@
         <v>8051185</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E178" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15779,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J178">
         <v>2.375</v>
@@ -15847,16 +15865,16 @@
         <v>8051186</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15865,7 +15883,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J179">
         <v>2.3</v>
@@ -15933,16 +15951,16 @@
         <v>8051004</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15951,7 +15969,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J180">
         <v>3.2</v>
@@ -16019,16 +16037,16 @@
         <v>8051187</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45396.625</v>
       </c>
       <c r="E181" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16037,7 +16055,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J181">
         <v>1.727</v>
@@ -16105,16 +16123,16 @@
         <v>8050911</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45396.75</v>
       </c>
       <c r="E182" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16123,7 +16141,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16191,16 +16209,16 @@
         <v>8050912</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45398.75</v>
       </c>
       <c r="E183" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16209,7 +16227,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J183">
         <v>3.2</v>
@@ -16277,16 +16295,16 @@
         <v>8050913</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45398.85416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16295,7 +16313,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J184">
         <v>5</v>
@@ -16363,16 +16381,16 @@
         <v>8081163</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45401.5625</v>
       </c>
       <c r="E185" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16381,7 +16399,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J185">
         <v>2.3</v>
@@ -16449,16 +16467,16 @@
         <v>8081435</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16467,7 +16485,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J186">
         <v>2.375</v>
@@ -16535,16 +16553,16 @@
         <v>8081162</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16553,7 +16571,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J187">
         <v>2.3</v>
@@ -16621,16 +16639,16 @@
         <v>8081144</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45402.625</v>
       </c>
       <c r="E188" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16639,7 +16657,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J188">
         <v>4.75</v>
@@ -16707,16 +16725,16 @@
         <v>8081249</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45402.75</v>
       </c>
       <c r="E189" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G189">
         <v>6</v>
@@ -16725,7 +16743,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J189">
         <v>1.444</v>
@@ -16793,16 +16811,16 @@
         <v>8081250</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45402.85416666666</v>
       </c>
       <c r="E190" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16811,7 +16829,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J190">
         <v>2.2</v>
@@ -16879,16 +16897,16 @@
         <v>8081251</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E191" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16897,7 +16915,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J191">
         <v>2.5</v>
@@ -16965,16 +16983,16 @@
         <v>8081885</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45403.64583333334</v>
       </c>
       <c r="E192" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F192" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16983,7 +17001,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J192">
         <v>2.625</v>
@@ -17043,154 +17061,458 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" spans="1:24">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193">
-        <v>8110829</v>
+      <c r="B193" t="s">
+        <v>27</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
-        <v>45406.625</v>
+        <v>45409.52083333334</v>
       </c>
       <c r="E193" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
-      </c>
-      <c r="G193">
-        <v>2</v>
-      </c>
-      <c r="H193">
-        <v>1</v>
-      </c>
-      <c r="I193" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J193">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="K193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L193">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="M193">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="N193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O193">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="P193">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q193">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R193">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S193">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T193">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U193">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V193">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X193">
-        <v>-1</v>
-      </c>
-      <c r="Y193">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="Z193">
-        <v>-1</v>
-      </c>
-      <c r="AA193">
-        <v>1</v>
-      </c>
-      <c r="AB193">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
+        <v>45409.54166666666</v>
+      </c>
+      <c r="E194" t="s">
+        <v>46</v>
+      </c>
+      <c r="F194" t="s">
+        <v>40</v>
+      </c>
+      <c r="J194">
+        <v>2.75</v>
+      </c>
+      <c r="K194">
+        <v>3.2</v>
+      </c>
+      <c r="L194">
+        <v>2.625</v>
+      </c>
+      <c r="M194">
+        <v>2.6</v>
+      </c>
+      <c r="N194">
+        <v>3.2</v>
+      </c>
+      <c r="O194">
+        <v>2.8</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>1.85</v>
+      </c>
+      <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
+        <v>2.25</v>
+      </c>
+      <c r="T194">
+        <v>1.925</v>
+      </c>
+      <c r="U194">
+        <v>1.925</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>29</v>
+      </c>
+      <c r="C195" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="2">
+        <v>45410.41666666666</v>
+      </c>
+      <c r="E195" t="s">
+        <v>51</v>
+      </c>
+      <c r="F195" t="s">
+        <v>41</v>
+      </c>
+      <c r="J195">
+        <v>3.2</v>
+      </c>
+      <c r="K195">
+        <v>3.2</v>
+      </c>
+      <c r="L195">
+        <v>2.3</v>
+      </c>
+      <c r="M195">
+        <v>3.1</v>
+      </c>
+      <c r="N195">
+        <v>3.2</v>
+      </c>
+      <c r="O195">
+        <v>2.375</v>
+      </c>
+      <c r="P195">
+        <v>0.25</v>
+      </c>
+      <c r="Q195">
+        <v>1.825</v>
+      </c>
+      <c r="R195">
+        <v>2.025</v>
+      </c>
+      <c r="S195">
+        <v>2.25</v>
+      </c>
+      <c r="T195">
+        <v>2.025</v>
+      </c>
+      <c r="U195">
+        <v>1.825</v>
+      </c>
+      <c r="V195">
+        <v>0</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>30</v>
+      </c>
+      <c r="C196" t="s">
+        <v>34</v>
+      </c>
+      <c r="D196" s="2">
+        <v>45410.625</v>
+      </c>
+      <c r="E196" t="s">
+        <v>53</v>
+      </c>
+      <c r="F196" t="s">
+        <v>42</v>
+      </c>
+      <c r="J196">
+        <v>2.9</v>
+      </c>
+      <c r="K196">
+        <v>3.3</v>
+      </c>
+      <c r="L196">
+        <v>2.375</v>
+      </c>
+      <c r="M196">
+        <v>2.5</v>
+      </c>
+      <c r="N196">
+        <v>3.4</v>
+      </c>
+      <c r="O196">
+        <v>2.7</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>1.85</v>
+      </c>
+      <c r="R196">
+        <v>2</v>
+      </c>
+      <c r="S196">
+        <v>2.25</v>
+      </c>
+      <c r="T196">
+        <v>1.875</v>
+      </c>
+      <c r="U196">
+        <v>1.975</v>
+      </c>
+      <c r="V196">
+        <v>0</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" t="s">
+        <v>34</v>
+      </c>
+      <c r="D197" s="2">
+        <v>45410.75</v>
+      </c>
+      <c r="E197" t="s">
+        <v>38</v>
+      </c>
+      <c r="F197" t="s">
+        <v>50</v>
+      </c>
+      <c r="J197">
+        <v>5.5</v>
+      </c>
+      <c r="K197">
+        <v>3.75</v>
+      </c>
+      <c r="L197">
+        <v>1.615</v>
+      </c>
+      <c r="M197">
+        <v>5.5</v>
+      </c>
+      <c r="N197">
+        <v>3.75</v>
+      </c>
+      <c r="O197">
+        <v>1.6</v>
+      </c>
+      <c r="P197">
+        <v>0.75</v>
+      </c>
+      <c r="Q197">
+        <v>2.05</v>
+      </c>
+      <c r="R197">
+        <v>1.8</v>
+      </c>
+      <c r="S197">
+        <v>2.25</v>
+      </c>
+      <c r="T197">
+        <v>1.925</v>
+      </c>
+      <c r="U197">
+        <v>1.925</v>
+      </c>
+      <c r="V197">
+        <v>0</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>32</v>
+      </c>
+      <c r="C198" t="s">
+        <v>34</v>
+      </c>
+      <c r="D198" s="2">
+        <v>45410.85416666666</v>
+      </c>
+      <c r="E198" t="s">
+        <v>44</v>
+      </c>
+      <c r="F198" t="s">
+        <v>39</v>
+      </c>
+      <c r="J198">
+        <v>1.615</v>
+      </c>
+      <c r="K198">
+        <v>3.75</v>
+      </c>
+      <c r="L198">
+        <v>5.5</v>
+      </c>
+      <c r="M198">
+        <v>1.571</v>
+      </c>
+      <c r="N198">
+        <v>3.75</v>
+      </c>
+      <c r="O198">
+        <v>6</v>
+      </c>
+      <c r="P198">
+        <v>-1</v>
+      </c>
+      <c r="Q198">
+        <v>2.05</v>
+      </c>
+      <c r="R198">
+        <v>1.8</v>
+      </c>
+      <c r="S198">
+        <v>2.5</v>
+      </c>
+      <c r="T198">
+        <v>2.025</v>
+      </c>
+      <c r="U198">
+        <v>1.825</v>
+      </c>
+      <c r="V198">
+        <v>0</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" t="s">
+        <v>34</v>
+      </c>
+      <c r="D199" s="2">
         <v>45411.83333333334</v>
       </c>
-      <c r="E194" t="s">
-        <v>42</v>
-      </c>
-      <c r="F194" t="s">
-        <v>30</v>
-      </c>
-      <c r="J194">
+      <c r="E199" t="s">
+        <v>48</v>
+      </c>
+      <c r="F199" t="s">
+        <v>36</v>
+      </c>
+      <c r="J199">
         <v>1.333</v>
       </c>
-      <c r="K194">
+      <c r="K199">
         <v>5</v>
       </c>
-      <c r="L194">
+      <c r="L199">
         <v>9</v>
       </c>
-      <c r="M194">
+      <c r="M199">
         <v>1.4</v>
       </c>
-      <c r="N194">
+      <c r="N199">
         <v>4.75</v>
       </c>
-      <c r="O194">
+      <c r="O199">
         <v>7.5</v>
       </c>
-      <c r="P194">
+      <c r="P199">
         <v>-1.25</v>
       </c>
-      <c r="Q194">
+      <c r="Q199">
         <v>1.925</v>
       </c>
-      <c r="R194">
+      <c r="R199">
         <v>1.925</v>
       </c>
-      <c r="S194">
+      <c r="S199">
         <v>2.5</v>
       </c>
-      <c r="T194">
-        <v>2</v>
-      </c>
-      <c r="U194">
+      <c r="T199">
+        <v>2</v>
+      </c>
+      <c r="U199">
         <v>1.85</v>
       </c>
-      <c r="V194">
-        <v>0</v>
-      </c>
-      <c r="W194">
-        <v>0</v>
-      </c>
-      <c r="X194">
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>8134007</t>
-  </si>
-  <si>
-    <t>8134008</t>
   </si>
   <si>
     <t>8105643</t>
@@ -643,16 +640,16 @@
         <v>7013887</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45156.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -661,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -729,16 +726,16 @@
         <v>7072453</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -747,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -815,16 +812,16 @@
         <v>7072454</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -833,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -901,16 +898,16 @@
         <v>7013681</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45157.64583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -919,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>5.25</v>
@@ -987,16 +984,16 @@
         <v>7013835</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45157.75</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1005,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1073,16 +1070,16 @@
         <v>7013832</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1091,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J7">
         <v>1.8</v>
@@ -1159,16 +1156,16 @@
         <v>7072455</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1177,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1245,16 +1242,16 @@
         <v>7013383</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1263,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9">
         <v>2.55</v>
@@ -1331,16 +1328,16 @@
         <v>7013838</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1349,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1417,16 +1414,16 @@
         <v>7013837</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45163.75</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1435,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11">
         <v>1.727</v>
@@ -1503,16 +1500,16 @@
         <v>7013888</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1521,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1589,16 +1586,16 @@
         <v>7013385</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45164.64583333334</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1607,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1675,16 +1672,16 @@
         <v>7013384</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45164.75</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1693,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1761,16 +1758,16 @@
         <v>7013836</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1779,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>2.2</v>
@@ -1847,16 +1844,16 @@
         <v>7013839</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1865,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1933,17 +1930,17 @@
         <v>7013683</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
         <v>48</v>
       </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
       <c r="G17">
         <v>2</v>
       </c>
@@ -1951,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2019,16 +2016,16 @@
         <v>7013843</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45170.79166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2037,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18">
         <v>2.45</v>
@@ -2105,16 +2102,16 @@
         <v>7013685</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2123,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2191,16 +2188,16 @@
         <v>7013684</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45171.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2209,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2277,16 +2274,16 @@
         <v>7140485</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2295,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2363,16 +2360,16 @@
         <v>7013386</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2381,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22">
         <v>3.2</v>
@@ -2449,16 +2446,16 @@
         <v>7013842</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45172.625</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2467,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2535,16 +2532,16 @@
         <v>7013410</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45172.75</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2553,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>1.3</v>
@@ -2621,16 +2618,16 @@
         <v>7013841</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45172.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2639,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2707,16 +2704,16 @@
         <v>7275170</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45204.83333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2725,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>4.333</v>
@@ -2793,16 +2790,16 @@
         <v>7275516</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2811,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J27">
         <v>1.95</v>
@@ -2879,16 +2876,16 @@
         <v>7286102</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2897,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28">
         <v>2.625</v>
@@ -2965,16 +2962,16 @@
         <v>7275171</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45206.625</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2983,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J29">
         <v>1.7</v>
@@ -3051,16 +3048,16 @@
         <v>7286047</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3069,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3137,16 +3134,16 @@
         <v>7286046</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3155,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J31">
         <v>3.4</v>
@@ -3223,16 +3220,16 @@
         <v>7286103</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3241,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J32">
         <v>2.375</v>
@@ -3309,16 +3306,16 @@
         <v>7275517</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45207.75</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3327,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33">
         <v>2.625</v>
@@ -3395,16 +3392,16 @@
         <v>7322838</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45212.66666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3413,7 +3410,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J34">
         <v>1.909</v>
@@ -3481,16 +3478,16 @@
         <v>7322841</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45212.77083333334</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3499,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J35">
         <v>1.909</v>
@@ -3567,16 +3564,16 @@
         <v>7322840</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45212.875</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3585,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36">
         <v>4.333</v>
@@ -3653,16 +3650,16 @@
         <v>7322842</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45213.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3671,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3739,16 +3736,16 @@
         <v>7322837</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45213.6875</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3757,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3825,16 +3822,16 @@
         <v>7307799</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45213.79166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3843,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J39">
         <v>2.2</v>
@@ -3911,16 +3908,16 @@
         <v>7322839</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45214.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3929,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J40">
         <v>2.375</v>
@@ -3997,16 +3994,16 @@
         <v>7322836</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45214.77083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4015,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4083,16 +4080,16 @@
         <v>7325460</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45217.5</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4101,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4169,16 +4166,16 @@
         <v>7325461</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45217.60416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4187,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J43">
         <v>2.7</v>
@@ -4255,16 +4252,16 @@
         <v>7325462</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45217.70833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4273,7 +4270,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J44">
         <v>2.2</v>
@@ -4341,16 +4338,16 @@
         <v>7325463</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45217.8125</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4359,7 +4356,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4427,16 +4424,16 @@
         <v>7325464</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45218.5</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4445,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J46">
         <v>2.375</v>
@@ -4513,17 +4510,17 @@
         <v>7325465</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45218.60416666666</v>
       </c>
       <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
         <v>35</v>
       </c>
-      <c r="F47" t="s">
-        <v>36</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -4531,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J47">
         <v>2.3</v>
@@ -4599,16 +4596,16 @@
         <v>7325466</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45218.70833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4617,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J48">
         <v>3</v>
@@ -4685,16 +4682,16 @@
         <v>7325467</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45218.84375</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4703,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J49">
         <v>4.2</v>
@@ -4771,16 +4768,16 @@
         <v>7013854</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45220.79166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4789,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J50">
         <v>1.615</v>
@@ -4857,16 +4854,16 @@
         <v>7013855</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
         <v>37</v>
-      </c>
-      <c r="F51" t="s">
-        <v>38</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4875,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J51">
         <v>2.3</v>
@@ -4943,16 +4940,16 @@
         <v>7013692</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45221.66666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4961,7 +4958,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J52">
         <v>3.1</v>
@@ -5029,16 +5026,16 @@
         <v>7013891</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5047,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J53">
         <v>2.875</v>
@@ -5115,16 +5112,16 @@
         <v>7013393</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45222.70833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5133,7 +5130,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -5201,16 +5198,16 @@
         <v>7013394</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45222.84375</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5219,7 +5216,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J55">
         <v>1.4</v>
@@ -5287,16 +5284,16 @@
         <v>7013691</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45223.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5305,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5373,16 +5370,16 @@
         <v>7013856</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45223.8125</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5391,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5459,16 +5456,16 @@
         <v>7013858</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45233.79166666666</v>
       </c>
       <c r="E58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s">
         <v>38</v>
-      </c>
-      <c r="F58" t="s">
-        <v>39</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5477,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J58">
         <v>2.4</v>
@@ -5545,16 +5542,16 @@
         <v>7013857</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45234.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5563,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5631,16 +5628,16 @@
         <v>7013859</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45234.70833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5649,7 +5646,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J60">
         <v>2.45</v>
@@ -5717,16 +5714,16 @@
         <v>7013396</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5735,7 +5732,7 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J61">
         <v>3.75</v>
@@ -5803,16 +5800,16 @@
         <v>7013860</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5821,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J62">
         <v>2.05</v>
@@ -5889,16 +5886,16 @@
         <v>7013892</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5907,7 +5904,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J63">
         <v>3.4</v>
@@ -5975,16 +5972,16 @@
         <v>7013395</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5993,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J64">
         <v>1.75</v>
@@ -6061,16 +6058,16 @@
         <v>7013693</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6079,7 +6076,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6147,16 +6144,16 @@
         <v>7013397</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6165,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J66">
         <v>1.615</v>
@@ -6233,16 +6230,16 @@
         <v>7013893</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6251,7 +6248,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6319,16 +6316,16 @@
         <v>7013861</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45240.89583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6337,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6405,16 +6402,16 @@
         <v>7013694</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6423,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J69">
         <v>2.15</v>
@@ -6491,16 +6488,16 @@
         <v>7013398</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45241.6875</v>
       </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6509,7 +6506,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6577,16 +6574,16 @@
         <v>7013863</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45241.8125</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6595,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J71">
         <v>2.15</v>
@@ -6663,16 +6660,16 @@
         <v>7013862</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45242.6875</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6681,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6749,17 +6746,17 @@
         <v>7013864</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" t="s">
         <v>39</v>
       </c>
-      <c r="F73" t="s">
-        <v>40</v>
-      </c>
       <c r="G73">
         <v>0</v>
       </c>
@@ -6767,7 +6764,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J73">
         <v>2.625</v>
@@ -6835,16 +6832,16 @@
         <v>7013868</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45244.6875</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6853,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J74">
         <v>2.2</v>
@@ -6921,16 +6918,16 @@
         <v>7013411</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45244.79166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6939,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J75">
         <v>3.75</v>
@@ -7007,16 +7004,16 @@
         <v>7013695</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45244.89583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7025,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>1.4</v>
@@ -7093,16 +7090,16 @@
         <v>7013866</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45245.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7111,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J77">
         <v>3.8</v>
@@ -7179,16 +7176,16 @@
         <v>7013867</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45245.79166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7197,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7265,16 +7262,16 @@
         <v>7013399</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45245.89583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7283,7 +7280,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7351,16 +7348,16 @@
         <v>7013869</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45246.41666666666</v>
       </c>
       <c r="E80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" t="s">
         <v>36</v>
-      </c>
-      <c r="F80" t="s">
-        <v>37</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7369,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J80">
         <v>2.15</v>
@@ -7437,16 +7434,16 @@
         <v>7013865</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45246.6875</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7455,7 +7452,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J81">
         <v>2.15</v>
@@ -7523,16 +7520,16 @@
         <v>7013894</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45248.6875</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7541,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7609,16 +7606,16 @@
         <v>7013872</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45248.79166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7627,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7695,16 +7692,16 @@
         <v>7013401</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45249.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7713,7 +7710,7 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J84">
         <v>1.727</v>
@@ -7781,16 +7778,16 @@
         <v>7013696</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45249.6875</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7799,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J85">
         <v>3.3</v>
@@ -7867,16 +7864,16 @@
         <v>7013871</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45249.79166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7885,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -7953,16 +7950,16 @@
         <v>7013873</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45249.89583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7971,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8039,16 +8036,16 @@
         <v>7013400</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45250.6875</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8057,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J88">
         <v>3.5</v>
@@ -8125,16 +8122,16 @@
         <v>7013870</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45250.79166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8143,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J89">
         <v>1.8</v>
@@ -8211,16 +8208,16 @@
         <v>7013874</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8229,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J90">
         <v>2.1</v>
@@ -8297,16 +8294,16 @@
         <v>7013402</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45254.79166666666</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8315,7 +8312,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J91">
         <v>4</v>
@@ -8383,16 +8380,16 @@
         <v>7013705</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45254.89583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8401,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J92">
         <v>1.444</v>
@@ -8469,16 +8466,16 @@
         <v>7013876</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8487,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J93">
         <v>2.1</v>
@@ -8555,16 +8552,16 @@
         <v>7013697</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45255.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8573,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8641,16 +8638,16 @@
         <v>7013875</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45255.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8659,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8727,16 +8724,16 @@
         <v>7013877</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45256.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8745,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8813,16 +8810,16 @@
         <v>7013403</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45256.8125</v>
       </c>
       <c r="E97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8831,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J97">
         <v>1.444</v>
@@ -8899,16 +8896,16 @@
         <v>7013698</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45258.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8917,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J98">
         <v>4.333</v>
@@ -8985,16 +8982,16 @@
         <v>7013895</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45258.79166666666</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -9003,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9071,16 +9068,16 @@
         <v>7013880</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45258.88541666666</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G100">
         <v>5</v>
@@ -9089,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9157,16 +9154,16 @@
         <v>7013405</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45259.6875</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9175,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9243,16 +9240,16 @@
         <v>7013699</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45259.79166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9261,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J102">
         <v>2.875</v>
@@ -9329,16 +9326,16 @@
         <v>7013879</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45259.88541666666</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9347,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J103">
         <v>1.6</v>
@@ -9415,16 +9412,16 @@
         <v>7013878</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45260.72916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9433,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9501,16 +9498,16 @@
         <v>7528218</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45260.85416666666</v>
       </c>
       <c r="E105" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" t="s">
         <v>49</v>
-      </c>
-      <c r="F105" t="s">
-        <v>50</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9519,7 +9516,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J105">
         <v>4</v>
@@ -9587,16 +9584,16 @@
         <v>7013882</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9605,7 +9602,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9673,16 +9670,16 @@
         <v>7013883</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45262.6875</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9691,7 +9688,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J107">
         <v>2.5</v>
@@ -9759,16 +9756,16 @@
         <v>7013701</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45262.79166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9777,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J108">
         <v>1.533</v>
@@ -9845,16 +9842,16 @@
         <v>7013406</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45262.89583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9863,7 +9860,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J109">
         <v>3.3</v>
@@ -9931,16 +9928,16 @@
         <v>7013881</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9949,7 +9946,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -10017,16 +10014,16 @@
         <v>7013700</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45263.6875</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10035,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J111">
         <v>1.909</v>
@@ -10103,16 +10100,16 @@
         <v>7013896</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45264.70833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10121,7 +10118,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J112">
         <v>2.2</v>
@@ -10189,16 +10186,16 @@
         <v>7013407</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45264.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10207,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -10272,85 +10269,85 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J114">
+        <v>4.75</v>
+      </c>
+      <c r="K114">
+        <v>3.4</v>
+      </c>
+      <c r="L114">
         <v>1.7</v>
       </c>
-      <c r="K114">
-        <v>3</v>
-      </c>
-      <c r="L114">
-        <v>5.75</v>
-      </c>
       <c r="M114">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="N114">
         <v>3.2</v>
       </c>
       <c r="O114">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="P114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T114">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10358,85 +10355,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J115">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K115">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="M115">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N115">
         <v>3.2</v>
       </c>
       <c r="O115">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10447,16 +10444,16 @@
         <v>7559905</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45266.8125</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10465,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -10530,85 +10527,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013409</v>
+        <v>7013885</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="s">
         <v>54</v>
       </c>
       <c r="J117">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="K117">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="M117">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="N117">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O117">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="P117">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB117">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10619,16 +10616,16 @@
         <v>7013702</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10637,7 +10634,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J118">
         <v>1.8</v>
@@ -10702,16 +10699,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013885</v>
+        <v>7013886</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
         <v>37</v>
@@ -10720,46 +10717,46 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J119">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L119">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N119">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O119">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q119">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
         <v>2</v>
       </c>
       <c r="T119">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
         <v>-1</v>
@@ -10768,19 +10765,19 @@
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10788,85 +10785,85 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J120">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="K120">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M120">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N120">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P120">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q120">
+        <v>1.8</v>
+      </c>
+      <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
+        <v>2.75</v>
+      </c>
+      <c r="T120">
         <v>1.95</v>
       </c>
-      <c r="R120">
+      <c r="U120">
         <v>1.9</v>
       </c>
-      <c r="S120">
-        <v>2</v>
-      </c>
-      <c r="T120">
-        <v>1.925</v>
-      </c>
-      <c r="U120">
-        <v>1.925</v>
-      </c>
       <c r="V120">
         <v>-1</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X120">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
+        <v>1.05</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA120">
-        <v>-1</v>
-      </c>
-      <c r="AB120">
-        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10877,16 +10874,16 @@
         <v>7560164</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
         <v>45268.70833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10895,7 +10892,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10963,16 +10960,16 @@
         <v>7797510</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>45338.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10981,7 +10978,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J122">
         <v>1.6</v>
@@ -11049,16 +11046,16 @@
         <v>7797528</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>45339.70833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11067,7 +11064,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J123">
         <v>2.6</v>
@@ -11135,16 +11132,16 @@
         <v>7797532</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>45339.80208333334</v>
       </c>
       <c r="E124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11153,7 +11150,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J124">
         <v>2.5</v>
@@ -11221,16 +11218,16 @@
         <v>7797529</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11239,7 +11236,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J125">
         <v>2.3</v>
@@ -11307,16 +11304,16 @@
         <v>7797530</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E126" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" t="s">
         <v>38</v>
-      </c>
-      <c r="F126" t="s">
-        <v>39</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11325,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11393,16 +11390,16 @@
         <v>7796575</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>45340.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11411,7 +11408,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J127">
         <v>3.8</v>
@@ -11479,16 +11476,16 @@
         <v>7797533</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>45340.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11497,7 +11494,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J128">
         <v>5.25</v>
@@ -11565,16 +11562,16 @@
         <v>7825144</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -11583,7 +11580,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J129">
         <v>2.375</v>
@@ -11651,16 +11648,16 @@
         <v>7825145</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2">
         <v>45345.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11669,7 +11666,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J130">
         <v>2.5</v>
@@ -11737,17 +11734,17 @@
         <v>7825143</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E131" t="s">
+        <v>39</v>
+      </c>
+      <c r="F131" t="s">
         <v>40</v>
       </c>
-      <c r="F131" t="s">
-        <v>41</v>
-      </c>
       <c r="G131">
         <v>0</v>
       </c>
@@ -11755,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11823,16 +11820,16 @@
         <v>7825103</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>45346.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11841,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J132">
         <v>1.4</v>
@@ -11909,16 +11906,16 @@
         <v>7825146</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>45347.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11927,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J133">
         <v>2.625</v>
@@ -11995,16 +11992,16 @@
         <v>7825104</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D134" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12013,7 +12010,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J134">
         <v>2.875</v>
@@ -12081,16 +12078,16 @@
         <v>7825147</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
         <v>45347.8125</v>
       </c>
       <c r="E135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -12099,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12167,16 +12164,16 @@
         <v>7870599</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D136" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12185,7 +12182,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J136">
         <v>2.05</v>
@@ -12253,16 +12250,16 @@
         <v>7870600</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2">
         <v>45352.8125</v>
       </c>
       <c r="E137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12271,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J137">
         <v>2.875</v>
@@ -12339,16 +12336,16 @@
         <v>7870604</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12357,7 +12354,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J138">
         <v>3.75</v>
@@ -12425,16 +12422,16 @@
         <v>7870605</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
         <v>45353.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12443,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J139">
         <v>3.6</v>
@@ -12511,16 +12508,16 @@
         <v>7870606</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D140" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12529,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J140">
         <v>1.533</v>
@@ -12597,16 +12594,16 @@
         <v>7870601</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12615,7 +12612,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J141">
         <v>2.375</v>
@@ -12683,16 +12680,16 @@
         <v>7870602</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D142" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12701,7 +12698,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J142">
         <v>1.909</v>
@@ -12769,16 +12766,16 @@
         <v>7870603</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D143" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12787,7 +12784,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J143">
         <v>4</v>
@@ -12855,16 +12852,16 @@
         <v>7913218</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2">
         <v>45359.85416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12873,7 +12870,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J144">
         <v>2.625</v>
@@ -12941,16 +12938,16 @@
         <v>7913219</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>45360.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12959,7 +12956,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J145">
         <v>2.375</v>
@@ -13027,16 +13024,16 @@
         <v>7913223</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D146" s="2">
         <v>45360.8125</v>
       </c>
       <c r="E146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13045,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13113,16 +13110,16 @@
         <v>7913221</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D147" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13131,7 +13128,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13199,16 +13196,16 @@
         <v>7913222</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>45361.6875</v>
       </c>
       <c r="E148" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13217,7 +13214,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J148">
         <v>2.75</v>
@@ -13285,16 +13282,16 @@
         <v>7913220</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2">
         <v>45361.8125</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13303,7 +13300,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J149">
         <v>2.375</v>
@@ -13371,16 +13368,16 @@
         <v>7913224</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2">
         <v>45362.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13389,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J150">
         <v>1.909</v>
@@ -13457,16 +13454,16 @@
         <v>7913225</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D151" s="2">
         <v>45362.79166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13475,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13543,16 +13540,16 @@
         <v>7922351</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D152" s="2">
         <v>45366.8125</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13561,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J152">
         <v>3</v>
@@ -13629,16 +13626,16 @@
         <v>7922352</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D153" s="2">
         <v>45367.6875</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13647,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J153">
         <v>2.5</v>
@@ -13715,16 +13712,16 @@
         <v>7922353</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2">
         <v>45367.8125</v>
       </c>
       <c r="E154" t="s">
+        <v>46</v>
+      </c>
+      <c r="F154" t="s">
         <v>47</v>
-      </c>
-      <c r="F154" t="s">
-        <v>48</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13733,7 +13730,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J154">
         <v>4.5</v>
@@ -13801,16 +13798,16 @@
         <v>7990770</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D155" s="2">
         <v>45374.5625</v>
       </c>
       <c r="E155" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13819,7 +13816,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J155">
         <v>2.8</v>
@@ -13887,25 +13884,25 @@
         <v>7990771</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>45374.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F156" t="s">
+        <v>52</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
         <v>53</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156" t="s">
-        <v>54</v>
       </c>
       <c r="J156">
         <v>1.4</v>
@@ -13973,16 +13970,16 @@
         <v>7990728</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D157" s="2">
         <v>45374.875</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13991,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J157">
         <v>4.2</v>
@@ -14059,16 +14056,16 @@
         <v>7990772</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2">
         <v>45375.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14077,7 +14074,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14145,16 +14142,16 @@
         <v>7990776</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D159" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14163,7 +14160,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J159">
         <v>1.833</v>
@@ -14231,16 +14228,16 @@
         <v>8009735</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D160" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F160" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -14249,7 +14246,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14317,17 +14314,17 @@
         <v>7994681</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D161" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E161" t="s">
+        <v>45</v>
+      </c>
+      <c r="F161" t="s">
         <v>46</v>
       </c>
-      <c r="F161" t="s">
-        <v>47</v>
-      </c>
       <c r="G161">
         <v>0</v>
       </c>
@@ -14335,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J161">
         <v>2.3</v>
@@ -14403,16 +14400,16 @@
         <v>7994680</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14421,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14489,16 +14486,16 @@
         <v>7994520</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D163" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14507,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J163">
         <v>2.8</v>
@@ -14575,16 +14572,16 @@
         <v>7994682</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D164" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14593,7 +14590,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J164">
         <v>1.909</v>
@@ -14661,16 +14658,16 @@
         <v>7994684</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D165" s="2">
         <v>45381.79166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14679,7 +14676,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14747,16 +14744,16 @@
         <v>7995146</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D166" s="2">
         <v>45382.625</v>
       </c>
       <c r="E166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14765,7 +14762,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J166">
         <v>2.4</v>
@@ -14833,16 +14830,16 @@
         <v>7995141</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D167" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14851,7 +14848,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J167">
         <v>2.6</v>
@@ -14919,17 +14916,17 @@
         <v>7994683</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D168" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E168" t="s">
+        <v>38</v>
+      </c>
+      <c r="F168" t="s">
         <v>39</v>
       </c>
-      <c r="F168" t="s">
-        <v>40</v>
-      </c>
       <c r="G168">
         <v>0</v>
       </c>
@@ -14937,7 +14934,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -15005,16 +15002,16 @@
         <v>8014131</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D169" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15023,7 +15020,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J169">
         <v>2.875</v>
@@ -15091,16 +15088,16 @@
         <v>8014133</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D170" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15109,7 +15106,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15177,16 +15174,16 @@
         <v>8014044</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D171" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F171" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15195,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J171">
         <v>1.909</v>
@@ -15263,16 +15260,16 @@
         <v>8014043</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>45388.625</v>
       </c>
       <c r="E172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15281,7 +15278,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J172">
         <v>2.375</v>
@@ -15349,16 +15346,16 @@
         <v>8014089</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D173" s="2">
         <v>45388.75</v>
       </c>
       <c r="E173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15367,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J173">
         <v>1.5</v>
@@ -15435,16 +15432,16 @@
         <v>8014132</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15453,7 +15450,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J174">
         <v>2.2</v>
@@ -15521,16 +15518,16 @@
         <v>8014090</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D175" s="2">
         <v>45389.625</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15539,7 +15536,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15607,16 +15604,16 @@
         <v>8014091</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D176" s="2">
         <v>45389.75</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15625,7 +15622,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J176">
         <v>5</v>
@@ -15693,16 +15690,16 @@
         <v>8051184</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D177" s="2">
         <v>45395.625</v>
       </c>
       <c r="E177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15711,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J177">
         <v>2.375</v>
@@ -15779,16 +15776,16 @@
         <v>8051185</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D178" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15797,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J178">
         <v>2.375</v>
@@ -15865,16 +15862,16 @@
         <v>8051186</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D179" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15883,7 +15880,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J179">
         <v>2.3</v>
@@ -15951,16 +15948,16 @@
         <v>8051004</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D180" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15969,7 +15966,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J180">
         <v>3.2</v>
@@ -16037,16 +16034,16 @@
         <v>8051187</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D181" s="2">
         <v>45396.625</v>
       </c>
       <c r="E181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16055,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J181">
         <v>1.727</v>
@@ -16123,16 +16120,16 @@
         <v>8050911</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D182" s="2">
         <v>45396.75</v>
       </c>
       <c r="E182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16141,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16209,16 +16206,16 @@
         <v>8050912</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D183" s="2">
         <v>45398.75</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16227,7 +16224,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J183">
         <v>3.2</v>
@@ -16295,16 +16292,16 @@
         <v>8050913</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D184" s="2">
         <v>45398.85416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16313,7 +16310,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J184">
         <v>5</v>
@@ -16381,16 +16378,16 @@
         <v>8081163</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D185" s="2">
         <v>45401.5625</v>
       </c>
       <c r="E185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16399,7 +16396,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J185">
         <v>2.3</v>
@@ -16467,16 +16464,16 @@
         <v>8081435</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D186" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16485,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J186">
         <v>2.375</v>
@@ -16553,16 +16550,16 @@
         <v>8081162</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D187" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16571,7 +16568,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J187">
         <v>2.3</v>
@@ -16639,16 +16636,16 @@
         <v>8081144</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D188" s="2">
         <v>45402.625</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16657,7 +16654,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J188">
         <v>4.75</v>
@@ -16725,16 +16722,16 @@
         <v>8081249</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D189" s="2">
         <v>45402.75</v>
       </c>
       <c r="E189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F189" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G189">
         <v>6</v>
@@ -16743,7 +16740,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J189">
         <v>1.444</v>
@@ -16811,16 +16808,16 @@
         <v>8081250</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D190" s="2">
         <v>45402.85416666666</v>
       </c>
       <c r="E190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16829,7 +16826,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J190">
         <v>2.2</v>
@@ -16897,16 +16894,16 @@
         <v>8081251</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D191" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16915,7 +16912,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J191">
         <v>2.5</v>
@@ -16983,25 +16980,25 @@
         <v>8081885</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D192" s="2">
         <v>45403.64583333334</v>
       </c>
       <c r="E192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F192" t="s">
+        <v>52</v>
+      </c>
+      <c r="G192">
+        <v>2</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192" t="s">
         <v>53</v>
-      </c>
-      <c r="G192">
-        <v>2</v>
-      </c>
-      <c r="H192">
-        <v>2</v>
-      </c>
-      <c r="I192" t="s">
-        <v>54</v>
       </c>
       <c r="J192">
         <v>2.625</v>
@@ -17061,125 +17058,146 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:24">
+    <row r="193" spans="1:28">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="s">
-        <v>27</v>
+      <c r="B193">
+        <v>8110829</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D193" s="2">
-        <v>45409.52083333334</v>
+        <v>45406.625</v>
       </c>
       <c r="E193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
+        <v>55</v>
       </c>
       <c r="J193">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="K193">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L193">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="M193">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="N193">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O193">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="P193">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q193">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T193">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U193">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="W193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>1</v>
+      </c>
+      <c r="AB193">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C194" t="s">
+        <v>33</v>
+      </c>
+      <c r="D194" s="2">
+        <v>45409.52083333334</v>
+      </c>
+      <c r="E194" t="s">
+        <v>51</v>
+      </c>
+      <c r="F194" t="s">
         <v>34</v>
       </c>
-      <c r="D194" s="2">
-        <v>45409.54166666666</v>
-      </c>
-      <c r="E194" t="s">
-        <v>46</v>
-      </c>
-      <c r="F194" t="s">
-        <v>40</v>
-      </c>
       <c r="J194">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="K194">
+        <v>3.3</v>
+      </c>
+      <c r="L194">
+        <v>2.375</v>
+      </c>
+      <c r="M194">
         <v>3.2</v>
       </c>
-      <c r="L194">
-        <v>2.625</v>
-      </c>
-      <c r="M194">
-        <v>2.6</v>
-      </c>
       <c r="N194">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O194">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="P194">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q194">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S194">
         <v>2.25</v>
       </c>
       <c r="T194">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U194">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V194">
         <v>0</v>
@@ -17191,24 +17209,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:24">
+    <row r="195" spans="1:28">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D195" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J195">
         <v>3.2</v>
@@ -17220,31 +17238,31 @@
         <v>2.3</v>
       </c>
       <c r="M195">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N195">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O195">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="P195">
         <v>0.25</v>
       </c>
       <c r="Q195">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R195">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
         <v>2.25</v>
       </c>
       <c r="T195">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V195">
         <v>0</v>
@@ -17256,24 +17274,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:24">
+    <row r="196" spans="1:28">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D196" s="2">
         <v>45410.625</v>
       </c>
       <c r="E196" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J196">
         <v>2.9</v>
@@ -17306,10 +17324,10 @@
         <v>2.25</v>
       </c>
       <c r="T196">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V196">
         <v>0</v>
@@ -17321,24 +17339,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:24">
+    <row r="197" spans="1:28">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D197" s="2">
         <v>45410.75</v>
       </c>
       <c r="E197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F197" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J197">
         <v>5.5</v>
@@ -17350,22 +17368,22 @@
         <v>1.615</v>
       </c>
       <c r="M197">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N197">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O197">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="P197">
         <v>0.75</v>
       </c>
       <c r="Q197">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R197">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S197">
         <v>2.25</v>
@@ -17386,24 +17404,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:24">
+    <row r="198" spans="1:28">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D198" s="2">
         <v>45410.85416666666</v>
       </c>
       <c r="E198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J198">
         <v>1.615</v>
@@ -17418,7 +17436,7 @@
         <v>1.571</v>
       </c>
       <c r="N198">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O198">
         <v>6</v>
@@ -17427,10 +17445,10 @@
         <v>-1</v>
       </c>
       <c r="Q198">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R198">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
         <v>2.5</v>
@@ -17451,24 +17469,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:24">
+    <row r="199" spans="1:28">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D199" s="2">
         <v>45411.83333333334</v>
       </c>
       <c r="E199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J199">
         <v>1.333</v>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>8134007</t>
+  </si>
+  <si>
+    <t>8134008</t>
   </si>
   <si>
     <t>8105643</t>
@@ -543,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB199"/>
+  <dimension ref="A1:AB200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,16 +643,16 @@
         <v>7013887</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45156.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -658,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -726,16 +729,16 @@
         <v>7072453</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -812,16 +815,16 @@
         <v>7072454</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -830,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -898,16 +901,16 @@
         <v>7013681</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45157.64583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -916,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <v>5.25</v>
@@ -984,16 +987,16 @@
         <v>7013835</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45157.75</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1002,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1070,16 +1073,16 @@
         <v>7013832</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1088,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <v>1.8</v>
@@ -1156,16 +1159,16 @@
         <v>7072455</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1174,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1242,16 +1245,16 @@
         <v>7013383</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1260,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9">
         <v>2.55</v>
@@ -1328,16 +1331,16 @@
         <v>7013838</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1346,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1414,16 +1417,16 @@
         <v>7013837</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45163.75</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1432,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J11">
         <v>1.727</v>
@@ -1500,16 +1503,16 @@
         <v>7013888</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1518,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1586,16 +1589,16 @@
         <v>7013385</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45164.64583333334</v>
       </c>
       <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1604,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1672,16 +1675,16 @@
         <v>7013384</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45164.75</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1690,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1758,16 +1761,16 @@
         <v>7013836</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1776,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J15">
         <v>2.2</v>
@@ -1844,16 +1847,16 @@
         <v>7013839</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1862,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1930,16 +1933,16 @@
         <v>7013683</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1948,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2016,16 +2019,16 @@
         <v>7013843</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45170.79166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2034,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18">
         <v>2.45</v>
@@ -2102,16 +2105,16 @@
         <v>7013685</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2120,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2188,16 +2191,16 @@
         <v>7013684</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45171.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2206,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2274,16 +2277,16 @@
         <v>7140485</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2292,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2360,16 +2363,16 @@
         <v>7013386</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2378,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22">
         <v>3.2</v>
@@ -2446,16 +2449,16 @@
         <v>7013842</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45172.625</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2464,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2532,16 +2535,16 @@
         <v>7013410</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45172.75</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2550,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24">
         <v>1.3</v>
@@ -2618,16 +2621,16 @@
         <v>7013841</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45172.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2636,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2704,16 +2707,16 @@
         <v>7275170</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45204.83333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2722,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J26">
         <v>4.333</v>
@@ -2790,16 +2793,16 @@
         <v>7275516</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2808,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J27">
         <v>1.95</v>
@@ -2876,16 +2879,16 @@
         <v>7286102</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2894,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J28">
         <v>2.625</v>
@@ -2962,16 +2965,16 @@
         <v>7275171</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45206.625</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2980,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J29">
         <v>1.7</v>
@@ -3048,16 +3051,16 @@
         <v>7286047</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3066,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3134,16 +3137,16 @@
         <v>7286046</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3152,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J31">
         <v>3.4</v>
@@ -3220,16 +3223,16 @@
         <v>7286103</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3238,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J32">
         <v>2.375</v>
@@ -3306,16 +3309,16 @@
         <v>7275517</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45207.75</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3324,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J33">
         <v>2.625</v>
@@ -3392,16 +3395,16 @@
         <v>7322838</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45212.66666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3410,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J34">
         <v>1.909</v>
@@ -3478,17 +3481,17 @@
         <v>7322841</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45212.77083333334</v>
       </c>
       <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
         <v>43</v>
       </c>
-      <c r="F35" t="s">
-        <v>42</v>
-      </c>
       <c r="G35">
         <v>2</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J35">
         <v>1.909</v>
@@ -3564,16 +3567,16 @@
         <v>7322840</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45212.875</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3582,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J36">
         <v>4.333</v>
@@ -3650,16 +3653,16 @@
         <v>7322842</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45213.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3668,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3736,16 +3739,16 @@
         <v>7322837</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45213.6875</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3754,7 +3757,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3822,16 +3825,16 @@
         <v>7307799</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45213.79166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3840,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J39">
         <v>2.2</v>
@@ -3908,16 +3911,16 @@
         <v>7322839</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45214.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3926,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J40">
         <v>2.375</v>
@@ -3994,16 +3997,16 @@
         <v>7322836</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45214.77083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4012,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4080,16 +4083,16 @@
         <v>7325460</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45217.5</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4098,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4166,16 +4169,16 @@
         <v>7325461</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45217.60416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4184,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J43">
         <v>2.7</v>
@@ -4252,16 +4255,16 @@
         <v>7325462</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45217.70833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4270,7 +4273,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J44">
         <v>2.2</v>
@@ -4338,16 +4341,16 @@
         <v>7325463</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45217.8125</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4356,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4424,16 +4427,16 @@
         <v>7325464</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45218.5</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4442,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J46">
         <v>2.375</v>
@@ -4510,16 +4513,16 @@
         <v>7325465</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45218.60416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4528,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J47">
         <v>2.3</v>
@@ -4596,16 +4599,16 @@
         <v>7325466</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45218.70833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4614,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J48">
         <v>3</v>
@@ -4682,16 +4685,16 @@
         <v>7325467</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45218.84375</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4700,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J49">
         <v>4.2</v>
@@ -4768,16 +4771,16 @@
         <v>7013854</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45220.79166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4786,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J50">
         <v>1.615</v>
@@ -4854,16 +4857,16 @@
         <v>7013855</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4872,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J51">
         <v>2.3</v>
@@ -4940,16 +4943,16 @@
         <v>7013692</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45221.66666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4958,7 +4961,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J52">
         <v>3.1</v>
@@ -5026,16 +5029,16 @@
         <v>7013891</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5044,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J53">
         <v>2.875</v>
@@ -5112,16 +5115,16 @@
         <v>7013393</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45222.70833333334</v>
       </c>
       <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
         <v>42</v>
-      </c>
-      <c r="F54" t="s">
-        <v>41</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5130,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -5198,16 +5201,16 @@
         <v>7013394</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45222.84375</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5216,7 +5219,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J55">
         <v>1.4</v>
@@ -5284,16 +5287,16 @@
         <v>7013691</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45223.66666666666</v>
       </c>
       <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s">
         <v>40</v>
-      </c>
-      <c r="F56" t="s">
-        <v>39</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5302,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5370,16 +5373,16 @@
         <v>7013856</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45223.8125</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5388,7 +5391,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5456,16 +5459,16 @@
         <v>7013858</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45233.79166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5474,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J58">
         <v>2.4</v>
@@ -5542,16 +5545,16 @@
         <v>7013857</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45234.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5560,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5628,16 +5631,16 @@
         <v>7013859</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45234.70833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5646,7 +5649,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J60">
         <v>2.45</v>
@@ -5714,16 +5717,16 @@
         <v>7013396</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5732,7 +5735,7 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J61">
         <v>3.75</v>
@@ -5800,16 +5803,16 @@
         <v>7013860</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5818,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J62">
         <v>2.05</v>
@@ -5886,17 +5889,17 @@
         <v>7013892</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
         <v>44</v>
       </c>
-      <c r="F63" t="s">
-        <v>43</v>
-      </c>
       <c r="G63">
         <v>0</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J63">
         <v>3.4</v>
@@ -5972,16 +5975,16 @@
         <v>7013395</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5990,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J64">
         <v>1.75</v>
@@ -6058,16 +6061,16 @@
         <v>7013693</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6076,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6144,16 +6147,16 @@
         <v>7013397</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6162,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J66">
         <v>1.615</v>
@@ -6230,16 +6233,16 @@
         <v>7013893</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6248,7 +6251,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6316,16 +6319,16 @@
         <v>7013861</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45240.89583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6334,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6402,16 +6405,16 @@
         <v>7013694</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6420,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J69">
         <v>2.15</v>
@@ -6488,16 +6491,16 @@
         <v>7013398</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45241.6875</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6506,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6574,16 +6577,16 @@
         <v>7013863</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45241.8125</v>
       </c>
       <c r="E71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6592,7 +6595,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J71">
         <v>2.15</v>
@@ -6660,16 +6663,16 @@
         <v>7013862</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45242.6875</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6678,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6746,16 +6749,16 @@
         <v>7013864</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6764,7 +6767,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J73">
         <v>2.625</v>
@@ -6832,16 +6835,16 @@
         <v>7013868</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45244.6875</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6850,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J74">
         <v>2.2</v>
@@ -6918,16 +6921,16 @@
         <v>7013411</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45244.79166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6936,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J75">
         <v>3.75</v>
@@ -7004,16 +7007,16 @@
         <v>7013695</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45244.89583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7022,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J76">
         <v>1.4</v>
@@ -7090,16 +7093,16 @@
         <v>7013866</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45245.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7108,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J77">
         <v>3.8</v>
@@ -7176,16 +7179,16 @@
         <v>7013867</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45245.79166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7194,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7262,16 +7265,16 @@
         <v>7013399</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45245.89583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7280,7 +7283,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7348,16 +7351,16 @@
         <v>7013869</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45246.41666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7366,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J80">
         <v>2.15</v>
@@ -7434,16 +7437,16 @@
         <v>7013865</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45246.6875</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7452,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J81">
         <v>2.15</v>
@@ -7520,16 +7523,16 @@
         <v>7013894</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45248.6875</v>
       </c>
       <c r="E82" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" t="s">
         <v>45</v>
-      </c>
-      <c r="F82" t="s">
-        <v>44</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7538,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7606,16 +7609,16 @@
         <v>7013872</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45248.79166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7624,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7692,16 +7695,16 @@
         <v>7013401</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45249.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7710,7 +7713,7 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J84">
         <v>1.727</v>
@@ -7778,16 +7781,16 @@
         <v>7013696</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45249.6875</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7796,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J85">
         <v>3.3</v>
@@ -7864,16 +7867,16 @@
         <v>7013871</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45249.79166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7882,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -7950,16 +7953,16 @@
         <v>7013873</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45249.89583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7968,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8036,16 +8039,16 @@
         <v>7013400</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45250.6875</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8054,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J88">
         <v>3.5</v>
@@ -8122,16 +8125,16 @@
         <v>7013870</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45250.79166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8140,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J89">
         <v>1.8</v>
@@ -8208,16 +8211,16 @@
         <v>7013874</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8226,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J90">
         <v>2.1</v>
@@ -8294,16 +8297,16 @@
         <v>7013402</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45254.79166666666</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8312,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J91">
         <v>4</v>
@@ -8380,16 +8383,16 @@
         <v>7013705</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45254.89583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8398,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J92">
         <v>1.444</v>
@@ -8466,16 +8469,16 @@
         <v>7013876</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E93" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93" t="s">
         <v>46</v>
-      </c>
-      <c r="F93" t="s">
-        <v>45</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8484,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J93">
         <v>2.1</v>
@@ -8552,16 +8555,16 @@
         <v>7013697</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45255.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8570,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8638,16 +8641,16 @@
         <v>7013875</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45255.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8656,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8724,16 +8727,16 @@
         <v>7013877</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45256.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8742,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8810,16 +8813,16 @@
         <v>7013403</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45256.8125</v>
       </c>
       <c r="E97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8828,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J97">
         <v>1.444</v>
@@ -8896,16 +8899,16 @@
         <v>7013698</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45258.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8914,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J98">
         <v>4.333</v>
@@ -8982,16 +8985,16 @@
         <v>7013895</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45258.79166666666</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -9000,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9068,16 +9071,16 @@
         <v>7013880</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45258.88541666666</v>
       </c>
       <c r="E100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>5</v>
@@ -9086,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9154,16 +9157,16 @@
         <v>7013405</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45259.6875</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9172,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9240,16 +9243,16 @@
         <v>7013699</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45259.79166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9258,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J102">
         <v>2.875</v>
@@ -9326,16 +9329,16 @@
         <v>7013879</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45259.88541666666</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9344,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J103">
         <v>1.6</v>
@@ -9412,16 +9415,16 @@
         <v>7013878</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45260.72916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9430,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9498,16 +9501,16 @@
         <v>7528218</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45260.85416666666</v>
       </c>
       <c r="E105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9516,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J105">
         <v>4</v>
@@ -9584,16 +9587,16 @@
         <v>7013882</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9602,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9670,16 +9673,16 @@
         <v>7013883</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45262.6875</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9688,7 +9691,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J107">
         <v>2.5</v>
@@ -9756,16 +9759,16 @@
         <v>7013701</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45262.79166666666</v>
       </c>
       <c r="E108" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" t="s">
         <v>47</v>
-      </c>
-      <c r="F108" t="s">
-        <v>46</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9774,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J108">
         <v>1.533</v>
@@ -9842,16 +9845,16 @@
         <v>7013406</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45262.89583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9860,7 +9863,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J109">
         <v>3.3</v>
@@ -9928,16 +9931,16 @@
         <v>7013881</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9946,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -10014,16 +10017,16 @@
         <v>7013700</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45263.6875</v>
       </c>
       <c r="E111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10032,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J111">
         <v>1.909</v>
@@ -10100,16 +10103,16 @@
         <v>7013896</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45264.70833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10118,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J112">
         <v>2.2</v>
@@ -10186,16 +10189,16 @@
         <v>7013407</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45264.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10204,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -10269,85 +10272,85 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J114">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K114">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L114">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="M114">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N114">
         <v>3.2</v>
       </c>
       <c r="O114">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10355,85 +10358,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J115">
+        <v>4.75</v>
+      </c>
+      <c r="K115">
+        <v>3.4</v>
+      </c>
+      <c r="L115">
         <v>1.7</v>
       </c>
-      <c r="K115">
-        <v>3</v>
-      </c>
-      <c r="L115">
-        <v>5.75</v>
-      </c>
       <c r="M115">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="N115">
         <v>3.2</v>
       </c>
       <c r="O115">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="P115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10444,16 +10447,16 @@
         <v>7559905</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45266.8125</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10462,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -10530,16 +10533,16 @@
         <v>7013885</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10548,7 +10551,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J117">
         <v>3</v>
@@ -10613,64 +10616,64 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J118">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M118">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N118">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q118">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
         <v>-1</v>
@@ -10679,19 +10682,19 @@
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10699,64 +10702,64 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J119">
+        <v>1.8</v>
+      </c>
+      <c r="K119">
+        <v>3.6</v>
+      </c>
+      <c r="L119">
+        <v>4.2</v>
+      </c>
+      <c r="M119">
+        <v>1.8</v>
+      </c>
+      <c r="N119">
+        <v>3.6</v>
+      </c>
+      <c r="O119">
+        <v>4.2</v>
+      </c>
+      <c r="P119">
+        <v>-0.75</v>
+      </c>
+      <c r="Q119">
+        <v>2.05</v>
+      </c>
+      <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
         <v>2.25</v>
       </c>
-      <c r="K119">
-        <v>3.1</v>
-      </c>
-      <c r="L119">
-        <v>3.25</v>
-      </c>
-      <c r="M119">
-        <v>2.25</v>
-      </c>
-      <c r="N119">
-        <v>2.875</v>
-      </c>
-      <c r="O119">
-        <v>3.5</v>
-      </c>
-      <c r="P119">
-        <v>-0.25</v>
-      </c>
-      <c r="Q119">
-        <v>1.95</v>
-      </c>
-      <c r="R119">
-        <v>1.9</v>
-      </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
       <c r="T119">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V119">
         <v>-1</v>
@@ -10765,19 +10768,19 @@
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10788,16 +10791,16 @@
         <v>7013409</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10806,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J120">
         <v>1.666</v>
@@ -10874,16 +10877,16 @@
         <v>7560164</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45268.70833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10892,7 +10895,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10960,16 +10963,16 @@
         <v>7797510</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45338.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10978,7 +10981,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J122">
         <v>1.6</v>
@@ -11046,16 +11049,16 @@
         <v>7797528</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45339.70833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11064,7 +11067,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J123">
         <v>2.6</v>
@@ -11132,16 +11135,16 @@
         <v>7797532</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45339.80208333334</v>
       </c>
       <c r="E124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11150,7 +11153,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J124">
         <v>2.5</v>
@@ -11218,16 +11221,16 @@
         <v>7797529</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11236,7 +11239,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J125">
         <v>2.3</v>
@@ -11304,16 +11307,16 @@
         <v>7797530</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11322,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11390,16 +11393,16 @@
         <v>7796575</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45340.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11408,7 +11411,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J127">
         <v>3.8</v>
@@ -11476,16 +11479,16 @@
         <v>7797533</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45340.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11494,7 +11497,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J128">
         <v>5.25</v>
@@ -11562,16 +11565,16 @@
         <v>7825144</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E129" t="s">
+        <v>36</v>
+      </c>
+      <c r="F129" t="s">
         <v>35</v>
-      </c>
-      <c r="F129" t="s">
-        <v>34</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -11580,7 +11583,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J129">
         <v>2.375</v>
@@ -11648,16 +11651,16 @@
         <v>7825145</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45345.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11666,7 +11669,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J130">
         <v>2.5</v>
@@ -11734,16 +11737,16 @@
         <v>7825143</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11752,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11820,16 +11823,16 @@
         <v>7825103</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45346.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11838,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J132">
         <v>1.4</v>
@@ -11906,16 +11909,16 @@
         <v>7825146</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45347.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11924,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J133">
         <v>2.625</v>
@@ -11992,16 +11995,16 @@
         <v>7825104</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12010,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J134">
         <v>2.875</v>
@@ -12078,16 +12081,16 @@
         <v>7825147</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45347.8125</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -12096,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12164,16 +12167,16 @@
         <v>7870599</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12182,7 +12185,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J136">
         <v>2.05</v>
@@ -12250,16 +12253,16 @@
         <v>7870600</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45352.8125</v>
       </c>
       <c r="E137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12268,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J137">
         <v>2.875</v>
@@ -12336,16 +12339,16 @@
         <v>7870604</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12354,7 +12357,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J138">
         <v>3.75</v>
@@ -12422,16 +12425,16 @@
         <v>7870605</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45353.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12440,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J139">
         <v>3.6</v>
@@ -12508,16 +12511,16 @@
         <v>7870606</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12526,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J140">
         <v>1.533</v>
@@ -12594,16 +12597,16 @@
         <v>7870601</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12612,7 +12615,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J141">
         <v>2.375</v>
@@ -12680,16 +12683,16 @@
         <v>7870602</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12698,7 +12701,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J142">
         <v>1.909</v>
@@ -12766,16 +12769,16 @@
         <v>7870603</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12784,7 +12787,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J143">
         <v>4</v>
@@ -12852,16 +12855,16 @@
         <v>7913218</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45359.85416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12870,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J144">
         <v>2.625</v>
@@ -12938,16 +12941,16 @@
         <v>7913219</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45360.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12956,7 +12959,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J145">
         <v>2.375</v>
@@ -13024,16 +13027,16 @@
         <v>7913223</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45360.8125</v>
       </c>
       <c r="E146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13042,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13110,16 +13113,16 @@
         <v>7913221</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E147" t="s">
+        <v>42</v>
+      </c>
+      <c r="F147" t="s">
         <v>41</v>
-      </c>
-      <c r="F147" t="s">
-        <v>40</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13128,7 +13131,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13196,16 +13199,16 @@
         <v>7913222</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45361.6875</v>
       </c>
       <c r="E148" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13214,7 +13217,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J148">
         <v>2.75</v>
@@ -13282,16 +13285,16 @@
         <v>7913220</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45361.8125</v>
       </c>
       <c r="E149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13300,7 +13303,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J149">
         <v>2.375</v>
@@ -13368,16 +13371,16 @@
         <v>7913224</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45362.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13386,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J150">
         <v>1.909</v>
@@ -13454,16 +13457,16 @@
         <v>7913225</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45362.79166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13472,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13540,16 +13543,16 @@
         <v>7922351</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45366.8125</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13558,7 +13561,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J152">
         <v>3</v>
@@ -13626,17 +13629,17 @@
         <v>7922352</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45367.6875</v>
       </c>
       <c r="E153" t="s">
+        <v>37</v>
+      </c>
+      <c r="F153" t="s">
         <v>36</v>
       </c>
-      <c r="F153" t="s">
-        <v>35</v>
-      </c>
       <c r="G153">
         <v>0</v>
       </c>
@@ -13644,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J153">
         <v>2.5</v>
@@ -13712,16 +13715,16 @@
         <v>7922353</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45367.8125</v>
       </c>
       <c r="E154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13730,7 +13733,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J154">
         <v>4.5</v>
@@ -13798,16 +13801,16 @@
         <v>7990770</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45374.5625</v>
       </c>
       <c r="E155" t="s">
+        <v>52</v>
+      </c>
+      <c r="F155" t="s">
         <v>51</v>
-      </c>
-      <c r="F155" t="s">
-        <v>50</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13816,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J155">
         <v>2.8</v>
@@ -13884,16 +13887,16 @@
         <v>7990771</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45374.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13902,7 +13905,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J156">
         <v>1.4</v>
@@ -13970,16 +13973,16 @@
         <v>7990728</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45374.875</v>
       </c>
       <c r="E157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13988,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J157">
         <v>4.2</v>
@@ -14056,16 +14059,16 @@
         <v>7990772</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45375.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14074,7 +14077,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14142,16 +14145,16 @@
         <v>7990776</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14160,7 +14163,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J159">
         <v>1.833</v>
@@ -14228,16 +14231,16 @@
         <v>8009735</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E160" t="s">
+        <v>53</v>
+      </c>
+      <c r="F160" t="s">
         <v>52</v>
-      </c>
-      <c r="F160" t="s">
-        <v>51</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -14246,7 +14249,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14314,16 +14317,16 @@
         <v>7994681</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14332,7 +14335,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J161">
         <v>2.3</v>
@@ -14400,16 +14403,16 @@
         <v>7994680</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14418,7 +14421,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14486,16 +14489,16 @@
         <v>7994520</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14504,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J163">
         <v>2.8</v>
@@ -14572,16 +14575,16 @@
         <v>7994682</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14590,7 +14593,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J164">
         <v>1.909</v>
@@ -14658,16 +14661,16 @@
         <v>7994684</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45381.79166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14676,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14744,16 +14747,16 @@
         <v>7995146</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45382.625</v>
       </c>
       <c r="E166" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14762,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J166">
         <v>2.4</v>
@@ -14830,16 +14833,16 @@
         <v>7995141</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14848,7 +14851,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J167">
         <v>2.6</v>
@@ -14916,16 +14919,16 @@
         <v>7994683</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14934,7 +14937,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -15002,16 +15005,16 @@
         <v>8014131</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15020,7 +15023,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J169">
         <v>2.875</v>
@@ -15088,16 +15091,16 @@
         <v>8014133</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15106,7 +15109,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15174,16 +15177,16 @@
         <v>8014044</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F171" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15192,7 +15195,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J171">
         <v>1.909</v>
@@ -15260,16 +15263,16 @@
         <v>8014043</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45388.625</v>
       </c>
       <c r="E172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F172" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15278,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J172">
         <v>2.375</v>
@@ -15346,16 +15349,16 @@
         <v>8014089</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45388.75</v>
       </c>
       <c r="E173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15364,7 +15367,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J173">
         <v>1.5</v>
@@ -15432,16 +15435,16 @@
         <v>8014132</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15450,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J174">
         <v>2.2</v>
@@ -15518,16 +15521,16 @@
         <v>8014090</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45389.625</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15536,7 +15539,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15604,16 +15607,16 @@
         <v>8014091</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45389.75</v>
       </c>
       <c r="E176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15622,7 +15625,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J176">
         <v>5</v>
@@ -15690,16 +15693,16 @@
         <v>8051184</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45395.625</v>
       </c>
       <c r="E177" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15708,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J177">
         <v>2.375</v>
@@ -15776,17 +15779,17 @@
         <v>8051185</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" t="s">
         <v>37</v>
       </c>
-      <c r="F178" t="s">
-        <v>36</v>
-      </c>
       <c r="G178">
         <v>0</v>
       </c>
@@ -15794,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J178">
         <v>2.375</v>
@@ -15862,16 +15865,16 @@
         <v>8051186</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15880,7 +15883,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J179">
         <v>2.3</v>
@@ -15948,16 +15951,16 @@
         <v>8051004</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15966,7 +15969,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J180">
         <v>3.2</v>
@@ -16034,16 +16037,16 @@
         <v>8051187</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45396.625</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16052,7 +16055,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J181">
         <v>1.727</v>
@@ -16120,16 +16123,16 @@
         <v>8050911</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45396.75</v>
       </c>
       <c r="E182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16138,7 +16141,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16206,16 +16209,16 @@
         <v>8050912</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45398.75</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16224,7 +16227,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J183">
         <v>3.2</v>
@@ -16292,16 +16295,16 @@
         <v>8050913</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45398.85416666666</v>
       </c>
       <c r="E184" t="s">
+        <v>51</v>
+      </c>
+      <c r="F184" t="s">
         <v>50</v>
-      </c>
-      <c r="F184" t="s">
-        <v>49</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16310,7 +16313,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J184">
         <v>5</v>
@@ -16378,16 +16381,16 @@
         <v>8081163</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45401.5625</v>
       </c>
       <c r="E185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16396,7 +16399,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J185">
         <v>2.3</v>
@@ -16464,16 +16467,16 @@
         <v>8081435</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16482,7 +16485,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J186">
         <v>2.375</v>
@@ -16550,16 +16553,16 @@
         <v>8081162</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16568,7 +16571,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J187">
         <v>2.3</v>
@@ -16636,16 +16639,16 @@
         <v>8081144</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45402.625</v>
       </c>
       <c r="E188" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16654,7 +16657,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J188">
         <v>4.75</v>
@@ -16722,16 +16725,16 @@
         <v>8081249</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45402.75</v>
       </c>
       <c r="E189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F189" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G189">
         <v>6</v>
@@ -16740,7 +16743,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J189">
         <v>1.444</v>
@@ -16808,16 +16811,16 @@
         <v>8081250</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45402.85416666666</v>
       </c>
       <c r="E190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16826,7 +16829,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J190">
         <v>2.2</v>
@@ -16894,16 +16897,16 @@
         <v>8081251</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E191" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F191" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16912,7 +16915,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J191">
         <v>2.5</v>
@@ -16980,16 +16983,16 @@
         <v>8081885</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45403.64583333334</v>
       </c>
       <c r="E192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F192" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16998,7 +17001,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J192">
         <v>2.625</v>
@@ -17066,16 +17069,16 @@
         <v>8110829</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45406.625</v>
       </c>
       <c r="E193" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17084,7 +17087,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J193">
         <v>5</v>
@@ -17152,16 +17155,16 @@
         <v>27</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45409.52083333334</v>
       </c>
       <c r="E194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J194">
         <v>2.875</v>
@@ -17217,52 +17220,52 @@
         <v>28</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
-        <v>45410.41666666666</v>
+        <v>45409.625</v>
       </c>
       <c r="E195" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F195" t="s">
         <v>40</v>
       </c>
       <c r="J195">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K195">
         <v>3.2</v>
       </c>
       <c r="L195">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="M195">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="N195">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O195">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="P195">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q195">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S195">
         <v>2.25</v>
       </c>
       <c r="T195">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="U195">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V195">
         <v>0</v>
@@ -17282,52 +17285,52 @@
         <v>29</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
-        <v>45410.625</v>
+        <v>45410.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F196" t="s">
         <v>41</v>
       </c>
       <c r="J196">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K196">
+        <v>3.2</v>
+      </c>
+      <c r="L196">
+        <v>2.3</v>
+      </c>
+      <c r="M196">
         <v>3.3</v>
       </c>
-      <c r="L196">
-        <v>2.375</v>
-      </c>
-      <c r="M196">
-        <v>2.5</v>
-      </c>
       <c r="N196">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O196">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="P196">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q196">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R196">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S196">
         <v>2.25</v>
       </c>
       <c r="T196">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U196">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V196">
         <v>0</v>
@@ -17347,43 +17350,43 @@
         <v>30</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
-        <v>45410.75</v>
+        <v>45410.625</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F197" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J197">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="K197">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L197">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="M197">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N197">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O197">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="P197">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q197">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R197">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S197">
         <v>2.25</v>
@@ -17412,52 +17415,52 @@
         <v>31</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
-        <v>45410.85416666666</v>
+        <v>45410.75</v>
       </c>
       <c r="E198" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J198">
-        <v>1.615</v>
+        <v>5.5</v>
       </c>
       <c r="K198">
         <v>3.75</v>
       </c>
       <c r="L198">
-        <v>5.5</v>
+        <v>1.615</v>
       </c>
       <c r="M198">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="N198">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O198">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="P198">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q198">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T198">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
         <v>0</v>
@@ -17477,60 +17480,125 @@
         <v>32</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
-        <v>45411.83333333334</v>
+        <v>45410.85416666666</v>
       </c>
       <c r="E199" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J199">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="K199">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L199">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="M199">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="N199">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O199">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="P199">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q199">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R199">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
         <v>2.5</v>
       </c>
       <c r="T199">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U199">
+        <v>1.825</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>33</v>
+      </c>
+      <c r="C200" t="s">
+        <v>34</v>
+      </c>
+      <c r="D200" s="2">
+        <v>45411.83333333334</v>
+      </c>
+      <c r="E200" t="s">
+        <v>48</v>
+      </c>
+      <c r="F200" t="s">
+        <v>36</v>
+      </c>
+      <c r="J200">
+        <v>1.333</v>
+      </c>
+      <c r="K200">
+        <v>5</v>
+      </c>
+      <c r="L200">
+        <v>9</v>
+      </c>
+      <c r="M200">
+        <v>1.4</v>
+      </c>
+      <c r="N200">
+        <v>4.75</v>
+      </c>
+      <c r="O200">
+        <v>7.5</v>
+      </c>
+      <c r="P200">
+        <v>-1.25</v>
+      </c>
+      <c r="Q200">
+        <v>1.925</v>
+      </c>
+      <c r="R200">
+        <v>1.925</v>
+      </c>
+      <c r="S200">
+        <v>2.5</v>
+      </c>
+      <c r="T200">
+        <v>2</v>
+      </c>
+      <c r="U200">
         <v>1.85</v>
       </c>
-      <c r="V199">
-        <v>0</v>
-      </c>
-      <c r="W199">
-        <v>0</v>
-      </c>
-      <c r="X199">
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -97,15 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8134007</t>
-  </si>
-  <si>
-    <t>8134008</t>
-  </si>
-  <si>
-    <t>8105643</t>
-  </si>
-  <si>
     <t>8105495</t>
   </si>
   <si>
@@ -113,6 +104,9 @@
   </si>
   <si>
     <t>8105645</t>
+  </si>
+  <si>
+    <t>8105646</t>
   </si>
   <si>
     <t>8105807</t>
@@ -546,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB200"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,16 +637,16 @@
         <v>7013887</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45156.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -661,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -729,16 +723,16 @@
         <v>7072453</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -747,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -815,16 +809,16 @@
         <v>7072454</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -833,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -901,16 +895,16 @@
         <v>7013681</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45157.64583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -919,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>5.25</v>
@@ -987,16 +981,16 @@
         <v>7013835</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45157.75</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1005,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1073,16 +1067,16 @@
         <v>7013832</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1091,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <v>1.8</v>
@@ -1159,16 +1153,16 @@
         <v>7072455</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1177,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1245,16 +1239,16 @@
         <v>7013383</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1263,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>2.55</v>
@@ -1331,16 +1325,16 @@
         <v>7013838</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1349,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1417,16 +1411,16 @@
         <v>7013837</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45163.75</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1435,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J11">
         <v>1.727</v>
@@ -1503,16 +1497,16 @@
         <v>7013888</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1521,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1589,16 +1583,16 @@
         <v>7013385</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45164.64583333334</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1607,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1675,16 +1669,16 @@
         <v>7013384</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45164.75</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1693,7 +1687,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1761,16 +1755,16 @@
         <v>7013836</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
         <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1779,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J15">
         <v>2.2</v>
@@ -1847,16 +1841,16 @@
         <v>7013839</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1865,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1933,16 +1927,16 @@
         <v>7013683</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1951,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2019,16 +2013,16 @@
         <v>7013843</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45170.79166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2037,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J18">
         <v>2.45</v>
@@ -2105,16 +2099,16 @@
         <v>7013685</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2123,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2191,16 +2185,16 @@
         <v>7013684</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45171.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2209,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2277,16 +2271,16 @@
         <v>7140485</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2295,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2363,16 +2357,16 @@
         <v>7013386</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2381,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J22">
         <v>3.2</v>
@@ -2449,16 +2443,16 @@
         <v>7013842</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45172.625</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2467,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2535,16 +2529,16 @@
         <v>7013410</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45172.75</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2553,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>1.3</v>
@@ -2621,16 +2615,16 @@
         <v>7013841</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45172.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2639,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2707,16 +2701,16 @@
         <v>7275170</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45204.83333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2725,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <v>4.333</v>
@@ -2793,16 +2787,16 @@
         <v>7275516</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2811,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J27">
         <v>1.95</v>
@@ -2879,16 +2873,16 @@
         <v>7286102</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2897,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J28">
         <v>2.625</v>
@@ -2965,16 +2959,16 @@
         <v>7275171</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45206.625</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2983,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J29">
         <v>1.7</v>
@@ -3051,16 +3045,16 @@
         <v>7286047</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3069,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3137,16 +3131,16 @@
         <v>7286046</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3155,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J31">
         <v>3.4</v>
@@ -3223,16 +3217,16 @@
         <v>7286103</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3241,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J32">
         <v>2.375</v>
@@ -3309,16 +3303,16 @@
         <v>7275517</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45207.75</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3327,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J33">
         <v>2.625</v>
@@ -3395,16 +3389,16 @@
         <v>7322838</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45212.66666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3413,7 +3407,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J34">
         <v>1.909</v>
@@ -3481,16 +3475,16 @@
         <v>7322841</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45212.77083333334</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3499,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J35">
         <v>1.909</v>
@@ -3567,16 +3561,16 @@
         <v>7322840</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45212.875</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3585,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J36">
         <v>4.333</v>
@@ -3653,16 +3647,16 @@
         <v>7322842</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45213.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3671,7 +3665,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3739,16 +3733,16 @@
         <v>7322837</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45213.6875</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3757,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3825,16 +3819,16 @@
         <v>7307799</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45213.79166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3843,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J39">
         <v>2.2</v>
@@ -3911,16 +3905,16 @@
         <v>7322839</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45214.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3929,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J40">
         <v>2.375</v>
@@ -3997,16 +3991,16 @@
         <v>7322836</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45214.77083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4015,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4083,17 +4077,17 @@
         <v>7325460</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45217.5</v>
       </c>
       <c r="E42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s">
         <v>42</v>
       </c>
-      <c r="F42" t="s">
-        <v>44</v>
-      </c>
       <c r="G42">
         <v>2</v>
       </c>
@@ -4101,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4169,16 +4163,16 @@
         <v>7325461</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45217.60416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4187,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J43">
         <v>2.7</v>
@@ -4255,16 +4249,16 @@
         <v>7325462</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45217.70833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4273,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J44">
         <v>2.2</v>
@@ -4341,16 +4335,16 @@
         <v>7325463</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45217.8125</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4359,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4427,16 +4421,16 @@
         <v>7325464</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45218.5</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4445,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J46">
         <v>2.375</v>
@@ -4513,16 +4507,16 @@
         <v>7325465</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45218.60416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4531,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J47">
         <v>2.3</v>
@@ -4599,16 +4593,16 @@
         <v>7325466</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45218.70833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4617,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J48">
         <v>3</v>
@@ -4685,16 +4679,16 @@
         <v>7325467</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45218.84375</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4703,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J49">
         <v>4.2</v>
@@ -4771,17 +4765,17 @@
         <v>7013854</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45220.79166666666</v>
       </c>
       <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
         <v>44</v>
       </c>
-      <c r="F50" t="s">
-        <v>46</v>
-      </c>
       <c r="G50">
         <v>2</v>
       </c>
@@ -4789,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J50">
         <v>1.615</v>
@@ -4857,16 +4851,16 @@
         <v>7013855</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4875,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J51">
         <v>2.3</v>
@@ -4943,16 +4937,16 @@
         <v>7013692</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45221.66666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4961,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J52">
         <v>3.1</v>
@@ -5029,16 +5023,16 @@
         <v>7013891</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5047,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>2.875</v>
@@ -5115,16 +5109,16 @@
         <v>7013393</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45222.70833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5133,7 +5127,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -5201,16 +5195,16 @@
         <v>7013394</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45222.84375</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5219,7 +5213,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J55">
         <v>1.4</v>
@@ -5287,16 +5281,16 @@
         <v>7013691</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45223.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5305,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5373,16 +5367,16 @@
         <v>7013856</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45223.8125</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5391,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5459,16 +5453,16 @@
         <v>7013858</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45233.79166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5477,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J58">
         <v>2.4</v>
@@ -5545,16 +5539,16 @@
         <v>7013857</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45234.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5563,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5631,16 +5625,16 @@
         <v>7013859</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45234.70833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5649,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J60">
         <v>2.45</v>
@@ -5717,16 +5711,16 @@
         <v>7013396</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5735,7 +5729,7 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J61">
         <v>3.75</v>
@@ -5803,16 +5797,16 @@
         <v>7013860</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" t="s">
         <v>47</v>
-      </c>
-      <c r="F62" t="s">
-        <v>49</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5821,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J62">
         <v>2.05</v>
@@ -5889,16 +5883,16 @@
         <v>7013892</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5907,7 +5901,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J63">
         <v>3.4</v>
@@ -5975,16 +5969,16 @@
         <v>7013395</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5993,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J64">
         <v>1.75</v>
@@ -6061,16 +6055,16 @@
         <v>7013693</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6079,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6147,16 +6141,16 @@
         <v>7013397</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6165,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J66">
         <v>1.615</v>
@@ -6233,17 +6227,17 @@
         <v>7013893</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s">
         <v>43</v>
       </c>
-      <c r="F67" t="s">
-        <v>45</v>
-      </c>
       <c r="G67">
         <v>2</v>
       </c>
@@ -6251,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6319,16 +6313,16 @@
         <v>7013861</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45240.89583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6337,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6405,16 +6399,16 @@
         <v>7013694</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6423,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J69">
         <v>2.15</v>
@@ -6491,16 +6485,16 @@
         <v>7013398</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45241.6875</v>
       </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6509,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6577,16 +6571,16 @@
         <v>7013863</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45241.8125</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6595,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J71">
         <v>2.15</v>
@@ -6663,16 +6657,16 @@
         <v>7013862</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45242.6875</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6681,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6749,16 +6743,16 @@
         <v>7013864</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6767,7 +6761,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J73">
         <v>2.625</v>
@@ -6835,16 +6829,16 @@
         <v>7013868</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45244.6875</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6853,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J74">
         <v>2.2</v>
@@ -6921,16 +6915,16 @@
         <v>7013411</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45244.79166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6939,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>3.75</v>
@@ -7007,16 +7001,16 @@
         <v>7013695</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45244.89583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7025,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J76">
         <v>1.4</v>
@@ -7093,16 +7087,16 @@
         <v>7013866</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45245.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7111,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <v>3.8</v>
@@ -7179,16 +7173,16 @@
         <v>7013867</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45245.79166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7197,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7265,16 +7259,16 @@
         <v>7013399</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45245.89583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7283,7 +7277,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7351,16 +7345,16 @@
         <v>7013869</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45246.41666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7369,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <v>2.15</v>
@@ -7437,16 +7431,16 @@
         <v>7013865</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45246.6875</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7455,7 +7449,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J81">
         <v>2.15</v>
@@ -7523,16 +7517,16 @@
         <v>7013894</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45248.6875</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7541,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7609,16 +7603,16 @@
         <v>7013872</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45248.79166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7627,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7695,16 +7689,16 @@
         <v>7013401</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45249.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7713,7 +7707,7 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J84">
         <v>1.727</v>
@@ -7781,16 +7775,16 @@
         <v>7013696</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45249.6875</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7799,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J85">
         <v>3.3</v>
@@ -7867,16 +7861,16 @@
         <v>7013871</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45249.79166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7885,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -7953,16 +7947,16 @@
         <v>7013873</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45249.89583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7971,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8039,16 +8033,16 @@
         <v>7013400</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45250.6875</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8057,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J88">
         <v>3.5</v>
@@ -8125,16 +8119,16 @@
         <v>7013870</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45250.79166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8143,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J89">
         <v>1.8</v>
@@ -8211,16 +8205,16 @@
         <v>7013874</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8229,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J90">
         <v>2.1</v>
@@ -8297,16 +8291,16 @@
         <v>7013402</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45254.79166666666</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8315,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J91">
         <v>4</v>
@@ -8383,16 +8377,16 @@
         <v>7013705</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45254.89583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8401,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J92">
         <v>1.444</v>
@@ -8469,16 +8463,16 @@
         <v>7013876</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8487,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J93">
         <v>2.1</v>
@@ -8555,16 +8549,16 @@
         <v>7013697</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45255.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8573,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8641,16 +8635,16 @@
         <v>7013875</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45255.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8659,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8727,16 +8721,16 @@
         <v>7013877</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45256.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8745,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8813,16 +8807,16 @@
         <v>7013403</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45256.8125</v>
       </c>
       <c r="E97" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8831,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J97">
         <v>1.444</v>
@@ -8899,16 +8893,16 @@
         <v>7013698</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45258.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8917,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J98">
         <v>4.333</v>
@@ -8985,16 +8979,16 @@
         <v>7013895</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45258.79166666666</v>
       </c>
       <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
         <v>45</v>
-      </c>
-      <c r="F99" t="s">
-        <v>47</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -9003,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9071,16 +9065,16 @@
         <v>7013880</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45258.88541666666</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G100">
         <v>5</v>
@@ -9089,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9157,16 +9151,16 @@
         <v>7013405</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45259.6875</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9175,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9243,16 +9237,16 @@
         <v>7013699</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45259.79166666666</v>
       </c>
       <c r="E102" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" t="s">
         <v>39</v>
-      </c>
-      <c r="F102" t="s">
-        <v>41</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9261,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J102">
         <v>2.875</v>
@@ -9329,16 +9323,16 @@
         <v>7013879</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45259.88541666666</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9347,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J103">
         <v>1.6</v>
@@ -9415,16 +9409,16 @@
         <v>7013878</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45260.72916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9433,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9501,16 +9495,16 @@
         <v>7528218</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45260.85416666666</v>
       </c>
       <c r="E105" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9519,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J105">
         <v>4</v>
@@ -9587,16 +9581,16 @@
         <v>7013882</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E106" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" t="s">
         <v>37</v>
-      </c>
-      <c r="F106" t="s">
-        <v>39</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9605,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9673,16 +9667,16 @@
         <v>7013883</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45262.6875</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9691,7 +9685,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J107">
         <v>2.5</v>
@@ -9759,16 +9753,16 @@
         <v>7013701</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45262.79166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9777,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J108">
         <v>1.533</v>
@@ -9845,16 +9839,16 @@
         <v>7013406</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45262.89583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9863,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J109">
         <v>3.3</v>
@@ -9931,16 +9925,16 @@
         <v>7013881</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9949,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -10017,16 +10011,16 @@
         <v>7013700</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45263.6875</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10035,7 +10029,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J111">
         <v>1.909</v>
@@ -10103,16 +10097,16 @@
         <v>7013896</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45264.70833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10121,7 +10115,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J112">
         <v>2.2</v>
@@ -10189,16 +10183,16 @@
         <v>7013407</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45264.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10207,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -10275,16 +10269,16 @@
         <v>7559468</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10293,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J114">
         <v>1.7</v>
@@ -10361,16 +10355,16 @@
         <v>7559469</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10379,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J115">
         <v>4.75</v>
@@ -10447,16 +10441,16 @@
         <v>7559905</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45266.8125</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10465,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -10533,16 +10527,16 @@
         <v>7013885</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10551,7 +10545,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J117">
         <v>3</v>
@@ -10616,85 +10610,85 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J118">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="L118">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M118">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N118">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P118">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q118">
+        <v>1.8</v>
+      </c>
+      <c r="R118">
+        <v>2.05</v>
+      </c>
+      <c r="S118">
+        <v>2.75</v>
+      </c>
+      <c r="T118">
         <v>1.95</v>
       </c>
-      <c r="R118">
+      <c r="U118">
         <v>1.9</v>
       </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>1.925</v>
-      </c>
-      <c r="U118">
-        <v>1.925</v>
-      </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X118">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
+        <v>1.05</v>
+      </c>
+      <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
-      <c r="AB118">
-        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10705,16 +10699,16 @@
         <v>7013702</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10723,7 +10717,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>1.8</v>
@@ -10788,85 +10782,85 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J120">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="K120">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L120">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N120">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O120">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q120">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
         <v>-1</v>
       </c>
       <c r="W120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10877,16 +10871,16 @@
         <v>7560164</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45268.70833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10895,7 +10889,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10963,16 +10957,16 @@
         <v>7797510</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45338.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10981,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J122">
         <v>1.6</v>
@@ -11049,16 +11043,16 @@
         <v>7797528</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45339.70833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11067,7 +11061,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J123">
         <v>2.6</v>
@@ -11135,16 +11129,16 @@
         <v>7797532</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45339.80208333334</v>
       </c>
       <c r="E124" t="s">
+        <v>49</v>
+      </c>
+      <c r="F124" t="s">
         <v>51</v>
-      </c>
-      <c r="F124" t="s">
-        <v>53</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11153,7 +11147,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J124">
         <v>2.5</v>
@@ -11221,16 +11215,16 @@
         <v>7797529</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11239,7 +11233,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J125">
         <v>2.3</v>
@@ -11307,16 +11301,16 @@
         <v>7797530</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11325,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11393,16 +11387,16 @@
         <v>7796575</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45340.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11411,7 +11405,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J127">
         <v>3.8</v>
@@ -11479,16 +11473,16 @@
         <v>7797533</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45340.83333333334</v>
       </c>
       <c r="E128" t="s">
+        <v>44</v>
+      </c>
+      <c r="F128" t="s">
         <v>46</v>
-      </c>
-      <c r="F128" t="s">
-        <v>48</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11497,7 +11491,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J128">
         <v>5.25</v>
@@ -11565,16 +11559,16 @@
         <v>7825144</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -11583,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J129">
         <v>2.375</v>
@@ -11651,16 +11645,16 @@
         <v>7825145</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45345.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11669,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J130">
         <v>2.5</v>
@@ -11737,16 +11731,16 @@
         <v>7825143</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11755,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11823,16 +11817,16 @@
         <v>7825103</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45346.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F132" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11841,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J132">
         <v>1.4</v>
@@ -11909,16 +11903,16 @@
         <v>7825146</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45347.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11927,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J133">
         <v>2.625</v>
@@ -11995,16 +11989,16 @@
         <v>7825104</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12013,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J134">
         <v>2.875</v>
@@ -12081,16 +12075,16 @@
         <v>7825147</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45347.8125</v>
       </c>
       <c r="E135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -12099,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12167,16 +12161,16 @@
         <v>7870599</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12185,7 +12179,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J136">
         <v>2.05</v>
@@ -12253,16 +12247,16 @@
         <v>7870600</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45352.8125</v>
       </c>
       <c r="E137" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12271,7 +12265,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J137">
         <v>2.875</v>
@@ -12339,16 +12333,16 @@
         <v>7870604</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12357,7 +12351,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>3.75</v>
@@ -12425,16 +12419,16 @@
         <v>7870605</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45353.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12443,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J139">
         <v>3.6</v>
@@ -12511,16 +12505,16 @@
         <v>7870606</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12529,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>1.533</v>
@@ -12597,16 +12591,16 @@
         <v>7870601</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12615,7 +12609,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J141">
         <v>2.375</v>
@@ -12683,16 +12677,16 @@
         <v>7870602</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12701,7 +12695,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J142">
         <v>1.909</v>
@@ -12769,16 +12763,16 @@
         <v>7870603</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12787,7 +12781,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J143">
         <v>4</v>
@@ -12855,16 +12849,16 @@
         <v>7913218</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45359.85416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12873,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J144">
         <v>2.625</v>
@@ -12941,16 +12935,16 @@
         <v>7913219</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45360.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12959,7 +12953,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J145">
         <v>2.375</v>
@@ -13027,16 +13021,16 @@
         <v>7913223</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45360.8125</v>
       </c>
       <c r="E146" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13045,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13113,16 +13107,16 @@
         <v>7913221</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13131,7 +13125,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13199,16 +13193,16 @@
         <v>7913222</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45361.6875</v>
       </c>
       <c r="E148" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13217,7 +13211,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J148">
         <v>2.75</v>
@@ -13285,16 +13279,16 @@
         <v>7913220</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45361.8125</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F149" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13303,7 +13297,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J149">
         <v>2.375</v>
@@ -13371,16 +13365,16 @@
         <v>7913224</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45362.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F150" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13389,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J150">
         <v>1.909</v>
@@ -13457,16 +13451,16 @@
         <v>7913225</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45362.79166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13475,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13543,16 +13537,16 @@
         <v>7922351</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45366.8125</v>
       </c>
       <c r="E152" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" t="s">
         <v>40</v>
-      </c>
-      <c r="F152" t="s">
-        <v>42</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13561,7 +13555,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J152">
         <v>3</v>
@@ -13629,16 +13623,16 @@
         <v>7922352</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45367.6875</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13647,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J153">
         <v>2.5</v>
@@ -13715,16 +13709,16 @@
         <v>7922353</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45367.8125</v>
       </c>
       <c r="E154" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13733,7 +13727,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J154">
         <v>4.5</v>
@@ -13801,16 +13795,16 @@
         <v>7990770</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45374.5625</v>
       </c>
       <c r="E155" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F155" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13819,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J155">
         <v>2.8</v>
@@ -13887,16 +13881,16 @@
         <v>7990771</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45374.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F156" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13905,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J156">
         <v>1.4</v>
@@ -13973,16 +13967,16 @@
         <v>7990728</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45374.875</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13991,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J157">
         <v>4.2</v>
@@ -14059,16 +14053,16 @@
         <v>7990772</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
         <v>45375.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14077,7 +14071,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14145,16 +14139,16 @@
         <v>7990776</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14163,7 +14157,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J159">
         <v>1.833</v>
@@ -14231,16 +14225,16 @@
         <v>8009735</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F160" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -14249,7 +14243,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14317,16 +14311,16 @@
         <v>7994681</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F161" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14335,7 +14329,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J161">
         <v>2.3</v>
@@ -14403,17 +14397,17 @@
         <v>7994680</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D162" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E162" t="s">
+        <v>46</v>
+      </c>
+      <c r="F162" t="s">
         <v>48</v>
       </c>
-      <c r="F162" t="s">
-        <v>50</v>
-      </c>
       <c r="G162">
         <v>0</v>
       </c>
@@ -14421,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14489,16 +14483,16 @@
         <v>7994520</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D163" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14507,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J163">
         <v>2.8</v>
@@ -14575,16 +14569,16 @@
         <v>7994682</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D164" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14593,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J164">
         <v>1.909</v>
@@ -14661,16 +14655,16 @@
         <v>7994684</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D165" s="2">
         <v>45381.79166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14679,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14747,16 +14741,16 @@
         <v>7995146</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D166" s="2">
         <v>45382.625</v>
       </c>
       <c r="E166" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14765,7 +14759,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J166">
         <v>2.4</v>
@@ -14833,16 +14827,16 @@
         <v>7995141</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D167" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14851,7 +14845,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J167">
         <v>2.6</v>
@@ -14919,16 +14913,16 @@
         <v>7994683</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D168" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14937,7 +14931,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -15005,16 +14999,16 @@
         <v>8014131</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D169" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15023,7 +15017,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J169">
         <v>2.875</v>
@@ -15091,16 +15085,16 @@
         <v>8014133</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D170" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15109,7 +15103,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15177,16 +15171,16 @@
         <v>8014044</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D171" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F171" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15195,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J171">
         <v>1.909</v>
@@ -15263,16 +15257,16 @@
         <v>8014043</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D172" s="2">
         <v>45388.625</v>
       </c>
       <c r="E172" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F172" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15281,7 +15275,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J172">
         <v>2.375</v>
@@ -15349,16 +15343,16 @@
         <v>8014089</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D173" s="2">
         <v>45388.75</v>
       </c>
       <c r="E173" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15367,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J173">
         <v>1.5</v>
@@ -15435,16 +15429,16 @@
         <v>8014132</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D174" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15453,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J174">
         <v>2.2</v>
@@ -15521,16 +15515,16 @@
         <v>8014090</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D175" s="2">
         <v>45389.625</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15539,7 +15533,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15607,16 +15601,16 @@
         <v>8014091</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D176" s="2">
         <v>45389.75</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15625,7 +15619,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J176">
         <v>5</v>
@@ -15693,16 +15687,16 @@
         <v>8051184</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D177" s="2">
         <v>45395.625</v>
       </c>
       <c r="E177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15711,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J177">
         <v>2.375</v>
@@ -15779,16 +15773,16 @@
         <v>8051185</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D178" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E178" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15797,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J178">
         <v>2.375</v>
@@ -15865,16 +15859,16 @@
         <v>8051186</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D179" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15883,7 +15877,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J179">
         <v>2.3</v>
@@ -15951,16 +15945,16 @@
         <v>8051004</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D180" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15969,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J180">
         <v>3.2</v>
@@ -16037,16 +16031,16 @@
         <v>8051187</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D181" s="2">
         <v>45396.625</v>
       </c>
       <c r="E181" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16055,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J181">
         <v>1.727</v>
@@ -16123,16 +16117,16 @@
         <v>8050911</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D182" s="2">
         <v>45396.75</v>
       </c>
       <c r="E182" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16141,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16209,16 +16203,16 @@
         <v>8050912</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D183" s="2">
         <v>45398.75</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16227,7 +16221,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J183">
         <v>3.2</v>
@@ -16295,16 +16289,16 @@
         <v>8050913</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D184" s="2">
         <v>45398.85416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F184" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16313,7 +16307,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J184">
         <v>5</v>
@@ -16381,16 +16375,16 @@
         <v>8081163</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D185" s="2">
         <v>45401.5625</v>
       </c>
       <c r="E185" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16399,7 +16393,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J185">
         <v>2.3</v>
@@ -16467,16 +16461,16 @@
         <v>8081435</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D186" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E186" t="s">
+        <v>40</v>
+      </c>
+      <c r="F186" t="s">
         <v>42</v>
-      </c>
-      <c r="F186" t="s">
-        <v>44</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16485,7 +16479,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J186">
         <v>2.375</v>
@@ -16553,16 +16547,16 @@
         <v>8081162</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D187" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16571,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J187">
         <v>2.3</v>
@@ -16639,16 +16633,16 @@
         <v>8081144</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D188" s="2">
         <v>45402.625</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16657,7 +16651,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J188">
         <v>4.75</v>
@@ -16725,16 +16719,16 @@
         <v>8081249</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D189" s="2">
         <v>45402.75</v>
       </c>
       <c r="E189" t="s">
+        <v>48</v>
+      </c>
+      <c r="F189" t="s">
         <v>50</v>
-      </c>
-      <c r="F189" t="s">
-        <v>52</v>
       </c>
       <c r="G189">
         <v>6</v>
@@ -16743,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J189">
         <v>1.444</v>
@@ -16811,16 +16805,16 @@
         <v>8081250</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D190" s="2">
         <v>45402.85416666666</v>
       </c>
       <c r="E190" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F190" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16829,7 +16823,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J190">
         <v>2.2</v>
@@ -16897,16 +16891,16 @@
         <v>8081251</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D191" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E191" t="s">
+        <v>35</v>
+      </c>
+      <c r="F191" t="s">
         <v>37</v>
-      </c>
-      <c r="F191" t="s">
-        <v>39</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16915,7 +16909,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J191">
         <v>2.5</v>
@@ -16983,16 +16977,16 @@
         <v>8081885</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D192" s="2">
         <v>45403.64583333334</v>
       </c>
       <c r="E192" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F192" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -17001,7 +16995,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J192">
         <v>2.625</v>
@@ -17069,16 +17063,16 @@
         <v>8110829</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D193" s="2">
         <v>45406.625</v>
       </c>
       <c r="E193" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17087,7 +17081,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J193">
         <v>5</v>
@@ -17155,19 +17149,19 @@
         <v>27</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D194" s="2">
-        <v>45409.52083333334</v>
+        <v>45410.625</v>
       </c>
       <c r="E194" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J194">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="K194">
         <v>3.3</v>
@@ -17176,31 +17170,31 @@
         <v>2.375</v>
       </c>
       <c r="M194">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N194">
         <v>3.4</v>
       </c>
       <c r="O194">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="P194">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q194">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R194">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S194">
         <v>2.25</v>
       </c>
       <c r="T194">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U194">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V194">
         <v>0</v>
@@ -17220,52 +17214,52 @@
         <v>28</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D195" s="2">
-        <v>45409.625</v>
+        <v>45410.75</v>
       </c>
       <c r="E195" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J195">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="K195">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L195">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="M195">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N195">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O195">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="P195">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q195">
+        <v>1.975</v>
+      </c>
+      <c r="R195">
         <v>1.875</v>
-      </c>
-      <c r="R195">
-        <v>1.975</v>
       </c>
       <c r="S195">
         <v>2.25</v>
       </c>
       <c r="T195">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="U195">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V195">
         <v>0</v>
@@ -17285,52 +17279,52 @@
         <v>29</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D196" s="2">
-        <v>45410.41666666666</v>
+        <v>45410.85416666666</v>
       </c>
       <c r="E196" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J196">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="K196">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L196">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="M196">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="N196">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O196">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="P196">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q196">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T196">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U196">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
         <v>0</v>
@@ -17350,37 +17344,37 @@
         <v>30</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D197" s="2">
-        <v>45410.625</v>
+        <v>45411.625</v>
       </c>
       <c r="E197" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J197">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="K197">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L197">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="M197">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N197">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O197">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="P197">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q197">
         <v>1.85</v>
@@ -17389,13 +17383,13 @@
         <v>2</v>
       </c>
       <c r="S197">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T197">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V197">
         <v>0</v>
@@ -17415,52 +17409,52 @@
         <v>31</v>
       </c>
       <c r="C198" t="s">
+        <v>32</v>
+      </c>
+      <c r="D198" s="2">
+        <v>45411.83333333334</v>
+      </c>
+      <c r="E198" t="s">
+        <v>46</v>
+      </c>
+      <c r="F198" t="s">
         <v>34</v>
       </c>
-      <c r="D198" s="2">
-        <v>45410.75</v>
-      </c>
-      <c r="E198" t="s">
-        <v>38</v>
-      </c>
-      <c r="F198" t="s">
-        <v>50</v>
-      </c>
       <c r="J198">
-        <v>5.5</v>
+        <v>1.333</v>
       </c>
       <c r="K198">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L198">
-        <v>1.615</v>
+        <v>9</v>
       </c>
       <c r="M198">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="N198">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O198">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="P198">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q198">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R198">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T198">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U198">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
         <v>0</v>
@@ -17469,136 +17463,6 @@
         <v>0</v>
       </c>
       <c r="X198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:28">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199" t="s">
-        <v>32</v>
-      </c>
-      <c r="C199" t="s">
-        <v>34</v>
-      </c>
-      <c r="D199" s="2">
-        <v>45410.85416666666</v>
-      </c>
-      <c r="E199" t="s">
-        <v>44</v>
-      </c>
-      <c r="F199" t="s">
-        <v>39</v>
-      </c>
-      <c r="J199">
-        <v>1.615</v>
-      </c>
-      <c r="K199">
-        <v>3.75</v>
-      </c>
-      <c r="L199">
-        <v>5.5</v>
-      </c>
-      <c r="M199">
-        <v>1.571</v>
-      </c>
-      <c r="N199">
-        <v>3.8</v>
-      </c>
-      <c r="O199">
-        <v>6</v>
-      </c>
-      <c r="P199">
-        <v>-1</v>
-      </c>
-      <c r="Q199">
-        <v>2.025</v>
-      </c>
-      <c r="R199">
-        <v>1.825</v>
-      </c>
-      <c r="S199">
-        <v>2.5</v>
-      </c>
-      <c r="T199">
-        <v>2.025</v>
-      </c>
-      <c r="U199">
-        <v>1.825</v>
-      </c>
-      <c r="V199">
-        <v>0</v>
-      </c>
-      <c r="W199">
-        <v>0</v>
-      </c>
-      <c r="X199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:28">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200" t="s">
-        <v>33</v>
-      </c>
-      <c r="C200" t="s">
-        <v>34</v>
-      </c>
-      <c r="D200" s="2">
-        <v>45411.83333333334</v>
-      </c>
-      <c r="E200" t="s">
-        <v>48</v>
-      </c>
-      <c r="F200" t="s">
-        <v>36</v>
-      </c>
-      <c r="J200">
-        <v>1.333</v>
-      </c>
-      <c r="K200">
-        <v>5</v>
-      </c>
-      <c r="L200">
-        <v>9</v>
-      </c>
-      <c r="M200">
-        <v>1.4</v>
-      </c>
-      <c r="N200">
-        <v>4.75</v>
-      </c>
-      <c r="O200">
-        <v>7.5</v>
-      </c>
-      <c r="P200">
-        <v>-1.25</v>
-      </c>
-      <c r="Q200">
-        <v>1.925</v>
-      </c>
-      <c r="R200">
-        <v>1.925</v>
-      </c>
-      <c r="S200">
-        <v>2.5</v>
-      </c>
-      <c r="T200">
-        <v>2</v>
-      </c>
-      <c r="U200">
-        <v>1.85</v>
-      </c>
-      <c r="V200">
-        <v>0</v>
-      </c>
-      <c r="W200">
-        <v>0</v>
-      </c>
-      <c r="X200">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>8137821</t>
+  </si>
+  <si>
     <t>8137845</t>
+  </si>
+  <si>
+    <t>8137820</t>
   </si>
   <si>
     <t>8138226</t>
@@ -534,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB203"/>
+  <dimension ref="A1:AB205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,16 +637,16 @@
         <v>7013887</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45156.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -649,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -717,16 +723,16 @@
         <v>7072453</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -735,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -803,16 +809,16 @@
         <v>7072454</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -821,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -889,16 +895,16 @@
         <v>7013681</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45157.64583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -907,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>5.25</v>
@@ -975,16 +981,16 @@
         <v>7013835</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45157.75</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -993,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1061,16 +1067,16 @@
         <v>7013832</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1079,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <v>1.8</v>
@@ -1147,16 +1153,16 @@
         <v>7072455</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1165,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1233,16 +1239,16 @@
         <v>7013383</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1251,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>2.55</v>
@@ -1319,16 +1325,16 @@
         <v>7013838</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1337,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1405,16 +1411,16 @@
         <v>7013837</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45163.75</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1423,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J11">
         <v>1.727</v>
@@ -1491,16 +1497,16 @@
         <v>7013888</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1509,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1577,16 +1583,16 @@
         <v>7013385</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45164.64583333334</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1595,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1663,16 +1669,16 @@
         <v>7013384</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45164.75</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1681,7 +1687,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1749,16 +1755,16 @@
         <v>7013836</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1767,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J15">
         <v>2.2</v>
@@ -1835,16 +1841,16 @@
         <v>7013839</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1853,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1921,16 +1927,16 @@
         <v>7013683</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1939,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2007,16 +2013,16 @@
         <v>7013843</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45170.79166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2025,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J18">
         <v>2.45</v>
@@ -2093,16 +2099,16 @@
         <v>7013685</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2111,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2179,16 +2185,16 @@
         <v>7013684</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45171.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2197,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2265,16 +2271,16 @@
         <v>7140485</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2283,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2351,16 +2357,16 @@
         <v>7013386</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2369,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J22">
         <v>3.2</v>
@@ -2437,16 +2443,16 @@
         <v>7013842</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45172.625</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2455,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2523,16 +2529,16 @@
         <v>7013410</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45172.75</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2541,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>1.3</v>
@@ -2609,16 +2615,16 @@
         <v>7013841</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45172.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2627,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2695,16 +2701,16 @@
         <v>7275170</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45204.83333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2713,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <v>4.333</v>
@@ -2781,16 +2787,16 @@
         <v>7275516</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2799,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J27">
         <v>1.95</v>
@@ -2867,16 +2873,16 @@
         <v>7286102</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2885,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J28">
         <v>2.625</v>
@@ -2953,16 +2959,16 @@
         <v>7275171</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45206.625</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2971,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J29">
         <v>1.7</v>
@@ -3039,16 +3045,16 @@
         <v>7286047</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3057,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3125,16 +3131,16 @@
         <v>7286046</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J31">
         <v>3.4</v>
@@ -3211,16 +3217,16 @@
         <v>7286103</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3229,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J32">
         <v>2.375</v>
@@ -3297,16 +3303,16 @@
         <v>7275517</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45207.75</v>
       </c>
       <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
         <v>34</v>
-      </c>
-      <c r="F33" t="s">
-        <v>32</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3315,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J33">
         <v>2.625</v>
@@ -3383,16 +3389,16 @@
         <v>7322838</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45212.66666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3401,7 +3407,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J34">
         <v>1.909</v>
@@ -3469,16 +3475,16 @@
         <v>7322841</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45212.77083333334</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3487,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J35">
         <v>1.909</v>
@@ -3555,16 +3561,16 @@
         <v>7322840</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45212.875</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3573,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J36">
         <v>4.333</v>
@@ -3641,16 +3647,16 @@
         <v>7322842</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45213.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3659,7 +3665,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3727,16 +3733,16 @@
         <v>7322837</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45213.6875</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3745,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3813,16 +3819,16 @@
         <v>7307799</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45213.79166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3831,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J39">
         <v>2.2</v>
@@ -3899,16 +3905,16 @@
         <v>7322839</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45214.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3917,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J40">
         <v>2.375</v>
@@ -3985,16 +3991,16 @@
         <v>7322836</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45214.77083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4003,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4071,16 +4077,16 @@
         <v>7325460</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45217.5</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4089,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4157,16 +4163,16 @@
         <v>7325461</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45217.60416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4175,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J43">
         <v>2.7</v>
@@ -4243,16 +4249,16 @@
         <v>7325462</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45217.70833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4261,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J44">
         <v>2.2</v>
@@ -4329,16 +4335,16 @@
         <v>7325463</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45217.8125</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4347,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4415,16 +4421,16 @@
         <v>7325464</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45218.5</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4433,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J46">
         <v>2.375</v>
@@ -4501,16 +4507,16 @@
         <v>7325465</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45218.60416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4519,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J47">
         <v>2.3</v>
@@ -4587,16 +4593,16 @@
         <v>7325466</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45218.70833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4605,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J48">
         <v>3</v>
@@ -4673,16 +4679,16 @@
         <v>7325467</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45218.84375</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4691,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J49">
         <v>4.2</v>
@@ -4759,16 +4765,16 @@
         <v>7013854</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45220.79166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4777,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J50">
         <v>1.615</v>
@@ -4845,16 +4851,16 @@
         <v>7013855</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4863,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J51">
         <v>2.3</v>
@@ -4931,16 +4937,16 @@
         <v>7013692</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45221.66666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4949,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J52">
         <v>3.1</v>
@@ -5017,16 +5023,16 @@
         <v>7013891</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5035,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>2.875</v>
@@ -5103,16 +5109,16 @@
         <v>7013393</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45222.70833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5121,7 +5127,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -5189,16 +5195,16 @@
         <v>7013394</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45222.84375</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5207,7 +5213,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J55">
         <v>1.4</v>
@@ -5275,16 +5281,16 @@
         <v>7013691</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45223.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5293,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5361,16 +5367,16 @@
         <v>7013856</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45223.8125</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5379,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5447,16 +5453,16 @@
         <v>7013858</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45233.79166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5465,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J58">
         <v>2.4</v>
@@ -5533,16 +5539,16 @@
         <v>7013857</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45234.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5551,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5619,16 +5625,16 @@
         <v>7013859</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45234.70833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5637,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J60">
         <v>2.45</v>
@@ -5705,16 +5711,16 @@
         <v>7013396</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5723,7 +5729,7 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J61">
         <v>3.75</v>
@@ -5791,16 +5797,16 @@
         <v>7013860</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5809,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J62">
         <v>2.05</v>
@@ -5877,16 +5883,16 @@
         <v>7013892</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5895,7 +5901,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J63">
         <v>3.4</v>
@@ -5963,16 +5969,16 @@
         <v>7013395</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5981,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J64">
         <v>1.75</v>
@@ -6049,16 +6055,16 @@
         <v>7013693</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6067,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6135,16 +6141,16 @@
         <v>7013397</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6153,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J66">
         <v>1.615</v>
@@ -6221,16 +6227,16 @@
         <v>7013893</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6239,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6307,16 +6313,16 @@
         <v>7013861</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45240.89583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6325,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6393,16 +6399,16 @@
         <v>7013694</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6411,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J69">
         <v>2.15</v>
@@ -6479,17 +6485,17 @@
         <v>7013398</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45241.6875</v>
       </c>
       <c r="E70" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" t="s">
         <v>46</v>
       </c>
-      <c r="F70" t="s">
-        <v>44</v>
-      </c>
       <c r="G70">
         <v>2</v>
       </c>
@@ -6497,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6565,16 +6571,16 @@
         <v>7013863</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45241.8125</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6583,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J71">
         <v>2.15</v>
@@ -6651,16 +6657,16 @@
         <v>7013862</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45242.6875</v>
       </c>
       <c r="E72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" t="s">
         <v>33</v>
-      </c>
-      <c r="F72" t="s">
-        <v>31</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6669,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6737,16 +6743,16 @@
         <v>7013864</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6755,7 +6761,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J73">
         <v>2.625</v>
@@ -6823,16 +6829,16 @@
         <v>7013868</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45244.6875</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6841,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J74">
         <v>2.2</v>
@@ -6909,16 +6915,16 @@
         <v>7013411</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45244.79166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6927,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>3.75</v>
@@ -6995,16 +7001,16 @@
         <v>7013695</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45244.89583333334</v>
       </c>
       <c r="E76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" t="s">
         <v>44</v>
-      </c>
-      <c r="F76" t="s">
-        <v>42</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7013,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J76">
         <v>1.4</v>
@@ -7081,16 +7087,16 @@
         <v>7013866</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45245.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7099,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <v>3.8</v>
@@ -7167,16 +7173,16 @@
         <v>7013867</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45245.79166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7185,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7253,16 +7259,16 @@
         <v>7013399</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45245.89583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7271,7 +7277,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7339,16 +7345,16 @@
         <v>7013869</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45246.41666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7357,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <v>2.15</v>
@@ -7425,16 +7431,16 @@
         <v>7013865</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45246.6875</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7443,7 +7449,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J81">
         <v>2.15</v>
@@ -7511,16 +7517,16 @@
         <v>7013894</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45248.6875</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7529,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7597,16 +7603,16 @@
         <v>7013872</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45248.79166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7615,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7683,16 +7689,16 @@
         <v>7013401</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45249.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7701,7 +7707,7 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J84">
         <v>1.727</v>
@@ -7769,16 +7775,16 @@
         <v>7013696</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45249.6875</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7787,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J85">
         <v>3.3</v>
@@ -7855,16 +7861,16 @@
         <v>7013871</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45249.79166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7873,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -7941,16 +7947,16 @@
         <v>7013873</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45249.89583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7959,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8027,16 +8033,16 @@
         <v>7013400</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45250.6875</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8045,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J88">
         <v>3.5</v>
@@ -8113,16 +8119,16 @@
         <v>7013870</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45250.79166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8131,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J89">
         <v>1.8</v>
@@ -8199,16 +8205,16 @@
         <v>7013874</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8217,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J90">
         <v>2.1</v>
@@ -8285,16 +8291,16 @@
         <v>7013402</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45254.79166666666</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8303,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J91">
         <v>4</v>
@@ -8371,16 +8377,16 @@
         <v>7013705</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45254.89583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8389,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J92">
         <v>1.444</v>
@@ -8457,16 +8463,16 @@
         <v>7013876</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8475,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J93">
         <v>2.1</v>
@@ -8543,16 +8549,16 @@
         <v>7013697</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45255.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8561,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8629,16 +8635,16 @@
         <v>7013875</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45255.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8647,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8715,16 +8721,16 @@
         <v>7013877</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45256.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8733,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8801,16 +8807,16 @@
         <v>7013403</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45256.8125</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8819,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J97">
         <v>1.444</v>
@@ -8887,16 +8893,16 @@
         <v>7013698</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45258.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8905,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J98">
         <v>4.333</v>
@@ -8973,16 +8979,16 @@
         <v>7013895</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45258.79166666666</v>
       </c>
       <c r="E99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -8991,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9059,16 +9065,16 @@
         <v>7013880</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45258.88541666666</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G100">
         <v>5</v>
@@ -9077,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9145,17 +9151,17 @@
         <v>7013405</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45259.6875</v>
       </c>
       <c r="E101" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" t="s">
         <v>38</v>
       </c>
-      <c r="F101" t="s">
-        <v>36</v>
-      </c>
       <c r="G101">
         <v>2</v>
       </c>
@@ -9163,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9231,16 +9237,16 @@
         <v>7013699</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45259.79166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9249,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J102">
         <v>2.875</v>
@@ -9317,16 +9323,16 @@
         <v>7013879</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45259.88541666666</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9335,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J103">
         <v>1.6</v>
@@ -9403,16 +9409,16 @@
         <v>7013878</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45260.72916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9421,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9489,16 +9495,16 @@
         <v>7528218</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45260.85416666666</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9507,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J105">
         <v>4</v>
@@ -9575,16 +9581,16 @@
         <v>7013882</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9593,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9661,16 +9667,16 @@
         <v>7013883</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45262.6875</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9679,7 +9685,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J107">
         <v>2.5</v>
@@ -9747,16 +9753,16 @@
         <v>7013701</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45262.79166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9765,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J108">
         <v>1.533</v>
@@ -9833,16 +9839,16 @@
         <v>7013406</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45262.89583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9851,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J109">
         <v>3.3</v>
@@ -9919,16 +9925,16 @@
         <v>7013881</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9937,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -10005,16 +10011,16 @@
         <v>7013700</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45263.6875</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10023,7 +10029,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J111">
         <v>1.909</v>
@@ -10091,16 +10097,16 @@
         <v>7013896</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45264.70833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10109,7 +10115,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J112">
         <v>2.2</v>
@@ -10177,16 +10183,16 @@
         <v>7013407</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45264.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10195,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -10260,85 +10266,85 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J114">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K114">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L114">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="M114">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N114">
         <v>3.2</v>
       </c>
       <c r="O114">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10346,85 +10352,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
         <v>52</v>
       </c>
       <c r="J115">
+        <v>4.75</v>
+      </c>
+      <c r="K115">
+        <v>3.4</v>
+      </c>
+      <c r="L115">
         <v>1.7</v>
       </c>
-      <c r="K115">
-        <v>3</v>
-      </c>
-      <c r="L115">
-        <v>5.75</v>
-      </c>
       <c r="M115">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="N115">
         <v>3.2</v>
       </c>
       <c r="O115">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="P115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10435,16 +10441,16 @@
         <v>7559905</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45266.8125</v>
       </c>
       <c r="E116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10453,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -10518,85 +10524,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J117">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="K117">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M117">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N117">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O117">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10604,19 +10610,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10625,43 +10631,43 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J118">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M118">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N118">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O118">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q118">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T118">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V118">
         <v>-1</v>
@@ -10670,19 +10676,19 @@
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10690,85 +10696,85 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J119">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="K119">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="L119">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M119">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N119">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q119">
+        <v>1.8</v>
+      </c>
+      <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
+        <v>2.75</v>
+      </c>
+      <c r="T119">
         <v>1.95</v>
       </c>
-      <c r="R119">
+      <c r="U119">
         <v>1.9</v>
       </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
-      <c r="T119">
-        <v>1.925</v>
-      </c>
-      <c r="U119">
-        <v>1.925</v>
-      </c>
       <c r="V119">
         <v>-1</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X119">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
+        <v>1.05</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
-      <c r="AB119">
-        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10776,19 +10782,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10797,43 +10803,43 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J120">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="K120">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L120">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="M120">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N120">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="P120">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
         <v>-1</v>
@@ -10842,19 +10848,19 @@
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB120">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10865,16 +10871,16 @@
         <v>7560164</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45268.70833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10883,7 +10889,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10951,16 +10957,16 @@
         <v>7797510</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45338.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10969,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J122">
         <v>1.6</v>
@@ -11037,16 +11043,16 @@
         <v>7797528</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45339.70833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11055,7 +11061,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J123">
         <v>2.6</v>
@@ -11123,16 +11129,16 @@
         <v>7797532</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45339.80208333334</v>
       </c>
       <c r="E124" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11141,7 +11147,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J124">
         <v>2.5</v>
@@ -11209,16 +11215,16 @@
         <v>7797529</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11227,7 +11233,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J125">
         <v>2.3</v>
@@ -11295,16 +11301,16 @@
         <v>7797530</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11313,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11381,16 +11387,16 @@
         <v>7796575</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45340.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11399,7 +11405,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J127">
         <v>3.8</v>
@@ -11467,16 +11473,16 @@
         <v>7797533</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45340.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11485,7 +11491,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J128">
         <v>5.25</v>
@@ -11553,16 +11559,16 @@
         <v>7825144</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -11571,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J129">
         <v>2.375</v>
@@ -11639,16 +11645,16 @@
         <v>7825145</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45345.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11657,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J130">
         <v>2.5</v>
@@ -11725,16 +11731,16 @@
         <v>7825143</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11743,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11811,16 +11817,16 @@
         <v>7825103</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45346.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11829,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J132">
         <v>1.4</v>
@@ -11897,16 +11903,16 @@
         <v>7825146</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45347.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11915,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J133">
         <v>2.625</v>
@@ -11983,16 +11989,16 @@
         <v>7825104</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12001,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J134">
         <v>2.875</v>
@@ -12069,16 +12075,16 @@
         <v>7825147</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45347.8125</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -12087,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12155,16 +12161,16 @@
         <v>7870599</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12173,7 +12179,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J136">
         <v>2.05</v>
@@ -12241,16 +12247,16 @@
         <v>7870600</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45352.8125</v>
       </c>
       <c r="E137" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12259,7 +12265,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J137">
         <v>2.875</v>
@@ -12327,16 +12333,16 @@
         <v>7870604</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12345,7 +12351,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>3.75</v>
@@ -12413,16 +12419,16 @@
         <v>7870605</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45353.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12431,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J139">
         <v>3.6</v>
@@ -12499,16 +12505,16 @@
         <v>7870606</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12517,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>1.533</v>
@@ -12585,16 +12591,16 @@
         <v>7870601</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12603,7 +12609,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J141">
         <v>2.375</v>
@@ -12671,16 +12677,16 @@
         <v>7870602</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12689,7 +12695,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J142">
         <v>1.909</v>
@@ -12757,16 +12763,16 @@
         <v>7870603</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12775,7 +12781,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J143">
         <v>4</v>
@@ -12843,16 +12849,16 @@
         <v>7913218</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45359.85416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12861,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J144">
         <v>2.625</v>
@@ -12929,16 +12935,16 @@
         <v>7913219</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45360.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12947,7 +12953,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J145">
         <v>2.375</v>
@@ -13015,16 +13021,16 @@
         <v>7913223</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45360.8125</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13033,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13101,16 +13107,16 @@
         <v>7913221</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13119,7 +13125,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13187,16 +13193,16 @@
         <v>7913222</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45361.6875</v>
       </c>
       <c r="E148" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13205,7 +13211,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J148">
         <v>2.75</v>
@@ -13273,16 +13279,16 @@
         <v>7913220</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45361.8125</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13291,7 +13297,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J149">
         <v>2.375</v>
@@ -13359,16 +13365,16 @@
         <v>7913224</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45362.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F150" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13377,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J150">
         <v>1.909</v>
@@ -13445,16 +13451,16 @@
         <v>7913225</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45362.79166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13463,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13531,16 +13537,16 @@
         <v>7922351</v>
       </c>
       <c r="C152" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45366.8125</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13549,7 +13555,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J152">
         <v>3</v>
@@ -13617,16 +13623,16 @@
         <v>7922352</v>
       </c>
       <c r="C153" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45367.6875</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13635,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J153">
         <v>2.5</v>
@@ -13703,16 +13709,16 @@
         <v>7922353</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45367.8125</v>
       </c>
       <c r="E154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13721,7 +13727,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J154">
         <v>4.5</v>
@@ -13789,16 +13795,16 @@
         <v>7990770</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45374.5625</v>
       </c>
       <c r="E155" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F155" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13807,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J155">
         <v>2.8</v>
@@ -13875,16 +13881,16 @@
         <v>7990771</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45374.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F156" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13893,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J156">
         <v>1.4</v>
@@ -13961,16 +13967,16 @@
         <v>7990728</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45374.875</v>
       </c>
       <c r="E157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13979,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J157">
         <v>4.2</v>
@@ -14047,16 +14053,16 @@
         <v>7990772</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
         <v>45375.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14065,7 +14071,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14133,17 +14139,17 @@
         <v>7990776</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E159" t="s">
+        <v>39</v>
+      </c>
+      <c r="F159" t="s">
         <v>37</v>
       </c>
-      <c r="F159" t="s">
-        <v>35</v>
-      </c>
       <c r="G159">
         <v>0</v>
       </c>
@@ -14151,7 +14157,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J159">
         <v>1.833</v>
@@ -14219,16 +14225,16 @@
         <v>8009735</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F160" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -14237,7 +14243,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14305,16 +14311,16 @@
         <v>7994681</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14323,7 +14329,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J161">
         <v>2.3</v>
@@ -14391,16 +14397,16 @@
         <v>7994680</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D162" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14409,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14477,16 +14483,16 @@
         <v>7994520</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D163" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14495,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J163">
         <v>2.8</v>
@@ -14563,16 +14569,16 @@
         <v>7994682</v>
       </c>
       <c r="C164" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D164" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14581,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J164">
         <v>1.909</v>
@@ -14649,16 +14655,16 @@
         <v>7994684</v>
       </c>
       <c r="C165" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D165" s="2">
         <v>45381.79166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14667,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14735,16 +14741,16 @@
         <v>7995146</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D166" s="2">
         <v>45382.625</v>
       </c>
       <c r="E166" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14753,7 +14759,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J166">
         <v>2.4</v>
@@ -14821,16 +14827,16 @@
         <v>7995141</v>
       </c>
       <c r="C167" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D167" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14839,7 +14845,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J167">
         <v>2.6</v>
@@ -14907,16 +14913,16 @@
         <v>7994683</v>
       </c>
       <c r="C168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D168" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14925,7 +14931,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -14993,16 +14999,16 @@
         <v>8014131</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D169" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15011,7 +15017,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J169">
         <v>2.875</v>
@@ -15079,16 +15085,16 @@
         <v>8014133</v>
       </c>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D170" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15097,7 +15103,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15165,16 +15171,16 @@
         <v>8014044</v>
       </c>
       <c r="C171" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D171" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15183,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J171">
         <v>1.909</v>
@@ -15251,16 +15257,16 @@
         <v>8014043</v>
       </c>
       <c r="C172" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D172" s="2">
         <v>45388.625</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F172" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15269,7 +15275,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J172">
         <v>2.375</v>
@@ -15337,16 +15343,16 @@
         <v>8014089</v>
       </c>
       <c r="C173" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D173" s="2">
         <v>45388.75</v>
       </c>
       <c r="E173" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15355,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J173">
         <v>1.5</v>
@@ -15423,16 +15429,16 @@
         <v>8014132</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D174" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15441,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J174">
         <v>2.2</v>
@@ -15509,16 +15515,16 @@
         <v>8014090</v>
       </c>
       <c r="C175" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D175" s="2">
         <v>45389.625</v>
       </c>
       <c r="E175" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15527,7 +15533,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15595,16 +15601,16 @@
         <v>8014091</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D176" s="2">
         <v>45389.75</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15613,7 +15619,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J176">
         <v>5</v>
@@ -15681,16 +15687,16 @@
         <v>8051184</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D177" s="2">
         <v>45395.625</v>
       </c>
       <c r="E177" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15699,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J177">
         <v>2.375</v>
@@ -15767,16 +15773,16 @@
         <v>8051185</v>
       </c>
       <c r="C178" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D178" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E178" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15785,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J178">
         <v>2.375</v>
@@ -15853,16 +15859,16 @@
         <v>8051186</v>
       </c>
       <c r="C179" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D179" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15871,7 +15877,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J179">
         <v>2.3</v>
@@ -15939,16 +15945,16 @@
         <v>8051004</v>
       </c>
       <c r="C180" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D180" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15957,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J180">
         <v>3.2</v>
@@ -16025,16 +16031,16 @@
         <v>8051187</v>
       </c>
       <c r="C181" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D181" s="2">
         <v>45396.625</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16043,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J181">
         <v>1.727</v>
@@ -16111,16 +16117,16 @@
         <v>8050911</v>
       </c>
       <c r="C182" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D182" s="2">
         <v>45396.75</v>
       </c>
       <c r="E182" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16129,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16197,16 +16203,16 @@
         <v>8050912</v>
       </c>
       <c r="C183" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D183" s="2">
         <v>45398.75</v>
       </c>
       <c r="E183" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16215,7 +16221,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J183">
         <v>3.2</v>
@@ -16283,16 +16289,16 @@
         <v>8050913</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D184" s="2">
         <v>45398.85416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F184" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16301,7 +16307,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J184">
         <v>5</v>
@@ -16369,16 +16375,16 @@
         <v>8081163</v>
       </c>
       <c r="C185" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D185" s="2">
         <v>45401.5625</v>
       </c>
       <c r="E185" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16387,7 +16393,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J185">
         <v>2.3</v>
@@ -16455,16 +16461,16 @@
         <v>8081435</v>
       </c>
       <c r="C186" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D186" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16473,7 +16479,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J186">
         <v>2.375</v>
@@ -16541,16 +16547,16 @@
         <v>8081162</v>
       </c>
       <c r="C187" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D187" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16559,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J187">
         <v>2.3</v>
@@ -16627,16 +16633,16 @@
         <v>8081144</v>
       </c>
       <c r="C188" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D188" s="2">
         <v>45402.625</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16645,7 +16651,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J188">
         <v>4.75</v>
@@ -16713,16 +16719,16 @@
         <v>8081249</v>
       </c>
       <c r="C189" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D189" s="2">
         <v>45402.75</v>
       </c>
       <c r="E189" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G189">
         <v>6</v>
@@ -16731,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J189">
         <v>1.444</v>
@@ -16799,16 +16805,16 @@
         <v>8081250</v>
       </c>
       <c r="C190" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D190" s="2">
         <v>45402.85416666666</v>
       </c>
       <c r="E190" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16817,7 +16823,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J190">
         <v>2.2</v>
@@ -16885,16 +16891,16 @@
         <v>8081251</v>
       </c>
       <c r="C191" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D191" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E191" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16903,7 +16909,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J191">
         <v>2.5</v>
@@ -16971,16 +16977,16 @@
         <v>8081885</v>
       </c>
       <c r="C192" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D192" s="2">
         <v>45403.64583333334</v>
       </c>
       <c r="E192" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F192" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16989,7 +16995,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J192">
         <v>2.625</v>
@@ -17057,16 +17063,16 @@
         <v>8110829</v>
       </c>
       <c r="C193" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D193" s="2">
         <v>45406.625</v>
       </c>
       <c r="E193" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17075,7 +17081,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J193">
         <v>5</v>
@@ -17143,16 +17149,16 @@
         <v>8134007</v>
       </c>
       <c r="C194" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D194" s="2">
         <v>45409.52083333334</v>
       </c>
       <c r="E194" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17161,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J194">
         <v>2.875</v>
@@ -17229,16 +17235,16 @@
         <v>8134008</v>
       </c>
       <c r="C195" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D195" s="2">
         <v>45409.625</v>
       </c>
       <c r="E195" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17247,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J195">
         <v>2.75</v>
@@ -17315,16 +17321,16 @@
         <v>8105643</v>
       </c>
       <c r="C196" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D196" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17333,7 +17339,7 @@
         <v>5</v>
       </c>
       <c r="I196" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J196">
         <v>3.2</v>
@@ -17401,16 +17407,16 @@
         <v>8105495</v>
       </c>
       <c r="C197" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D197" s="2">
         <v>45410.625</v>
       </c>
       <c r="E197" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17419,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J197">
         <v>2.9</v>
@@ -17487,16 +17493,16 @@
         <v>8105644</v>
       </c>
       <c r="C198" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D198" s="2">
         <v>45410.75</v>
       </c>
       <c r="E198" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17505,7 +17511,7 @@
         <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J198">
         <v>5.5</v>
@@ -17573,16 +17579,16 @@
         <v>8105645</v>
       </c>
       <c r="C199" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D199" s="2">
         <v>45410.85416666666</v>
       </c>
       <c r="E199" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17591,7 +17597,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J199">
         <v>1.615</v>
@@ -17659,16 +17665,16 @@
         <v>8105646</v>
       </c>
       <c r="C200" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D200" s="2">
         <v>45411.625</v>
       </c>
       <c r="E200" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17677,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J200">
         <v>2.3</v>
@@ -17745,52 +17751,52 @@
         <v>27</v>
       </c>
       <c r="C201" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D201" s="2">
-        <v>45415.625</v>
+        <v>45415.52083333334</v>
       </c>
       <c r="E201" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J201">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="K201">
         <v>3.3</v>
       </c>
       <c r="L201">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="M201">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="N201">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O201">
+        <v>5</v>
+      </c>
+      <c r="P201">
+        <v>-0.75</v>
+      </c>
+      <c r="Q201">
+        <v>1.925</v>
+      </c>
+      <c r="R201">
+        <v>1.925</v>
+      </c>
+      <c r="S201">
+        <v>2.25</v>
+      </c>
+      <c r="T201">
         <v>1.85</v>
       </c>
-      <c r="P201">
-        <v>0.5</v>
-      </c>
-      <c r="Q201">
-        <v>1.9</v>
-      </c>
-      <c r="R201">
-        <v>1.95</v>
-      </c>
-      <c r="S201">
-        <v>2.5</v>
-      </c>
-      <c r="T201">
-        <v>2.025</v>
-      </c>
       <c r="U201">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V201">
         <v>0</v>
@@ -17810,52 +17816,52 @@
         <v>28</v>
       </c>
       <c r="C202" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D202" s="2">
-        <v>45417.41666666666</v>
+        <v>45415.625</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J202">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K202">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L202">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="M202">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N202">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O202">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="P202">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q202">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R202">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
         <v>1.85</v>
-      </c>
-      <c r="U202">
-        <v>2</v>
       </c>
       <c r="V202">
         <v>0</v>
@@ -17875,60 +17881,190 @@
         <v>29</v>
       </c>
       <c r="C203" t="s">
+        <v>32</v>
+      </c>
+      <c r="D203" s="2">
+        <v>45415.83333333334</v>
+      </c>
+      <c r="E203" t="s">
+        <v>48</v>
+      </c>
+      <c r="F203" t="s">
+        <v>45</v>
+      </c>
+      <c r="J203">
+        <v>1.4</v>
+      </c>
+      <c r="K203">
+        <v>4.333</v>
+      </c>
+      <c r="L203">
+        <v>6.5</v>
+      </c>
+      <c r="M203">
+        <v>1.5</v>
+      </c>
+      <c r="N203">
+        <v>4</v>
+      </c>
+      <c r="O203">
+        <v>5.75</v>
+      </c>
+      <c r="P203">
+        <v>-1</v>
+      </c>
+      <c r="Q203">
+        <v>1.875</v>
+      </c>
+      <c r="R203">
+        <v>1.975</v>
+      </c>
+      <c r="S203">
+        <v>2.5</v>
+      </c>
+      <c r="T203">
+        <v>2.025</v>
+      </c>
+      <c r="U203">
+        <v>1.825</v>
+      </c>
+      <c r="V203">
+        <v>0</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
         <v>30</v>
       </c>
-      <c r="D203" s="2">
+      <c r="C204" t="s">
+        <v>32</v>
+      </c>
+      <c r="D204" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="E204" t="s">
+        <v>34</v>
+      </c>
+      <c r="F204" t="s">
+        <v>44</v>
+      </c>
+      <c r="J204">
+        <v>2.75</v>
+      </c>
+      <c r="K204">
+        <v>2.875</v>
+      </c>
+      <c r="L204">
+        <v>2.55</v>
+      </c>
+      <c r="M204">
+        <v>2.8</v>
+      </c>
+      <c r="N204">
+        <v>2.875</v>
+      </c>
+      <c r="O204">
+        <v>2.55</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>2.025</v>
+      </c>
+      <c r="R204">
+        <v>1.825</v>
+      </c>
+      <c r="S204">
+        <v>2</v>
+      </c>
+      <c r="T204">
+        <v>1.85</v>
+      </c>
+      <c r="U204">
+        <v>2</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>31</v>
+      </c>
+      <c r="C205" t="s">
+        <v>32</v>
+      </c>
+      <c r="D205" s="2">
         <v>45417.72916666666</v>
       </c>
-      <c r="E203" t="s">
-        <v>31</v>
-      </c>
-      <c r="F203" t="s">
-        <v>34</v>
-      </c>
-      <c r="J203">
+      <c r="E205" t="s">
+        <v>33</v>
+      </c>
+      <c r="F205" t="s">
+        <v>36</v>
+      </c>
+      <c r="J205">
         <v>2.15</v>
       </c>
-      <c r="K203">
+      <c r="K205">
         <v>3.2</v>
       </c>
-      <c r="L203">
+      <c r="L205">
         <v>3.1</v>
       </c>
-      <c r="M203">
+      <c r="M205">
         <v>2.15</v>
       </c>
-      <c r="N203">
+      <c r="N205">
         <v>3.2</v>
       </c>
-      <c r="O203">
+      <c r="O205">
         <v>3.2</v>
       </c>
-      <c r="P203">
+      <c r="P205">
         <v>-0.25</v>
       </c>
-      <c r="Q203">
+      <c r="Q205">
         <v>1.9</v>
       </c>
-      <c r="R203">
+      <c r="R205">
         <v>1.95</v>
       </c>
-      <c r="S203">
+      <c r="S205">
         <v>2.25</v>
       </c>
-      <c r="T203">
-        <v>2</v>
-      </c>
-      <c r="U203">
+      <c r="T205">
+        <v>2</v>
+      </c>
+      <c r="U205">
         <v>1.85</v>
       </c>
-      <c r="V203">
-        <v>0</v>
-      </c>
-      <c r="W203">
-        <v>0</v>
-      </c>
-      <c r="X203">
+      <c r="V205">
+        <v>0</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -97,13 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8137821</t>
+    <t>8138224</t>
   </si>
   <si>
-    <t>8137845</t>
-  </si>
-  <si>
-    <t>8137820</t>
+    <t>8138225</t>
   </si>
   <si>
     <t>8138226</t>
@@ -540,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB205"/>
+  <dimension ref="A1:AB204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +634,16 @@
         <v>7013887</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45156.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -655,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -723,16 +720,16 @@
         <v>7072453</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -741,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -809,16 +806,16 @@
         <v>7072454</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -827,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -895,16 +892,16 @@
         <v>7013681</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45157.64583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -913,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5">
         <v>5.25</v>
@@ -981,16 +978,16 @@
         <v>7013835</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45157.75</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -999,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1067,16 +1064,16 @@
         <v>7013832</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1085,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>1.8</v>
@@ -1153,16 +1150,16 @@
         <v>7072455</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1171,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1239,16 +1236,16 @@
         <v>7013383</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1257,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>2.55</v>
@@ -1325,16 +1322,16 @@
         <v>7013838</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1343,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1411,16 +1408,16 @@
         <v>7013837</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45163.75</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1429,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>1.727</v>
@@ -1497,16 +1494,16 @@
         <v>7013888</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1515,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1583,16 +1580,16 @@
         <v>7013385</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45164.64583333334</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1601,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1669,16 +1666,16 @@
         <v>7013384</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45164.75</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1687,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1755,16 +1752,16 @@
         <v>7013836</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1773,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15">
         <v>2.2</v>
@@ -1841,16 +1838,16 @@
         <v>7013839</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1859,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1927,17 +1924,17 @@
         <v>7013683</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
       <c r="G17">
         <v>2</v>
       </c>
@@ -1945,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2013,16 +2010,16 @@
         <v>7013843</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45170.79166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2031,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>2.45</v>
@@ -2099,16 +2096,16 @@
         <v>7013685</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2117,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2185,16 +2182,16 @@
         <v>7013684</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45171.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2203,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2271,16 +2268,16 @@
         <v>7140485</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2289,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2357,16 +2354,16 @@
         <v>7013386</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2375,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <v>3.2</v>
@@ -2443,16 +2440,16 @@
         <v>7013842</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45172.625</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2461,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2529,16 +2526,16 @@
         <v>7013410</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45172.75</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2547,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24">
         <v>1.3</v>
@@ -2615,16 +2612,16 @@
         <v>7013841</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45172.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2633,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2701,16 +2698,16 @@
         <v>7275170</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45204.83333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2719,7 +2716,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26">
         <v>4.333</v>
@@ -2787,16 +2784,16 @@
         <v>7275516</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2805,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27">
         <v>1.95</v>
@@ -2873,16 +2870,16 @@
         <v>7286102</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2891,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28">
         <v>2.625</v>
@@ -2959,16 +2956,16 @@
         <v>7275171</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45206.625</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2977,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29">
         <v>1.7</v>
@@ -3045,16 +3042,16 @@
         <v>7286047</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3063,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3131,16 +3128,16 @@
         <v>7286046</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3149,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J31">
         <v>3.4</v>
@@ -3217,16 +3214,16 @@
         <v>7286103</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3235,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J32">
         <v>2.375</v>
@@ -3303,16 +3300,16 @@
         <v>7275517</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45207.75</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3321,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33">
         <v>2.625</v>
@@ -3389,16 +3386,16 @@
         <v>7322838</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45212.66666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3407,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J34">
         <v>1.909</v>
@@ -3475,16 +3472,16 @@
         <v>7322841</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45212.77083333334</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3493,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J35">
         <v>1.909</v>
@@ -3561,16 +3558,16 @@
         <v>7322840</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45212.875</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3579,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J36">
         <v>4.333</v>
@@ -3647,16 +3644,16 @@
         <v>7322842</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45213.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3665,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3733,16 +3730,16 @@
         <v>7322837</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45213.6875</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3751,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3819,16 +3816,16 @@
         <v>7307799</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45213.79166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3837,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J39">
         <v>2.2</v>
@@ -3905,16 +3902,16 @@
         <v>7322839</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45214.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3923,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J40">
         <v>2.375</v>
@@ -3991,16 +3988,16 @@
         <v>7322836</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45214.77083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4009,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4077,16 +4074,16 @@
         <v>7325460</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45217.5</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4095,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4163,16 +4160,16 @@
         <v>7325461</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45217.60416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4181,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J43">
         <v>2.7</v>
@@ -4249,16 +4246,16 @@
         <v>7325462</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45217.70833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4267,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J44">
         <v>2.2</v>
@@ -4335,16 +4332,16 @@
         <v>7325463</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45217.8125</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4353,7 +4350,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4421,16 +4418,16 @@
         <v>7325464</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45218.5</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4439,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J46">
         <v>2.375</v>
@@ -4507,17 +4504,17 @@
         <v>7325465</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45218.60416666666</v>
       </c>
       <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
         <v>33</v>
       </c>
-      <c r="F47" t="s">
-        <v>34</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -4525,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J47">
         <v>2.3</v>
@@ -4593,16 +4590,16 @@
         <v>7325466</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45218.70833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4611,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J48">
         <v>3</v>
@@ -4679,16 +4676,16 @@
         <v>7325467</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45218.84375</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4697,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>4.2</v>
@@ -4765,16 +4762,16 @@
         <v>7013854</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45220.79166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4783,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J50">
         <v>1.615</v>
@@ -4851,16 +4848,16 @@
         <v>7013855</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
         <v>35</v>
-      </c>
-      <c r="F51" t="s">
-        <v>36</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4869,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J51">
         <v>2.3</v>
@@ -4937,16 +4934,16 @@
         <v>7013692</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45221.66666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4955,7 +4952,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J52">
         <v>3.1</v>
@@ -5023,16 +5020,16 @@
         <v>7013891</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5041,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J53">
         <v>2.875</v>
@@ -5109,16 +5106,16 @@
         <v>7013393</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45222.70833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5127,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -5195,16 +5192,16 @@
         <v>7013394</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45222.84375</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5213,7 +5210,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J55">
         <v>1.4</v>
@@ -5281,16 +5278,16 @@
         <v>7013691</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45223.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5299,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5367,16 +5364,16 @@
         <v>7013856</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45223.8125</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5385,7 +5382,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5453,16 +5450,16 @@
         <v>7013858</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45233.79166666666</v>
       </c>
       <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" t="s">
         <v>36</v>
-      </c>
-      <c r="F58" t="s">
-        <v>37</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5471,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J58">
         <v>2.4</v>
@@ -5539,16 +5536,16 @@
         <v>7013857</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45234.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5557,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5625,16 +5622,16 @@
         <v>7013859</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45234.70833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5643,7 +5640,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J60">
         <v>2.45</v>
@@ -5711,16 +5708,16 @@
         <v>7013396</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5729,7 +5726,7 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J61">
         <v>3.75</v>
@@ -5797,16 +5794,16 @@
         <v>7013860</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5815,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J62">
         <v>2.05</v>
@@ -5883,16 +5880,16 @@
         <v>7013892</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5901,7 +5898,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J63">
         <v>3.4</v>
@@ -5969,16 +5966,16 @@
         <v>7013395</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5987,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J64">
         <v>1.75</v>
@@ -6055,16 +6052,16 @@
         <v>7013693</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6073,7 +6070,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6141,16 +6138,16 @@
         <v>7013397</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6159,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J66">
         <v>1.615</v>
@@ -6227,16 +6224,16 @@
         <v>7013893</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6245,7 +6242,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6313,16 +6310,16 @@
         <v>7013861</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45240.89583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6331,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6399,16 +6396,16 @@
         <v>7013694</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6417,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J69">
         <v>2.15</v>
@@ -6485,16 +6482,16 @@
         <v>7013398</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45241.6875</v>
       </c>
       <c r="E70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6503,7 +6500,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6571,16 +6568,16 @@
         <v>7013863</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45241.8125</v>
       </c>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6589,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J71">
         <v>2.15</v>
@@ -6657,16 +6654,16 @@
         <v>7013862</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45242.6875</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6675,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6743,17 +6740,17 @@
         <v>7013864</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" t="s">
         <v>37</v>
       </c>
-      <c r="F73" t="s">
-        <v>38</v>
-      </c>
       <c r="G73">
         <v>0</v>
       </c>
@@ -6761,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J73">
         <v>2.625</v>
@@ -6829,16 +6826,16 @@
         <v>7013868</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45244.6875</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6847,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J74">
         <v>2.2</v>
@@ -6915,16 +6912,16 @@
         <v>7013411</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45244.79166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6933,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J75">
         <v>3.75</v>
@@ -7001,16 +6998,16 @@
         <v>7013695</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45244.89583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7019,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J76">
         <v>1.4</v>
@@ -7087,16 +7084,16 @@
         <v>7013866</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45245.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7105,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J77">
         <v>3.8</v>
@@ -7173,16 +7170,16 @@
         <v>7013867</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45245.79166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7191,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7259,16 +7256,16 @@
         <v>7013399</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45245.89583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7277,7 +7274,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7345,16 +7342,16 @@
         <v>7013869</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45246.41666666666</v>
       </c>
       <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" t="s">
         <v>34</v>
-      </c>
-      <c r="F80" t="s">
-        <v>35</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7363,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J80">
         <v>2.15</v>
@@ -7431,16 +7428,16 @@
         <v>7013865</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45246.6875</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7449,7 +7446,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J81">
         <v>2.15</v>
@@ -7517,16 +7514,16 @@
         <v>7013894</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45248.6875</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7535,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7603,16 +7600,16 @@
         <v>7013872</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45248.79166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7621,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7689,16 +7686,16 @@
         <v>7013401</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45249.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7707,7 +7704,7 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J84">
         <v>1.727</v>
@@ -7775,16 +7772,16 @@
         <v>7013696</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45249.6875</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7793,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J85">
         <v>3.3</v>
@@ -7861,16 +7858,16 @@
         <v>7013871</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45249.79166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7879,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -7947,16 +7944,16 @@
         <v>7013873</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45249.89583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7965,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8033,16 +8030,16 @@
         <v>7013400</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45250.6875</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8051,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J88">
         <v>3.5</v>
@@ -8119,16 +8116,16 @@
         <v>7013870</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45250.79166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8137,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J89">
         <v>1.8</v>
@@ -8205,16 +8202,16 @@
         <v>7013874</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8223,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J90">
         <v>2.1</v>
@@ -8291,16 +8288,16 @@
         <v>7013402</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45254.79166666666</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8309,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J91">
         <v>4</v>
@@ -8377,16 +8374,16 @@
         <v>7013705</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45254.89583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8395,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J92">
         <v>1.444</v>
@@ -8463,16 +8460,16 @@
         <v>7013876</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8481,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>2.1</v>
@@ -8549,16 +8546,16 @@
         <v>7013697</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45255.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8567,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8635,16 +8632,16 @@
         <v>7013875</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45255.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8653,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8721,16 +8718,16 @@
         <v>7013877</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45256.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8739,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8807,16 +8804,16 @@
         <v>7013403</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45256.8125</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8825,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J97">
         <v>1.444</v>
@@ -8893,16 +8890,16 @@
         <v>7013698</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45258.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8911,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J98">
         <v>4.333</v>
@@ -8979,16 +8976,16 @@
         <v>7013895</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45258.79166666666</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -8997,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9065,16 +9062,16 @@
         <v>7013880</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45258.88541666666</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G100">
         <v>5</v>
@@ -9083,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9151,16 +9148,16 @@
         <v>7013405</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45259.6875</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9169,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9237,16 +9234,16 @@
         <v>7013699</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45259.79166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9255,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J102">
         <v>2.875</v>
@@ -9323,16 +9320,16 @@
         <v>7013879</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45259.88541666666</v>
       </c>
       <c r="E103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9341,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J103">
         <v>1.6</v>
@@ -9409,16 +9406,16 @@
         <v>7013878</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45260.72916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9427,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9495,16 +9492,16 @@
         <v>7528218</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45260.85416666666</v>
       </c>
       <c r="E105" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" t="s">
         <v>47</v>
-      </c>
-      <c r="F105" t="s">
-        <v>48</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9513,7 +9510,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J105">
         <v>4</v>
@@ -9581,16 +9578,16 @@
         <v>7013882</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9599,7 +9596,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9667,16 +9664,16 @@
         <v>7013883</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45262.6875</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9685,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J107">
         <v>2.5</v>
@@ -9753,16 +9750,16 @@
         <v>7013701</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45262.79166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9771,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J108">
         <v>1.533</v>
@@ -9839,16 +9836,16 @@
         <v>7013406</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45262.89583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9857,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J109">
         <v>3.3</v>
@@ -9925,16 +9922,16 @@
         <v>7013881</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9943,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -10011,16 +10008,16 @@
         <v>7013700</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45263.6875</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10029,7 +10026,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J111">
         <v>1.909</v>
@@ -10097,16 +10094,16 @@
         <v>7013896</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45264.70833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10115,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J112">
         <v>2.2</v>
@@ -10183,16 +10180,16 @@
         <v>7013407</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45264.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10201,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -10266,85 +10263,85 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J114">
+        <v>4.75</v>
+      </c>
+      <c r="K114">
+        <v>3.4</v>
+      </c>
+      <c r="L114">
         <v>1.7</v>
       </c>
-      <c r="K114">
-        <v>3</v>
-      </c>
-      <c r="L114">
-        <v>5.75</v>
-      </c>
       <c r="M114">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="N114">
         <v>3.2</v>
       </c>
       <c r="O114">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="P114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T114">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10352,85 +10349,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J115">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K115">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="M115">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N115">
         <v>3.2</v>
       </c>
       <c r="O115">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10441,16 +10438,16 @@
         <v>7559905</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>45266.8125</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10459,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -10524,85 +10521,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J117">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="K117">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="L117">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M117">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N117">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q117">
+        <v>1.8</v>
+      </c>
+      <c r="R117">
+        <v>2.05</v>
+      </c>
+      <c r="S117">
+        <v>2.75</v>
+      </c>
+      <c r="T117">
         <v>1.95</v>
       </c>
-      <c r="R117">
+      <c r="U117">
         <v>1.9</v>
       </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>1.925</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X117">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
+        <v>1.05</v>
+      </c>
+      <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
-      <c r="AB117">
-        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10610,19 +10607,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10631,43 +10628,43 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J118">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="M118">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N118">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="P118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
         <v>-1</v>
@@ -10676,19 +10673,19 @@
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB118">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10696,22 +10693,22 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -10720,61 +10717,61 @@
         <v>52</v>
       </c>
       <c r="J119">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="K119">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L119">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N119">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O119">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q119">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
         <v>-1</v>
       </c>
       <c r="W119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10782,19 +10779,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10803,43 +10800,43 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J120">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K120">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L120">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M120">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N120">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O120">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q120">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T120">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V120">
         <v>-1</v>
@@ -10848,19 +10845,19 @@
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10871,16 +10868,16 @@
         <v>7560164</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>45268.70833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10889,7 +10886,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10957,16 +10954,16 @@
         <v>7797510</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45338.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10975,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J122">
         <v>1.6</v>
@@ -11043,16 +11040,16 @@
         <v>7797528</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45339.70833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11061,7 +11058,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J123">
         <v>2.6</v>
@@ -11129,16 +11126,16 @@
         <v>7797532</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>45339.80208333334</v>
       </c>
       <c r="E124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11147,7 +11144,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J124">
         <v>2.5</v>
@@ -11215,16 +11212,16 @@
         <v>7797529</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11233,7 +11230,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J125">
         <v>2.3</v>
@@ -11301,16 +11298,16 @@
         <v>7797530</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E126" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" t="s">
         <v>36</v>
-      </c>
-      <c r="F126" t="s">
-        <v>37</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11319,7 +11316,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11387,16 +11384,16 @@
         <v>7796575</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45340.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11405,7 +11402,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J127">
         <v>3.8</v>
@@ -11473,16 +11470,16 @@
         <v>7797533</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45340.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11491,7 +11488,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J128">
         <v>5.25</v>
@@ -11559,16 +11556,16 @@
         <v>7825144</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -11577,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J129">
         <v>2.375</v>
@@ -11645,16 +11642,16 @@
         <v>7825145</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>45345.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11663,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J130">
         <v>2.5</v>
@@ -11731,17 +11728,17 @@
         <v>7825143</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E131" t="s">
+        <v>37</v>
+      </c>
+      <c r="F131" t="s">
         <v>38</v>
       </c>
-      <c r="F131" t="s">
-        <v>39</v>
-      </c>
       <c r="G131">
         <v>0</v>
       </c>
@@ -11749,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11817,16 +11814,16 @@
         <v>7825103</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45346.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11835,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J132">
         <v>1.4</v>
@@ -11903,16 +11900,16 @@
         <v>7825146</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45347.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11921,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J133">
         <v>2.625</v>
@@ -11989,16 +11986,16 @@
         <v>7825104</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12007,7 +12004,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J134">
         <v>2.875</v>
@@ -12075,16 +12072,16 @@
         <v>7825147</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>45347.8125</v>
       </c>
       <c r="E135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -12093,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12161,16 +12158,16 @@
         <v>7870599</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12179,7 +12176,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J136">
         <v>2.05</v>
@@ -12247,16 +12244,16 @@
         <v>7870600</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45352.8125</v>
       </c>
       <c r="E137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12265,7 +12262,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J137">
         <v>2.875</v>
@@ -12333,16 +12330,16 @@
         <v>7870604</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12351,7 +12348,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J138">
         <v>3.75</v>
@@ -12419,16 +12416,16 @@
         <v>7870605</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>45353.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12437,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J139">
         <v>3.6</v>
@@ -12505,16 +12502,16 @@
         <v>7870606</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12523,7 +12520,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J140">
         <v>1.533</v>
@@ -12591,16 +12588,16 @@
         <v>7870601</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12609,7 +12606,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J141">
         <v>2.375</v>
@@ -12677,16 +12674,16 @@
         <v>7870602</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12695,7 +12692,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J142">
         <v>1.909</v>
@@ -12763,16 +12760,16 @@
         <v>7870603</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12781,7 +12778,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J143">
         <v>4</v>
@@ -12849,16 +12846,16 @@
         <v>7913218</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>45359.85416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12867,7 +12864,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J144">
         <v>2.625</v>
@@ -12935,16 +12932,16 @@
         <v>7913219</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>45360.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12953,7 +12950,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J145">
         <v>2.375</v>
@@ -13021,16 +13018,16 @@
         <v>7913223</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>45360.8125</v>
       </c>
       <c r="E146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13039,7 +13036,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13107,16 +13104,16 @@
         <v>7913221</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13125,7 +13122,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13193,16 +13190,16 @@
         <v>7913222</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45361.6875</v>
       </c>
       <c r="E148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13211,7 +13208,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J148">
         <v>2.75</v>
@@ -13279,16 +13276,16 @@
         <v>7913220</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>45361.8125</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13297,7 +13294,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J149">
         <v>2.375</v>
@@ -13365,16 +13362,16 @@
         <v>7913224</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>45362.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13383,7 +13380,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J150">
         <v>1.909</v>
@@ -13451,16 +13448,16 @@
         <v>7913225</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>45362.79166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13469,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13537,16 +13534,16 @@
         <v>7922351</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45366.8125</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13555,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J152">
         <v>3</v>
@@ -13623,16 +13620,16 @@
         <v>7922352</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
         <v>45367.6875</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13641,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J153">
         <v>2.5</v>
@@ -13709,16 +13706,16 @@
         <v>7922353</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
         <v>45367.8125</v>
       </c>
       <c r="E154" t="s">
+        <v>44</v>
+      </c>
+      <c r="F154" t="s">
         <v>45</v>
-      </c>
-      <c r="F154" t="s">
-        <v>46</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13727,7 +13724,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J154">
         <v>4.5</v>
@@ -13795,16 +13792,16 @@
         <v>7990770</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
         <v>45374.5625</v>
       </c>
       <c r="E155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13813,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J155">
         <v>2.8</v>
@@ -13881,25 +13878,25 @@
         <v>7990771</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2">
         <v>45374.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F156" t="s">
+        <v>50</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
         <v>51</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156" t="s">
-        <v>52</v>
       </c>
       <c r="J156">
         <v>1.4</v>
@@ -13967,16 +13964,16 @@
         <v>7990728</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D157" s="2">
         <v>45374.875</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13985,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J157">
         <v>4.2</v>
@@ -14053,16 +14050,16 @@
         <v>7990772</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2">
         <v>45375.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14071,7 +14068,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14139,16 +14136,16 @@
         <v>7990776</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14157,7 +14154,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J159">
         <v>1.833</v>
@@ -14225,16 +14222,16 @@
         <v>8009735</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -14243,7 +14240,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14311,17 +14308,17 @@
         <v>7994681</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E161" t="s">
+        <v>43</v>
+      </c>
+      <c r="F161" t="s">
         <v>44</v>
       </c>
-      <c r="F161" t="s">
-        <v>45</v>
-      </c>
       <c r="G161">
         <v>0</v>
       </c>
@@ -14329,7 +14326,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J161">
         <v>2.3</v>
@@ -14397,16 +14394,16 @@
         <v>7994680</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14415,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14483,16 +14480,16 @@
         <v>7994520</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14501,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J163">
         <v>2.8</v>
@@ -14569,16 +14566,16 @@
         <v>7994682</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14587,7 +14584,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J164">
         <v>1.909</v>
@@ -14655,16 +14652,16 @@
         <v>7994684</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D165" s="2">
         <v>45381.79166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14673,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14741,16 +14738,16 @@
         <v>7995146</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2">
         <v>45382.625</v>
       </c>
       <c r="E166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14759,7 +14756,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J166">
         <v>2.4</v>
@@ -14827,16 +14824,16 @@
         <v>7995141</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14845,7 +14842,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J167">
         <v>2.6</v>
@@ -14913,17 +14910,17 @@
         <v>7994683</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D168" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E168" t="s">
+        <v>36</v>
+      </c>
+      <c r="F168" t="s">
         <v>37</v>
       </c>
-      <c r="F168" t="s">
-        <v>38</v>
-      </c>
       <c r="G168">
         <v>0</v>
       </c>
@@ -14931,7 +14928,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -14999,16 +14996,16 @@
         <v>8014131</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D169" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15017,7 +15014,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J169">
         <v>2.875</v>
@@ -15085,16 +15082,16 @@
         <v>8014133</v>
       </c>
       <c r="C170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D170" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15103,7 +15100,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15171,16 +15168,16 @@
         <v>8014044</v>
       </c>
       <c r="C171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D171" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15189,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J171">
         <v>1.909</v>
@@ -15257,16 +15254,16 @@
         <v>8014043</v>
       </c>
       <c r="C172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D172" s="2">
         <v>45388.625</v>
       </c>
       <c r="E172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15275,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J172">
         <v>2.375</v>
@@ -15343,16 +15340,16 @@
         <v>8014089</v>
       </c>
       <c r="C173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D173" s="2">
         <v>45388.75</v>
       </c>
       <c r="E173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15361,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J173">
         <v>1.5</v>
@@ -15429,16 +15426,16 @@
         <v>8014132</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D174" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15447,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J174">
         <v>2.2</v>
@@ -15515,16 +15512,16 @@
         <v>8014090</v>
       </c>
       <c r="C175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D175" s="2">
         <v>45389.625</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15533,7 +15530,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15601,16 +15598,16 @@
         <v>8014091</v>
       </c>
       <c r="C176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D176" s="2">
         <v>45389.75</v>
       </c>
       <c r="E176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15619,7 +15616,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J176">
         <v>5</v>
@@ -15687,16 +15684,16 @@
         <v>8051184</v>
       </c>
       <c r="C177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D177" s="2">
         <v>45395.625</v>
       </c>
       <c r="E177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15705,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J177">
         <v>2.375</v>
@@ -15773,16 +15770,16 @@
         <v>8051185</v>
       </c>
       <c r="C178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D178" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15791,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J178">
         <v>2.375</v>
@@ -15859,16 +15856,16 @@
         <v>8051186</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D179" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15877,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J179">
         <v>2.3</v>
@@ -15945,16 +15942,16 @@
         <v>8051004</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D180" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15963,7 +15960,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J180">
         <v>3.2</v>
@@ -16031,16 +16028,16 @@
         <v>8051187</v>
       </c>
       <c r="C181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D181" s="2">
         <v>45396.625</v>
       </c>
       <c r="E181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16049,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J181">
         <v>1.727</v>
@@ -16117,16 +16114,16 @@
         <v>8050911</v>
       </c>
       <c r="C182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D182" s="2">
         <v>45396.75</v>
       </c>
       <c r="E182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16135,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16203,16 +16200,16 @@
         <v>8050912</v>
       </c>
       <c r="C183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D183" s="2">
         <v>45398.75</v>
       </c>
       <c r="E183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16221,7 +16218,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J183">
         <v>3.2</v>
@@ -16289,16 +16286,16 @@
         <v>8050913</v>
       </c>
       <c r="C184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D184" s="2">
         <v>45398.85416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F184" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16307,7 +16304,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J184">
         <v>5</v>
@@ -16375,16 +16372,16 @@
         <v>8081163</v>
       </c>
       <c r="C185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D185" s="2">
         <v>45401.5625</v>
       </c>
       <c r="E185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16393,7 +16390,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J185">
         <v>2.3</v>
@@ -16461,16 +16458,16 @@
         <v>8081435</v>
       </c>
       <c r="C186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D186" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16479,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J186">
         <v>2.375</v>
@@ -16547,16 +16544,16 @@
         <v>8081162</v>
       </c>
       <c r="C187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D187" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16565,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J187">
         <v>2.3</v>
@@ -16633,16 +16630,16 @@
         <v>8081144</v>
       </c>
       <c r="C188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D188" s="2">
         <v>45402.625</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16651,7 +16648,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J188">
         <v>4.75</v>
@@ -16719,16 +16716,16 @@
         <v>8081249</v>
       </c>
       <c r="C189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D189" s="2">
         <v>45402.75</v>
       </c>
       <c r="E189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G189">
         <v>6</v>
@@ -16737,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J189">
         <v>1.444</v>
@@ -16805,16 +16802,16 @@
         <v>8081250</v>
       </c>
       <c r="C190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D190" s="2">
         <v>45402.85416666666</v>
       </c>
       <c r="E190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16823,7 +16820,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J190">
         <v>2.2</v>
@@ -16891,16 +16888,16 @@
         <v>8081251</v>
       </c>
       <c r="C191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D191" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16909,7 +16906,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J191">
         <v>2.5</v>
@@ -16977,25 +16974,25 @@
         <v>8081885</v>
       </c>
       <c r="C192" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D192" s="2">
         <v>45403.64583333334</v>
       </c>
       <c r="E192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F192" t="s">
+        <v>50</v>
+      </c>
+      <c r="G192">
+        <v>2</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192" t="s">
         <v>51</v>
-      </c>
-      <c r="G192">
-        <v>2</v>
-      </c>
-      <c r="H192">
-        <v>2</v>
-      </c>
-      <c r="I192" t="s">
-        <v>52</v>
       </c>
       <c r="J192">
         <v>2.625</v>
@@ -17063,16 +17060,16 @@
         <v>8110829</v>
       </c>
       <c r="C193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D193" s="2">
         <v>45406.625</v>
       </c>
       <c r="E193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17081,7 +17078,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J193">
         <v>5</v>
@@ -17149,16 +17146,16 @@
         <v>8134007</v>
       </c>
       <c r="C194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D194" s="2">
         <v>45409.52083333334</v>
       </c>
       <c r="E194" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17167,7 +17164,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J194">
         <v>2.875</v>
@@ -17235,16 +17232,16 @@
         <v>8134008</v>
       </c>
       <c r="C195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D195" s="2">
         <v>45409.625</v>
       </c>
       <c r="E195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17253,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J195">
         <v>2.75</v>
@@ -17321,16 +17318,16 @@
         <v>8105643</v>
       </c>
       <c r="C196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D196" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17339,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="I196" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J196">
         <v>3.2</v>
@@ -17407,16 +17404,16 @@
         <v>8105495</v>
       </c>
       <c r="C197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D197" s="2">
         <v>45410.625</v>
       </c>
       <c r="E197" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17425,7 +17422,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J197">
         <v>2.9</v>
@@ -17493,16 +17490,16 @@
         <v>8105644</v>
       </c>
       <c r="C198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D198" s="2">
         <v>45410.75</v>
       </c>
       <c r="E198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F198" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17511,7 +17508,7 @@
         <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J198">
         <v>5.5</v>
@@ -17579,16 +17576,16 @@
         <v>8105645</v>
       </c>
       <c r="C199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D199" s="2">
         <v>45410.85416666666</v>
       </c>
       <c r="E199" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17597,7 +17594,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J199">
         <v>1.615</v>
@@ -17665,16 +17662,16 @@
         <v>8105646</v>
       </c>
       <c r="C200" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D200" s="2">
         <v>45411.625</v>
       </c>
       <c r="E200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17683,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J200">
         <v>2.3</v>
@@ -17751,52 +17748,52 @@
         <v>27</v>
       </c>
       <c r="C201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D201" s="2">
-        <v>45415.52083333334</v>
+        <v>45416.41666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F201" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J201">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K201">
         <v>3.3</v>
       </c>
       <c r="L201">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M201">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="N201">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O201">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P201">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q201">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R201">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S201">
         <v>2.25</v>
       </c>
       <c r="T201">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
         <v>0</v>
@@ -17816,52 +17813,52 @@
         <v>28</v>
       </c>
       <c r="C202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D202" s="2">
-        <v>45415.625</v>
+        <v>45416.625</v>
       </c>
       <c r="E202" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F202" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J202">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K202">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L202">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="M202">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N202">
         <v>3.3</v>
       </c>
       <c r="O202">
+        <v>2.2</v>
+      </c>
+      <c r="P202">
+        <v>0.25</v>
+      </c>
+      <c r="Q202">
         <v>1.85</v>
       </c>
-      <c r="P202">
-        <v>0.5</v>
-      </c>
-      <c r="Q202">
-        <v>1.925</v>
-      </c>
       <c r="R202">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T202">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U202">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V202">
         <v>0</v>
@@ -17881,52 +17878,52 @@
         <v>29</v>
       </c>
       <c r="C203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D203" s="2">
-        <v>45415.83333333334</v>
+        <v>45417.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J203">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="K203">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="L203">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="M203">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="N203">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O203">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="P203">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q203">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S203">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T203">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V203">
         <v>0</v>
@@ -17946,53 +17943,53 @@
         <v>30</v>
       </c>
       <c r="C204" t="s">
+        <v>31</v>
+      </c>
+      <c r="D204" s="2">
+        <v>45417.72916666666</v>
+      </c>
+      <c r="E204" t="s">
         <v>32</v>
       </c>
-      <c r="D204" s="2">
-        <v>45417.41666666666</v>
-      </c>
-      <c r="E204" t="s">
-        <v>34</v>
-      </c>
       <c r="F204" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J204">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="K204">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="L204">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="M204">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N204">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O204">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="P204">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q204">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S204">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T204">
+        <v>2</v>
+      </c>
+      <c r="U204">
         <v>1.85</v>
       </c>
-      <c r="U204">
-        <v>2</v>
-      </c>
       <c r="V204">
         <v>0</v>
       </c>
@@ -18000,71 +17997,6 @@
         <v>0</v>
       </c>
       <c r="X204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:28">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205" t="s">
-        <v>31</v>
-      </c>
-      <c r="C205" t="s">
-        <v>32</v>
-      </c>
-      <c r="D205" s="2">
-        <v>45417.72916666666</v>
-      </c>
-      <c r="E205" t="s">
-        <v>33</v>
-      </c>
-      <c r="F205" t="s">
-        <v>36</v>
-      </c>
-      <c r="J205">
-        <v>2.15</v>
-      </c>
-      <c r="K205">
-        <v>3.2</v>
-      </c>
-      <c r="L205">
-        <v>3.1</v>
-      </c>
-      <c r="M205">
-        <v>2.15</v>
-      </c>
-      <c r="N205">
-        <v>3.2</v>
-      </c>
-      <c r="O205">
-        <v>3.2</v>
-      </c>
-      <c r="P205">
-        <v>-0.25</v>
-      </c>
-      <c r="Q205">
-        <v>1.9</v>
-      </c>
-      <c r="R205">
-        <v>1.95</v>
-      </c>
-      <c r="S205">
-        <v>2.25</v>
-      </c>
-      <c r="T205">
-        <v>2</v>
-      </c>
-      <c r="U205">
-        <v>1.85</v>
-      </c>
-      <c r="V205">
-        <v>0</v>
-      </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-      <c r="X205">
         <v>0</v>
       </c>
     </row>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -95,18 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8138224</t>
-  </si>
-  <si>
-    <t>8138225</t>
-  </si>
-  <si>
-    <t>8138226</t>
-  </si>
-  <si>
-    <t>8138228</t>
   </si>
   <si>
     <t>Uruguay Primera División</t>
@@ -537,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB204"/>
+  <dimension ref="A1:AB209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +622,16 @@
         <v>7013887</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45156.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -652,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -720,16 +708,16 @@
         <v>7072453</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -738,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -806,16 +794,16 @@
         <v>7072454</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -824,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -892,16 +880,16 @@
         <v>7013681</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45157.64583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -910,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>5.25</v>
@@ -978,16 +966,16 @@
         <v>7013835</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45157.75</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -996,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1064,16 +1052,16 @@
         <v>7013832</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1082,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>1.8</v>
@@ -1150,16 +1138,16 @@
         <v>7072455</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1168,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1236,25 +1224,25 @@
         <v>7013383</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>47</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>51</v>
       </c>
       <c r="J9">
         <v>2.55</v>
@@ -1322,16 +1310,16 @@
         <v>7013838</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1340,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1408,16 +1396,16 @@
         <v>7013837</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45163.75</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1426,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>1.727</v>
@@ -1494,16 +1482,16 @@
         <v>7013888</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1512,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1580,16 +1568,16 @@
         <v>7013385</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45164.64583333334</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1598,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1666,25 +1654,25 @@
         <v>7013384</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45164.75</v>
       </c>
       <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
         <v>47</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>51</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1752,16 +1740,16 @@
         <v>7013836</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1770,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J15">
         <v>2.2</v>
@@ -1838,16 +1826,16 @@
         <v>7013839</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1856,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1924,16 +1912,16 @@
         <v>7013683</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1942,7 +1930,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2010,16 +1998,16 @@
         <v>7013843</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45170.79166666666</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>36</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2028,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J18">
         <v>2.45</v>
@@ -2096,16 +2084,16 @@
         <v>7013685</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2114,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2182,16 +2170,16 @@
         <v>7013684</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45171.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2200,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2268,16 +2256,16 @@
         <v>7140485</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2286,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2354,16 +2342,16 @@
         <v>7013386</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2372,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>3.2</v>
@@ -2440,16 +2428,16 @@
         <v>7013842</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45172.625</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2458,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2526,25 +2514,25 @@
         <v>7013410</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45172.75</v>
       </c>
       <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>51</v>
       </c>
       <c r="J24">
         <v>1.3</v>
@@ -2612,16 +2600,16 @@
         <v>7013841</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45172.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2630,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2698,16 +2686,16 @@
         <v>7275170</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45204.83333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2716,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J26">
         <v>4.333</v>
@@ -2784,16 +2772,16 @@
         <v>7275516</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2802,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J27">
         <v>1.95</v>
@@ -2870,16 +2858,16 @@
         <v>7286102</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2888,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J28">
         <v>2.625</v>
@@ -2956,16 +2944,16 @@
         <v>7275171</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45206.625</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2974,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <v>1.7</v>
@@ -3042,16 +3030,16 @@
         <v>7286047</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3060,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3128,16 +3116,16 @@
         <v>7286046</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3146,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J31">
         <v>3.4</v>
@@ -3214,16 +3202,16 @@
         <v>7286103</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3232,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J32">
         <v>2.375</v>
@@ -3300,16 +3288,16 @@
         <v>7275517</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45207.75</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3318,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J33">
         <v>2.625</v>
@@ -3386,16 +3374,16 @@
         <v>7322838</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45212.66666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3404,7 +3392,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <v>1.909</v>
@@ -3472,16 +3460,16 @@
         <v>7322841</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45212.77083333334</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3490,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J35">
         <v>1.909</v>
@@ -3558,16 +3546,16 @@
         <v>7322840</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45212.875</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3576,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>4.333</v>
@@ -3644,16 +3632,16 @@
         <v>7322842</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45213.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3662,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3730,16 +3718,16 @@
         <v>7322837</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45213.6875</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3748,7 +3736,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3816,16 +3804,16 @@
         <v>7307799</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45213.79166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3834,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J39">
         <v>2.2</v>
@@ -3902,16 +3890,16 @@
         <v>7322839</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45214.63541666666</v>
       </c>
       <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
         <v>33</v>
-      </c>
-      <c r="F40" t="s">
-        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3920,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J40">
         <v>2.375</v>
@@ -3988,16 +3976,16 @@
         <v>7322836</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45214.77083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4006,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4074,16 +4062,16 @@
         <v>7325460</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45217.5</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4092,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4160,16 +4148,16 @@
         <v>7325461</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45217.60416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4178,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J43">
         <v>2.7</v>
@@ -4246,16 +4234,16 @@
         <v>7325462</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45217.70833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4264,7 +4252,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J44">
         <v>2.2</v>
@@ -4332,16 +4320,16 @@
         <v>7325463</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45217.8125</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4350,7 +4338,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4418,16 +4406,16 @@
         <v>7325464</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45218.5</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4436,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J46">
         <v>2.375</v>
@@ -4504,16 +4492,16 @@
         <v>7325465</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45218.60416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4522,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>2.3</v>
@@ -4590,16 +4578,16 @@
         <v>7325466</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45218.70833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4608,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J48">
         <v>3</v>
@@ -4676,16 +4664,16 @@
         <v>7325467</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45218.84375</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4694,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J49">
         <v>4.2</v>
@@ -4762,16 +4750,16 @@
         <v>7013854</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45220.79166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4780,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J50">
         <v>1.615</v>
@@ -4848,16 +4836,16 @@
         <v>7013855</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4866,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J51">
         <v>2.3</v>
@@ -4934,16 +4922,16 @@
         <v>7013692</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45221.66666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4952,7 +4940,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J52">
         <v>3.1</v>
@@ -5020,16 +5008,16 @@
         <v>7013891</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5038,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J53">
         <v>2.875</v>
@@ -5106,16 +5094,16 @@
         <v>7013393</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45222.70833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5124,7 +5112,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -5192,16 +5180,16 @@
         <v>7013394</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45222.84375</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5210,7 +5198,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J55">
         <v>1.4</v>
@@ -5278,16 +5266,16 @@
         <v>7013691</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45223.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5296,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5364,16 +5352,16 @@
         <v>7013856</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45223.8125</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5382,7 +5370,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5450,16 +5438,16 @@
         <v>7013858</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45233.79166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5468,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>2.4</v>
@@ -5536,16 +5524,16 @@
         <v>7013857</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45234.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5554,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5622,16 +5610,16 @@
         <v>7013859</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45234.70833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5640,7 +5628,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J60">
         <v>2.45</v>
@@ -5708,16 +5696,16 @@
         <v>7013396</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5726,7 +5714,7 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J61">
         <v>3.75</v>
@@ -5794,16 +5782,16 @@
         <v>7013860</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5812,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J62">
         <v>2.05</v>
@@ -5880,16 +5868,16 @@
         <v>7013892</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5898,7 +5886,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J63">
         <v>3.4</v>
@@ -5966,16 +5954,16 @@
         <v>7013395</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5984,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J64">
         <v>1.75</v>
@@ -6052,16 +6040,16 @@
         <v>7013693</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6070,7 +6058,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6138,16 +6126,16 @@
         <v>7013397</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" t="s">
         <v>39</v>
-      </c>
-      <c r="F66" t="s">
-        <v>43</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6156,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J66">
         <v>1.615</v>
@@ -6224,16 +6212,16 @@
         <v>7013893</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6242,7 +6230,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6310,16 +6298,16 @@
         <v>7013861</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45240.89583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6328,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6396,16 +6384,16 @@
         <v>7013694</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6414,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J69">
         <v>2.15</v>
@@ -6482,25 +6470,25 @@
         <v>7013398</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45241.6875</v>
       </c>
       <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
         <v>47</v>
-      </c>
-      <c r="F70" t="s">
-        <v>45</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="I70" t="s">
-        <v>51</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6568,16 +6556,16 @@
         <v>7013863</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45241.8125</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6586,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <v>2.15</v>
@@ -6654,16 +6642,16 @@
         <v>7013862</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45242.6875</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6672,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6740,16 +6728,16 @@
         <v>7013864</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6758,7 +6746,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <v>2.625</v>
@@ -6826,16 +6814,16 @@
         <v>7013868</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45244.6875</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6844,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J74">
         <v>2.2</v>
@@ -6912,16 +6900,16 @@
         <v>7013411</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45244.79166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6930,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J75">
         <v>3.75</v>
@@ -6998,16 +6986,16 @@
         <v>7013695</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45244.89583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7016,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J76">
         <v>1.4</v>
@@ -7084,16 +7072,16 @@
         <v>7013866</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45245.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7102,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J77">
         <v>3.8</v>
@@ -7170,16 +7158,16 @@
         <v>7013867</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45245.79166666666</v>
       </c>
       <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" t="s">
         <v>32</v>
-      </c>
-      <c r="F78" t="s">
-        <v>36</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7188,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7256,16 +7244,16 @@
         <v>7013399</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45245.89583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7274,7 +7262,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7342,16 +7330,16 @@
         <v>7013869</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45246.41666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7360,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J80">
         <v>2.15</v>
@@ -7428,16 +7416,16 @@
         <v>7013865</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45246.6875</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7446,7 +7434,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J81">
         <v>2.15</v>
@@ -7514,16 +7502,16 @@
         <v>7013894</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45248.6875</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7532,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7600,16 +7588,16 @@
         <v>7013872</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45248.79166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7618,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7686,16 +7674,16 @@
         <v>7013401</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45249.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7704,7 +7692,7 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J84">
         <v>1.727</v>
@@ -7772,16 +7760,16 @@
         <v>7013696</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45249.6875</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7790,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J85">
         <v>3.3</v>
@@ -7858,16 +7846,16 @@
         <v>7013871</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45249.79166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7876,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -7944,16 +7932,16 @@
         <v>7013873</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45249.89583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7962,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8030,16 +8018,16 @@
         <v>7013400</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45250.6875</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8048,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J88">
         <v>3.5</v>
@@ -8116,16 +8104,16 @@
         <v>7013870</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45250.79166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8134,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J89">
         <v>1.8</v>
@@ -8202,16 +8190,16 @@
         <v>7013874</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8220,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J90">
         <v>2.1</v>
@@ -8288,16 +8276,16 @@
         <v>7013402</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45254.79166666666</v>
       </c>
       <c r="E91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" t="s">
         <v>35</v>
-      </c>
-      <c r="F91" t="s">
-        <v>39</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8306,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J91">
         <v>4</v>
@@ -8374,16 +8362,16 @@
         <v>7013705</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45254.89583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8392,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J92">
         <v>1.444</v>
@@ -8460,16 +8448,16 @@
         <v>7013876</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8478,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J93">
         <v>2.1</v>
@@ -8546,16 +8534,16 @@
         <v>7013697</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45255.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8564,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8632,16 +8620,16 @@
         <v>7013875</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45255.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8650,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8718,16 +8706,16 @@
         <v>7013877</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45256.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8736,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8804,16 +8792,16 @@
         <v>7013403</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45256.8125</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8822,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J97">
         <v>1.444</v>
@@ -8890,16 +8878,16 @@
         <v>7013698</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45258.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8908,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J98">
         <v>4.333</v>
@@ -8976,16 +8964,16 @@
         <v>7013895</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45258.79166666666</v>
       </c>
       <c r="E99" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -8994,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9062,16 +9050,16 @@
         <v>7013880</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45258.88541666666</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G100">
         <v>5</v>
@@ -9080,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9148,16 +9136,16 @@
         <v>7013405</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45259.6875</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9166,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9234,16 +9222,16 @@
         <v>7013699</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45259.79166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9252,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J102">
         <v>2.875</v>
@@ -9320,16 +9308,16 @@
         <v>7013879</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45259.88541666666</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9338,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J103">
         <v>1.6</v>
@@ -9406,16 +9394,16 @@
         <v>7013878</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45260.72916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9424,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9492,16 +9480,16 @@
         <v>7528218</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45260.85416666666</v>
       </c>
       <c r="E105" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9510,7 +9498,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J105">
         <v>4</v>
@@ -9578,16 +9566,16 @@
         <v>7013882</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9596,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9664,16 +9652,16 @@
         <v>7013883</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45262.6875</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9682,7 +9670,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J107">
         <v>2.5</v>
@@ -9750,16 +9738,16 @@
         <v>7013701</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45262.79166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9768,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J108">
         <v>1.533</v>
@@ -9836,16 +9824,16 @@
         <v>7013406</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45262.89583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9854,7 +9842,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>3.3</v>
@@ -9922,16 +9910,16 @@
         <v>7013881</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9940,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -10008,16 +9996,16 @@
         <v>7013700</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45263.6875</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10026,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J111">
         <v>1.909</v>
@@ -10094,16 +10082,16 @@
         <v>7013896</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45264.70833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10112,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J112">
         <v>2.2</v>
@@ -10180,16 +10168,16 @@
         <v>7013407</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45264.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10198,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -10266,16 +10254,16 @@
         <v>7559469</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10284,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J114">
         <v>4.75</v>
@@ -10352,16 +10340,16 @@
         <v>7559468</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10370,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J115">
         <v>1.7</v>
@@ -10438,16 +10426,16 @@
         <v>7559905</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45266.8125</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10456,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -10521,85 +10509,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013409</v>
+        <v>7013885</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J117">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="K117">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="M117">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="N117">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O117">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="P117">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB117">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10607,16 +10595,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013885</v>
+        <v>7013702</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F118" t="s">
         <v>34</v>
@@ -10628,43 +10616,43 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J118">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M118">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N118">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O118">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q118">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T118">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V118">
         <v>-1</v>
@@ -10673,19 +10661,19 @@
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10693,85 +10681,85 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013886</v>
+        <v>7013409</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J119">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="K119">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="L119">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M119">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N119">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q119">
+        <v>1.8</v>
+      </c>
+      <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
+        <v>2.75</v>
+      </c>
+      <c r="T119">
         <v>1.95</v>
       </c>
-      <c r="R119">
+      <c r="U119">
         <v>1.9</v>
       </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
-      <c r="T119">
-        <v>1.925</v>
-      </c>
-      <c r="U119">
-        <v>1.925</v>
-      </c>
       <c r="V119">
         <v>-1</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X119">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
+        <v>1.05</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
-      <c r="AB119">
-        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10779,64 +10767,64 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013702</v>
+        <v>7013886</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J120">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K120">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L120">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N120">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q120">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
         <v>-1</v>
@@ -10845,19 +10833,19 @@
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10868,16 +10856,16 @@
         <v>7560164</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45268.70833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10886,7 +10874,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10954,16 +10942,16 @@
         <v>7797510</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45338.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10972,7 +10960,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J122">
         <v>1.6</v>
@@ -11040,16 +11028,16 @@
         <v>7797528</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45339.70833333334</v>
       </c>
       <c r="E123" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" t="s">
         <v>34</v>
-      </c>
-      <c r="F123" t="s">
-        <v>38</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11058,7 +11046,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J123">
         <v>2.6</v>
@@ -11126,16 +11114,16 @@
         <v>7797532</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45339.80208333334</v>
       </c>
       <c r="E124" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F124" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11144,7 +11132,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J124">
         <v>2.5</v>
@@ -11212,16 +11200,16 @@
         <v>7797529</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11230,7 +11218,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J125">
         <v>2.3</v>
@@ -11298,16 +11286,16 @@
         <v>7797530</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11316,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11384,16 +11372,16 @@
         <v>7796575</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45340.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11402,7 +11390,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J127">
         <v>3.8</v>
@@ -11470,16 +11458,16 @@
         <v>7797533</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45340.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11488,7 +11476,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J128">
         <v>5.25</v>
@@ -11556,16 +11544,16 @@
         <v>7825144</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -11574,7 +11562,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J129">
         <v>2.375</v>
@@ -11642,16 +11630,16 @@
         <v>7825145</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45345.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11660,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J130">
         <v>2.5</v>
@@ -11728,16 +11716,16 @@
         <v>7825143</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11746,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11814,16 +11802,16 @@
         <v>7825103</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45346.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11832,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J132">
         <v>1.4</v>
@@ -11900,16 +11888,16 @@
         <v>7825146</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45347.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11918,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>2.625</v>
@@ -11986,16 +11974,16 @@
         <v>7825104</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12004,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J134">
         <v>2.875</v>
@@ -12072,16 +12060,16 @@
         <v>7825147</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45347.8125</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -12090,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12158,16 +12146,16 @@
         <v>7870599</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F136" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12176,7 +12164,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J136">
         <v>2.05</v>
@@ -12244,16 +12232,16 @@
         <v>7870600</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45352.8125</v>
       </c>
       <c r="E137" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12262,7 +12250,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J137">
         <v>2.875</v>
@@ -12330,16 +12318,16 @@
         <v>7870604</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12348,7 +12336,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J138">
         <v>3.75</v>
@@ -12416,16 +12404,16 @@
         <v>7870605</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45353.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12434,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>3.6</v>
@@ -12502,16 +12490,16 @@
         <v>7870606</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12520,7 +12508,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J140">
         <v>1.533</v>
@@ -12588,16 +12576,16 @@
         <v>7870601</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12606,7 +12594,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J141">
         <v>2.375</v>
@@ -12674,16 +12662,16 @@
         <v>7870602</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12692,7 +12680,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J142">
         <v>1.909</v>
@@ -12760,16 +12748,16 @@
         <v>7870603</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12778,7 +12766,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J143">
         <v>4</v>
@@ -12846,16 +12834,16 @@
         <v>7913218</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45359.85416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12864,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J144">
         <v>2.625</v>
@@ -12932,16 +12920,16 @@
         <v>7913219</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45360.6875</v>
       </c>
       <c r="E145" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" t="s">
         <v>33</v>
-      </c>
-      <c r="F145" t="s">
-        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12950,7 +12938,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J145">
         <v>2.375</v>
@@ -13018,16 +13006,16 @@
         <v>7913223</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45360.8125</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13036,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13104,16 +13092,16 @@
         <v>7913221</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13122,7 +13110,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13190,16 +13178,16 @@
         <v>7913222</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45361.6875</v>
       </c>
       <c r="E148" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13208,7 +13196,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J148">
         <v>2.75</v>
@@ -13276,16 +13264,16 @@
         <v>7913220</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45361.8125</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13294,7 +13282,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J149">
         <v>2.375</v>
@@ -13362,25 +13350,25 @@
         <v>7913224</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45362.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
+        <v>45</v>
+      </c>
+      <c r="G150">
+        <v>2</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
         <v>49</v>
-      </c>
-      <c r="G150">
-        <v>2</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150" t="s">
-        <v>53</v>
       </c>
       <c r="J150">
         <v>1.909</v>
@@ -13448,16 +13436,16 @@
         <v>7913225</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45362.79166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13466,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13534,16 +13522,16 @@
         <v>7922351</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45366.8125</v>
       </c>
       <c r="E152" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13552,7 +13540,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J152">
         <v>3</v>
@@ -13620,16 +13608,16 @@
         <v>7922352</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45367.6875</v>
       </c>
       <c r="E153" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13638,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J153">
         <v>2.5</v>
@@ -13706,16 +13694,16 @@
         <v>7922353</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45367.8125</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13724,7 +13712,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J154">
         <v>4.5</v>
@@ -13792,16 +13780,16 @@
         <v>7990770</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45374.5625</v>
       </c>
       <c r="E155" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F155" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13810,7 +13798,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J155">
         <v>2.8</v>
@@ -13878,25 +13866,25 @@
         <v>7990771</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45374.77083333334</v>
       </c>
       <c r="E156" t="s">
+        <v>43</v>
+      </c>
+      <c r="F156" t="s">
+        <v>46</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
         <v>47</v>
-      </c>
-      <c r="F156" t="s">
-        <v>50</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156" t="s">
-        <v>51</v>
       </c>
       <c r="J156">
         <v>1.4</v>
@@ -13964,16 +13952,16 @@
         <v>7990728</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45374.875</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13982,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J157">
         <v>4.2</v>
@@ -14050,16 +14038,16 @@
         <v>7990772</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45375.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14068,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14136,16 +14124,16 @@
         <v>7990776</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14154,7 +14142,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J159">
         <v>1.833</v>
@@ -14222,16 +14210,16 @@
         <v>8009735</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F160" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -14240,7 +14228,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14308,16 +14296,16 @@
         <v>7994681</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14326,7 +14314,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J161">
         <v>2.3</v>
@@ -14394,25 +14382,25 @@
         <v>7994680</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F162" t="s">
+        <v>43</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162" t="s">
         <v>47</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-      <c r="I162" t="s">
-        <v>51</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14480,16 +14468,16 @@
         <v>7994520</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14498,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J163">
         <v>2.8</v>
@@ -14566,16 +14554,16 @@
         <v>7994682</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14584,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J164">
         <v>1.909</v>
@@ -14652,16 +14640,16 @@
         <v>7994684</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45381.79166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14670,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14738,16 +14726,16 @@
         <v>7995146</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45382.625</v>
       </c>
       <c r="E166" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14756,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J166">
         <v>2.4</v>
@@ -14824,16 +14812,16 @@
         <v>7995141</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14842,7 +14830,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J167">
         <v>2.6</v>
@@ -14910,16 +14898,16 @@
         <v>7994683</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14928,7 +14916,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -14996,17 +14984,17 @@
         <v>8014131</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E169" t="s">
+        <v>33</v>
+      </c>
+      <c r="F169" t="s">
         <v>37</v>
       </c>
-      <c r="F169" t="s">
-        <v>41</v>
-      </c>
       <c r="G169">
         <v>2</v>
       </c>
@@ -15014,7 +15002,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J169">
         <v>2.875</v>
@@ -15082,16 +15070,16 @@
         <v>8014133</v>
       </c>
       <c r="C170" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15100,7 +15088,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15168,16 +15156,16 @@
         <v>8014044</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E171" t="s">
+        <v>40</v>
+      </c>
+      <c r="F171" t="s">
         <v>44</v>
-      </c>
-      <c r="F171" t="s">
-        <v>48</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15186,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J171">
         <v>1.909</v>
@@ -15254,16 +15242,16 @@
         <v>8014043</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45388.625</v>
       </c>
       <c r="E172" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15272,7 +15260,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J172">
         <v>2.375</v>
@@ -15340,16 +15328,16 @@
         <v>8014089</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45388.75</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15358,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J173">
         <v>1.5</v>
@@ -15426,16 +15414,16 @@
         <v>8014132</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F174" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15444,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J174">
         <v>2.2</v>
@@ -15512,16 +15500,16 @@
         <v>8014090</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45389.625</v>
       </c>
       <c r="E175" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15530,7 +15518,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15598,16 +15586,16 @@
         <v>8014091</v>
       </c>
       <c r="C176" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45389.75</v>
       </c>
       <c r="E176" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15616,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J176">
         <v>5</v>
@@ -15684,16 +15672,16 @@
         <v>8051184</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45395.625</v>
       </c>
       <c r="E177" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15702,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J177">
         <v>2.375</v>
@@ -15770,16 +15758,16 @@
         <v>8051185</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15788,7 +15776,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J178">
         <v>2.375</v>
@@ -15856,16 +15844,16 @@
         <v>8051186</v>
       </c>
       <c r="C179" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15874,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J179">
         <v>2.3</v>
@@ -15942,16 +15930,16 @@
         <v>8051004</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15960,7 +15948,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J180">
         <v>3.2</v>
@@ -16028,16 +16016,16 @@
         <v>8051187</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45396.625</v>
       </c>
       <c r="E181" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16046,7 +16034,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>1.727</v>
@@ -16114,16 +16102,16 @@
         <v>8050911</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45396.75</v>
       </c>
       <c r="E182" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16132,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16200,16 +16188,16 @@
         <v>8050912</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45398.75</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16218,7 +16206,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J183">
         <v>3.2</v>
@@ -16286,16 +16274,16 @@
         <v>8050913</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45398.85416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F184" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16304,7 +16292,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J184">
         <v>5</v>
@@ -16372,16 +16360,16 @@
         <v>8081163</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45401.5625</v>
       </c>
       <c r="E185" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16390,7 +16378,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J185">
         <v>2.3</v>
@@ -16458,16 +16446,16 @@
         <v>8081435</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16476,7 +16464,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J186">
         <v>2.375</v>
@@ -16544,16 +16532,16 @@
         <v>8081162</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16562,7 +16550,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J187">
         <v>2.3</v>
@@ -16630,16 +16618,16 @@
         <v>8081144</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45402.625</v>
       </c>
       <c r="E188" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16648,7 +16636,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J188">
         <v>4.75</v>
@@ -16716,16 +16704,16 @@
         <v>8081249</v>
       </c>
       <c r="C189" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45402.75</v>
       </c>
       <c r="E189" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G189">
         <v>6</v>
@@ -16734,7 +16722,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J189">
         <v>1.444</v>
@@ -16802,16 +16790,16 @@
         <v>8081250</v>
       </c>
       <c r="C190" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45402.85416666666</v>
       </c>
       <c r="E190" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F190" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16820,7 +16808,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J190">
         <v>2.2</v>
@@ -16888,16 +16876,16 @@
         <v>8081251</v>
       </c>
       <c r="C191" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E191" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16906,7 +16894,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J191">
         <v>2.5</v>
@@ -16974,16 +16962,16 @@
         <v>8081885</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45403.64583333334</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F192" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16992,7 +16980,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J192">
         <v>2.625</v>
@@ -17060,16 +17048,16 @@
         <v>8110829</v>
       </c>
       <c r="C193" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45406.625</v>
       </c>
       <c r="E193" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17078,7 +17066,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J193">
         <v>5</v>
@@ -17146,16 +17134,16 @@
         <v>8134007</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45409.52083333334</v>
       </c>
       <c r="E194" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17164,7 +17152,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J194">
         <v>2.875</v>
@@ -17232,16 +17220,16 @@
         <v>8134008</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
         <v>45409.625</v>
       </c>
       <c r="E195" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17250,7 +17238,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J195">
         <v>2.75</v>
@@ -17318,16 +17306,16 @@
         <v>8105643</v>
       </c>
       <c r="C196" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D196" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17336,7 +17324,7 @@
         <v>5</v>
       </c>
       <c r="I196" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J196">
         <v>3.2</v>
@@ -17404,16 +17392,16 @@
         <v>8105495</v>
       </c>
       <c r="C197" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D197" s="2">
         <v>45410.625</v>
       </c>
       <c r="E197" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17422,7 +17410,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J197">
         <v>2.9</v>
@@ -17490,16 +17478,16 @@
         <v>8105644</v>
       </c>
       <c r="C198" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2">
         <v>45410.75</v>
       </c>
       <c r="E198" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F198" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17508,7 +17496,7 @@
         <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J198">
         <v>5.5</v>
@@ -17576,16 +17564,16 @@
         <v>8105645</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2">
         <v>45410.85416666666</v>
       </c>
       <c r="E199" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17594,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J199">
         <v>1.615</v>
@@ -17662,16 +17650,16 @@
         <v>8105646</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2">
         <v>45411.625</v>
       </c>
       <c r="E200" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17680,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J200">
         <v>2.3</v>
@@ -17744,260 +17732,774 @@
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="s">
-        <v>27</v>
+      <c r="B201">
+        <v>8105807</v>
       </c>
       <c r="C201" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2">
-        <v>45416.41666666666</v>
+        <v>45411.83333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F201" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201" t="s">
+        <v>49</v>
       </c>
       <c r="J201">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="K201">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L201">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M201">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="N201">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O201">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P201">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q201">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R201">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S201">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T201">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U201">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="W201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>0.825</v>
+      </c>
+      <c r="Z201">
+        <v>-1</v>
+      </c>
+      <c r="AA201">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:28">
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="s">
-        <v>28</v>
+      <c r="B202">
+        <v>8137821</v>
       </c>
       <c r="C202" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D202" s="2">
-        <v>45416.625</v>
+        <v>45415.52083333334</v>
       </c>
       <c r="E202" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F202" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202" t="s">
+        <v>47</v>
       </c>
       <c r="J202">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="K202">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L202">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="M202">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="N202">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O202">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="P202">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q202">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S202">
         <v>2.25</v>
       </c>
       <c r="T202">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W202">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="X202">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA202">
+        <v>-0.5</v>
+      </c>
+      <c r="AB202">
+        <v>0.4875</v>
       </c>
     </row>
     <row r="203" spans="1:28">
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="s">
-        <v>29</v>
+      <c r="B203">
+        <v>8137845</v>
       </c>
       <c r="C203" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
-        <v>45417.41666666666</v>
+        <v>45415.625</v>
       </c>
       <c r="E203" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="G203">
+        <v>2</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203" t="s">
+        <v>47</v>
       </c>
       <c r="J203">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K203">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L203">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="M203">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N203">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="O203">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="P203">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q203">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R203">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S203">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T203">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W203">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X203">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z203">
+        <v>-1</v>
+      </c>
+      <c r="AA203">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:28">
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="s">
-        <v>30</v>
+      <c r="B204">
+        <v>8137820</v>
       </c>
       <c r="C204" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
-        <v>45417.72916666666</v>
+        <v>45415.83333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="G204">
+        <v>4</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204" t="s">
+        <v>49</v>
       </c>
       <c r="J204">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="K204">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="L204">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="M204">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="N204">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O204">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P204">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q204">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
         <v>2.25</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U204">
+        <v>2</v>
+      </c>
+      <c r="V204">
+        <v>0.615</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>0.875</v>
+      </c>
+      <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>8138224</v>
+      </c>
+      <c r="C205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="E205" t="s">
+        <v>33</v>
+      </c>
+      <c r="F205" t="s">
+        <v>44</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205" t="s">
+        <v>49</v>
+      </c>
+      <c r="J205">
+        <v>1.909</v>
+      </c>
+      <c r="K205">
+        <v>3.3</v>
+      </c>
+      <c r="L205">
+        <v>3.6</v>
+      </c>
+      <c r="M205">
+        <v>2.15</v>
+      </c>
+      <c r="N205">
+        <v>3.2</v>
+      </c>
+      <c r="O205">
+        <v>3.1</v>
+      </c>
+      <c r="P205">
+        <v>-0.25</v>
+      </c>
+      <c r="Q205">
+        <v>1.95</v>
+      </c>
+      <c r="R205">
+        <v>1.9</v>
+      </c>
+      <c r="S205">
+        <v>2.25</v>
+      </c>
+      <c r="T205">
         <v>1.85</v>
       </c>
-      <c r="V204">
-        <v>0</v>
-      </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <v>0</v>
+      <c r="U205">
+        <v>2</v>
+      </c>
+      <c r="V205">
+        <v>1.15</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
+        <v>0.95</v>
+      </c>
+      <c r="Z205">
+        <v>-1</v>
+      </c>
+      <c r="AA205">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>8138225</v>
+      </c>
+      <c r="C206" t="s">
+        <v>27</v>
+      </c>
+      <c r="D206" s="2">
+        <v>45416.625</v>
+      </c>
+      <c r="E206" t="s">
+        <v>32</v>
+      </c>
+      <c r="F206" t="s">
+        <v>46</v>
+      </c>
+      <c r="G206">
+        <v>2</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206" t="s">
+        <v>49</v>
+      </c>
+      <c r="J206">
+        <v>3.1</v>
+      </c>
+      <c r="K206">
+        <v>3.2</v>
+      </c>
+      <c r="L206">
+        <v>2.15</v>
+      </c>
+      <c r="M206">
+        <v>2.9</v>
+      </c>
+      <c r="N206">
+        <v>3.4</v>
+      </c>
+      <c r="O206">
+        <v>2.2</v>
+      </c>
+      <c r="P206">
+        <v>0.25</v>
+      </c>
+      <c r="Q206">
+        <v>1.875</v>
+      </c>
+      <c r="R206">
+        <v>1.975</v>
+      </c>
+      <c r="S206">
+        <v>2.5</v>
+      </c>
+      <c r="T206">
+        <v>1.925</v>
+      </c>
+      <c r="U206">
+        <v>1.925</v>
+      </c>
+      <c r="V206">
+        <v>1.9</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>0.875</v>
+      </c>
+      <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>8138226</v>
+      </c>
+      <c r="C207" t="s">
+        <v>27</v>
+      </c>
+      <c r="D207" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="E207" t="s">
+        <v>29</v>
+      </c>
+      <c r="F207" t="s">
+        <v>39</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+      <c r="H207">
+        <v>3</v>
+      </c>
+      <c r="I207" t="s">
+        <v>48</v>
+      </c>
+      <c r="J207">
+        <v>2.75</v>
+      </c>
+      <c r="K207">
+        <v>2.875</v>
+      </c>
+      <c r="L207">
+        <v>2.55</v>
+      </c>
+      <c r="M207">
+        <v>2.7</v>
+      </c>
+      <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207">
+        <v>2.55</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>2.025</v>
+      </c>
+      <c r="R207">
+        <v>1.825</v>
+      </c>
+      <c r="S207">
+        <v>2</v>
+      </c>
+      <c r="T207">
+        <v>1.8</v>
+      </c>
+      <c r="U207">
+        <v>2.05</v>
+      </c>
+      <c r="V207">
+        <v>-1</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>1.55</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>0.825</v>
+      </c>
+      <c r="AA207">
+        <v>0.8</v>
+      </c>
+      <c r="AB207">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:28">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>8138227</v>
+      </c>
+      <c r="C208" t="s">
+        <v>27</v>
+      </c>
+      <c r="D208" s="2">
+        <v>45417.625</v>
+      </c>
+      <c r="E208" t="s">
+        <v>30</v>
+      </c>
+      <c r="F208" t="s">
+        <v>37</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208" t="s">
+        <v>48</v>
+      </c>
+      <c r="J208">
+        <v>4</v>
+      </c>
+      <c r="K208">
+        <v>3.3</v>
+      </c>
+      <c r="L208">
+        <v>1.833</v>
+      </c>
+      <c r="M208">
+        <v>3.25</v>
+      </c>
+      <c r="N208">
+        <v>3.1</v>
+      </c>
+      <c r="O208">
+        <v>2.15</v>
+      </c>
+      <c r="P208">
+        <v>0.25</v>
+      </c>
+      <c r="Q208">
+        <v>1.975</v>
+      </c>
+      <c r="R208">
+        <v>1.875</v>
+      </c>
+      <c r="S208">
+        <v>2.25</v>
+      </c>
+      <c r="T208">
+        <v>1.975</v>
+      </c>
+      <c r="U208">
+        <v>1.875</v>
+      </c>
+      <c r="V208">
+        <v>-1</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>1.15</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0.875</v>
+      </c>
+      <c r="AA208">
+        <v>-0.5</v>
+      </c>
+      <c r="AB208">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:28">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>8138228</v>
+      </c>
+      <c r="C209" t="s">
+        <v>27</v>
+      </c>
+      <c r="D209" s="2">
+        <v>45417.72916666666</v>
+      </c>
+      <c r="E209" t="s">
+        <v>28</v>
+      </c>
+      <c r="F209" t="s">
+        <v>31</v>
+      </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209" t="s">
+        <v>49</v>
+      </c>
+      <c r="J209">
+        <v>2.15</v>
+      </c>
+      <c r="K209">
+        <v>3.2</v>
+      </c>
+      <c r="L209">
+        <v>3.1</v>
+      </c>
+      <c r="M209">
+        <v>2.25</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209">
+        <v>3.2</v>
+      </c>
+      <c r="P209">
+        <v>-0.25</v>
+      </c>
+      <c r="Q209">
+        <v>2.025</v>
+      </c>
+      <c r="R209">
+        <v>1.825</v>
+      </c>
+      <c r="S209">
+        <v>2.25</v>
+      </c>
+      <c r="T209">
+        <v>2.025</v>
+      </c>
+      <c r="U209">
+        <v>1.825</v>
+      </c>
+      <c r="V209">
+        <v>1.25</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>1.025</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>1.025</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8163254</t>
+  </si>
+  <si>
+    <t>8163240</t>
+  </si>
+  <si>
+    <t>8163255</t>
+  </si>
+  <si>
+    <t>8163719</t>
+  </si>
+  <si>
+    <t>8163256</t>
+  </si>
+  <si>
+    <t>8163252</t>
+  </si>
+  <si>
+    <t>8163257</t>
+  </si>
+  <si>
+    <t>8163258</t>
   </si>
   <si>
     <t>Uruguay Primera División</t>
@@ -525,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB209"/>
+  <dimension ref="A1:AB217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +646,16 @@
         <v>7013887</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>45156.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -640,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -708,16 +732,16 @@
         <v>7072453</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -726,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -794,16 +818,16 @@
         <v>7072454</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -812,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -880,16 +904,16 @@
         <v>7013681</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>45157.64583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -898,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J5">
         <v>5.25</v>
@@ -966,16 +990,16 @@
         <v>7013835</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>45157.75</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -984,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1052,16 +1076,16 @@
         <v>7013832</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1070,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <v>1.8</v>
@@ -1138,16 +1162,16 @@
         <v>7072455</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1156,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1224,16 +1248,16 @@
         <v>7013383</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1242,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J9">
         <v>2.55</v>
@@ -1310,16 +1334,16 @@
         <v>7013838</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1328,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J10">
         <v>2.1</v>
@@ -1396,16 +1420,16 @@
         <v>7013837</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>45163.75</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1414,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>1.727</v>
@@ -1482,16 +1506,16 @@
         <v>7013888</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1500,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1568,16 +1592,16 @@
         <v>7013385</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>45164.64583333334</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1586,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1654,16 +1678,16 @@
         <v>7013384</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>45164.75</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1672,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1740,16 +1764,16 @@
         <v>7013836</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1758,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J15">
         <v>2.2</v>
@@ -1826,16 +1850,16 @@
         <v>7013839</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1844,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1912,16 +1936,16 @@
         <v>7013683</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1930,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -1998,16 +2022,16 @@
         <v>7013843</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>45170.79166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2016,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J18">
         <v>2.45</v>
@@ -2084,16 +2108,16 @@
         <v>7013685</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2102,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2170,16 +2194,16 @@
         <v>7013684</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>45171.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2188,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2256,16 +2280,16 @@
         <v>7140485</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2274,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2342,16 +2366,16 @@
         <v>7013386</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2360,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J22">
         <v>3.2</v>
@@ -2428,16 +2452,16 @@
         <v>7013842</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>45172.625</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2446,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2514,16 +2538,16 @@
         <v>7013410</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>45172.75</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2532,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J24">
         <v>1.3</v>
@@ -2600,16 +2624,16 @@
         <v>7013841</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>45172.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2618,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2686,16 +2710,16 @@
         <v>7275170</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>45204.83333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2704,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J26">
         <v>4.333</v>
@@ -2772,16 +2796,16 @@
         <v>7275516</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2790,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J27">
         <v>1.95</v>
@@ -2858,16 +2882,16 @@
         <v>7286102</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2876,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J28">
         <v>2.625</v>
@@ -2944,16 +2968,16 @@
         <v>7275171</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>45206.625</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2962,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J29">
         <v>1.7</v>
@@ -3030,16 +3054,16 @@
         <v>7286047</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3048,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3116,16 +3140,16 @@
         <v>7286046</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3134,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J31">
         <v>3.4</v>
@@ -3202,16 +3226,16 @@
         <v>7286103</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3220,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J32">
         <v>2.375</v>
@@ -3288,16 +3312,16 @@
         <v>7275517</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2">
         <v>45207.75</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3306,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J33">
         <v>2.625</v>
@@ -3374,16 +3398,16 @@
         <v>7322838</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>45212.66666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3392,7 +3416,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J34">
         <v>1.909</v>
@@ -3460,16 +3484,16 @@
         <v>7322841</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>45212.77083333334</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3478,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J35">
         <v>1.909</v>
@@ -3546,16 +3570,16 @@
         <v>7322840</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
         <v>45212.875</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3564,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J36">
         <v>4.333</v>
@@ -3632,16 +3656,16 @@
         <v>7322842</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>45213.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3650,7 +3674,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3718,16 +3742,16 @@
         <v>7322837</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <v>45213.6875</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3736,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3804,16 +3828,16 @@
         <v>7307799</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2">
         <v>45213.79166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3822,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J39">
         <v>2.2</v>
@@ -3890,16 +3914,16 @@
         <v>7322839</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2">
         <v>45214.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3908,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J40">
         <v>2.375</v>
@@ -3976,16 +4000,16 @@
         <v>7322836</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>45214.77083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3994,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4062,16 +4086,16 @@
         <v>7325460</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>45217.5</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4080,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4148,16 +4172,16 @@
         <v>7325461</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>45217.60416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4166,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J43">
         <v>2.7</v>
@@ -4234,16 +4258,16 @@
         <v>7325462</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>45217.70833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4252,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J44">
         <v>2.2</v>
@@ -4320,16 +4344,16 @@
         <v>7325463</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
         <v>45217.8125</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4338,7 +4362,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4406,16 +4430,16 @@
         <v>7325464</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2">
         <v>45218.5</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4424,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J46">
         <v>2.375</v>
@@ -4492,16 +4516,16 @@
         <v>7325465</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2">
         <v>45218.60416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4510,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J47">
         <v>2.3</v>
@@ -4578,16 +4602,16 @@
         <v>7325466</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2">
         <v>45218.70833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4596,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J48">
         <v>3</v>
@@ -4664,16 +4688,16 @@
         <v>7325467</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
         <v>45218.84375</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4682,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J49">
         <v>4.2</v>
@@ -4750,16 +4774,16 @@
         <v>7013854</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2">
         <v>45220.79166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4768,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J50">
         <v>1.615</v>
@@ -4836,16 +4860,16 @@
         <v>7013855</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4854,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J51">
         <v>2.3</v>
@@ -4922,16 +4946,16 @@
         <v>7013692</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2">
         <v>45221.66666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4940,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J52">
         <v>3.1</v>
@@ -5008,16 +5032,16 @@
         <v>7013891</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5026,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J53">
         <v>2.875</v>
@@ -5094,16 +5118,16 @@
         <v>7013393</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2">
         <v>45222.70833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5112,7 +5136,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -5180,16 +5204,16 @@
         <v>7013394</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2">
         <v>45222.84375</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5198,7 +5222,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J55">
         <v>1.4</v>
@@ -5266,16 +5290,16 @@
         <v>7013691</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2">
         <v>45223.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5284,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J56">
         <v>2.5</v>
@@ -5352,16 +5376,16 @@
         <v>7013856</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2">
         <v>45223.8125</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5370,7 +5394,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5438,16 +5462,16 @@
         <v>7013858</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2">
         <v>45233.79166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5456,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J58">
         <v>2.4</v>
@@ -5524,16 +5548,16 @@
         <v>7013857</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2">
         <v>45234.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5542,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5610,16 +5634,16 @@
         <v>7013859</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2">
         <v>45234.70833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5628,7 +5652,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J60">
         <v>2.45</v>
@@ -5696,16 +5720,16 @@
         <v>7013396</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5714,7 +5738,7 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J61">
         <v>3.75</v>
@@ -5782,16 +5806,16 @@
         <v>7013860</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5800,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J62">
         <v>2.05</v>
@@ -5868,16 +5892,16 @@
         <v>7013892</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5886,7 +5910,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J63">
         <v>3.4</v>
@@ -5954,16 +5978,16 @@
         <v>7013395</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5972,7 +5996,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J64">
         <v>1.75</v>
@@ -6040,16 +6064,16 @@
         <v>7013693</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6058,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6126,16 +6150,16 @@
         <v>7013397</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6144,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J66">
         <v>1.615</v>
@@ -6212,16 +6236,16 @@
         <v>7013893</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6230,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6298,16 +6322,16 @@
         <v>7013861</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2">
         <v>45240.89583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6316,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6384,16 +6408,16 @@
         <v>7013694</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2">
         <v>45241.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6402,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J69">
         <v>2.15</v>
@@ -6470,16 +6494,16 @@
         <v>7013398</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2">
         <v>45241.6875</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6488,7 +6512,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6556,16 +6580,16 @@
         <v>7013863</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D71" s="2">
         <v>45241.8125</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6574,7 +6598,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J71">
         <v>2.15</v>
@@ -6642,16 +6666,16 @@
         <v>7013862</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2">
         <v>45242.6875</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6660,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J72">
         <v>2.375</v>
@@ -6728,16 +6752,16 @@
         <v>7013864</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6746,7 +6770,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J73">
         <v>2.625</v>
@@ -6814,16 +6838,16 @@
         <v>7013868</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
         <v>45244.6875</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6832,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J74">
         <v>2.2</v>
@@ -6900,16 +6924,16 @@
         <v>7013411</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2">
         <v>45244.79166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6918,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J75">
         <v>3.75</v>
@@ -6986,16 +7010,16 @@
         <v>7013695</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2">
         <v>45244.89583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7004,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J76">
         <v>1.4</v>
@@ -7072,16 +7096,16 @@
         <v>7013866</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <v>45245.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J77">
         <v>3.8</v>
@@ -7158,16 +7182,16 @@
         <v>7013867</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2">
         <v>45245.79166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7176,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7244,16 +7268,16 @@
         <v>7013399</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2">
         <v>45245.89583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7262,7 +7286,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J79">
         <v>1.615</v>
@@ -7330,16 +7354,16 @@
         <v>7013869</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2">
         <v>45246.41666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7348,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J80">
         <v>2.15</v>
@@ -7416,16 +7440,16 @@
         <v>7013865</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
         <v>45246.6875</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7434,7 +7458,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J81">
         <v>2.15</v>
@@ -7502,16 +7526,16 @@
         <v>7013894</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2">
         <v>45248.6875</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7520,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7588,16 +7612,16 @@
         <v>7013872</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2">
         <v>45248.79166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7606,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7674,16 +7698,16 @@
         <v>7013401</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2">
         <v>45249.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7692,7 +7716,7 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J84">
         <v>1.727</v>
@@ -7760,16 +7784,16 @@
         <v>7013696</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2">
         <v>45249.6875</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7778,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J85">
         <v>3.3</v>
@@ -7846,16 +7870,16 @@
         <v>7013871</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D86" s="2">
         <v>45249.79166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7864,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -7932,16 +7956,16 @@
         <v>7013873</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2">
         <v>45249.89583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7950,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8018,16 +8042,16 @@
         <v>7013400</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2">
         <v>45250.6875</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8036,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J88">
         <v>3.5</v>
@@ -8104,16 +8128,16 @@
         <v>7013870</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2">
         <v>45250.79166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8122,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J89">
         <v>1.8</v>
@@ -8190,16 +8214,16 @@
         <v>7013874</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8208,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J90">
         <v>2.1</v>
@@ -8276,16 +8300,16 @@
         <v>7013402</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2">
         <v>45254.79166666666</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8294,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J91">
         <v>4</v>
@@ -8362,16 +8386,16 @@
         <v>7013705</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D92" s="2">
         <v>45254.89583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8380,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J92">
         <v>1.444</v>
@@ -8448,16 +8472,16 @@
         <v>7013876</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8466,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J93">
         <v>2.1</v>
@@ -8534,16 +8558,16 @@
         <v>7013697</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D94" s="2">
         <v>45255.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8552,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8620,16 +8644,16 @@
         <v>7013875</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2">
         <v>45255.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8638,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8706,16 +8730,16 @@
         <v>7013877</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2">
         <v>45256.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8724,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8792,16 +8816,16 @@
         <v>7013403</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D97" s="2">
         <v>45256.8125</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8810,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J97">
         <v>1.444</v>
@@ -8878,16 +8902,16 @@
         <v>7013698</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2">
         <v>45258.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8896,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J98">
         <v>4.333</v>
@@ -8964,16 +8988,16 @@
         <v>7013895</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2">
         <v>45258.79166666666</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -8982,7 +9006,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9050,16 +9074,16 @@
         <v>7013880</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D100" s="2">
         <v>45258.88541666666</v>
       </c>
       <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
         <v>36</v>
-      </c>
-      <c r="F100" t="s">
-        <v>28</v>
       </c>
       <c r="G100">
         <v>5</v>
@@ -9068,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9136,16 +9160,16 @@
         <v>7013405</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2">
         <v>45259.6875</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9154,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9222,16 +9246,16 @@
         <v>7013699</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D102" s="2">
         <v>45259.79166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9240,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J102">
         <v>2.875</v>
@@ -9308,16 +9332,16 @@
         <v>7013879</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D103" s="2">
         <v>45259.88541666666</v>
       </c>
       <c r="E103" t="s">
+        <v>45</v>
+      </c>
+      <c r="F103" t="s">
         <v>37</v>
-      </c>
-      <c r="F103" t="s">
-        <v>29</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9326,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J103">
         <v>1.6</v>
@@ -9394,17 +9418,17 @@
         <v>7013878</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2">
         <v>45260.72916666666</v>
       </c>
       <c r="E104" t="s">
+        <v>47</v>
+      </c>
+      <c r="F104" t="s">
         <v>39</v>
       </c>
-      <c r="F104" t="s">
-        <v>31</v>
-      </c>
       <c r="G104">
         <v>0</v>
       </c>
@@ -9412,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9480,16 +9504,16 @@
         <v>7528218</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D105" s="2">
         <v>45260.85416666666</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9498,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J105">
         <v>4</v>
@@ -9566,16 +9590,16 @@
         <v>7013882</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9584,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9652,16 +9676,16 @@
         <v>7013883</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D107" s="2">
         <v>45262.6875</v>
       </c>
       <c r="E107" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9670,7 +9694,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J107">
         <v>2.5</v>
@@ -9738,16 +9762,16 @@
         <v>7013701</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2">
         <v>45262.79166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9756,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J108">
         <v>1.533</v>
@@ -9824,16 +9848,16 @@
         <v>7013406</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D109" s="2">
         <v>45262.89583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9842,7 +9866,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J109">
         <v>3.3</v>
@@ -9910,16 +9934,16 @@
         <v>7013881</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D110" s="2">
         <v>45263.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9928,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9996,16 +10020,16 @@
         <v>7013700</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2">
         <v>45263.6875</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10014,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J111">
         <v>1.909</v>
@@ -10082,16 +10106,16 @@
         <v>7013896</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2">
         <v>45264.70833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10100,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J112">
         <v>2.2</v>
@@ -10168,16 +10192,16 @@
         <v>7013407</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2">
         <v>45264.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10186,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -10254,16 +10278,16 @@
         <v>7559469</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D114" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10272,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J114">
         <v>4.75</v>
@@ -10340,16 +10364,16 @@
         <v>7559468</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D115" s="2">
         <v>45266.70833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10358,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J115">
         <v>1.7</v>
@@ -10426,16 +10450,16 @@
         <v>7559905</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D116" s="2">
         <v>45266.8125</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10444,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -10512,16 +10536,16 @@
         <v>7013885</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D117" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10530,7 +10554,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J117">
         <v>3</v>
@@ -10598,16 +10622,16 @@
         <v>7013702</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D118" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10616,7 +10640,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J118">
         <v>1.8</v>
@@ -10684,16 +10708,16 @@
         <v>7013409</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10702,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J119">
         <v>1.666</v>
@@ -10770,16 +10794,16 @@
         <v>7013886</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D120" s="2">
         <v>45267.70833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10788,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J120">
         <v>2.25</v>
@@ -10856,16 +10880,16 @@
         <v>7560164</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D121" s="2">
         <v>45268.70833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10874,7 +10898,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10942,16 +10966,16 @@
         <v>7797510</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2">
         <v>45338.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10960,7 +10984,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J122">
         <v>1.6</v>
@@ -11028,16 +11052,16 @@
         <v>7797528</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2">
         <v>45339.70833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11046,7 +11070,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J123">
         <v>2.6</v>
@@ -11114,16 +11138,16 @@
         <v>7797532</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>45339.80208333334</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11132,7 +11156,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J124">
         <v>2.5</v>
@@ -11200,16 +11224,16 @@
         <v>7797529</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11218,7 +11242,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J125">
         <v>2.3</v>
@@ -11286,16 +11310,16 @@
         <v>7797530</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D126" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11304,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11372,16 +11396,16 @@
         <v>7796575</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D127" s="2">
         <v>45340.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11390,7 +11414,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J127">
         <v>3.8</v>
@@ -11458,16 +11482,16 @@
         <v>7797533</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D128" s="2">
         <v>45340.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11476,7 +11500,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J128">
         <v>5.25</v>
@@ -11544,16 +11568,16 @@
         <v>7825144</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D129" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -11562,7 +11586,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J129">
         <v>2.375</v>
@@ -11630,16 +11654,16 @@
         <v>7825145</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D130" s="2">
         <v>45345.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11648,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J130">
         <v>2.5</v>
@@ -11716,16 +11740,16 @@
         <v>7825143</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11734,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11802,16 +11826,16 @@
         <v>7825103</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2">
         <v>45346.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11820,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J132">
         <v>1.4</v>
@@ -11888,16 +11912,16 @@
         <v>7825146</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2">
         <v>45347.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11906,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J133">
         <v>2.625</v>
@@ -11974,16 +11998,16 @@
         <v>7825104</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D134" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11992,7 +12016,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J134">
         <v>2.875</v>
@@ -12060,16 +12084,16 @@
         <v>7825147</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2">
         <v>45347.8125</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -12078,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12146,16 +12170,16 @@
         <v>7870599</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12164,7 +12188,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J136">
         <v>2.05</v>
@@ -12232,16 +12256,16 @@
         <v>7870600</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2">
         <v>45352.8125</v>
       </c>
       <c r="E137" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12250,7 +12274,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J137">
         <v>2.875</v>
@@ -12318,16 +12342,16 @@
         <v>7870604</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D138" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12336,7 +12360,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J138">
         <v>3.75</v>
@@ -12404,16 +12428,16 @@
         <v>7870605</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
         <v>45353.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12422,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J139">
         <v>3.6</v>
@@ -12490,16 +12514,16 @@
         <v>7870606</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12508,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J140">
         <v>1.533</v>
@@ -12576,16 +12600,16 @@
         <v>7870601</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D141" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12618,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J141">
         <v>2.375</v>
@@ -12662,16 +12686,16 @@
         <v>7870602</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12680,7 +12704,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J142">
         <v>1.909</v>
@@ -12748,16 +12772,16 @@
         <v>7870603</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D143" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12766,7 +12790,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J143">
         <v>4</v>
@@ -12834,16 +12858,16 @@
         <v>7913218</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D144" s="2">
         <v>45359.85416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12852,7 +12876,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J144">
         <v>2.625</v>
@@ -12920,16 +12944,16 @@
         <v>7913219</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D145" s="2">
         <v>45360.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12938,7 +12962,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J145">
         <v>2.375</v>
@@ -13006,16 +13030,16 @@
         <v>7913223</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2">
         <v>45360.8125</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13024,7 +13048,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13092,16 +13116,16 @@
         <v>7913221</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D147" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13110,7 +13134,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13178,16 +13202,16 @@
         <v>7913222</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D148" s="2">
         <v>45361.6875</v>
       </c>
       <c r="E148" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13196,7 +13220,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J148">
         <v>2.75</v>
@@ -13264,16 +13288,16 @@
         <v>7913220</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D149" s="2">
         <v>45361.8125</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13282,7 +13306,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J149">
         <v>2.375</v>
@@ -13350,16 +13374,16 @@
         <v>7913224</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D150" s="2">
         <v>45362.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13368,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J150">
         <v>1.909</v>
@@ -13436,16 +13460,16 @@
         <v>7913225</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D151" s="2">
         <v>45362.79166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13454,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13522,16 +13546,16 @@
         <v>7922351</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D152" s="2">
         <v>45366.8125</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13540,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J152">
         <v>3</v>
@@ -13608,16 +13632,16 @@
         <v>7922352</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D153" s="2">
         <v>45367.6875</v>
       </c>
       <c r="E153" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13626,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J153">
         <v>2.5</v>
@@ -13694,16 +13718,16 @@
         <v>7922353</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D154" s="2">
         <v>45367.8125</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13712,7 +13736,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J154">
         <v>4.5</v>
@@ -13780,16 +13804,16 @@
         <v>7990770</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D155" s="2">
         <v>45374.5625</v>
       </c>
       <c r="E155" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13798,7 +13822,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J155">
         <v>2.8</v>
@@ -13866,16 +13890,16 @@
         <v>7990771</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D156" s="2">
         <v>45374.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13884,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J156">
         <v>1.4</v>
@@ -13952,16 +13976,16 @@
         <v>7990728</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D157" s="2">
         <v>45374.875</v>
       </c>
       <c r="E157" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13970,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J157">
         <v>4.2</v>
@@ -14038,16 +14062,16 @@
         <v>7990772</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2">
         <v>45375.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14056,7 +14080,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14124,16 +14148,16 @@
         <v>7990776</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D159" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14142,7 +14166,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J159">
         <v>1.833</v>
@@ -14210,16 +14234,16 @@
         <v>8009735</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D160" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -14228,7 +14252,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14296,16 +14320,16 @@
         <v>7994681</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D161" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14314,7 +14338,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J161">
         <v>2.3</v>
@@ -14382,16 +14406,16 @@
         <v>7994680</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14400,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14468,16 +14492,16 @@
         <v>7994520</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D163" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14486,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J163">
         <v>2.8</v>
@@ -14554,16 +14578,16 @@
         <v>7994682</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D164" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14572,7 +14596,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J164">
         <v>1.909</v>
@@ -14640,16 +14664,16 @@
         <v>7994684</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D165" s="2">
         <v>45381.79166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14658,7 +14682,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14726,16 +14750,16 @@
         <v>7995146</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D166" s="2">
         <v>45382.625</v>
       </c>
       <c r="E166" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14744,7 +14768,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J166">
         <v>2.4</v>
@@ -14812,16 +14836,16 @@
         <v>7995141</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D167" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14830,7 +14854,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J167">
         <v>2.6</v>
@@ -14898,16 +14922,16 @@
         <v>7994683</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D168" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14916,7 +14940,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -14984,16 +15008,16 @@
         <v>8014131</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D169" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15002,7 +15026,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J169">
         <v>2.875</v>
@@ -15070,16 +15094,16 @@
         <v>8014133</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D170" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15088,7 +15112,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15156,16 +15180,16 @@
         <v>8014044</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D171" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15174,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J171">
         <v>1.909</v>
@@ -15242,16 +15266,16 @@
         <v>8014043</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D172" s="2">
         <v>45388.625</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15260,7 +15284,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J172">
         <v>2.375</v>
@@ -15328,16 +15352,16 @@
         <v>8014089</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D173" s="2">
         <v>45388.75</v>
       </c>
       <c r="E173" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15346,7 +15370,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J173">
         <v>1.5</v>
@@ -15414,16 +15438,16 @@
         <v>8014132</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D174" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15432,7 +15456,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J174">
         <v>2.2</v>
@@ -15500,16 +15524,16 @@
         <v>8014090</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D175" s="2">
         <v>45389.625</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15518,7 +15542,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15586,16 +15610,16 @@
         <v>8014091</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D176" s="2">
         <v>45389.75</v>
       </c>
       <c r="E176" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15604,7 +15628,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J176">
         <v>5</v>
@@ -15672,16 +15696,16 @@
         <v>8051184</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D177" s="2">
         <v>45395.625</v>
       </c>
       <c r="E177" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15690,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J177">
         <v>2.375</v>
@@ -15758,16 +15782,16 @@
         <v>8051185</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D178" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E178" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15776,7 +15800,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J178">
         <v>2.375</v>
@@ -15844,16 +15868,16 @@
         <v>8051186</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D179" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15862,7 +15886,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J179">
         <v>2.3</v>
@@ -15930,16 +15954,16 @@
         <v>8051004</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15948,7 +15972,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J180">
         <v>3.2</v>
@@ -16016,16 +16040,16 @@
         <v>8051187</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D181" s="2">
         <v>45396.625</v>
       </c>
       <c r="E181" t="s">
+        <v>45</v>
+      </c>
+      <c r="F181" t="s">
         <v>37</v>
-      </c>
-      <c r="F181" t="s">
-        <v>29</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16034,7 +16058,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J181">
         <v>1.727</v>
@@ -16102,16 +16126,16 @@
         <v>8050911</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D182" s="2">
         <v>45396.75</v>
       </c>
       <c r="E182" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16120,7 +16144,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16188,16 +16212,16 @@
         <v>8050912</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D183" s="2">
         <v>45398.75</v>
       </c>
       <c r="E183" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16206,7 +16230,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J183">
         <v>3.2</v>
@@ -16274,16 +16298,16 @@
         <v>8050913</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D184" s="2">
         <v>45398.85416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16292,7 +16316,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J184">
         <v>5</v>
@@ -16360,16 +16384,16 @@
         <v>8081163</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D185" s="2">
         <v>45401.5625</v>
       </c>
       <c r="E185" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16378,7 +16402,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J185">
         <v>2.3</v>
@@ -16446,16 +16470,16 @@
         <v>8081435</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D186" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16464,7 +16488,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J186">
         <v>2.375</v>
@@ -16532,16 +16556,16 @@
         <v>8081162</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D187" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16550,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J187">
         <v>2.3</v>
@@ -16618,16 +16642,16 @@
         <v>8081144</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D188" s="2">
         <v>45402.625</v>
       </c>
       <c r="E188" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16636,7 +16660,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J188">
         <v>4.75</v>
@@ -16704,16 +16728,16 @@
         <v>8081249</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D189" s="2">
         <v>45402.75</v>
       </c>
       <c r="E189" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G189">
         <v>6</v>
@@ -16722,7 +16746,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J189">
         <v>1.444</v>
@@ -16790,16 +16814,16 @@
         <v>8081250</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D190" s="2">
         <v>45402.85416666666</v>
       </c>
       <c r="E190" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16808,7 +16832,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J190">
         <v>2.2</v>
@@ -16876,16 +16900,16 @@
         <v>8081251</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D191" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E191" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16894,7 +16918,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J191">
         <v>2.5</v>
@@ -16962,16 +16986,16 @@
         <v>8081885</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D192" s="2">
         <v>45403.64583333334</v>
       </c>
       <c r="E192" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F192" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16980,7 +17004,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J192">
         <v>2.625</v>
@@ -17048,16 +17072,16 @@
         <v>8110829</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D193" s="2">
         <v>45406.625</v>
       </c>
       <c r="E193" t="s">
+        <v>53</v>
+      </c>
+      <c r="F193" t="s">
         <v>45</v>
-      </c>
-      <c r="F193" t="s">
-        <v>37</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17066,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J193">
         <v>5</v>
@@ -17134,16 +17158,16 @@
         <v>8134007</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D194" s="2">
         <v>45409.52083333334</v>
       </c>
       <c r="E194" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F194" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17152,7 +17176,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J194">
         <v>2.875</v>
@@ -17220,16 +17244,16 @@
         <v>8134008</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D195" s="2">
         <v>45409.625</v>
       </c>
       <c r="E195" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17238,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J195">
         <v>2.75</v>
@@ -17306,16 +17330,16 @@
         <v>8105643</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17324,7 +17348,7 @@
         <v>5</v>
       </c>
       <c r="I196" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J196">
         <v>3.2</v>
@@ -17392,16 +17416,16 @@
         <v>8105495</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
         <v>45410.625</v>
       </c>
       <c r="E197" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17410,7 +17434,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J197">
         <v>2.9</v>
@@ -17478,16 +17502,16 @@
         <v>8105644</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D198" s="2">
         <v>45410.75</v>
       </c>
       <c r="E198" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17496,7 +17520,7 @@
         <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J198">
         <v>5.5</v>
@@ -17564,16 +17588,16 @@
         <v>8105645</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D199" s="2">
         <v>45410.85416666666</v>
       </c>
       <c r="E199" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17582,7 +17606,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J199">
         <v>1.615</v>
@@ -17650,16 +17674,16 @@
         <v>8105646</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D200" s="2">
         <v>45411.625</v>
       </c>
       <c r="E200" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17668,7 +17692,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J200">
         <v>2.3</v>
@@ -17736,16 +17760,16 @@
         <v>8105807</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D201" s="2">
         <v>45411.83333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G201">
         <v>3</v>
@@ -17754,7 +17778,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J201">
         <v>1.333</v>
@@ -17822,16 +17846,16 @@
         <v>8137821</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D202" s="2">
         <v>45415.52083333334</v>
       </c>
       <c r="E202" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17840,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J202">
         <v>1.8</v>
@@ -17908,16 +17932,16 @@
         <v>8137845</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D203" s="2">
         <v>45415.625</v>
       </c>
       <c r="E203" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17926,7 +17950,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J203">
         <v>4</v>
@@ -17994,16 +18018,16 @@
         <v>8137820</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D204" s="2">
         <v>45415.83333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G204">
         <v>4</v>
@@ -18012,7 +18036,7 @@
         <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J204">
         <v>1.4</v>
@@ -18080,16 +18104,16 @@
         <v>8138224</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D205" s="2">
         <v>45416.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18098,7 +18122,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J205">
         <v>1.909</v>
@@ -18166,16 +18190,16 @@
         <v>8138225</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D206" s="2">
         <v>45416.625</v>
       </c>
       <c r="E206" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18184,7 +18208,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J206">
         <v>3.1</v>
@@ -18252,16 +18276,16 @@
         <v>8138226</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D207" s="2">
         <v>45417.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18270,7 +18294,7 @@
         <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J207">
         <v>2.75</v>
@@ -18338,16 +18362,16 @@
         <v>8138227</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D208" s="2">
         <v>45417.625</v>
       </c>
       <c r="E208" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18356,7 +18380,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J208">
         <v>4</v>
@@ -18424,16 +18448,16 @@
         <v>8138228</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D209" s="2">
         <v>45417.72916666666</v>
       </c>
       <c r="E209" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18442,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J209">
         <v>2.15</v>
@@ -18500,6 +18524,526 @@
       </c>
       <c r="AB209">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:28">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>27</v>
+      </c>
+      <c r="C210" t="s">
+        <v>35</v>
+      </c>
+      <c r="D210" s="2">
+        <v>45422.83333333334</v>
+      </c>
+      <c r="E210" t="s">
+        <v>51</v>
+      </c>
+      <c r="F210" t="s">
+        <v>38</v>
+      </c>
+      <c r="J210">
+        <v>1.444</v>
+      </c>
+      <c r="K210">
+        <v>4.333</v>
+      </c>
+      <c r="L210">
+        <v>6.5</v>
+      </c>
+      <c r="M210">
+        <v>1.4</v>
+      </c>
+      <c r="N210">
+        <v>4.5</v>
+      </c>
+      <c r="O210">
+        <v>7</v>
+      </c>
+      <c r="P210">
+        <v>-1.25</v>
+      </c>
+      <c r="Q210">
+        <v>1.925</v>
+      </c>
+      <c r="R210">
+        <v>1.925</v>
+      </c>
+      <c r="S210">
+        <v>2.5</v>
+      </c>
+      <c r="T210">
+        <v>1.925</v>
+      </c>
+      <c r="U210">
+        <v>1.925</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" t="s">
+        <v>35</v>
+      </c>
+      <c r="D211" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="E211" t="s">
+        <v>39</v>
+      </c>
+      <c r="F211" t="s">
+        <v>42</v>
+      </c>
+      <c r="J211">
+        <v>2.7</v>
+      </c>
+      <c r="K211">
+        <v>2.9</v>
+      </c>
+      <c r="L211">
+        <v>2.8</v>
+      </c>
+      <c r="M211">
+        <v>2.8</v>
+      </c>
+      <c r="N211">
+        <v>2.9</v>
+      </c>
+      <c r="O211">
+        <v>2.7</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>1.975</v>
+      </c>
+      <c r="R211">
+        <v>1.875</v>
+      </c>
+      <c r="S211">
+        <v>2</v>
+      </c>
+      <c r="T211">
+        <v>1.9</v>
+      </c>
+      <c r="U211">
+        <v>1.95</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>29</v>
+      </c>
+      <c r="C212" t="s">
+        <v>35</v>
+      </c>
+      <c r="D212" s="2">
+        <v>45423.52083333334</v>
+      </c>
+      <c r="E212" t="s">
+        <v>52</v>
+      </c>
+      <c r="F212" t="s">
+        <v>37</v>
+      </c>
+      <c r="J212">
+        <v>2.375</v>
+      </c>
+      <c r="K212">
+        <v>3.2</v>
+      </c>
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>2.5</v>
+      </c>
+      <c r="N212">
+        <v>3.2</v>
+      </c>
+      <c r="O212">
+        <v>2.875</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <v>1.8</v>
+      </c>
+      <c r="R212">
+        <v>2.05</v>
+      </c>
+      <c r="S212">
+        <v>2.25</v>
+      </c>
+      <c r="T212">
+        <v>1.975</v>
+      </c>
+      <c r="U212">
+        <v>1.875</v>
+      </c>
+      <c r="V212">
+        <v>0</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:28">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>30</v>
+      </c>
+      <c r="C213" t="s">
+        <v>35</v>
+      </c>
+      <c r="D213" s="2">
+        <v>45423.625</v>
+      </c>
+      <c r="E213" t="s">
+        <v>48</v>
+      </c>
+      <c r="F213" t="s">
+        <v>36</v>
+      </c>
+      <c r="J213">
+        <v>2.2</v>
+      </c>
+      <c r="K213">
+        <v>3.3</v>
+      </c>
+      <c r="L213">
+        <v>3.2</v>
+      </c>
+      <c r="M213">
+        <v>2.2</v>
+      </c>
+      <c r="N213">
+        <v>3.3</v>
+      </c>
+      <c r="O213">
+        <v>3.2</v>
+      </c>
+      <c r="P213">
+        <v>-0.25</v>
+      </c>
+      <c r="Q213">
+        <v>1.95</v>
+      </c>
+      <c r="R213">
+        <v>1.9</v>
+      </c>
+      <c r="S213">
+        <v>2.25</v>
+      </c>
+      <c r="T213">
+        <v>1.875</v>
+      </c>
+      <c r="U213">
+        <v>1.975</v>
+      </c>
+      <c r="V213">
+        <v>0</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:28">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>31</v>
+      </c>
+      <c r="C214" t="s">
+        <v>35</v>
+      </c>
+      <c r="D214" s="2">
+        <v>45423.75</v>
+      </c>
+      <c r="E214" t="s">
+        <v>49</v>
+      </c>
+      <c r="F214" t="s">
+        <v>40</v>
+      </c>
+      <c r="J214">
+        <v>1.444</v>
+      </c>
+      <c r="K214">
+        <v>4.333</v>
+      </c>
+      <c r="L214">
+        <v>7</v>
+      </c>
+      <c r="M214">
+        <v>1.4</v>
+      </c>
+      <c r="N214">
+        <v>4.5</v>
+      </c>
+      <c r="O214">
+        <v>8</v>
+      </c>
+      <c r="P214">
+        <v>-1.25</v>
+      </c>
+      <c r="Q214">
+        <v>1.925</v>
+      </c>
+      <c r="R214">
+        <v>1.925</v>
+      </c>
+      <c r="S214">
+        <v>2.5</v>
+      </c>
+      <c r="T214">
+        <v>1.95</v>
+      </c>
+      <c r="U214">
+        <v>1.9</v>
+      </c>
+      <c r="V214">
+        <v>0</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:28">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>32</v>
+      </c>
+      <c r="C215" t="s">
+        <v>35</v>
+      </c>
+      <c r="D215" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="E215" t="s">
+        <v>47</v>
+      </c>
+      <c r="F215" t="s">
+        <v>43</v>
+      </c>
+      <c r="J215">
+        <v>2.75</v>
+      </c>
+      <c r="K215">
+        <v>3.1</v>
+      </c>
+      <c r="L215">
+        <v>2.625</v>
+      </c>
+      <c r="M215">
+        <v>2.75</v>
+      </c>
+      <c r="N215">
+        <v>3.1</v>
+      </c>
+      <c r="O215">
+        <v>2.625</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>1.975</v>
+      </c>
+      <c r="R215">
+        <v>1.875</v>
+      </c>
+      <c r="S215">
+        <v>2.25</v>
+      </c>
+      <c r="T215">
+        <v>1.9</v>
+      </c>
+      <c r="U215">
+        <v>1.95</v>
+      </c>
+      <c r="V215">
+        <v>0</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:28">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>33</v>
+      </c>
+      <c r="C216" t="s">
+        <v>35</v>
+      </c>
+      <c r="D216" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="E216" t="s">
+        <v>53</v>
+      </c>
+      <c r="F216" t="s">
+        <v>41</v>
+      </c>
+      <c r="J216">
+        <v>3.3</v>
+      </c>
+      <c r="K216">
+        <v>3.2</v>
+      </c>
+      <c r="L216">
+        <v>2.15</v>
+      </c>
+      <c r="M216">
+        <v>3.3</v>
+      </c>
+      <c r="N216">
+        <v>3.2</v>
+      </c>
+      <c r="O216">
+        <v>2.15</v>
+      </c>
+      <c r="P216">
+        <v>0.25</v>
+      </c>
+      <c r="Q216">
+        <v>1.975</v>
+      </c>
+      <c r="R216">
+        <v>1.875</v>
+      </c>
+      <c r="S216">
+        <v>2.5</v>
+      </c>
+      <c r="T216">
+        <v>1.975</v>
+      </c>
+      <c r="U216">
+        <v>1.875</v>
+      </c>
+      <c r="V216">
+        <v>0</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:28">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>34</v>
+      </c>
+      <c r="C217" t="s">
+        <v>35</v>
+      </c>
+      <c r="D217" s="2">
+        <v>45424.625</v>
+      </c>
+      <c r="E217" t="s">
+        <v>54</v>
+      </c>
+      <c r="F217" t="s">
+        <v>45</v>
+      </c>
+      <c r="J217">
+        <v>3.25</v>
+      </c>
+      <c r="K217">
+        <v>3.3</v>
+      </c>
+      <c r="L217">
+        <v>2.15</v>
+      </c>
+      <c r="M217">
+        <v>3.25</v>
+      </c>
+      <c r="N217">
+        <v>3.3</v>
+      </c>
+      <c r="O217">
+        <v>2.15</v>
+      </c>
+      <c r="P217">
+        <v>0.25</v>
+      </c>
+      <c r="Q217">
+        <v>1.95</v>
+      </c>
+      <c r="R217">
+        <v>1.9</v>
+      </c>
+      <c r="S217">
+        <v>2.5</v>
+      </c>
+      <c r="T217">
+        <v>1.925</v>
+      </c>
+      <c r="U217">
+        <v>1.925</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -10275,7 +10275,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7559469</v>
+        <v>7559468</v>
       </c>
       <c r="C114" t="s">
         <v>35</v>
@@ -10284,76 +10284,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J114">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="K114">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L114">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="M114">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N114">
         <v>3.2</v>
       </c>
       <c r="O114">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10361,7 +10361,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7559468</v>
+        <v>7559469</v>
       </c>
       <c r="C115" t="s">
         <v>35</v>
@@ -10370,76 +10370,76 @@
         <v>45266.70833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J115">
+        <v>4.75</v>
+      </c>
+      <c r="K115">
+        <v>3.4</v>
+      </c>
+      <c r="L115">
         <v>1.7</v>
       </c>
-      <c r="K115">
-        <v>3</v>
-      </c>
-      <c r="L115">
-        <v>5.75</v>
-      </c>
       <c r="M115">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="N115">
         <v>3.2</v>
       </c>
       <c r="O115">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="P115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10533,7 +10533,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7013885</v>
+        <v>7013409</v>
       </c>
       <c r="C117" t="s">
         <v>35</v>
@@ -10542,76 +10542,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J117">
+        <v>1.666</v>
+      </c>
+      <c r="K117">
+        <v>3.9</v>
+      </c>
+      <c r="L117">
+        <v>4.5</v>
+      </c>
+      <c r="M117">
+        <v>1.615</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <v>4.75</v>
+      </c>
+      <c r="P117">
+        <v>-0.75</v>
+      </c>
+      <c r="Q117">
+        <v>1.8</v>
+      </c>
+      <c r="R117">
+        <v>2.05</v>
+      </c>
+      <c r="S117">
+        <v>2.75</v>
+      </c>
+      <c r="T117">
+        <v>1.95</v>
+      </c>
+      <c r="U117">
+        <v>1.9</v>
+      </c>
+      <c r="V117">
+        <v>-1</v>
+      </c>
+      <c r="W117">
         <v>3</v>
       </c>
-      <c r="K117">
-        <v>3</v>
-      </c>
-      <c r="L117">
-        <v>2.4</v>
-      </c>
-      <c r="M117">
-        <v>2.9</v>
-      </c>
-      <c r="N117">
-        <v>2.75</v>
-      </c>
-      <c r="O117">
-        <v>2.6</v>
-      </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-      <c r="Q117">
-        <v>2.025</v>
-      </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>2.025</v>
-      </c>
-      <c r="U117">
-        <v>1.825</v>
-      </c>
-      <c r="V117">
-        <v>-1</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
       <c r="X117">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10619,7 +10619,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7013702</v>
+        <v>7013885</v>
       </c>
       <c r="C118" t="s">
         <v>35</v>
@@ -10628,10 +10628,10 @@
         <v>45267.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10643,40 +10643,40 @@
         <v>56</v>
       </c>
       <c r="J118">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="M118">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N118">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="P118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
         <v>-1</v>
@@ -10685,19 +10685,19 @@
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB118">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10705,7 +10705,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7013409</v>
+        <v>7013886</v>
       </c>
       <c r="C119" t="s">
         <v>35</v>
@@ -10714,76 +10714,76 @@
         <v>45267.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J119">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="K119">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L119">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N119">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O119">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q119">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
         <v>-1</v>
       </c>
       <c r="W119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10791,7 +10791,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7013886</v>
+        <v>7013702</v>
       </c>
       <c r="C120" t="s">
         <v>35</v>
@@ -10800,55 +10800,55 @@
         <v>45267.70833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="s">
         <v>56</v>
       </c>
       <c r="J120">
+        <v>1.8</v>
+      </c>
+      <c r="K120">
+        <v>3.6</v>
+      </c>
+      <c r="L120">
+        <v>4.2</v>
+      </c>
+      <c r="M120">
+        <v>1.8</v>
+      </c>
+      <c r="N120">
+        <v>3.6</v>
+      </c>
+      <c r="O120">
+        <v>4.2</v>
+      </c>
+      <c r="P120">
+        <v>-0.75</v>
+      </c>
+      <c r="Q120">
+        <v>2.05</v>
+      </c>
+      <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
         <v>2.25</v>
       </c>
-      <c r="K120">
-        <v>3.1</v>
-      </c>
-      <c r="L120">
-        <v>3.25</v>
-      </c>
-      <c r="M120">
-        <v>2.25</v>
-      </c>
-      <c r="N120">
-        <v>2.875</v>
-      </c>
-      <c r="O120">
-        <v>3.5</v>
-      </c>
-      <c r="P120">
-        <v>-0.25</v>
-      </c>
-      <c r="Q120">
-        <v>1.95</v>
-      </c>
-      <c r="R120">
-        <v>1.9</v>
-      </c>
-      <c r="S120">
-        <v>2</v>
-      </c>
       <c r="T120">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V120">
         <v>-1</v>
@@ -10857,19 +10857,19 @@
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -18555,31 +18555,31 @@
         <v>6.5</v>
       </c>
       <c r="M210">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="N210">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O210">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P210">
         <v>-1.25</v>
       </c>
       <c r="Q210">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S210">
         <v>2.5</v>
       </c>
       <c r="T210">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V210">
         <v>0</v>
@@ -18620,13 +18620,13 @@
         <v>2.8</v>
       </c>
       <c r="M211">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N211">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O211">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -18638,7 +18638,7 @@
         <v>1.875</v>
       </c>
       <c r="S211">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T211">
         <v>1.9</v>
@@ -18880,31 +18880,31 @@
         <v>2.625</v>
       </c>
       <c r="M215">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N215">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O215">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="P215">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q215">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R215">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S215">
         <v>2.25</v>
       </c>
       <c r="T215">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
         <v>0</v>

--- a/Uruguay Primera División/Uruguay Primera División.xlsx
+++ b/Uruguay Primera División/Uruguay Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -95,30 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8163254</t>
-  </si>
-  <si>
-    <t>8163240</t>
-  </si>
-  <si>
-    <t>8163255</t>
-  </si>
-  <si>
-    <t>8163719</t>
-  </si>
-  <si>
-    <t>8163256</t>
-  </si>
-  <si>
-    <t>8163252</t>
-  </si>
-  <si>
-    <t>8163257</t>
-  </si>
-  <si>
-    <t>8163258</t>
   </si>
   <si>
     <t>Uruguay Primera División</t>
@@ -549,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB217"/>
+  <dimension ref="A1:AB209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,16 +622,16 @@
         <v>7013887</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45156.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -664,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -732,25 +708,25 @@
         <v>7072453</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>47</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -818,16 +794,16 @@
         <v>7072454</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -836,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J4">
      